--- a/1.xlsx
+++ b/1.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
-    <t>kjhasf</t>
-  </si>
-  <si>
     <t>fs</t>
   </si>
   <si>
@@ -39,6 +36,9 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -359,44 +359,44 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>fs</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>gsdHGoi;xh</t>
   </si>
 </sst>
 </file>
@@ -359,14 +362,14 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>

--- a/1.xlsx
+++ b/1.xlsx
@@ -24,24 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>fs</t>
-  </si>
-  <si>
-    <t>fsd</t>
-  </si>
-  <si>
-    <t>fsdf</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>gsdHGoi;xh</t>
+    <t>rishabh</t>
   </si>
 </sst>
 </file>
@@ -359,47 +344,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -2,55 +2,1123 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\selde\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\NEXT DAY SHUTDOWN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="__bookmark_1">Sheet0!$A$1:$M$49</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>rishabh</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="336">
+  <si>
+    <t>STATE LOAD DESPATCH CENTRE 
+Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
+  </si>
+  <si>
+    <t>From Date:</t>
+  </si>
+  <si>
+    <t>Control Area :</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circle :  </t>
+  </si>
+  <si>
+    <t>S.NO.</t>
+  </si>
+  <si>
+    <t>APPLICATION DATE</t>
+  </si>
+  <si>
+    <t>REQ_ID</t>
+  </si>
+  <si>
+    <t>REQ TYPE</t>
+  </si>
+  <si>
+    <t>ELEMENT</t>
+  </si>
+  <si>
+    <t>SUBSTATION</t>
+  </si>
+  <si>
+    <t>CATEGORY TYPE</t>
+  </si>
+  <si>
+    <t>REASON FOR SHUT DOWN</t>
+  </si>
+  <si>
+    <t>PROPOSED START DATE &amp; TIME</t>
+  </si>
+  <si>
+    <t>PROPOSED STOP DATE &amp; TIME</t>
+  </si>
+  <si>
+    <t>Availing Officer Name &amp; Mob. No.</t>
+  </si>
+  <si>
+    <t>REMARK</t>
+  </si>
+  <si>
+    <t>MR2506/0089</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>132KV_132 kV Seoni-Amarwara</t>
+  </si>
+  <si>
+    <t>132KV_AMARWARA</t>
+  </si>
+  <si>
+    <t>NON-OCCM-MP</t>
+  </si>
+  <si>
+    <t>PID defective disc insulator replacement</t>
+  </si>
+  <si>
+    <t>06-06-2025 08:00:00</t>
+  </si>
+  <si>
+    <t>15-06-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>A.M.Shende</t>
+  </si>
+  <si>
+    <t>7587951136</t>
+  </si>
+  <si>
+    <t>MR2506/0238</t>
+  </si>
+  <si>
+    <t>220KV_160 MVA X- MER BBL</t>
+  </si>
+  <si>
+    <t>220KV_ASHOKNAGAR</t>
+  </si>
+  <si>
+    <t>NEUTRAL COPPER STRIP REPLACE</t>
+  </si>
+  <si>
+    <t>12-06-2025 11:00:00</t>
+  </si>
+  <si>
+    <t>12-06-2025 16:00:00</t>
+  </si>
+  <si>
+    <t>RAKESH SUMAN</t>
+  </si>
+  <si>
+    <t>9713958042</t>
+  </si>
+  <si>
+    <t>MR2506/0233</t>
+  </si>
+  <si>
+    <t>400KV_400/220/33KV 315MVA BHEL Transformer</t>
+  </si>
+  <si>
+    <t>400KV_BADNAWAR</t>
+  </si>
+  <si>
+    <t>Pre monsoon maintanance &amp; testing work</t>
+  </si>
+  <si>
+    <t>12-06-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>12-06-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>Er. Abhishek Verma</t>
+  </si>
+  <si>
+    <t>9340855901</t>
+  </si>
+  <si>
+    <t>MR2506/0232</t>
+  </si>
+  <si>
+    <t>132KV_132kV Baihar-Birsa Line</t>
+  </si>
+  <si>
+    <t>132KV_BAIHAR</t>
+  </si>
+  <si>
+    <t>Work for Replacement of PID Defective Disc &amp; TC</t>
+  </si>
+  <si>
+    <t>12-06-2025 10:00:00</t>
+  </si>
+  <si>
+    <t>12-06-2025 14:00:00</t>
+  </si>
+  <si>
+    <t>S.K. BHALADHARE</t>
+  </si>
+  <si>
+    <t>9425807264</t>
+  </si>
+  <si>
+    <t>MR2505/0038</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>132KV_20 MVA Emco-i</t>
+  </si>
+  <si>
+    <t>132KV_BARWANI</t>
+  </si>
+  <si>
+    <t>NON-OCCM-WR</t>
+  </si>
+  <si>
+    <t>augmentation of new 63 MVA transformer</t>
+  </si>
+  <si>
+    <t>03-05-2025 11:00:00</t>
+  </si>
+  <si>
+    <t>30-06-2025 19:00:00</t>
+  </si>
+  <si>
+    <t>vijay chand saiyam</t>
+  </si>
+  <si>
+    <t>9425820043</t>
+  </si>
+  <si>
+    <t>MR2506/0241</t>
+  </si>
+  <si>
+    <t>220KV_220 KV Bina-Sagar Ckt-1</t>
+  </si>
+  <si>
+    <t>400KV_BINA4</t>
+  </si>
+  <si>
+    <t>For line maintenance work</t>
+  </si>
+  <si>
+    <t>Sanjay Singh Thakur</t>
+  </si>
+  <si>
+    <t>9425806936</t>
+  </si>
+  <si>
+    <t>220KV_220 kV Bina-I/C III line</t>
+  </si>
+  <si>
+    <t>Premon-soon maintenance and TCH relay replacement</t>
+  </si>
+  <si>
+    <t>Er. Parmanand Namdeo</t>
+  </si>
+  <si>
+    <t>7587351092</t>
+  </si>
+  <si>
+    <t>MR2506/0242</t>
+  </si>
+  <si>
+    <t>220KV_220 KV BUDHNI PGCIL(ITARSI) 1ST CKT</t>
+  </si>
+  <si>
+    <t>220KV_BUDHNI</t>
+  </si>
+  <si>
+    <t>COMMISNING &amp; MAINTENANCE WORK DTPC</t>
+  </si>
+  <si>
+    <t>12-06-2025 17:00:00</t>
+  </si>
+  <si>
+    <t>S.P.S TOMAR SIR</t>
+  </si>
+  <si>
+    <t>9425801629</t>
+  </si>
+  <si>
+    <t>MR2506/0239</t>
+  </si>
+  <si>
+    <t>MR2506/0248</t>
+  </si>
+  <si>
+    <t>400KV_400Kv Chhegaon-Julwaniya Ckt-I</t>
+  </si>
+  <si>
+    <t>400KV_CHHEGAON4</t>
+  </si>
+  <si>
+    <t>For Auto Reclose Feature Relay Testing work</t>
+  </si>
+  <si>
+    <t>Shri Ganesh Mansare</t>
+  </si>
+  <si>
+    <t>9425802441</t>
+  </si>
+  <si>
+    <t>MR2506/0250</t>
+  </si>
+  <si>
+    <t>160MVA_220/132KV_BHEL_X'mer_2</t>
+  </si>
+  <si>
+    <t>220KV_CHHINDWARA</t>
+  </si>
+  <si>
+    <t>132KV INCOMER Y PHASE CT REPLACEMENT WORK.</t>
+  </si>
+  <si>
+    <t>A A QURESHI</t>
+  </si>
+  <si>
+    <t>9425804318</t>
+  </si>
+  <si>
+    <t>MR2504/0766</t>
+  </si>
+  <si>
+    <t>20MVA_132/33KV_BHEL_X'mer_4</t>
+  </si>
+  <si>
+    <t>220KV_DAMOH</t>
+  </si>
+  <si>
+    <t>OCCM-MP</t>
+  </si>
+  <si>
+    <t>augmantation of 20 MVA transformer by 63 mva trans</t>
+  </si>
+  <si>
+    <t>28-04-2025 14:00:00</t>
+  </si>
+  <si>
+    <t>30-06-2025 16:00:00</t>
+  </si>
+  <si>
+    <t>MK Choubey</t>
+  </si>
+  <si>
+    <t>8959559657</t>
+  </si>
+  <si>
+    <t>MR2506/0249</t>
+  </si>
+  <si>
+    <t>132KV_132 kV Shahdol-Dindori Circuit I</t>
+  </si>
+  <si>
+    <t>132KV_DINDORI</t>
+  </si>
+  <si>
+    <t>F/o disc stringing replacement &amp; other line maint.</t>
+  </si>
+  <si>
+    <t>Jitendra Tiwari</t>
+  </si>
+  <si>
+    <t>9425805298</t>
+  </si>
+  <si>
+    <t>MR2506/0246</t>
+  </si>
+  <si>
+    <t>220KV_160MVAX-MER -1 MAKE ALSTOM</t>
+  </si>
+  <si>
+    <t>220KV_GANJBASODA</t>
+  </si>
+  <si>
+    <t>LBB REALY TEASTING WORK</t>
+  </si>
+  <si>
+    <t>P VERMA</t>
+  </si>
+  <si>
+    <t>8253003873</t>
+  </si>
+  <si>
+    <t>MR2505/0133</t>
+  </si>
+  <si>
+    <t>160MVA_220/132KV_BHEL_X'mer_1</t>
+  </si>
+  <si>
+    <t>220KV_HANDIYA</t>
+  </si>
+  <si>
+    <t>for Replacement of Transformer</t>
+  </si>
+  <si>
+    <t>08-05-2025 10:00:00</t>
+  </si>
+  <si>
+    <t>08-07-2025 17:00:00</t>
+  </si>
+  <si>
+    <t>J.D.Khoria</t>
+  </si>
+  <si>
+    <t>9425804975</t>
+  </si>
+  <si>
+    <t>MR2506/0039</t>
+  </si>
+  <si>
+    <t>400KV_U#03</t>
+  </si>
+  <si>
+    <t>400KV_INDIRASAGAR</t>
+  </si>
+  <si>
+    <t>ANNUAL MAINTENANCE OF SAID  UNIT</t>
+  </si>
+  <si>
+    <t>03-06-2025 06:00:00</t>
+  </si>
+  <si>
+    <t>SHRI VINAI MISHRA</t>
+  </si>
+  <si>
+    <t>9575074321</t>
+  </si>
+  <si>
+    <t>MR2506/0146</t>
+  </si>
+  <si>
+    <t>220KV_220 kv NORTH ZONE - HATUNIYA CKT-1 LINE</t>
+  </si>
+  <si>
+    <t>220KV_INDORE NORTH</t>
+  </si>
+  <si>
+    <t>REPLACEMENT OF EXISTING E/W BY 24F OPGW</t>
+  </si>
+  <si>
+    <t>09-06-2025 07:00:00</t>
+  </si>
+  <si>
+    <t>18-06-2025 19:00:00</t>
+  </si>
+  <si>
+    <t>A.R. KANEL</t>
+  </si>
+  <si>
+    <t>9425805217</t>
+  </si>
+  <si>
+    <t>MR2506/0147</t>
+  </si>
+  <si>
+    <t>220KV_NORTH ZONE - HATUNIYA CKT-2 LINE</t>
+  </si>
+  <si>
+    <t>MR2506/0120</t>
+  </si>
+  <si>
+    <t>220KV_220KV North Zone â¿¿ Hatuniya (PGCIL) Ckt.-1 &amp; 2 Line</t>
+  </si>
+  <si>
+    <t>220KV_INDORE-NZ</t>
+  </si>
+  <si>
+    <t>E/W replacement work by 24 Fibre OPGW Wire</t>
+  </si>
+  <si>
+    <t>06-06-2025 07:00:00</t>
+  </si>
+  <si>
+    <t>15-06-2025 19:00:00</t>
+  </si>
+  <si>
+    <t>A.R.KANEL</t>
+  </si>
+  <si>
+    <t>MR2505/0647</t>
+  </si>
+  <si>
+    <t>220KV_220 Southzone - Jaitpura</t>
+  </si>
+  <si>
+    <t>220KV_INDORE-SZ</t>
+  </si>
+  <si>
+    <t>Hotline Work permit (PTW)</t>
+  </si>
+  <si>
+    <t>01-06-2025 07:00:00</t>
+  </si>
+  <si>
+    <t>9525805217</t>
+  </si>
+  <si>
+    <t>MR2505/0645</t>
+  </si>
+  <si>
+    <t>220KV_(20KV INDORE (400KV) - MAGLIYA LINE</t>
+  </si>
+  <si>
+    <t>400KV_INDORE4</t>
+  </si>
+  <si>
+    <t>Hotline work permit (PTW)</t>
+  </si>
+  <si>
+    <t>MR2505/0487</t>
+  </si>
+  <si>
+    <t>220KV_NARSINGHPUR-JABALPUR_Ckt_2</t>
+  </si>
+  <si>
+    <t>220KV_JABALPUR</t>
+  </si>
+  <si>
+    <t>BUNCHING OF 132KV JBP SHAHPURA WITH220 KV JBP NSP</t>
+  </si>
+  <si>
+    <t>26-05-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>20-06-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>RAJESH TIWARI</t>
+  </si>
+  <si>
+    <t>7898239595</t>
+  </si>
+  <si>
+    <t>MR2506/0244</t>
+  </si>
+  <si>
+    <t>400KV_500 MVA Transformer</t>
+  </si>
+  <si>
+    <t>400KV_JULWANIYA4</t>
+  </si>
+  <si>
+    <t>Relay replacement</t>
+  </si>
+  <si>
+    <t>12-06-2025 12:00:00</t>
+  </si>
+  <si>
+    <t>M. K. More</t>
+  </si>
+  <si>
+    <t>8817566466</t>
+  </si>
+  <si>
+    <t>400KV_KATNI4</t>
+  </si>
+  <si>
+    <t>09-06-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>14-06-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>MR2504/0337</t>
+  </si>
+  <si>
+    <t>400KV_400KV KATNI DAMOH</t>
+  </si>
+  <si>
+    <t>For Strenghtening  Continues work .</t>
+  </si>
+  <si>
+    <t>PANKAJ YADAV</t>
+  </si>
+  <si>
+    <t>9406713326</t>
+  </si>
+  <si>
+    <t>MR2504/0338</t>
+  </si>
+  <si>
+    <t>220KV_220KV KATNI DAMOH</t>
+  </si>
+  <si>
+    <t>MR2506/0254</t>
+  </si>
+  <si>
+    <t>400KV_125MVAR BUS Reactor</t>
+  </si>
+  <si>
+    <t>For Pre-Monsoon Maintenance work</t>
+  </si>
+  <si>
+    <t>SK chaturvedi</t>
+  </si>
+  <si>
+    <t>9425806938</t>
+  </si>
+  <si>
+    <t>MR2506/0253</t>
+  </si>
+  <si>
+    <t>400KV_400/132/33 KV 100 MVA X-MER No-01 BHEL</t>
+  </si>
+  <si>
+    <t>400KV_KIRNAPUR</t>
+  </si>
+  <si>
+    <t>For OLTC Oil filtration and Pre-monsoon maint.</t>
+  </si>
+  <si>
+    <t>12-06-2025 07:00:00</t>
+  </si>
+  <si>
+    <t>12-06-2025 20:00:00</t>
+  </si>
+  <si>
+    <t>D. S. Walkey</t>
+  </si>
+  <si>
+    <t>9425804578</t>
+  </si>
+  <si>
+    <t>MR2506/0200</t>
+  </si>
+  <si>
+    <t>132KV_132KV RCN Kothiya LIne</t>
+  </si>
+  <si>
+    <t>132KV_KOTHIYA</t>
+  </si>
+  <si>
+    <t>Testing of line CT/ PT, SF6 breaker maint. work</t>
+  </si>
+  <si>
+    <t>11-06-2025 19:00:00</t>
+  </si>
+  <si>
+    <t>12-06-2025 05:00:00</t>
+  </si>
+  <si>
+    <t>Anup Kumar Dange</t>
+  </si>
+  <si>
+    <t>9425814073</t>
+  </si>
+  <si>
+    <t>MR2506/0223</t>
+  </si>
+  <si>
+    <t>132KV_132/33 KV 50 MVA TAL X-MER</t>
+  </si>
+  <si>
+    <t>132KV_MADWAS</t>
+  </si>
+  <si>
+    <t>High Tan-Delta HV Neutral Bushing Replacement Work</t>
+  </si>
+  <si>
+    <t>12-06-2025 08:00:00</t>
+  </si>
+  <si>
+    <t>SHRI V. K. PANIKA</t>
+  </si>
+  <si>
+    <t>9425804643</t>
+  </si>
+  <si>
+    <t>MR2506/0124</t>
+  </si>
+  <si>
+    <t>132KV_20 MVA GEC X-MER</t>
+  </si>
+  <si>
+    <t>132KV_MANERI</t>
+  </si>
+  <si>
+    <t>Attending of heavy oil leakage of bushing &amp; OLTC</t>
+  </si>
+  <si>
+    <t>13-06-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>S.K.JAIN</t>
+  </si>
+  <si>
+    <t>9425801623</t>
+  </si>
+  <si>
+    <t>MR2506/0245</t>
+  </si>
+  <si>
+    <t>220KV_Nagda-Nagra ckt-2</t>
+  </si>
+  <si>
+    <t>400KV_NAGDA4</t>
+  </si>
+  <si>
+    <t>3 nos LA replacement work.</t>
+  </si>
+  <si>
+    <t>Sunil Bamniya</t>
+  </si>
+  <si>
+    <t>9425820045</t>
+  </si>
+  <si>
+    <t>MR2506/0257</t>
+  </si>
+  <si>
+    <t>220KV_220KV Narsinghpur -Sukha ckt-II</t>
+  </si>
+  <si>
+    <t>220KV_NARSINGHPUR</t>
+  </si>
+  <si>
+    <t>Hot point attending work of Y-phase CT Dro. jumper</t>
+  </si>
+  <si>
+    <t>Dinesh Kumar Kushwaha</t>
+  </si>
+  <si>
+    <t>9425182413</t>
+  </si>
+  <si>
+    <t>MR2506/0188</t>
+  </si>
+  <si>
+    <t>220KV_Generating Unit No. 06</t>
+  </si>
+  <si>
+    <t>220KV_OMKARESHWAR</t>
+  </si>
+  <si>
+    <t>Annual maintenance</t>
+  </si>
+  <si>
+    <t>10-06-2025 10:00:00</t>
+  </si>
+  <si>
+    <t>24-06-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>Sh. Pankaj Sharma</t>
+  </si>
+  <si>
+    <t>7898703187</t>
+  </si>
+  <si>
+    <t>MR2506/0235</t>
+  </si>
+  <si>
+    <t>160MVA_220/132KV_BHEL_X'mer_3</t>
+  </si>
+  <si>
+    <t>220KV_PITHAMPUR (SEC-III)</t>
+  </si>
+  <si>
+    <t>For TCH Relay Replacement Work</t>
+  </si>
+  <si>
+    <t>sh. Rajudas Bairagi</t>
+  </si>
+  <si>
+    <t>9425801532</t>
+  </si>
+  <si>
+    <t>400KV_400kV SSTPH-Pithampur Line Ckt-2</t>
+  </si>
+  <si>
+    <t>400KV_PITHAMPUR4</t>
+  </si>
+  <si>
+    <t>Tower Strengthening work</t>
+  </si>
+  <si>
+    <t>01-06-2025 08:00:00</t>
+  </si>
+  <si>
+    <t>30-06-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>Naresh Pandre</t>
+  </si>
+  <si>
+    <t>9425806905</t>
+  </si>
+  <si>
+    <t>MR2505/0173</t>
+  </si>
+  <si>
+    <t>MR2505/0172</t>
+  </si>
+  <si>
+    <t>400KV_400kVSSTPH-Pithampur Ckt-1</t>
+  </si>
+  <si>
+    <t>MR2506/0189</t>
+  </si>
+  <si>
+    <t>400KV_400KV Rajgarh PG -SSP Ckt-2</t>
+  </si>
+  <si>
+    <t>400KV_RAJGARH-PG</t>
+  </si>
+  <si>
+    <t>OCCM-WR</t>
+  </si>
+  <si>
+    <t>line maintinance work</t>
+  </si>
+  <si>
+    <t>V.R. Panadia</t>
+  </si>
+  <si>
+    <t>9425802330</t>
+  </si>
+  <si>
+    <t>MR2506/0234</t>
+  </si>
+  <si>
+    <t>400KV_400kv Sagar-Satna Lilo Line (PGCIL)</t>
+  </si>
+  <si>
+    <t>400KV_SAGAR</t>
+  </si>
+  <si>
+    <t>Line Maintenance work</t>
+  </si>
+  <si>
+    <t>J.P. Asati</t>
+  </si>
+  <si>
+    <t>9424445533</t>
+  </si>
+  <si>
+    <t>MR2506/0247</t>
+  </si>
+  <si>
+    <t>132KV_50 MVA BBL XMER</t>
+  </si>
+  <si>
+    <t>132KV_SAGAR1</t>
+  </si>
+  <si>
+    <t>HV AND LV NEUTRAL COPPER STRIP REPLACEMENT</t>
+  </si>
+  <si>
+    <t>SRAJAN SISODIYA</t>
+  </si>
+  <si>
+    <t>9425804341</t>
+  </si>
+  <si>
+    <t>220KV_SARNI</t>
+  </si>
+  <si>
+    <t>10-07-2025 17:00:00</t>
+  </si>
+  <si>
+    <t>9425801357</t>
+  </si>
+  <si>
+    <t>MR2505/0054</t>
+  </si>
+  <si>
+    <t>220KV_100 MVA X-mer Make CGL</t>
+  </si>
+  <si>
+    <t>X-mer Augmentation work by 160 MVA X-mer AREVA</t>
+  </si>
+  <si>
+    <t>05-05-2025 10:00:00</t>
+  </si>
+  <si>
+    <t>Er K.K. Choure</t>
+  </si>
+  <si>
+    <t>MR2506/0198</t>
+  </si>
+  <si>
+    <t>132KV_132kV Seoni Nainpur SC</t>
+  </si>
+  <si>
+    <t>132KV_SEONI1</t>
+  </si>
+  <si>
+    <t>Work for tightening J/C, A/H, V/D</t>
+  </si>
+  <si>
+    <t>S.K. Nadekar</t>
+  </si>
+  <si>
+    <t>9425806848</t>
+  </si>
+  <si>
+    <t>MR2506/0236</t>
+  </si>
+  <si>
+    <t>220KV_BHOPAL-I</t>
+  </si>
+  <si>
+    <t>220KV_SHUJALPUR</t>
+  </si>
+  <si>
+    <t>220 KV CT &amp; CVT tan delta testing work</t>
+  </si>
+  <si>
+    <t>Nitin Verma</t>
+  </si>
+  <si>
+    <t>9981559007</t>
+  </si>
+  <si>
+    <t>MR2506/0237</t>
+  </si>
+  <si>
+    <t>220KV_BHOPAL-II nd</t>
+  </si>
+  <si>
+    <t>12-06-2025 13:00:00</t>
+  </si>
+  <si>
+    <t>Nitin verma</t>
+  </si>
+  <si>
+    <t>MR2506/0259</t>
+  </si>
+  <si>
+    <t>220KV_220 KV Jabalpur no -1 DPR RELAY testing &amp;other related work</t>
+  </si>
+  <si>
+    <t>220KV_SUKHA</t>
+  </si>
+  <si>
+    <t>220 kv jabalpur no.1 DPR RELAY TESTING &amp;OTHER WORK</t>
+  </si>
+  <si>
+    <t>12-06-2025 00:00:00</t>
+  </si>
+  <si>
+    <t>13-06-2025 00:00:00</t>
+  </si>
+  <si>
+    <t>Ashish sonkeshariya</t>
+  </si>
+  <si>
+    <t>7587951153</t>
+  </si>
+  <si>
+    <t>MR2504/0478</t>
+  </si>
+  <si>
+    <t>132KV_132 kV Tikamgarh IC - 1st line</t>
+  </si>
+  <si>
+    <t>220KV_TIKAMGARH</t>
+  </si>
+  <si>
+    <t>OPGW Installation work</t>
+  </si>
+  <si>
+    <t>18-04-2025 07:00:00</t>
+  </si>
+  <si>
+    <t>19-06-2025 19:00:00</t>
+  </si>
+  <si>
+    <t>MPPTCL Chhatarpur</t>
+  </si>
+  <si>
+    <t>942580499</t>
+  </si>
+  <si>
+    <t>MR2504/0479</t>
+  </si>
+  <si>
+    <t>132KV_132 kV  Tikamgarh-Badamalhera line</t>
+  </si>
+  <si>
+    <t>Manoj Kumar Tiwari</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>ok, through sub ld</t>
+  </si>
+  <si>
+    <t>sub ld</t>
+  </si>
+  <si>
+    <t>as per system requirement</t>
+  </si>
+  <si>
+    <t>Deffered, not approved by WRPC</t>
+  </si>
+  <si>
+    <t>ok, line to be in service</t>
+  </si>
+  <si>
+    <t>Deffered by site</t>
+  </si>
+  <si>
+    <t>real time</t>
+  </si>
+  <si>
+    <t>ok, line to be in service through TBC</t>
+  </si>
+  <si>
+    <t>Deffered due to s/d on Kirnapur ICT</t>
+  </si>
+  <si>
+    <t>Deffered due to s/d on 160MVA x-merat Chhindwara</t>
+  </si>
+  <si>
+    <t>Deffered due to s/d on 400KV-SAGAR-SATNA ckt</t>
+  </si>
+  <si>
+    <t>ok, s/d to be completed on time</t>
+  </si>
+  <si>
+    <t>400KV-SAGAR-SATNA-1</t>
+  </si>
+  <si>
+    <t>400KV-SSP-RAJGARH-2</t>
+  </si>
+  <si>
+    <t>220KV-HOSHANGABAD-ITARSI-2</t>
+  </si>
+  <si>
+    <t>12-Jun-2025</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>MP_SLDC</t>
+  </si>
+  <si>
+    <t>FOR LINE MAINTENANCE WORK</t>
+  </si>
+  <si>
+    <t>FOR BAY MAINTENANCE &amp; TESTING WORK AT 220KV S/S HOSHANGABAD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-1010409]dd\-mm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-1010409]dd/mm/yyyy\ hh:mm"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -58,12 +1126,210 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -79,6 +1345,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>605333</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>555785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -98,7 +1413,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -110,7 +1425,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -157,6 +1472,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -192,6 +1524,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -344,20 +1693,2256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B1" sqref="B1:M52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="54" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="11.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11" style="4" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="48.42578125" style="31" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="26.5703125" style="31" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" ht="54" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" ht="54" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12">
+        <v>45820</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="24"/>
+    </row>
+    <row r="3" spans="1:13" ht="54" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="24"/>
+    </row>
+    <row r="4" spans="1:13" ht="54" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="54" customHeight="1">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14">
+        <v>45813.477349537039</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="54" customHeight="1">
+      <c r="A6" s="3">
+        <f>A5+1</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="14">
+        <v>45819.535914351851</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="54" customHeight="1">
+      <c r="A7" s="3">
+        <f t="shared" ref="A7:A61" si="0">A6+1</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="14">
+        <v>45819.481192129628</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="54" customHeight="1">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="14">
+        <v>45819.47729166667</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="54" customHeight="1">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="14">
+        <v>45779.578055555554</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="54" customHeight="1">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="14">
+        <v>45819.552268518521</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="54" customHeight="1">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="14">
+        <v>45819.570960648147</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="54" customHeight="1">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="14">
+        <v>45819.55190972222</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="54" customHeight="1">
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="14">
+        <v>45819.625868055555</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="54" customHeight="1">
+      <c r="A14" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="14">
+        <v>45819.639421296299</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="54" customHeight="1">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="14">
+        <v>45775.54515046296</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="54" customHeight="1">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="14">
+        <v>45819.634097222224</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="54" customHeight="1">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="14">
+        <v>45819.604039351849</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="54" customHeight="1">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="14">
+        <v>45784.637488425928</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="M18" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="54" customHeight="1">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="14">
+        <v>45810.717013888891</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="M19" s="25" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="54" customHeight="1">
+      <c r="A20" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="14">
+        <v>45815.663576388892</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="M20" s="25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="54" customHeight="1">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="14">
+        <v>45815.671284722222</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="M21" s="25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="54" customHeight="1">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="14">
+        <v>45813.77</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="M22" s="25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="54" customHeight="1">
+      <c r="A23" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="14">
+        <v>45808.616956018515</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M23" s="25" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="54" customHeight="1">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="14">
+        <v>45808.593680555554</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M24" s="25" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="54" customHeight="1">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="14">
+        <v>45800.776365740741</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M25" s="25" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="54" customHeight="1">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="14">
+        <v>45819.583877314813</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="M26" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="54" customHeight="1">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="14">
+        <v>45759.662615740737</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="M27" s="25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="54" customHeight="1">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="14">
+        <v>45759.667395833334</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="M28" s="25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="54" customHeight="1">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="14">
+        <v>45819.642372685186</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="M29" s="25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="54" customHeight="1">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="14">
+        <v>45819.642245370371</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="M30" s="25" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="54" customHeight="1">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="14">
+        <v>45818.433587962965</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="M31" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="54" customHeight="1">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="14">
+        <v>45818.665358796294</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="M32" s="25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="54" customHeight="1">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="14">
+        <v>45814.509375000001</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="M33" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="54" customHeight="1">
+      <c r="A34" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="14">
+        <v>45819.591956018521</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="M34" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="54" customHeight="1">
+      <c r="A35" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="14">
+        <v>45819.66810185185</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="M35" s="25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="54" customHeight="1">
+      <c r="A36" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="14">
+        <v>45817.665347222224</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="L36" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="M36" s="25" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="54" customHeight="1">
+      <c r="A37" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B37" s="14">
+        <v>45819.520567129628</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="M37" s="25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="54" customHeight="1">
+      <c r="A38" s="3">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B38" s="14">
+        <v>45785.713356481479</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="M38" s="25" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="54" customHeight="1">
+      <c r="A39" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B39" s="14">
+        <v>45785.706307870372</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="L39" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="M39" s="25" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="54" customHeight="1">
+      <c r="A40" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B40" s="14">
+        <v>45817.67292824074</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="L40" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="M40" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="54" customHeight="1">
+      <c r="A41" s="3">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B41" s="14">
+        <v>45819.510983796295</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="L41" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="M41" s="25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="54" customHeight="1">
+      <c r="A42" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B42" s="14">
+        <v>45819.620486111111</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="L42" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="M42" s="25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="54" customHeight="1">
+      <c r="A43" s="3">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B43" s="14">
+        <v>45780.480810185189</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="J43" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="L43" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="M43" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="54" customHeight="1">
+      <c r="A44" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B44" s="14">
+        <v>45817.708923611113</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="L44" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="M44" s="25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="54" customHeight="1">
+      <c r="A45" s="3">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B45" s="14">
+        <v>45819.531736111108</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="K45" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="L45" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="M45" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="54" customHeight="1">
+      <c r="A46" s="3">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B46" s="14">
+        <v>45819.534837962965</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="L46" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="M46" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="54" customHeight="1">
+      <c r="A47" s="6">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B47" s="18">
+        <v>45819.69599537037</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="K47" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="L47" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="M47" s="27" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="54" customHeight="1">
+      <c r="A48" s="7">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B48" s="22">
+        <v>45764.730162037034</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="I48" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="J48" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="M48" s="28" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="54" customHeight="1">
+      <c r="A49" s="7">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B49" s="22">
+        <v>45764.731828703705</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="I49" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="J49" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="M49" s="28" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="54" customHeight="1">
+      <c r="A50" s="7">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9">
+        <v>249964</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="F50" s="29">
+        <v>400</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="M50" s="32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="54" customHeight="1">
+      <c r="A51" s="7">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9">
+        <v>249965</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="F51" s="29">
+        <v>400</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="M51" s="32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="54" customHeight="1">
+      <c r="A52" s="7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="9">
+        <v>249991</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="F52" s="29">
+        <v>220</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="M52" s="32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="54" customHeight="1">
+      <c r="A53" s="7">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="30"/>
+    </row>
+    <row r="54" spans="1:13" ht="54" customHeight="1">
+      <c r="A54" s="7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="30"/>
+    </row>
+    <row r="55" spans="1:13" ht="54" customHeight="1">
+      <c r="A55" s="7">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="30"/>
+    </row>
+    <row r="56" spans="1:13" ht="54" customHeight="1">
+      <c r="A56" s="7">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="30"/>
+    </row>
+    <row r="57" spans="1:13" ht="54" customHeight="1">
+      <c r="A57" s="7">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="30"/>
+    </row>
+    <row r="58" spans="1:13" ht="54" customHeight="1">
+      <c r="A58" s="7">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="30"/>
+    </row>
+    <row r="59" spans="1:13" ht="54" customHeight="1">
+      <c r="A59" s="7">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="30"/>
+    </row>
+    <row r="60" spans="1:13" ht="54" customHeight="1">
+      <c r="A60" s="7">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="30"/>
+    </row>
+    <row r="61" spans="1:13" ht="54" customHeight="1">
+      <c r="A61" s="7">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="30"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="K4:L4"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -1457,7 +1457,7 @@
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -783,6 +783,57 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -792,59 +843,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1224,39 +1224,39 @@
     <col min="2" max="2" width="11.140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9" style="4" customWidth="1"/>
     <col min="4" max="4" width="11" style="4" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" style="26" customWidth="1"/>
-    <col min="6" max="6" width="38.28515625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" style="22" customWidth="1"/>
     <col min="7" max="7" width="11" style="4" customWidth="1"/>
-    <col min="8" max="8" width="48.42578125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="48.42578125" style="22" customWidth="1"/>
     <col min="9" max="10" width="11.42578125" style="4" customWidth="1"/>
     <col min="11" max="11" width="18.140625" style="4" customWidth="1"/>
     <col min="12" max="12" width="6.140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="34.5703125" style="26" customWidth="1"/>
+    <col min="13" max="13" width="34.5703125" style="22" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="10"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="8">
         <v>45870</v>
       </c>
       <c r="C2" s="1"/>
@@ -1307,16 +1307,16 @@
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="19" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="19" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -1325,11 +1325,11 @@
       <c r="J4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="23" t="s">
+      <c r="L4" s="27"/>
+      <c r="M4" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1337,38 +1337,38 @@
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="9">
         <v>45869.608773148146</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="19" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1377,38 +1377,38 @@
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="9">
         <v>45869.511458333334</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="19" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="19" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1417,38 +1417,38 @@
         <f t="shared" ref="A7:A28" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="9">
         <v>45869.513356481482</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="19" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="23" t="s">
+      <c r="M7" s="19" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1457,38 +1457,38 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="9">
         <v>45869.65351851852</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="19" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="23" t="s">
+      <c r="M8" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="9">
         <v>45867.454340277778</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1506,31 +1506,31 @@
       <c r="D9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="19" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="19" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="9">
         <v>45838.628634259258</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1548,31 +1548,31 @@
       <c r="D10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="19" t="s">
         <v>57</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="M10" s="19" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="9">
         <v>45838.662731481483</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1590,31 +1590,31 @@
       <c r="D11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="19" t="s">
         <v>57</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="19" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1623,38 +1623,38 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="9">
         <v>45869.586458333331</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="19" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="23" t="s">
+      <c r="M12" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1663,38 +1663,38 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="9">
         <v>45869.587916666664</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="19" t="s">
         <v>57</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="M13" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1703,38 +1703,38 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="9">
         <v>45869.646099537036</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="19" t="s">
         <v>77</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="23" t="s">
+      <c r="M14" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="9">
         <v>45865.591481481482</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1752,31 +1752,31 @@
       <c r="D15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="19" t="s">
         <v>84</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M15" s="23" t="s">
+      <c r="M15" s="19" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="9">
         <v>45862.516921296294</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1794,31 +1794,31 @@
       <c r="D16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="19" t="s">
         <v>92</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="L16" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="M16" s="19" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="9">
         <v>45867.457824074074</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1836,31 +1836,31 @@
       <c r="D17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="19" t="s">
         <v>99</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="L17" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M17" s="23" t="s">
+      <c r="M17" s="19" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="9">
         <v>45866.775208333333</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1878,28 +1878,28 @@
       <c r="D18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="19" t="s">
         <v>104</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="12" t="s">
         <v>108</v>
       </c>
       <c r="M18" s="2" t="s">
@@ -1911,7 +1911,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="9">
         <v>45860.695532407408</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1920,31 +1920,31 @@
       <c r="D19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="19" t="s">
         <v>111</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="M19" s="23" t="s">
+      <c r="M19" s="19" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="9">
         <v>45860.699131944442</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1962,31 +1962,31 @@
       <c r="D20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="19" t="s">
         <v>111</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="K20" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="L20" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="M20" s="23" t="s">
+      <c r="M20" s="19" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1995,35 +1995,35 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="9">
         <v>45869.58326388889</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="19" t="s">
         <v>121</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L21" s="12" t="s">
         <v>124</v>
       </c>
       <c r="M21" s="2" t="s">
@@ -2035,7 +2035,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="9">
         <v>45854.463414351849</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -2044,31 +2044,31 @@
       <c r="D22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="19" t="s">
         <v>128</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="K22" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="L22" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="M22" s="23" t="s">
+      <c r="M22" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="9">
         <v>45854.467291666668</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2086,31 +2086,31 @@
       <c r="D23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="19" t="s">
         <v>128</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="K23" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="L23" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="M23" s="23" t="s">
+      <c r="M23" s="19" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2119,38 +2119,38 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="9">
         <v>45868.530300925922</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>138</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="19" t="s">
         <v>140</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="14" t="s">
+      <c r="J24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="15" t="s">
+      <c r="K24" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="L24" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="M24" s="23" t="s">
+      <c r="M24" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="13">
         <v>45861.716319444444</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -2168,54 +2168,54 @@
       <c r="D25" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="20" t="s">
         <v>146</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="H25" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="J25" s="18" t="s">
+      <c r="J25" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="K25" s="19" t="s">
+      <c r="K25" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="M25" s="24" t="s">
+      <c r="M25" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21">
+      <c r="A26" s="17">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="22"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="7">
         <v>256958</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="25" t="s">
+      <c r="D26" s="18"/>
+      <c r="E26" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="21">
         <v>220</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="21" t="s">
         <v>172</v>
       </c>
       <c r="I26" s="7" t="s">
@@ -2230,30 +2230,30 @@
       <c r="L26" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="M26" s="28" t="s">
+      <c r="M26" s="24" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21">
+      <c r="A27" s="17">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="22"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="7">
         <v>257235</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="25" t="s">
+      <c r="D27" s="18"/>
+      <c r="E27" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="21">
         <v>220</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="H27" s="21" t="s">
         <v>173</v>
       </c>
       <c r="I27" s="7" t="s">
@@ -2268,30 +2268,30 @@
       <c r="L27" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="M27" s="28" t="s">
+      <c r="M27" s="24" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
+      <c r="A28" s="17">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="7">
         <v>259203</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="25" t="s">
+      <c r="D28" s="18"/>
+      <c r="E28" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="21">
         <v>132</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="21" t="s">
         <v>174</v>
       </c>
       <c r="I28" s="7" t="s">
@@ -2306,7 +2306,7 @@
       <c r="L28" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="M28" s="28" t="s">
+      <c r="M28" s="24" t="s">
         <v>152</v>
       </c>
     </row>

--- a/1.xlsx
+++ b/1.xlsx
@@ -1,41 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\NEXT DAY SHUTDOWN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__bookmark_1">Sheet0!$A$1:$M$14</definedName>
+    <definedName name="__bookmark_1">Sheet0!$A$1:$M$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="190">
   <si>
     <t>STATE LOAD DESPATCH CENTRE 
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
@@ -89,7 +76,61 @@
     <t>REMARK</t>
   </si>
   <si>
-    <t>MR2507/0453</t>
+    <t>MR2508/0120</t>
+  </si>
+  <si>
+    <t>400KV_Badnawar-Rajgarh (PGCIL)  CKT-2</t>
+  </si>
+  <si>
+    <t>400KV_BADNAWAR</t>
+  </si>
+  <si>
+    <t>OCCM-MP</t>
+  </si>
+  <si>
+    <t>for line maintenance work</t>
+  </si>
+  <si>
+    <t>11-08-2025 10:00:00</t>
+  </si>
+  <si>
+    <t>11-08-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>V.R. Panadia</t>
+  </si>
+  <si>
+    <t>9425802330</t>
+  </si>
+  <si>
+    <t>MR2508/0126</t>
+  </si>
+  <si>
+    <t>400KV_315 MVA Transformer MAKE BHEL</t>
+  </si>
+  <si>
+    <t>400KV_BINA4</t>
+  </si>
+  <si>
+    <t>NON-OCCM-MP</t>
+  </si>
+  <si>
+    <t>Testing for new tie C&amp;R panel</t>
+  </si>
+  <si>
+    <t>11-08-2025 00:00:00</t>
+  </si>
+  <si>
+    <t>11-08-2025 14:00:00</t>
+  </si>
+  <si>
+    <t>P.N. Namdeo</t>
+  </si>
+  <si>
+    <t>9039472058</t>
+  </si>
+  <si>
+    <t>MR2508/0131</t>
   </si>
   <si>
     <t>Daily</t>
@@ -101,78 +142,150 @@
     <t>220KV_INDORE-II (JETPURA)</t>
   </si>
   <si>
-    <t>NON-OCCM-MP</t>
-  </si>
-  <si>
     <t>replacement existing of 24 Fibre OPGW by 48 Fibre</t>
   </si>
   <si>
+    <t>11-08-2025 07:00:00</t>
+  </si>
+  <si>
+    <t>13-08-2025 19:00:00</t>
+  </si>
+  <si>
+    <t>A.R.KANEL</t>
+  </si>
+  <si>
+    <t>9425805217</t>
+  </si>
+  <si>
+    <t>MR2508/0123</t>
+  </si>
+  <si>
+    <t>220KV_220KV Itarsi-PGCIL No.1 Load Transfer Main CB to 220KV TBC</t>
+  </si>
+  <si>
+    <t>220KV_ITARSI</t>
+  </si>
+  <si>
+    <t>220KV PGCIL No.1 for DPR Relya Testing work</t>
+  </si>
+  <si>
+    <t>11-08-2025 17:00:00</t>
+  </si>
+  <si>
+    <t>J.K.Khoriya</t>
+  </si>
+  <si>
+    <t>9425804975</t>
+  </si>
+  <si>
+    <t>MR2508/0132</t>
+  </si>
+  <si>
+    <t>220KV_220kV Transfer Bus Coupler</t>
+  </si>
+  <si>
+    <t>400KV_JULWANIYA4</t>
+  </si>
+  <si>
+    <t>CTs tan delta measurement &amp; bay main.work</t>
+  </si>
+  <si>
+    <t>11-08-2025 15:00:00</t>
+  </si>
+  <si>
+    <t>Er. Mannalal Badole</t>
+  </si>
+  <si>
+    <t>9131865464</t>
+  </si>
+  <si>
+    <t>MR2506/0623</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>400KV_400KV KATNI - DAMOH LINE</t>
+  </si>
+  <si>
+    <t>400KV_KATNI4</t>
+  </si>
+  <si>
+    <t>TOWER STRENGTHENING WORK</t>
+  </si>
+  <si>
+    <t>11-08-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>16-08-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>PANKAJ YADAV</t>
+  </si>
+  <si>
+    <t>9406713326</t>
+  </si>
+  <si>
+    <t>MR2506/0632</t>
+  </si>
+  <si>
+    <t>220KV_220KV KATNI - DAMOH LINE</t>
+  </si>
+  <si>
+    <t>TOWER STRENTHENING WORK</t>
+  </si>
+  <si>
+    <t>MR2508/0125</t>
+  </si>
+  <si>
+    <t>400KV_400 KV auxiliary BUS</t>
+  </si>
+  <si>
+    <t>400KV_MANDSOUR4</t>
+  </si>
+  <si>
+    <t>New Bus section stringing</t>
+  </si>
+  <si>
+    <t>09-08-2025 16:00:00</t>
+  </si>
+  <si>
+    <t>jay prakash parmar</t>
+  </si>
+  <si>
+    <t>9425806919</t>
+  </si>
+  <si>
+    <t>MR2508/0130</t>
+  </si>
+  <si>
+    <t>220KV_220KV Indore (400KV) â¿¿ Mangliya Line</t>
+  </si>
+  <si>
+    <t>220KV_MANGLIA2</t>
+  </si>
+  <si>
+    <t>24 Fibre OPGW by 48 Fibre OPGW work</t>
+  </si>
+  <si>
+    <t>MR2507/0344</t>
+  </si>
+  <si>
+    <t>132KV_132 kV Nepa - Pipalpani MPPTCL Line</t>
+  </si>
+  <si>
+    <t>220KV_NEPANAGAR</t>
+  </si>
+  <si>
+    <t>NON-OCCM-WR</t>
+  </si>
+  <si>
+    <t>Hotline Work Installation of OPGW</t>
+  </si>
+  <si>
     <t>01-08-2025 07:00:00</t>
   </si>
   <si>
-    <t>10-08-2025 19:00:00</t>
-  </si>
-  <si>
-    <t>A.R.KANEL</t>
-  </si>
-  <si>
-    <t>9425805217</t>
-  </si>
-  <si>
-    <t>MR2508/0125</t>
-  </si>
-  <si>
-    <t>Continuous</t>
-  </si>
-  <si>
-    <t>400KV_400 KV auxiliary BUS</t>
-  </si>
-  <si>
-    <t>400KV_MANDSOUR4</t>
-  </si>
-  <si>
-    <t>New Bus section stringing</t>
-  </si>
-  <si>
-    <t>09-08-2025 16:00:00</t>
-  </si>
-  <si>
-    <t>11-08-2025 18:00:00</t>
-  </si>
-  <si>
-    <t>jay prakash parmar</t>
-  </si>
-  <si>
-    <t>9425806919</t>
-  </si>
-  <si>
-    <t>220KV_220KV Indore (400KV) â¿¿ Mangliya Line</t>
-  </si>
-  <si>
-    <t>220KV_MANGLIA2</t>
-  </si>
-  <si>
-    <t>MR2507/0454</t>
-  </si>
-  <si>
-    <t>for replacement existing of 24 Fibre OPGW by 48 Fi</t>
-  </si>
-  <si>
-    <t>MR2507/0344</t>
-  </si>
-  <si>
-    <t>132KV_132 kV Nepa - Pipalpani MPPTCL Line</t>
-  </si>
-  <si>
-    <t>220KV_NEPANAGAR</t>
-  </si>
-  <si>
-    <t>NON-OCCM-WR</t>
-  </si>
-  <si>
-    <t>Hotline Work Installation of OPGW</t>
-  </si>
-  <si>
     <t>25-08-2025 19:00:00</t>
   </si>
   <si>
@@ -191,22 +304,19 @@
     <t>Hotline Work For Installatin of OPGW</t>
   </si>
   <si>
-    <t>MR2508/0124</t>
-  </si>
-  <si>
-    <t>132KV_132KV Rajmilan-Waidhan ckt</t>
+    <t>MR2508/0134</t>
+  </si>
+  <si>
+    <t>132KV_132KV RAJMILAN-JANAKPUR (CGPTCL) CKT</t>
   </si>
   <si>
     <t>132KV_RAJMILAN</t>
   </si>
   <si>
-    <t>Flash over disc replacemaent</t>
-  </si>
-  <si>
-    <t>10-08-2025 11:00:00</t>
-  </si>
-  <si>
-    <t>10-08-2025 16:00:00</t>
+    <t>Tower Erection work</t>
+  </si>
+  <si>
+    <t>11-08-2025 08:00:00</t>
   </si>
   <si>
     <t>G.L SAHU</t>
@@ -215,6 +325,72 @@
     <t>9425805102</t>
   </si>
   <si>
+    <t>MR2508/0135</t>
+  </si>
+  <si>
+    <t>132KV_132KV Rajmilan-Dongrital ckt</t>
+  </si>
+  <si>
+    <t>MR2508/0128</t>
+  </si>
+  <si>
+    <t>132KV_132KV Main Bus</t>
+  </si>
+  <si>
+    <t>132KV_SATNA1</t>
+  </si>
+  <si>
+    <t>Connecting the main bus isolator jumper</t>
+  </si>
+  <si>
+    <t>11-08-2025 11:00:00</t>
+  </si>
+  <si>
+    <t>Er. Vishal baladhare</t>
+  </si>
+  <si>
+    <t>9425804690</t>
+  </si>
+  <si>
+    <t>MR2508/0122</t>
+  </si>
+  <si>
+    <t>400KV_50 MVA Station Transformer #11</t>
+  </si>
+  <si>
+    <t>400KV_SATPURA TPS</t>
+  </si>
+  <si>
+    <t>For testing of transformer, bay equipment &amp; P Rela</t>
+  </si>
+  <si>
+    <t>14-08-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>YASHWANT WARATHE</t>
+  </si>
+  <si>
+    <t>9752778063</t>
+  </si>
+  <si>
+    <t>MR2508/0129</t>
+  </si>
+  <si>
+    <t>220KV_220KV PGCILCKT-1</t>
+  </si>
+  <si>
+    <t>220KV_SEONI</t>
+  </si>
+  <si>
+    <t>22okv Aux.bus isolator alignment</t>
+  </si>
+  <si>
+    <t>Shri C.S.Sanodiya</t>
+  </si>
+  <si>
+    <t>9009798506</t>
+  </si>
+  <si>
     <t>MR2508/0107</t>
   </si>
   <si>
@@ -251,6 +427,15 @@
     <t>09-08-2025 09:00:00</t>
   </si>
   <si>
+    <t>MR2508/0133</t>
+  </si>
+  <si>
+    <t>220KV_SIDHI</t>
+  </si>
+  <si>
+    <t>line maintenance work.</t>
+  </si>
+  <si>
     <t>MR2507/0376</t>
   </si>
   <si>
@@ -284,25 +469,130 @@
     <t>04-08-2025 09:00:00</t>
   </si>
   <si>
-    <t xml:space="preserve">ok, line to be in service </t>
+    <t>MR2508/0118</t>
+  </si>
+  <si>
+    <t>400KV_400 KV UJJAIN-INDORE PGCIL CKT IST</t>
+  </si>
+  <si>
+    <t>400KV_UJJAIN4</t>
+  </si>
+  <si>
+    <t>OCCM-WR</t>
+  </si>
+  <si>
+    <t>Bay maintenance and testing work</t>
+  </si>
+  <si>
+    <t>Santosh Chavrasiya</t>
+  </si>
+  <si>
+    <t>9425804677</t>
+  </si>
+  <si>
+    <t>MR2508/0127</t>
+  </si>
+  <si>
+    <t>400KV_400kV Ujjain Hathuniya PGCIL ckt 1</t>
+  </si>
+  <si>
+    <t>K Sachindra</t>
+  </si>
+  <si>
+    <t>7415651054</t>
   </si>
   <si>
     <t>ok, through sub ld</t>
   </si>
   <si>
-    <t xml:space="preserve">sub ld </t>
+    <t>ok, line to be in service</t>
+  </si>
+  <si>
+    <t>ok, line to be in service through TBC</t>
+  </si>
+  <si>
+    <t>Deffered</t>
+  </si>
+  <si>
+    <t>sub ld</t>
+  </si>
+  <si>
+    <t>other supply shall be available</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t xml:space="preserve">continuous </t>
+    <t>132KV_132KV SIDHI-MAUGANJ CKT-I</t>
+  </si>
+  <si>
+    <t>as opportunity s/d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments of T&amp;C required </t>
+  </si>
+  <si>
+    <t>APPROVED OUTAGE LIST FOR DATED 11.08.2025</t>
+  </si>
+  <si>
+    <t>DAMOH - 400KV - BUS 1</t>
+  </si>
+  <si>
+    <t>POWERGRID-WR2 (PGCIL)</t>
+  </si>
+  <si>
+    <t>11-Aug-2025</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMP of Bus-I </t>
+  </si>
+  <si>
+    <t>400KV-INDORE-UJJAIN-1</t>
+  </si>
+  <si>
+    <t>MADHYA PRADESH</t>
+  </si>
+  <si>
+    <t>FOR BAY MAINTENANCE &amp; TESTING WORK AT 400KV S/S UJJAIN</t>
+  </si>
+  <si>
+    <t>400KV-BADNAWAR-RAJGARH-2</t>
+  </si>
+  <si>
+    <t>POWERGRID-WR2 (PGCIL),MADHYA PRADESH,GUJARAT</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>FOR LINE MAINTENANCE WORK</t>
+  </si>
+  <si>
+    <t>220KV-SEONI-MP-SEONI-PG-1</t>
+  </si>
+  <si>
+    <t>132KV-DHARNI-NEPANAGAR-1</t>
+  </si>
+  <si>
+    <t>MAHARASHTRA</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>18:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A/R off required for OPGW installation work of 24/48 core OPGW by replacing E/W for implementation of OPGW based reliable communication scheme</t>
   </si>
   <si>
     <t>S/I SLDC JABALPUR</t>
-  </si>
-  <si>
-    <t>APPROVED OUTAGE LIST FOR DATED 10.08.2025</t>
   </si>
 </sst>
 </file>
@@ -313,11 +603,11 @@
     <numFmt numFmtId="164" formatCode="[$-1010409]dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-1010409]dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -344,20 +634,27 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="26"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,12 +668,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -486,11 +795,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -515,6 +861,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -524,6 +885,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -539,18 +918,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,17 +961,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>605333</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>319</xdr:rowOff>
+      <xdr:rowOff>3335</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -629,39 +1002,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -694,26 +1067,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -746,23 +1102,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -824,6 +1163,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -832,13 +1178,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -903,31 +1242,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -935,64 +1254,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="48.125" customWidth="1"/>
-    <col min="6" max="6" width="28.625" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
-    <col min="8" max="8" width="47" customWidth="1"/>
-    <col min="9" max="10" width="19.5" customWidth="1"/>
-    <col min="11" max="11" width="18.125" customWidth="1"/>
-    <col min="12" max="12" width="12.125" customWidth="1"/>
-    <col min="13" max="13" width="32.25" customWidth="1"/>
+    <col min="5" max="5" width="59" style="12" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="46.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="44.28515625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="43.7" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="11"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13" ht="42" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>45879</v>
+        <v>45880</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
+      <c r="E2" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" ht="42" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -1007,7 +1330,7 @@
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1015,7 +1338,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" ht="42" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -1030,7 +1353,7 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -1048,282 +1371,282 @@
       <c r="J4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="3" t="s">
+      <c r="L4" s="16"/>
+      <c r="M4" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="40.5" customHeight="1">
+    <row r="5" spans="1:13" ht="37.5" customHeight="1">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="5">
-        <v>45867.454340277778</v>
+        <v>45877.660324074073</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A6" s="4">
+        <f>A5+1</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>45879.420752314814</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="40.5" customHeight="1">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5">
-        <v>45878.635578703703</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="M6" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A7" s="4">
+        <f t="shared" ref="A7:A32" si="0">A6+1</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45879.57675925926</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="40.5" customHeight="1">
-      <c r="A7" s="4">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5">
-        <v>45867.457824074074</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="40.5" customHeight="1">
+        <v>43</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="37.5" customHeight="1">
       <c r="A8" s="4">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="5">
-        <v>45860.695532407408</v>
+        <v>45878.492303240739</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="40.5" customHeight="1">
+        <v>50</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="37.5" customHeight="1">
       <c r="A9" s="4">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="5">
-        <v>45860.699131944442</v>
+        <v>45879.638611111113</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="40.5" customHeight="1">
+        <v>57</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="37.5" customHeight="1">
       <c r="A10" s="4">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="5">
-        <v>45878.604247685187</v>
+        <v>45838.637094907404</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="40.5" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="37.5" customHeight="1">
       <c r="A11" s="4">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="5">
-        <v>45876.555324074077</v>
+        <v>45838.670914351853</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>60</v>
+      <c r="E11" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>61</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>63</v>
@@ -1337,155 +1660,865 @@
       <c r="L11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>45878.635578703703</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="5">
+        <v>45879.573807870373</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="5">
+        <v>45860.695532407408</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="40.5" customHeight="1">
-      <c r="A12" s="4">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5">
+      <c r="J14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="5">
+        <v>45860.699131944442</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="5">
+        <v>45879.739664351851</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="5">
+        <v>45879.743518518517</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45879.5547337963</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="5">
+        <v>45877.816423611112</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="5">
+        <v>45879.571504629632</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="5">
+        <v>45876.555324074077</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="5">
         <v>45877.670740740738</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="5">
+        <v>45879.678611111114</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="5">
+        <v>45861.732905092591</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="5">
+        <v>45870.783090277779</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="5">
+        <v>45877.620763888888</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A27" s="24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="25">
+        <v>45879.513935185183</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="L27" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="60">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" s="29"/>
+      <c r="H28" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="K28" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="M28" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="24">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="29"/>
+      <c r="H29" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="L29" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="M29" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="30">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="29"/>
+      <c r="H30" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="L30" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="M30" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="45">
+      <c r="A31" s="24">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="29"/>
+      <c r="H31" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="M31" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="4">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="40.5" customHeight="1">
-      <c r="A13" s="4">
-        <v>9</v>
-      </c>
-      <c r="B13" s="5">
-        <v>45861.732905092591</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="40.5" customHeight="1">
-      <c r="A14" s="13">
-        <v>10</v>
-      </c>
-      <c r="B14" s="14">
-        <v>45870.783090277779</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="19" t="s">
-        <v>87</v>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="29"/>
+      <c r="H32" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="L32" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="M32" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="30"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="33" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="E2:I2"/>
+    <mergeCell ref="A33:L33"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -1,28 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\NEXT DAY SHUTDOWN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__bookmark_1">Sheet0!$A$1:$M$27</definedName>
+    <definedName name="__bookmark_1">Sheet0!$A$1:$M$26</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="182">
   <si>
     <t>STATE LOAD DESPATCH CENTRE 
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
@@ -76,141 +87,177 @@
     <t>REMARK</t>
   </si>
   <si>
-    <t>MR2508/0120</t>
-  </si>
-  <si>
-    <t>400KV_Badnawar-Rajgarh (PGCIL)  CKT-2</t>
-  </si>
-  <si>
-    <t>400KV_BADNAWAR</t>
+    <t>MR2508/0144</t>
+  </si>
+  <si>
+    <t>132KV_132 kV Anuppur-Kotma Circuit I</t>
+  </si>
+  <si>
+    <t>220KV_ANUPPUR</t>
+  </si>
+  <si>
+    <t>NON-OCCM-MP</t>
+  </si>
+  <si>
+    <t>For Broken disc replacement &amp; other line maintanan</t>
+  </si>
+  <si>
+    <t>12-08-2025 10:00:00</t>
+  </si>
+  <si>
+    <t>12-08-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>Jitendra Tiwari</t>
+  </si>
+  <si>
+    <t>9425805298</t>
+  </si>
+  <si>
+    <t>MR2508/0103</t>
+  </si>
+  <si>
+    <t>400KV_315 mva x-mer-3</t>
+  </si>
+  <si>
+    <t>400KV_BHOPAL4</t>
+  </si>
+  <si>
+    <t>To attend DC leakage</t>
+  </si>
+  <si>
+    <t>AKRAM KHAN</t>
+  </si>
+  <si>
+    <t>9425804695</t>
+  </si>
+  <si>
+    <t>MR2508/0141</t>
+  </si>
+  <si>
+    <t>400KV_400KV Auxilary bus &amp; 400KV bus transfer</t>
+  </si>
+  <si>
+    <t>400KV_CHHEGAON4</t>
+  </si>
+  <si>
+    <t>400KV Bus Transfer isolator spider replacement</t>
+  </si>
+  <si>
+    <t>12-08-2025 10:30:00</t>
+  </si>
+  <si>
+    <t>Shri Ganesh Mansare</t>
+  </si>
+  <si>
+    <t>9425802441</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>132KV_132kv 50mva bbl-make transformer</t>
+  </si>
+  <si>
+    <t>132KV_DIGODA</t>
+  </si>
+  <si>
+    <t>Air, cell of main-conservator tank charged by bbl</t>
+  </si>
+  <si>
+    <t>13-08-2025 07:00:00</t>
+  </si>
+  <si>
+    <t>Pushpendra kumar soni</t>
+  </si>
+  <si>
+    <t>9425806398</t>
+  </si>
+  <si>
+    <t>MR2508/0143</t>
+  </si>
+  <si>
+    <t>MR2508/0131</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>220KV_220KV South Zone - Jaitpura Line.</t>
+  </si>
+  <si>
+    <t>220KV_INDORE-II (JETPURA)</t>
+  </si>
+  <si>
+    <t>replacement existing of 24 Fibre OPGW by 48 Fibre</t>
+  </si>
+  <si>
+    <t>11-08-2025 07:00:00</t>
+  </si>
+  <si>
+    <t>13-08-2025 19:00:00</t>
+  </si>
+  <si>
+    <t>A.R.KANEL</t>
+  </si>
+  <si>
+    <t>9425805217</t>
+  </si>
+  <si>
+    <t>MR2508/0139</t>
+  </si>
+  <si>
+    <t>400KV_400 KV TBC Bay</t>
+  </si>
+  <si>
+    <t>400KV_JULWANIYA4</t>
+  </si>
+  <si>
+    <t>for CT Tan delta measurement</t>
+  </si>
+  <si>
+    <t>12-08-2025 15:00:00</t>
+  </si>
+  <si>
+    <t>ER. Ravindra Patil</t>
+  </si>
+  <si>
+    <t>8305612190</t>
+  </si>
+  <si>
+    <t>MR2508/0150</t>
+  </si>
+  <si>
+    <t>33KV_33 kv  Main bus</t>
+  </si>
+  <si>
+    <t>132KV_KATANGI_JBP</t>
+  </si>
+  <si>
+    <t>Hot point attend and maintenance work</t>
+  </si>
+  <si>
+    <t>12-08-2025 14:00:00</t>
+  </si>
+  <si>
+    <t>A.K. Pandey</t>
+  </si>
+  <si>
+    <t>9424645081</t>
+  </si>
+  <si>
+    <t>MR2506/0623</t>
+  </si>
+  <si>
+    <t>400KV_400KV KATNI - DAMOH LINE</t>
+  </si>
+  <si>
+    <t>400KV_KATNI4</t>
   </si>
   <si>
     <t>OCCM-MP</t>
   </si>
   <si>
-    <t>for line maintenance work</t>
-  </si>
-  <si>
-    <t>11-08-2025 10:00:00</t>
-  </si>
-  <si>
-    <t>11-08-2025 18:00:00</t>
-  </si>
-  <si>
-    <t>V.R. Panadia</t>
-  </si>
-  <si>
-    <t>9425802330</t>
-  </si>
-  <si>
-    <t>MR2508/0126</t>
-  </si>
-  <si>
-    <t>400KV_315 MVA Transformer MAKE BHEL</t>
-  </si>
-  <si>
-    <t>400KV_BINA4</t>
-  </si>
-  <si>
-    <t>NON-OCCM-MP</t>
-  </si>
-  <si>
-    <t>Testing for new tie C&amp;R panel</t>
-  </si>
-  <si>
-    <t>11-08-2025 00:00:00</t>
-  </si>
-  <si>
-    <t>11-08-2025 14:00:00</t>
-  </si>
-  <si>
-    <t>P.N. Namdeo</t>
-  </si>
-  <si>
-    <t>9039472058</t>
-  </si>
-  <si>
-    <t>MR2508/0131</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>220KV_220KV South Zone - Jaitpura Line.</t>
-  </si>
-  <si>
-    <t>220KV_INDORE-II (JETPURA)</t>
-  </si>
-  <si>
-    <t>replacement existing of 24 Fibre OPGW by 48 Fibre</t>
-  </si>
-  <si>
-    <t>11-08-2025 07:00:00</t>
-  </si>
-  <si>
-    <t>13-08-2025 19:00:00</t>
-  </si>
-  <si>
-    <t>A.R.KANEL</t>
-  </si>
-  <si>
-    <t>9425805217</t>
-  </si>
-  <si>
-    <t>MR2508/0123</t>
-  </si>
-  <si>
-    <t>220KV_220KV Itarsi-PGCIL No.1 Load Transfer Main CB to 220KV TBC</t>
-  </si>
-  <si>
-    <t>220KV_ITARSI</t>
-  </si>
-  <si>
-    <t>220KV PGCIL No.1 for DPR Relya Testing work</t>
-  </si>
-  <si>
-    <t>11-08-2025 17:00:00</t>
-  </si>
-  <si>
-    <t>J.K.Khoriya</t>
-  </si>
-  <si>
-    <t>9425804975</t>
-  </si>
-  <si>
-    <t>MR2508/0132</t>
-  </si>
-  <si>
-    <t>220KV_220kV Transfer Bus Coupler</t>
-  </si>
-  <si>
-    <t>400KV_JULWANIYA4</t>
-  </si>
-  <si>
-    <t>CTs tan delta measurement &amp; bay main.work</t>
-  </si>
-  <si>
-    <t>11-08-2025 15:00:00</t>
-  </si>
-  <si>
-    <t>Er. Mannalal Badole</t>
-  </si>
-  <si>
-    <t>9131865464</t>
-  </si>
-  <si>
-    <t>MR2506/0623</t>
-  </si>
-  <si>
-    <t>Continuous</t>
-  </si>
-  <si>
-    <t>400KV_400KV KATNI - DAMOH LINE</t>
-  </si>
-  <si>
-    <t>400KV_KATNI4</t>
-  </si>
-  <si>
     <t>TOWER STRENGTHENING WORK</t>
   </si>
   <si>
@@ -235,27 +282,6 @@
     <t>TOWER STRENTHENING WORK</t>
   </si>
   <si>
-    <t>MR2508/0125</t>
-  </si>
-  <si>
-    <t>400KV_400 KV auxiliary BUS</t>
-  </si>
-  <si>
-    <t>400KV_MANDSOUR4</t>
-  </si>
-  <si>
-    <t>New Bus section stringing</t>
-  </si>
-  <si>
-    <t>09-08-2025 16:00:00</t>
-  </si>
-  <si>
-    <t>jay prakash parmar</t>
-  </si>
-  <si>
-    <t>9425806919</t>
-  </si>
-  <si>
     <t>MR2508/0130</t>
   </si>
   <si>
@@ -268,6 +294,30 @@
     <t>24 Fibre OPGW by 48 Fibre OPGW work</t>
   </si>
   <si>
+    <t>MR2508/0147</t>
+  </si>
+  <si>
+    <t>220KV_220 KV NARSINGHPUR-PIPARIYA LINE</t>
+  </si>
+  <si>
+    <t>220KV_NARSINGHPUR</t>
+  </si>
+  <si>
+    <t>HOT POINT ATTENDING WORK R PHASE ISOLATOR CLAMP</t>
+  </si>
+  <si>
+    <t>12-08-2025 13:00:00</t>
+  </si>
+  <si>
+    <t>12-08-2025 16:00:00</t>
+  </si>
+  <si>
+    <t>DINESH KUSHWAHA</t>
+  </si>
+  <si>
+    <t>9425182413</t>
+  </si>
+  <si>
     <t>MR2507/0344</t>
   </si>
   <si>
@@ -304,6 +354,24 @@
     <t>Hotline Work For Installatin of OPGW</t>
   </si>
   <si>
+    <t>MR2508/0140</t>
+  </si>
+  <si>
+    <t>220KV_220 KV INTER CONNECTOR-1 LINE</t>
+  </si>
+  <si>
+    <t>220KV_PITHAMPUR (SEC-III)</t>
+  </si>
+  <si>
+    <t>CT TEN DELTA MESSURMENT WORK</t>
+  </si>
+  <si>
+    <t>R.D.BAIRAGI</t>
+  </si>
+  <si>
+    <t>9425801532</t>
+  </si>
+  <si>
     <t>MR2508/0134</t>
   </si>
   <si>
@@ -331,25 +399,25 @@
     <t>132KV_132KV Rajmilan-Dongrital ckt</t>
   </si>
   <si>
-    <t>MR2508/0128</t>
-  </si>
-  <si>
-    <t>132KV_132KV Main Bus</t>
-  </si>
-  <si>
-    <t>132KV_SATNA1</t>
-  </si>
-  <si>
-    <t>Connecting the main bus isolator jumper</t>
-  </si>
-  <si>
-    <t>11-08-2025 11:00:00</t>
-  </si>
-  <si>
-    <t>Er. Vishal baladhare</t>
-  </si>
-  <si>
-    <t>9425804690</t>
+    <t>MR2508/0148</t>
+  </si>
+  <si>
+    <t>220KV_220 KV Rewa-Rewa (RUMS) Ckt-1 line</t>
+  </si>
+  <si>
+    <t>220KV_REWA</t>
+  </si>
+  <si>
+    <t>installation of broken OPGW</t>
+  </si>
+  <si>
+    <t>12-08-2025 08:00:00</t>
+  </si>
+  <si>
+    <t>Mr. Ajay Kumar Chourasia</t>
+  </si>
+  <si>
+    <t>9425805081</t>
   </si>
   <si>
     <t>MR2508/0122</t>
@@ -373,24 +441,6 @@
     <t>9752778063</t>
   </si>
   <si>
-    <t>MR2508/0129</t>
-  </si>
-  <si>
-    <t>220KV_220KV PGCILCKT-1</t>
-  </si>
-  <si>
-    <t>220KV_SEONI</t>
-  </si>
-  <si>
-    <t>22okv Aux.bus isolator alignment</t>
-  </si>
-  <si>
-    <t>Shri C.S.Sanodiya</t>
-  </si>
-  <si>
-    <t>9009798506</t>
-  </si>
-  <si>
     <t>MR2508/0107</t>
   </si>
   <si>
@@ -427,79 +477,31 @@
     <t>09-08-2025 09:00:00</t>
   </si>
   <si>
-    <t>MR2508/0133</t>
+    <t>MR2508/0149</t>
+  </si>
+  <si>
+    <t>220KV_220 KV Sidhi-Rewa (RUMS) Ckt-1</t>
   </si>
   <si>
     <t>220KV_SIDHI</t>
   </si>
   <si>
-    <t>line maintenance work.</t>
-  </si>
-  <si>
-    <t>MR2507/0376</t>
-  </si>
-  <si>
-    <t>400KV_Interconnecting Transformer-II 400KV/220KV</t>
-  </si>
-  <si>
-    <t>400KV_SINGHAJI TPS</t>
-  </si>
-  <si>
-    <t>Overhauling work of ICT-II</t>
-  </si>
-  <si>
-    <t>04-08-2025 09:30:00</t>
-  </si>
-  <si>
-    <t>Yogesh Chouhan</t>
-  </si>
-  <si>
-    <t>7999328631</t>
-  </si>
-  <si>
-    <t>MR2508/0015</t>
-  </si>
-  <si>
-    <t>400KV_90 MVA STATION TRANSFORMER-2</t>
-  </si>
-  <si>
-    <t>Overhauling work of Station Transformer-2</t>
-  </si>
-  <si>
-    <t>04-08-2025 09:00:00</t>
-  </si>
-  <si>
-    <t>MR2508/0118</t>
-  </si>
-  <si>
-    <t>400KV_400 KV UJJAIN-INDORE PGCIL CKT IST</t>
-  </si>
-  <si>
-    <t>400KV_UJJAIN4</t>
-  </si>
-  <si>
-    <t>OCCM-WR</t>
-  </si>
-  <si>
-    <t>Bay maintenance and testing work</t>
-  </si>
-  <si>
-    <t>Santosh Chavrasiya</t>
-  </si>
-  <si>
-    <t>9425804677</t>
-  </si>
-  <si>
-    <t>MR2508/0127</t>
-  </si>
-  <si>
-    <t>400KV_400kV Ujjain Hathuniya PGCIL ckt 1</t>
-  </si>
-  <si>
-    <t>K Sachindra</t>
-  </si>
-  <si>
-    <t>7415651054</t>
+    <t>for installation of broken OPGW</t>
+  </si>
+  <si>
+    <t>MR2508/0151</t>
+  </si>
+  <si>
+    <t>132KV_132KV SIDHI-MAUGANJ CKT-II</t>
+  </si>
+  <si>
+    <t>Disc flash over replacement</t>
+  </si>
+  <si>
+    <t>12-08-2025 17:00:00</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>ok, through sub ld</t>
@@ -508,91 +510,76 @@
     <t>ok, line to be in service</t>
   </si>
   <si>
-    <t>ok, line to be in service through TBC</t>
-  </si>
-  <si>
     <t>Deffered</t>
   </si>
   <si>
     <t>sub ld</t>
   </si>
   <si>
-    <t>other supply shall be available</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>132KV_132KV SIDHI-MAUGANJ CKT-I</t>
-  </si>
-  <si>
-    <t>as opportunity s/d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comments of T&amp;C required </t>
-  </si>
-  <si>
-    <t>APPROVED OUTAGE LIST FOR DATED 11.08.2025</t>
-  </si>
-  <si>
-    <t>DAMOH - 400KV - BUS 1</t>
-  </si>
-  <si>
-    <t>POWERGRID-WR2 (PGCIL)</t>
-  </si>
-  <si>
-    <t>11-Aug-2025</t>
+    <t>ok, for x-mers</t>
+  </si>
+  <si>
+    <t>real time</t>
+  </si>
+  <si>
+    <t>send emergency proposal to WRLDC for approval</t>
+  </si>
+  <si>
+    <t>ok, line will be normalised in the present configuration , SLDC CG to be informed</t>
+  </si>
+  <si>
+    <t>ok, line will be normalised in the present configuration</t>
+  </si>
+  <si>
+    <t>220KV-BETUL-SARNI-1</t>
+  </si>
+  <si>
+    <t>220KV-KHANDWA-OMKARESHWAR-1</t>
+  </si>
+  <si>
+    <t>132KV-DHARNI-NEPANAGAR-1</t>
+  </si>
+  <si>
+    <t>FOR LINE MAINTENANCE WORK</t>
+  </si>
+  <si>
+    <t>A/R off required for OPGW installation work of 24/48 core OPGW by replacing E/W for implementation of OPGW based reliable communication scheme</t>
+  </si>
+  <si>
+    <t>MP_SLDC</t>
+  </si>
+  <si>
+    <t>12-Aug-2025</t>
   </si>
   <si>
     <t>09:00</t>
   </si>
   <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
     <t>18:00</t>
   </si>
   <si>
-    <t xml:space="preserve">AMP of Bus-I </t>
-  </si>
-  <si>
-    <t>400KV-INDORE-UJJAIN-1</t>
-  </si>
-  <si>
-    <t>MADHYA PRADESH</t>
-  </si>
-  <si>
-    <t>FOR BAY MAINTENANCE &amp; TESTING WORK AT 400KV S/S UJJAIN</t>
-  </si>
-  <si>
-    <t>400KV-BADNAWAR-RAJGARH-2</t>
-  </si>
-  <si>
-    <t>POWERGRID-WR2 (PGCIL),MADHYA PRADESH,GUJARAT</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>FOR LINE MAINTENANCE WORK</t>
-  </si>
-  <si>
-    <t>220KV-SEONI-MP-SEONI-PG-1</t>
-  </si>
-  <si>
-    <t>132KV-DHARNI-NEPANAGAR-1</t>
-  </si>
-  <si>
-    <t>MAHARASHTRA</t>
-  </si>
-  <si>
     <t>07:00</t>
   </si>
   <si>
     <t>18:59</t>
   </si>
   <si>
-    <t xml:space="preserve"> A/R off required for OPGW installation work of 24/48 core OPGW by replacing E/W for implementation of OPGW based reliable communication scheme</t>
-  </si>
-  <si>
-    <t>S/I SLDC JABALPUR</t>
+    <t>220 KV NARSINGPUR SUKHA CIRCUIT 1</t>
+  </si>
+  <si>
+    <t>LOAD SHIT TO BUS COUPLER FOR MAIN 2 DPR WIRING WORK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220 KV NARSINGPUR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK LINE TO BE IN SERVICE THROUGH TBC </t>
   </si>
 </sst>
 </file>
@@ -603,7 +590,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010409]dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-1010409]dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -616,25 +603,22 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="26"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -645,16 +629,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -672,20 +648,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -799,34 +763,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -836,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -876,6 +816,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -885,51 +849,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,7 +901,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1008,7 +950,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1020,7 +962,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1067,6 +1009,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1102,6 +1061,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1254,70 +1230,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="59" style="12" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" style="12" customWidth="1"/>
     <col min="6" max="6" width="28.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="46.85546875" customWidth="1"/>
+    <col min="8" max="8" width="43.28515625" style="12" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" customWidth="1"/>
     <col min="10" max="10" width="19.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="44.28515625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="47.85546875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43.7" customHeight="1">
+    <row r="1" spans="1:13" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16"/>
-    </row>
-    <row r="2" spans="1:13" ht="42" customHeight="1">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="24"/>
+    </row>
+    <row r="2" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>45880</v>
+        <v>45881</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" ht="42" customHeight="1">
+    <row r="3" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1333,14 +1307,14 @@
       <c r="E3" s="9"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13" ht="42" customHeight="1">
+    <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1362,7 +1336,7 @@
       <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -1371,20 +1345,20 @@
       <c r="J4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="16"/>
+      <c r="L4" s="24"/>
       <c r="M4" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="37.5" customHeight="1">
+    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="5">
-        <v>45877.660324074073</v>
+        <v>45880.602523148147</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>17</v>
@@ -1399,7 +1373,7 @@
       <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -1415,268 +1389,266 @@
         <v>25</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="37.5" customHeight="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="5">
-        <v>45879.420752314814</v>
+        <v>45876.473553240743</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="L6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="M6" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <f t="shared" ref="A7:A30" si="0">A6+1</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45880.598622685182</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="F7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="37.5" customHeight="1">
-      <c r="A7" s="4">
-        <f t="shared" ref="A7:A32" si="0">A6+1</f>
-        <v>3</v>
-      </c>
-      <c r="B7" s="5">
-        <v>45879.57675925926</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="G7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="I7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="J7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="L7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="M7" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="37.5" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="5">
-        <v>45878.492303240739</v>
+        <v>45880.600312499999</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="E8" s="11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="37.5" customHeight="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="5">
-        <v>45879.638611111113</v>
+        <v>45879.57675925926</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="11" t="s">
+      <c r="I9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="J9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="L9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="M9" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="37.5" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="5">
-        <v>45838.637094907404</v>
+        <v>45880.583819444444</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="M10" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="37.5" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="5">
-        <v>45838.670914351853</v>
+        <v>45880.667025462964</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="K11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="L11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="M11" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="37.5" customHeight="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="5">
-        <v>45878.635578703703</v>
+        <v>45838.637094907404</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>71</v>
@@ -1685,843 +1657,762 @@
         <v>72</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="H12" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="I12" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="37.5" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B13" s="5">
-        <v>45879.573807870373</v>
+        <v>45838.670914351853</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="L13" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="M13" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="37.5" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B14" s="5">
-        <v>45860.695532407408</v>
+        <v>45879.573807870373</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>85</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="37.5" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B15" s="5">
-        <v>45860.699131944442</v>
+        <v>45880.649236111109</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="J15" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="K15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="L15" s="8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="37.5" customHeight="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B16" s="5">
-        <v>45879.739664351851</v>
+        <v>45860.695532407408</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>94</v>
+        <v>48</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="37.5" customHeight="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B17" s="5">
-        <v>45879.743518518517</v>
+        <v>45860.699131944442</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="13" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="L17" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="37.5" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B18" s="5">
-        <v>45879.5547337963</v>
+        <v>45880.594375000001</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>105</v>
+        <v>20</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="37.5" customHeight="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B19" s="5">
-        <v>45877.816423611112</v>
+        <v>45879.739664351851</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>112</v>
+        <v>20</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="37.5" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B20" s="5">
-        <v>45879.571504629632</v>
+        <v>45879.743518518517</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="E20" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>119</v>
+      <c r="H20" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="37.5" customHeight="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B21" s="5">
-        <v>45876.555324074077</v>
+        <v>45880.662812499999</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="F21" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="J21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="L21" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="M21" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="37.5" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B22" s="5">
-        <v>45877.670740740738</v>
+        <v>45877.816423611112</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="G22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="K22" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="L22" s="8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="37.5" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B23" s="5">
-        <v>45879.678611111114</v>
+        <v>45876.555324074077</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="E23" s="11" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>136</v>
+        <v>20</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="37.5" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B24" s="5">
-        <v>45861.732905092591</v>
+        <v>45877.670740740738</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="G24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="K24" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="L24" s="8" t="s">
-        <v>143</v>
-      </c>
       <c r="M24" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="37.5" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B25" s="5">
-        <v>45870.783090277779</v>
+        <v>45880.664861111109</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="13" t="s">
+        <v>148</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>146</v>
+        <v>97</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="37.5" customHeight="1">
-      <c r="A26" s="4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="5">
-        <v>45877.620763888888</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="11" t="s">
+      <c r="B26" s="16">
+        <v>45880.669583333336</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="7" t="s">
+      <c r="G26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="I26" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="M26" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="37.5" customHeight="1">
-      <c r="A27" s="24">
+      <c r="K26" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="25">
-        <v>45879.513935185183</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="I27" s="26" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="I27" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="J27" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="L27" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="M27" s="21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="60">
-      <c r="A28" s="4">
+      <c r="J27" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="I28" s="22" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="27">
+        <v>256973</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" s="27">
+        <v>220</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="J28" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="J28" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="K28" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="L28" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="M28" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="24">
+      <c r="K28" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="L28" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="M28" s="27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="22" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="14">
+        <v>256974</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="14">
+        <v>220</v>
+      </c>
+      <c r="G29" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="H29" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="I29" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="22" t="s">
+      <c r="J29" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="L29" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="I29" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="L29" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="M29" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="30">
-      <c r="A30" s="4">
+      <c r="M29" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="22" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="14">
+        <v>259206</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="14">
+        <v>132</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="J30" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="K30" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="L30" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="K30" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="L30" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="M30" s="23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="45">
-      <c r="A31" s="24">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="J31" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="K31" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="L31" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="M31" s="23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="4">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="J32" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="K32" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="L32" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="M32" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="33" t="s">
-        <v>189</v>
+      <c r="M30" s="14" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="A33:L33"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -2,27 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\NEXT DAY SHUTDOWN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__bookmark_1">Sheet0!$A$1:$M$14</definedName>
+    <definedName name="__bookmark_1">Sheet0!$A$1:$M$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="162">
   <si>
     <t>STATE LOAD DESPATCH CENTRE 
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
@@ -76,18 +76,135 @@
     <t>REMARK</t>
   </si>
   <si>
+    <t>220KV_Anuppur No.2</t>
+  </si>
+  <si>
+    <t>220KV_AMARKANTAK</t>
+  </si>
+  <si>
+    <t>OCCM-WR</t>
+  </si>
+  <si>
+    <t>295 ABC trip coil circuit unhealthy</t>
+  </si>
+  <si>
+    <t>16-08-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>16-08-2025 14:00:00</t>
+  </si>
+  <si>
+    <t>Vijay Kothari</t>
+  </si>
+  <si>
+    <t>9425808910</t>
+  </si>
+  <si>
+    <t>MR2508/0194</t>
+  </si>
+  <si>
+    <t>MR2508/0154</t>
+  </si>
+  <si>
     <t>Daily</t>
   </si>
   <si>
+    <t>220KV_220 kV Anuppur- Kotmikala ckt-I</t>
+  </si>
+  <si>
+    <t>220KV_ANUPPUR</t>
+  </si>
+  <si>
+    <t>NON-OCCM-MP</t>
+  </si>
+  <si>
+    <t>For Re-sagging work at loc. 424-425</t>
+  </si>
+  <si>
+    <t>16-08-2025 08:00:00</t>
+  </si>
+  <si>
+    <t>19-08-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>Jitendra Tiwari</t>
+  </si>
+  <si>
+    <t>9425805298</t>
+  </si>
+  <si>
+    <t>MR2508/0192</t>
+  </si>
+  <si>
+    <t>132KV_132kV Banmore - J.K.Tyre Line</t>
+  </si>
+  <si>
+    <t>132KV_BANMORE</t>
+  </si>
+  <si>
+    <t>Line Maintenance work</t>
+  </si>
+  <si>
+    <t>16-08-2025 10:00:00</t>
+  </si>
+  <si>
+    <t>Pankaj Kumar</t>
+  </si>
+  <si>
+    <t>9425805317</t>
+  </si>
+  <si>
+    <t>MR2508/0190</t>
+  </si>
+  <si>
+    <t>132KV_132 kV Chhatarpur â¿¿ Khajuraho Ckt-II  Line</t>
+  </si>
+  <si>
+    <t>220KV_CHATARPUR</t>
+  </si>
+  <si>
+    <t>AH/VD Tightening &amp; other line maintenance work</t>
+  </si>
+  <si>
+    <t>16-08-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>Manoj Kumar Tiwari</t>
+  </si>
+  <si>
+    <t>9425804993</t>
+  </si>
+  <si>
+    <t>MR2508/0191</t>
+  </si>
+  <si>
+    <t>132KV_63MVA X-MER No.I Make BBL</t>
+  </si>
+  <si>
+    <t>132KV_HARDA</t>
+  </si>
+  <si>
+    <t>63 MVA Xmer 33 KV  Incoming NO.I CB Timing work</t>
+  </si>
+  <si>
+    <t>16-08-2025 12:00:00</t>
+  </si>
+  <si>
+    <t>Sh.J.D.Khoria</t>
+  </si>
+  <si>
+    <t>9425804975</t>
+  </si>
+  <si>
+    <t>MR2508/0176</t>
+  </si>
+  <si>
     <t>220KV_220KV South Zone (Indore) â¿¿ Jaitpura Line</t>
   </si>
   <si>
     <t>220KV_INDORE-II (JETPURA)</t>
   </si>
   <si>
-    <t>NON-OCCM-MP</t>
-  </si>
-  <si>
     <t>Replacement existing of 24 Fibre OPGW by 48 Fibre</t>
   </si>
   <si>
@@ -103,12 +220,6 @@
     <t>9425805217</t>
   </si>
   <si>
-    <t>MR2508/0174</t>
-  </si>
-  <si>
-    <t>. Replacement existing of 24 Fibre OPGW by 48 Fibr</t>
-  </si>
-  <si>
     <t>MR2506/0623</t>
   </si>
   <si>
@@ -130,9 +241,6 @@
     <t>11-08-2025 09:00:00</t>
   </si>
   <si>
-    <t>16-08-2025 18:00:00</t>
-  </si>
-  <si>
     <t>PANKAJ YADAV</t>
   </si>
   <si>
@@ -148,6 +256,24 @@
     <t>TOWER STRENTHENING WORK</t>
   </si>
   <si>
+    <t>MR2508/0189</t>
+  </si>
+  <si>
+    <t>132KV_Regarding shutdown required on 132KV Kirnapur- Moil Line (ldeally charge up to dead end tower near 132KV Moil S/s) for Flashover polymer Insulator replacement work.</t>
+  </si>
+  <si>
+    <t>400KV_KIRNAPUR</t>
+  </si>
+  <si>
+    <t>for Flashover polymer Insulator replacement work</t>
+  </si>
+  <si>
+    <t>Vijay Kumar Tandekar</t>
+  </si>
+  <si>
+    <t>9425805095</t>
+  </si>
+  <si>
     <t>220KV_MANGLIA2</t>
   </si>
   <si>
@@ -193,6 +319,24 @@
     <t>Hotline Work For Installatin of OPGW</t>
   </si>
   <si>
+    <t>MR2508/0185</t>
+  </si>
+  <si>
+    <t>400KV_Rajgarh (PGCIL)-SSP  CKT-2</t>
+  </si>
+  <si>
+    <t>400KV_RAJGARH-PG</t>
+  </si>
+  <si>
+    <t>for line maintenance work.</t>
+  </si>
+  <si>
+    <t>V.R. Panadia</t>
+  </si>
+  <si>
+    <t>9425802330</t>
+  </si>
+  <si>
     <t>MR2508/0134</t>
   </si>
   <si>
@@ -220,40 +364,160 @@
     <t>132KV_132KV Rajmilan-Dongrital ckt</t>
   </si>
   <si>
+    <t>MR2508/0195</t>
+  </si>
+  <si>
+    <t>132KV_132kv Sabalgarh Motijheel Ckt</t>
+  </si>
+  <si>
+    <t>220KV_SABALGARH</t>
+  </si>
+  <si>
+    <t>16-08-2025 17:00:00</t>
+  </si>
+  <si>
+    <t>SURAJ PAWAR</t>
+  </si>
+  <si>
+    <t>9425814079</t>
+  </si>
+  <si>
+    <t>MR2508/0183</t>
+  </si>
+  <si>
+    <t>132KV_132kV Seoni Nainpur Ckt-IInd</t>
+  </si>
+  <si>
+    <t>220KV_SEONI</t>
+  </si>
+  <si>
+    <t>Replacement of flashover disc insulator</t>
+  </si>
+  <si>
+    <t>16-08-2025 13:00:00</t>
+  </si>
+  <si>
+    <t>S.K. Nadekar</t>
+  </si>
+  <si>
+    <t>9425806848</t>
+  </si>
+  <si>
+    <t>MR2508/0184</t>
+  </si>
+  <si>
+    <t>132KV_132kV Seoni Keolari Line</t>
+  </si>
+  <si>
+    <t>MR2508/0196</t>
+  </si>
+  <si>
+    <t>132KV_40 MVA X-MER BBL NO.-1</t>
+  </si>
+  <si>
+    <t>132KV_VFJ</t>
+  </si>
+  <si>
+    <t>CT TO LINE ISOLATOR R PHASE CLAMP HOT POINT</t>
+  </si>
+  <si>
+    <t>AMIT KUMAR DAHIYA</t>
+  </si>
+  <si>
+    <t>9425806926</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Not approved by WRPC for 16-17</t>
+  </si>
+  <si>
+    <t>sub ld</t>
+  </si>
+  <si>
     <t>ok, line to be in service</t>
   </si>
   <si>
     <t>Deffered</t>
   </si>
   <si>
-    <t>sub ld</t>
+    <t>ok, line to be charged as per the present configuration after s/d</t>
+  </si>
+  <si>
+    <t>Deffered by WRLDC due to  High Generation at SSP</t>
+  </si>
+  <si>
+    <t>o&amp;m consent required</t>
+  </si>
+  <si>
+    <t>APPROVED OUTAGE LIST FOR DATED 16.08.2025</t>
+  </si>
+  <si>
+    <t>INDORE - 220KV - BUS 2</t>
+  </si>
+  <si>
+    <t>POWERGRID-WR2 (PGCIL)</t>
+  </si>
+  <si>
+    <t>16-Aug-2025</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>BUS AMP Work</t>
+  </si>
+  <si>
+    <t>400KV-NAGDA-DEHGAM-2</t>
+  </si>
+  <si>
+    <t>Diffrential Realy Retrofitting work. Dia to be kept both ends.</t>
+  </si>
+  <si>
+    <t>220KV-MEHGAON-AURIYA-1</t>
+  </si>
+  <si>
+    <t>NLDC,MADHYA PRADESH</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>FOR LINE MAINTENANCE WORK</t>
+  </si>
+  <si>
+    <t>real time</t>
   </si>
   <si>
     <t>132KV-DHARNI-NEPANAGAR-1</t>
   </si>
   <si>
+    <t>MAHARASHTRA</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>18:59</t>
+  </si>
+  <si>
     <t xml:space="preserve"> A/R off required for OPGW installation work of 24/48 core OPGW by replacing E/W for implementation of OPGW based reliable communication scheme</t>
   </si>
   <si>
-    <t>OK
-A/R in N/A, Line will be in service.</t>
-  </si>
-  <si>
-    <t>15-08-2025 07:00:00</t>
-  </si>
-  <si>
-    <t>15-08-2025 18:59:00</t>
-  </si>
-  <si>
-    <t>WR-OCCM</t>
+    <t>S/I SLDC JABALPUR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-1010809]dd\-mm\-yyyy"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-1010409]dd\-mm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-1010409]dd/mm/yyyy\ hh:mm"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -286,7 +550,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="26"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -299,13 +563,14 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,12 +584,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -373,6 +644,19 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -386,11 +670,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,31 +717,84 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,20 +823,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>167183</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>605333</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>3335</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -507,7 +873,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -519,7 +885,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -566,23 +932,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -618,23 +967,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -787,81 +1119,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" customWidth="1"/>
-    <col min="13" max="13" width="49.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="64.42578125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="48" customWidth="1"/>
+    <col min="9" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="48.7109375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="43.7" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="6"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" ht="42" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>45884</v>
+        <v>45885</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="8">
-        <v>45884</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="E2" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" ht="42" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -869,433 +1202,980 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" ht="42" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="42" customHeight="1">
-      <c r="A5" s="7">
+    <row r="5" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
-        <v>45881.722453703704</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="5">
+        <v>45884.54</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="42" customHeight="1">
-      <c r="A6" s="7">
+      <c r="M5" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="3">
-        <v>45838.637094907404</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="5">
+        <v>45880.724942129629</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="L6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="M6" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A7" s="4">
+        <f t="shared" ref="A7:A27" si="0">A6+1</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45884.513136574074</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="42" customHeight="1">
-      <c r="A7" s="7">
-        <f t="shared" ref="A7:A10" si="0">A6+1</f>
-        <v>3</v>
-      </c>
-      <c r="B7" s="3">
-        <v>45838.670914351853</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>35</v>
+      <c r="J7" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="42" customHeight="1">
-      <c r="A8" s="7">
+        <v>41</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="3">
-        <v>45881.72446759259</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="B8" s="5">
+        <v>45884.389108796298</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>23</v>
+      <c r="D8" s="4"/>
+      <c r="E8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="42" customHeight="1">
-      <c r="A9" s="7">
+        <v>48</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="3">
-        <v>45860.695532407408</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="B9" s="5">
+        <v>45884.472534722219</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="42" customHeight="1">
-      <c r="A10" s="7">
+        <v>55</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
+        <v>45881.735347222224</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="5">
+        <v>45838.637094907404</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>45838.670914351853</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="5">
+        <v>45883.932245370372</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="5">
+        <v>45881.72446759259</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="5">
+        <v>45860.695532407408</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="5">
         <v>45860.699131944442</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="5">
+        <v>45883.718587962961</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45879.739664351851</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="5">
+        <v>45879.743518518517</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="5">
+        <v>45884.600474537037</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="B21" s="5">
+        <v>45883.645208333335</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="5">
+        <v>45883.649918981479</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="42" customHeight="1">
-      <c r="A11" s="7">
-        <f t="shared" ref="A11:A14" si="1">A10+1</f>
-        <v>7</v>
-      </c>
-      <c r="B11" s="3">
-        <v>45879.739664351851</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A23" s="23">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="24">
+        <v>45884.602916666663</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="L23" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="42" customHeight="1">
-      <c r="A12" s="7">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="3">
-        <v>45879.743518518517</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" ht="92.25" customHeight="1">
-      <c r="A13" s="7">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="9">
-        <v>261907</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="23.25" customHeight="1">
-      <c r="A14" s="7">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="29"/>
+      <c r="H24" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="M24" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="30">
+      <c r="A25" s="23">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="29"/>
+      <c r="H25" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="M25" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="29"/>
+      <c r="H26" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="60">
+      <c r="A27" s="23">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="M27" s="22"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="31" t="s">
+        <v>161</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:M1"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="E2:J2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -2,27 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\NEXT DAY SHUTDOWN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__bookmark_1">Sheet0!$A$1:$M$10</definedName>
+    <definedName name="__bookmark_1">Sheet0!$A$1:$M$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="223">
   <si>
     <t>STATE LOAD DESPATCH CENTRE 
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
@@ -106,22 +106,73 @@
     <t>9425805298</t>
   </si>
   <si>
-    <t>MR2508/0202</t>
-  </si>
-  <si>
-    <t>132KV_132 kV Chhatarpur â¿¿ Khajuraho Ckt-1 Tap Lovkushnagar Line</t>
+    <t>MR2508/0237</t>
+  </si>
+  <si>
+    <t>132KV_132kv Banmore - Ambah Shakti Line</t>
+  </si>
+  <si>
+    <t>132KV_BANMORE</t>
+  </si>
+  <si>
+    <t>Annual meter testing work MPMKVVCL Morena</t>
+  </si>
+  <si>
+    <t>19-08-2025 11:00:00</t>
+  </si>
+  <si>
+    <t>19-08-2025 13:00:00</t>
+  </si>
+  <si>
+    <t>Pankaj Kumar</t>
+  </si>
+  <si>
+    <t>9425805317</t>
+  </si>
+  <si>
+    <t>MR2508/0224</t>
+  </si>
+  <si>
+    <t>220KV_220 KV Main Bus-1st</t>
+  </si>
+  <si>
+    <t>220KV_BETUL</t>
+  </si>
+  <si>
+    <t>220 KV Main Bus-1st maintenance work.</t>
+  </si>
+  <si>
+    <t>19-08-2025 10:00:00</t>
+  </si>
+  <si>
+    <t>19-08-2025 16:00:00</t>
+  </si>
+  <si>
+    <t>Vishal Kumar Malviya</t>
+  </si>
+  <si>
+    <t>9425804955</t>
+  </si>
+  <si>
+    <t>MR2508/0225</t>
+  </si>
+  <si>
+    <t>220KV_160 MVA AREVA X-mer-1st</t>
+  </si>
+  <si>
+    <t>R-Phase Conductor replacement work</t>
+  </si>
+  <si>
+    <t>MR2508/0234</t>
+  </si>
+  <si>
+    <t>132KV_132 kV Bijawar-Badamalhera line</t>
   </si>
   <si>
     <t>220KV_CHATARPUR</t>
   </si>
   <si>
-    <t>AH/VD Tightening &amp; other line maintenance work</t>
-  </si>
-  <si>
-    <t>17-08-2025 10:00:00</t>
-  </si>
-  <si>
-    <t>17-08-2025 18:00:00</t>
+    <t>cross arm replacement and other line maint. work</t>
   </si>
   <si>
     <t>Manoj Kumar Tiwari</t>
@@ -130,10 +181,67 @@
     <t>9425804993</t>
   </si>
   <si>
-    <t>MR2508/0176</t>
-  </si>
-  <si>
-    <t>220KV_220KV South Zone (Indore) â¿¿ Jaitpura Line</t>
+    <t>MR2508/0223</t>
+  </si>
+  <si>
+    <t>132KV_132 kV Chhindwara-Saori Ckt-I</t>
+  </si>
+  <si>
+    <t>220KV_CHHINDWARA</t>
+  </si>
+  <si>
+    <t>F/o disc replace &amp; J/c,A/h,V/d tightening</t>
+  </si>
+  <si>
+    <t>19-08-2025 17:00:00</t>
+  </si>
+  <si>
+    <t>A.M.Shende</t>
+  </si>
+  <si>
+    <t>7587951136</t>
+  </si>
+  <si>
+    <t>MR2508/0233</t>
+  </si>
+  <si>
+    <t>63MVA_132/33KV_EMCO_X'mer_3</t>
+  </si>
+  <si>
+    <t>132KV_CHHINDWARA1</t>
+  </si>
+  <si>
+    <t>LV Side R-Phase CT Clamp Hot Point Attending Work</t>
+  </si>
+  <si>
+    <t>19-08-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>19-08-2025 12:00:00</t>
+  </si>
+  <si>
+    <t>Er. Anju Dhurve</t>
+  </si>
+  <si>
+    <t>9425804752</t>
+  </si>
+  <si>
+    <t>MR2508/0236</t>
+  </si>
+  <si>
+    <t>220KV_160 MVA X-MER</t>
+  </si>
+  <si>
+    <t>220KV_GORABAZAR</t>
+  </si>
+  <si>
+    <t>OIL LEAKAGE ATTENDING WORK</t>
+  </si>
+  <si>
+    <t>CHETAN YADAV</t>
+  </si>
+  <si>
+    <t>9425805282</t>
   </si>
   <si>
     <t>220KV_INDORE-II (JETPURA)</t>
@@ -154,6 +262,132 @@
     <t>9425805217</t>
   </si>
   <si>
+    <t>MR2508/0174</t>
+  </si>
+  <si>
+    <t>. Replacement existing of 24 Fibre OPGW by 48 Fibr</t>
+  </si>
+  <si>
+    <t>220KV_ITARSI</t>
+  </si>
+  <si>
+    <t>OCCM-WR</t>
+  </si>
+  <si>
+    <t>19-08-2025 07:00:00</t>
+  </si>
+  <si>
+    <t>9425804975</t>
+  </si>
+  <si>
+    <t>MR2508/0200</t>
+  </si>
+  <si>
+    <t>220KV_220KV Itarsi PGCIL No.-1</t>
+  </si>
+  <si>
+    <t>CT Replacement work</t>
+  </si>
+  <si>
+    <t>19-08-2025 19:00:00</t>
+  </si>
+  <si>
+    <t>J.D.Khoria</t>
+  </si>
+  <si>
+    <t>MR2508/0231</t>
+  </si>
+  <si>
+    <t>220KV_220kV ITARSI-BARWAHA LINE</t>
+  </si>
+  <si>
+    <t>FLASHOVER DISC REPLACEMENT WORK</t>
+  </si>
+  <si>
+    <t>R.N. Parte</t>
+  </si>
+  <si>
+    <t>9425804701</t>
+  </si>
+  <si>
+    <t>MR2508/0220</t>
+  </si>
+  <si>
+    <t>220KV_220 kV Jabalpur- Birsinghpur ckt-I</t>
+  </si>
+  <si>
+    <t>220KV_JABALPUR</t>
+  </si>
+  <si>
+    <t>Disc F/o change at loc. C53 Top Ph</t>
+  </si>
+  <si>
+    <t>MR2508/0227</t>
+  </si>
+  <si>
+    <t>132KV_132 KV KATNI PANAGAR LINE</t>
+  </si>
+  <si>
+    <t>132KV_KATNI</t>
+  </si>
+  <si>
+    <t>For modification shifting &amp; maintenance work .</t>
+  </si>
+  <si>
+    <t>pankaj yadav</t>
+  </si>
+  <si>
+    <t>9406713326</t>
+  </si>
+  <si>
+    <t>MR2506/0624</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>400KV_400KV KATNI - DAMOH LINE</t>
+  </si>
+  <si>
+    <t>400KV_KATNI4</t>
+  </si>
+  <si>
+    <t>OCCM-MP</t>
+  </si>
+  <si>
+    <t>TOWER STRENGTHENING WORK</t>
+  </si>
+  <si>
+    <t>18-08-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>23-08-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>PANKAJ YADAV</t>
+  </si>
+  <si>
+    <t>MR2506/0633</t>
+  </si>
+  <si>
+    <t>220KV_220KV KATNI - DAMOH LINE</t>
+  </si>
+  <si>
+    <t>TOWER STRENTHENING WORK</t>
+  </si>
+  <si>
+    <t>MR2508/0230</t>
+  </si>
+  <si>
+    <t>132KV_132 kv katni sleemnabad line ckt 2</t>
+  </si>
+  <si>
+    <t>132KV_KYMORE</t>
+  </si>
+  <si>
+    <t>19-08-2025 08:00:00</t>
+  </si>
+  <si>
     <t>220KV_MANGLIA2</t>
   </si>
   <si>
@@ -163,6 +397,27 @@
     <t>220KV_220KV Mangliya -Jaitpura  Line.</t>
   </si>
   <si>
+    <t>MR2508/0219</t>
+  </si>
+  <si>
+    <t>132KV_132 KV Half Main BUS</t>
+  </si>
+  <si>
+    <t>220KV_NAGDA</t>
+  </si>
+  <si>
+    <t>132 KV Main Bus Iso Replacement work of 132 KV MHD</t>
+  </si>
+  <si>
+    <t>19-08-2025 14:00:00</t>
+  </si>
+  <si>
+    <t>Vikram Dehariya</t>
+  </si>
+  <si>
+    <t>7000276050</t>
+  </si>
+  <si>
     <t>MR2507/0344</t>
   </si>
   <si>
@@ -199,34 +454,244 @@
     <t>Hotline Work For Installatin of OPGW</t>
   </si>
   <si>
+    <t>MR2508/0186</t>
+  </si>
+  <si>
+    <t>400KV_400KV Pithampur-PGCIL ckt-I</t>
+  </si>
+  <si>
+    <t>400KV_PITHAMPUR4</t>
+  </si>
+  <si>
+    <t>Tan-Delta Testing &amp; Bay Maintenance work</t>
+  </si>
+  <si>
+    <t>Rajudas Bairagi</t>
+  </si>
+  <si>
+    <t>9425801532</t>
+  </si>
+  <si>
+    <t>MR2508/0235</t>
+  </si>
+  <si>
+    <t>220KV_220KV Ratlam - Badnawar Ckt-II</t>
+  </si>
+  <si>
+    <t>220KV_RATLAM</t>
+  </si>
+  <si>
+    <t>for line maintenance work</t>
+  </si>
+  <si>
+    <t>Kumar Vishal</t>
+  </si>
+  <si>
+    <t>9425805018</t>
+  </si>
+  <si>
+    <t>MR2508/0222</t>
+  </si>
+  <si>
+    <t>220KV_220KV DAMOH-SAGAR 1st Ckt. LINE (PGCIL)</t>
+  </si>
+  <si>
+    <t>400KV_SAGAR</t>
+  </si>
+  <si>
+    <t>Line maintenance work</t>
+  </si>
+  <si>
+    <t>J.P. Asati</t>
+  </si>
+  <si>
+    <t>9424445533</t>
+  </si>
+  <si>
+    <t>MR2508/0228</t>
+  </si>
+  <si>
+    <t>132KV_132kV Seoni Lakhnadon SC</t>
+  </si>
+  <si>
+    <t>220KV_SEONI</t>
+  </si>
+  <si>
+    <t>Replacement of broken disc insulator</t>
+  </si>
+  <si>
+    <t>S.K. Nadekar</t>
+  </si>
+  <si>
+    <t>9425806848</t>
+  </si>
+  <si>
+    <t>MR2508/0229</t>
+  </si>
+  <si>
+    <t>220KV_220 KV SUN SHINE 2nd ckt.</t>
+  </si>
+  <si>
+    <t>220KV_SHIVPURI</t>
+  </si>
+  <si>
+    <t>Request for Shutdown Approval of 220kV CKT-2 of SE</t>
+  </si>
+  <si>
+    <t>19-08-2025 23:00:00</t>
+  </si>
+  <si>
+    <t>Rohit yadav</t>
+  </si>
+  <si>
+    <t>9425804921</t>
+  </si>
+  <si>
+    <t>400KV_315 MVA, 400KV/220KV, Interconnecting Transformer- 2</t>
+  </si>
+  <si>
+    <t>400KV_SINGHAJI TPS</t>
+  </si>
+  <si>
+    <t>Overhauling work</t>
+  </si>
+  <si>
+    <t>Yogesh Chouhan</t>
+  </si>
+  <si>
+    <t>7999328631</t>
+  </si>
+  <si>
+    <t>MR2508/0215</t>
+  </si>
+  <si>
+    <t>MR2508/0232</t>
+  </si>
+  <si>
+    <t>132KV_132/33 KV 50 MVA BHEL X-mer</t>
+  </si>
+  <si>
+    <t>220KV_SIRMOUR</t>
+  </si>
+  <si>
+    <t>For B phase LV side pad clamp hot point attending</t>
+  </si>
+  <si>
+    <t>Mr. Indrajeet Singh</t>
+  </si>
+  <si>
+    <t>9424734033</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>Not approved for 17th</t>
+    <t>sub ld</t>
+  </si>
+  <si>
+    <t>ok, through sub ld</t>
   </si>
   <si>
     <t>ok, line to be in service</t>
   </si>
   <si>
-    <t>sub ld</t>
-  </si>
-  <si>
-    <t>132KV-DHARNI-NEPANAGAR-1</t>
-  </si>
-  <si>
-    <t>17-Aug-2025</t>
+    <t>Deffered</t>
+  </si>
+  <si>
+    <t>Deffered, not in WRPC approval list</t>
+  </si>
+  <si>
+    <t>ABT consent required</t>
+  </si>
+  <si>
+    <t>load to be managed by sub ld Indore</t>
+  </si>
+  <si>
+    <t>220KV_220KV South Zone (Indore) - Jaitpura Line</t>
+  </si>
+  <si>
+    <t>220KV-DAMOH-SAGAR-1</t>
+  </si>
+  <si>
+    <t>220KV-INDORE-UJJAIN-1</t>
+  </si>
+  <si>
+    <t>220KV-KHANDWA-CHHEGAON-1</t>
+  </si>
+  <si>
+    <t>220KV-BHANPURA-RANPUR-1</t>
+  </si>
+  <si>
+    <t>220KV-ITARSI-MP-ITARSI-1</t>
+  </si>
+  <si>
+    <t>220KV-ANNUPUR-KOTMIKALA-1</t>
+  </si>
+  <si>
+    <t>SATPURA - 400KV - BUS 1</t>
+  </si>
+  <si>
+    <t>400KV-KORADI-SATPURA-1</t>
+  </si>
+  <si>
+    <t>FOR LINE MAINTENANCE WORK</t>
+  </si>
+  <si>
+    <t>FOR BAY MAINTENANCE &amp; TESTING WORK AT 400KV S/S UJJAIN</t>
+  </si>
+  <si>
+    <t>for Replacement of CT work</t>
+  </si>
+  <si>
+    <t>for resagging work between loc 418-432</t>
+  </si>
+  <si>
+    <t>For replacemnet of Bus-1 PG isolator under ADD CAP at MPGENCO (Simultaneous outage of 400KV-SATPURA-KORADI-1 is required)</t>
+  </si>
+  <si>
+    <t>For replacemnet of Bus-1 PG isolator under ADD CAP at MPGENCO (Simultaneous outage of 400kV Bus-1 is required  at Sarni S/S of MPGENCO). Dia to be kept open at both ends.</t>
+  </si>
+  <si>
+    <t>real time</t>
+  </si>
+  <si>
+    <t>Continous</t>
+  </si>
+  <si>
+    <t>19-Aug-2025</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>08:00</t>
   </si>
   <si>
     <t>07:00</t>
   </si>
   <si>
-    <t>18:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A/R off required for OPGW installation work of 24/48 core OPGW by replacing E/W for implementation of OPGW based reliable communication scheme</t>
-  </si>
-  <si>
-    <t>MP_SLDC</t>
+    <t>16:59</t>
+  </si>
+  <si>
+    <t>17:59</t>
+  </si>
+  <si>
+    <t>18-Aug-2025</t>
+  </si>
+  <si>
+    <t>20-Aug-2025</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>S/I, SLDC MPPTCL JABALPUR</t>
+  </si>
+  <si>
+    <t>APPROVED OUTAGE LIST FOR DTD.19.08.2025</t>
   </si>
 </sst>
 </file>
@@ -237,7 +702,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010409]dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-1010409]dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -250,34 +715,37 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="18"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,8 +763,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -356,84 +830,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -442,57 +860,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,14 +922,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>605333</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>3335</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2083</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>551023</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -570,7 +978,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -582,7 +990,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -629,6 +1037,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -664,6 +1089,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -816,527 +1258,1534 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="61" style="12" customWidth="1"/>
+    <col min="5" max="5" width="48.7109375" style="10" customWidth="1"/>
     <col min="6" max="6" width="28.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="47.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="48.7109375" customWidth="1"/>
+    <col min="9" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="49" customWidth="1"/>
+    <col min="13" max="13" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="65.25" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="15"/>
-    </row>
-    <row r="2" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="21"/>
+    </row>
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="42" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>45886</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="15">
+        <v>45888</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" s="10" customFormat="1" ht="42" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" s="10" customFormat="1" ht="42" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="3" t="s">
+      <c r="L4" s="14"/>
+      <c r="M4" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>45880.724942129629</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="M5" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A6" s="2">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="5">
-        <v>45885.5393287037</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3">
+        <v>45887.683877314812</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <f t="shared" ref="A7:A17" si="0">A6+1</f>
+      <c r="M6" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A7" s="2">
+        <f t="shared" ref="A7:A39" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="5">
-        <v>45881.735347222224</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="3">
+        <v>45887.561226851853</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45887.563310185185</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45887.610335648147</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45887.519571759258</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45887.609965277778</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="F11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45887.679039351853</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45881.722453703704</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45885.534421296295</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45887.591539351852</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45887.509259259263</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45887.583113425928</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45838.641979166663</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45838.672881944447</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45887.587627314817</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
         <v>45881.72446759259</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="E21" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="H21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45887.496064814812</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45860.695532407408</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45860.699131944442</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45883.718877314815</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45887.62259259259</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45887.513148148151</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45887.585405092592</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45887.587592592594</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="19">
-        <v>45860.695532407408</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="25">
-        <v>45860.699131944442</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="17">
-        <v>261909</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="17">
-        <v>132</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
+      <c r="J29" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45886.684432870374</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="27" customHeight="1">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45887.608055555553</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45887.608055555553</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="25.5">
+      <c r="A33" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="3">
+        <v>45887.608055555553</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="3">
+        <v>45887.608055555553</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="3">
+        <v>45887.608055555553</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="3">
+        <v>45887.608055555553</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B37" s="3">
+        <v>45887.608055555553</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="38.25">
+      <c r="A38" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B38" s="3">
+        <v>45887.608055555553</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="51">
+      <c r="A39" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B39" s="3">
+        <v>45887.608055555553</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="36">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="12" t="s">
+        <v>221</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="K4:L4"/>
+    <mergeCell ref="E2:L2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,33 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__bookmark_1">Sheet0!$A$1:$O$15</definedName>
+    <definedName name="__bookmark_1">Sheet0!$A$1:$O$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="187">
   <si>
     <t>STATE LOAD DESPATCH CENTRE 
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
@@ -128,28 +115,49 @@
     <t>9425805298</t>
   </si>
   <si>
-    <t>MR2509/0085</t>
-  </si>
-  <si>
-    <t>220KV_220 KV Badnawar â¿¿Wonder Cement.</t>
-  </si>
-  <si>
-    <t>400KV_BADNAWAR</t>
-  </si>
-  <si>
-    <t>work at Wonder cement end</t>
-  </si>
-  <si>
-    <t>07-09-2025 06:00:00</t>
-  </si>
-  <si>
-    <t>07-09-2025 17:00:00</t>
-  </si>
-  <si>
-    <t>Kumar Vishal</t>
-  </si>
-  <si>
-    <t>9425805018</t>
+    <t>MR2509/0069</t>
+  </si>
+  <si>
+    <t>220KV_160 MVA XMER NO. 3 MAKE BBL</t>
+  </si>
+  <si>
+    <t>220KV_BAIRAGARH</t>
+  </si>
+  <si>
+    <t>Shutdown for post monsoon maintenance</t>
+  </si>
+  <si>
+    <t>08-09-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>AMBARISH SHRIPAD JOSHI</t>
+  </si>
+  <si>
+    <t>7587951085</t>
+  </si>
+  <si>
+    <t>MR2509/0070</t>
+  </si>
+  <si>
+    <t>MR2509/0163</t>
+  </si>
+  <si>
+    <t>132KV_40 MVA X-MER MAKE BBL</t>
+  </si>
+  <si>
+    <t>132KV_BARMAN</t>
+  </si>
+  <si>
+    <t>Postmonsoon maintenance &amp; testing work</t>
+  </si>
+  <si>
+    <t>08-09-2025 10:00:00</t>
+  </si>
+  <si>
+    <t>Er K.K. Choure</t>
+  </si>
+  <si>
+    <t>9425801357</t>
   </si>
   <si>
     <t>MR2509/0153</t>
@@ -170,31 +178,88 @@
     <t>13-09-2025 18:00:00</t>
   </si>
   <si>
-    <t>MR2508/0437</t>
+    <t>MR2509/0141</t>
+  </si>
+  <si>
+    <t>33KV_33KV MAIN BUS</t>
+  </si>
+  <si>
+    <t>132KV_BISNOOR</t>
+  </si>
+  <si>
+    <t>33KV MAIN BUS ISOLATOR HOT POINT ATTENDING WORK</t>
+  </si>
+  <si>
+    <t>08-09-2025 11:00:00</t>
+  </si>
+  <si>
+    <t>08-09-2025 14:00:00</t>
+  </si>
+  <si>
+    <t>ER SANJAY KUMAR PAWAR</t>
+  </si>
+  <si>
+    <t>9425802293</t>
   </si>
   <si>
     <t>Continuous</t>
   </si>
   <si>
-    <t>132KV_132 KV Chhatarpur-khajuraho Tap Lavkushnagar</t>
-  </si>
-  <si>
-    <t>220KV_CHATARPUR</t>
-  </si>
-  <si>
-    <t>for CT Tan delta measurement work</t>
-  </si>
-  <si>
-    <t>01-09-2025 14:00:00</t>
-  </si>
-  <si>
-    <t>30-09-2025 17:30:00</t>
-  </si>
-  <si>
-    <t>Brajendra Soni</t>
-  </si>
-  <si>
-    <t>9131327770</t>
+    <t>MR2509/0155</t>
+  </si>
+  <si>
+    <t>220KV_160 MVA-III X-Mer</t>
+  </si>
+  <si>
+    <t>400KV_CHHEGAON4</t>
+  </si>
+  <si>
+    <t>Post monsoon maintenance</t>
+  </si>
+  <si>
+    <t>Shri Ganesh Mansare</t>
+  </si>
+  <si>
+    <t>9425802441</t>
+  </si>
+  <si>
+    <t>MR2509/0148</t>
+  </si>
+  <si>
+    <t>132KV_132 kV Chhindwara-Khapaswami</t>
+  </si>
+  <si>
+    <t>132KV_CHHINDWARA1</t>
+  </si>
+  <si>
+    <t>Old disc replacement &amp; Bird guard provide</t>
+  </si>
+  <si>
+    <t>08-09-2025 17:00:00</t>
+  </si>
+  <si>
+    <t>A.M.Shende</t>
+  </si>
+  <si>
+    <t>7587951136</t>
+  </si>
+  <si>
+    <t>MR2509/0149</t>
+  </si>
+  <si>
+    <t>132KV_50 MVA XMER BBL</t>
+  </si>
+  <si>
+    <t>132KV_DEORI</t>
+  </si>
+  <si>
+    <t>Post monsoon maintenance and testing work</t>
+  </si>
+  <si>
+    <t>P D GOUTAM</t>
+  </si>
+  <si>
+    <t>9425808329</t>
   </si>
   <si>
     <t>MR2509/0154</t>
@@ -206,6 +271,24 @@
     <t>132KV_DINDORI</t>
   </si>
   <si>
+    <t>MR2509/0151</t>
+  </si>
+  <si>
+    <t>132KV_132 Gourjhamar-Deori line (Radial feeder)</t>
+  </si>
+  <si>
+    <t>132KV_GOURJHAMAR</t>
+  </si>
+  <si>
+    <t>Line maintenance work</t>
+  </si>
+  <si>
+    <t>J.P. Asati</t>
+  </si>
+  <si>
+    <t>9424445533</t>
+  </si>
+  <si>
     <t>MR2509/0063</t>
   </si>
   <si>
@@ -230,25 +313,55 @@
     <t>9425805217</t>
   </si>
   <si>
-    <t>MR2509/0139</t>
-  </si>
-  <si>
-    <t>132KV_63MVA BBL NEW</t>
-  </si>
-  <si>
-    <t>132KV_MANSAKRA</t>
-  </si>
-  <si>
-    <t>33KV SIDE CB REPLACEMENT WORK</t>
-  </si>
-  <si>
-    <t>07-09-2025 10:00:00</t>
-  </si>
-  <si>
-    <t>ABHISHEK MISHRA</t>
-  </si>
-  <si>
-    <t>9425801440</t>
+    <t>MR2509/0146</t>
+  </si>
+  <si>
+    <t>132KV_132 KV Itarsi-Hoshangabad I</t>
+  </si>
+  <si>
+    <t>220KV_ITARSI</t>
+  </si>
+  <si>
+    <t>Flash over disc replacement work</t>
+  </si>
+  <si>
+    <t>Ashutosh Rai</t>
+  </si>
+  <si>
+    <t>9425806902</t>
+  </si>
+  <si>
+    <t>MR2506/0637</t>
+  </si>
+  <si>
+    <t>220KV_220KV KATNI - DAMOH LINE</t>
+  </si>
+  <si>
+    <t>400KV_KATNI4</t>
+  </si>
+  <si>
+    <t>TOWER STRENTHENING WORK</t>
+  </si>
+  <si>
+    <t>PANKAJ YADAV</t>
+  </si>
+  <si>
+    <t>9406713326</t>
+  </si>
+  <si>
+    <t>MR2506/0627</t>
+  </si>
+  <si>
+    <t>400KV_400KV KATNI - DAMOH LINE</t>
+  </si>
+  <si>
+    <t>OCCM-MP</t>
+  </si>
+  <si>
+    <t>TOWER STRENGTHENING WORK</t>
+  </si>
+  <si>
+    <t>13-09-2025 08:00:00</t>
   </si>
   <si>
     <t>MR2509/0064</t>
@@ -260,6 +373,69 @@
     <t>132KV_NIRANJANPUR</t>
   </si>
   <si>
+    <t>MR2509/0162</t>
+  </si>
+  <si>
+    <t>220KV_220kv badod 1</t>
+  </si>
+  <si>
+    <t>220KV_SUWASRA2</t>
+  </si>
+  <si>
+    <t>Providing M2 DPR relay work</t>
+  </si>
+  <si>
+    <t>SUNIL PANWAR</t>
+  </si>
+  <si>
+    <t>9425804939</t>
+  </si>
+  <si>
+    <t>MR2509/0144</t>
+  </si>
+  <si>
+    <t>220KV_220 KV Suwasara - Bhanpura line</t>
+  </si>
+  <si>
+    <t>OPGW Stringing Work</t>
+  </si>
+  <si>
+    <t>Ravindra Kumar Marskole</t>
+  </si>
+  <si>
+    <t>9425814080</t>
+  </si>
+  <si>
+    <t>MR2509/0145</t>
+  </si>
+  <si>
+    <t>220KV_220 KV Badod - Suwasara Ckt- 1 Line</t>
+  </si>
+  <si>
+    <t>For OPGW Strining Work</t>
+  </si>
+  <si>
+    <t>MR2509/0156</t>
+  </si>
+  <si>
+    <t>220KV_220kv Tikamgarh -damoh (mpptcl)line</t>
+  </si>
+  <si>
+    <t>220KV_TIKAMGARH</t>
+  </si>
+  <si>
+    <t>Bay maintenance</t>
+  </si>
+  <si>
+    <t>08-09-2025 15:00:00</t>
+  </si>
+  <si>
+    <t>Pushpendra Kumar soni</t>
+  </si>
+  <si>
+    <t>9425806398</t>
+  </si>
+  <si>
     <t>MR2509/0042</t>
   </si>
   <si>
@@ -314,49 +490,97 @@
     <t>7898239595</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>ok only if wondercement consented</t>
+    <t>WRPC APPROVAL REQUIRED</t>
+  </si>
+  <si>
+    <t>OK THROUGH SUB LD</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>data rerouting required &amp; communication confirmation required</t>
-  </si>
-  <si>
-    <t>deferred wrpc consent required</t>
-  </si>
-  <si>
-    <t>sub ld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">continue </t>
-  </si>
-  <si>
-    <t>APPROVED OUTAGE LIST FOR DATED 07.09.2025</t>
-  </si>
-  <si>
-    <t>220KV-ANNUPUR-KOTMIKALA-2</t>
-  </si>
-  <si>
-    <t>MADHYA PRADESH,CHATTISGARH</t>
-  </si>
-  <si>
-    <t>07-Sep-2025</t>
+    <t xml:space="preserve">OK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK IF DATA REROUTING &amp; CONFIRMATION FROM COMMUNICATION </t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>SUB LD</t>
+  </si>
+  <si>
+    <t>DEFERRED WRPC APPROVAL REQUIRED</t>
+  </si>
+  <si>
+    <t>DEFERRED, DATA REROUTING REQUIRED &amp; CONFIRMATION FROM COMMUNICATION REQUIRED</t>
+  </si>
+  <si>
+    <t>CONTINUE, FTC TO BE COMPLETED PRIOR TO CHARGING</t>
+  </si>
+  <si>
+    <t>CONTINUE</t>
+  </si>
+  <si>
+    <t>APPROVED OUTAGE LIST FOR DATED 08.09.2025</t>
+  </si>
+  <si>
+    <t>400KV-BADNAWAR-RAJGARH-2</t>
+  </si>
+  <si>
+    <t>POWERGRID-WR2 (PGCIL),MADHYA PRADESH,GUJARAT</t>
+  </si>
+  <si>
+    <t>08-Sep-2025</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>For Attending Hotspot in Line Isolator of Line Bay, Non auto mode of ckt 1 is required . Dia to be kept open at both ends.</t>
+  </si>
+  <si>
+    <t>220KV-ITARSI-MP-ITARSI-1</t>
+  </si>
+  <si>
+    <t>MADHYA PRADESH</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>FOR BAY MAINTENANCE &amp; TESTING WORK AT SUBSTASTION, REPLACEMENT OF DAMAGED CLAMPS/JUMPERS ETC.</t>
+  </si>
+  <si>
+    <t>220KV-MORENA-SABALGARH-1</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>FOR LINE MAINTENANCE WORK i.e. CLEANING OF DISC INSULATORS DURING LINE PATROLLING , REPLACEMENT OF FLASHOVERED DISC INSULATORS, TREE BRANCH CUTTING ETC AT VARIOUS TOWER LOCATIONS</t>
+  </si>
+  <si>
+    <t>220KV-SATNA-MAIHAR-1</t>
+  </si>
+  <si>
+    <t>OK LOAD ON 132 KV SATNA - UNCHEHRA CKR &amp; 132 KV SATNA - SATNA II CKT SHALL BE MONITORED AND IF REQUUIRED 132 KV MAIHAR - SATNA II CKT &amp; 132 KV MAIHAR - UNCHEHRA CKT TO BE OPENED</t>
+  </si>
+  <si>
+    <t>220KV-BHANPURA-RANPUR-1</t>
+  </si>
+  <si>
+    <t>POWERGRID-NR,NLDC,MADHYA PRADESH</t>
   </si>
   <si>
     <t>08:00</t>
   </si>
   <si>
     <t>18:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For Re-sagging work due to Low Ground clearance  at loc. 371-379 &amp; 464- 475</t>
-  </si>
-  <si>
-    <t>OK</t>
   </si>
   <si>
     <t>S/I SLDC JABALPUR</t>
@@ -370,11 +594,11 @@
     <numFmt numFmtId="164" formatCode="[$-1010409]dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-1010409]dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -383,32 +607,36 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="26"/>
+      <sz val="22"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -416,7 +644,8 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -434,18 +663,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -555,96 +784,90 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,9 +896,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>605333</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>910</xdr:rowOff>
+      <xdr:colOff>576758</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>549435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -722,39 +945,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -806,7 +1029,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -917,6 +1140,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -925,13 +1155,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -996,31 +1219,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1028,81 +1231,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="108" customWidth="1"/>
-    <col min="6" max="6" width="22.875" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="53.375" customWidth="1"/>
-    <col min="10" max="11" width="19.5" customWidth="1"/>
-    <col min="12" max="12" width="9.375" customWidth="1"/>
-    <col min="13" max="13" width="19.5" customWidth="1"/>
-    <col min="14" max="14" width="12.125" customWidth="1"/>
-    <col min="15" max="15" width="22" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="2"/>
+    <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="2" customWidth="1"/>
+    <col min="10" max="11" width="13.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="22.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="43.7" customHeight="1">
+    <row r="1" spans="1:15" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="11"/>
-    </row>
-    <row r="2" spans="1:15" ht="42" customHeight="1">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>45907</v>
+      <c r="B2" s="3">
+        <v>45908</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="42" customHeight="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1"/>
@@ -1117,601 +1323,1259 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="42" customHeight="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="3" t="s">
+      <c r="N4" s="12"/>
+      <c r="O4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="4">
+    <row r="5" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>45894.63071759259</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="5"/>
+      <c r="J5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6">
+        <v>45903.509965277779</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45903.510081018518</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45907.63009259259</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45906.630393518521</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6">
+        <v>45906.338969907411</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6">
+        <v>45907.502986111111</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6">
+        <v>45906.492604166669</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6">
+        <v>45906.530115740738</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="51" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6">
+        <v>45906.630486111113</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6">
+        <v>45906.587395833332</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6">
+        <v>45902.77244212963</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="25.5">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5">
-        <v>45903.744826388887</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="K16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6">
+        <v>45906.468854166669</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="6" t="s">
+      <c r="H17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6">
+        <v>45838.679062499999</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="4" t="s">
+      <c r="K18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="24" t="s">
+      <c r="M18" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6">
+        <v>45838.64947916667</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6">
+        <v>45902.775277777779</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="4">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5">
-        <v>45906.630393518521</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="L20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>17</v>
+      </c>
+      <c r="B21" s="6">
+        <v>45907.555451388886</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6">
+        <v>45906.443344907406</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>19</v>
+      </c>
+      <c r="B23" s="6">
+        <v>45906.445925925924</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>20</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="B24" s="6">
+        <v>45907.526956018519</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="6" t="s">
+      <c r="H24" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="K24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M24" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>21</v>
+      </c>
+      <c r="B25" s="6">
+        <v>45902.59002314815</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>22</v>
+      </c>
+      <c r="B26" s="6">
+        <v>45902.59034722222</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>23</v>
+      </c>
+      <c r="B27" s="15">
+        <v>45901.66915509259</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="N27" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>24</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M28" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="N28" s="19"/>
+      <c r="O28" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>25</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M29" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="N29" s="19"/>
+      <c r="O29" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>26</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="N30" s="19"/>
+      <c r="O30" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="150" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>27</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M31" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="N31" s="19"/>
+      <c r="O31" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>28</v>
       </c>
-      <c r="N7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="4">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5">
-        <v>45900.623842592591</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" s="24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="38.25">
-      <c r="A9" s="4">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5">
-        <v>45906.630486111113</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="25.5">
-      <c r="A10" s="4">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5">
-        <v>45902.77244212963</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" s="24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="4">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5">
-        <v>45905.901886574073</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="O11" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="4">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5">
-        <v>45902.775277777779</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="O12" s="24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="4">
-        <v>9</v>
-      </c>
-      <c r="B13" s="5">
-        <v>45902.59002314815</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O13" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="4">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5">
-        <v>45902.59034722222</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O14" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="4">
-        <v>11</v>
-      </c>
-      <c r="B15" s="17">
-        <v>45901.66915509259</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="O15" s="25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="42.75">
-      <c r="A16" s="16">
-        <v>12</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="L16" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="27" t="s">
-        <v>107</v>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M32" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="N32" s="19"/>
+      <c r="O32" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="23" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="E2:L2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="279">
   <si>
     <t>STATE LOAD DESPATCH CENTRE 
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
@@ -767,9 +767,6 @@
   </si>
   <si>
     <t>DEFERRED, WRPC APPROVAL REQUIRED</t>
-  </si>
-  <si>
-    <t>SUB LD, EI APPROVAL TO BE SUBMITTED PRIOR TO CHARGING</t>
   </si>
   <si>
     <t>132KV REWA - REWA IC-2</t>
@@ -1416,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2223,7 +2220,7 @@
         <v>126</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2267,7 +2264,7 @@
         <v>126</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2309,7 +2306,7 @@
         <v>126</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2351,7 +2348,7 @@
         <v>126</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2395,7 +2392,7 @@
         <v>126</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2437,7 +2434,7 @@
         <v>126</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2481,7 +2478,7 @@
         <v>126</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2523,7 +2520,7 @@
         <v>126</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2565,7 +2562,7 @@
         <v>126</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2750,7 +2747,7 @@
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>168</v>
@@ -2759,7 +2756,7 @@
         <v>22</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>41</v>
@@ -2777,7 +2774,7 @@
         <v>170</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2819,7 +2816,7 @@
         <v>176</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="76.5" x14ac:dyDescent="0.25">
@@ -2861,7 +2858,7 @@
         <v>182</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -2903,7 +2900,7 @@
         <v>189</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -3113,7 +3110,7 @@
         <v>217</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -3157,7 +3154,7 @@
         <v>225</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -3243,7 +3240,7 @@
         <v>239</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3256,22 +3253,22 @@
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
@@ -3290,22 +3287,22 @@
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
@@ -3324,22 +3321,22 @@
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
@@ -3358,22 +3355,22 @@
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
@@ -3392,22 +3389,22 @@
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
@@ -3426,22 +3423,22 @@
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
@@ -3460,22 +3457,22 @@
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
@@ -3494,28 +3491,28 @@
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -3528,22 +3525,22 @@
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -18,12 +18,11 @@
     <definedName name="__bookmark_1">Sheet0!$A$1:$M$30</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="158">
   <si>
     <t>STATE LOAD DESPATCH CENTRE 
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
@@ -535,6 +534,9 @@
   </si>
   <si>
     <t>24-00</t>
+  </si>
+  <si>
+    <t>S/I, SLDC MPPTCL JABALPUR</t>
   </si>
 </sst>
 </file>
@@ -722,9 +724,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -744,6 +743,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1095,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,20 +1120,20 @@
   <sheetData>
     <row r="1" spans="1:13" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1206,10 +1208,10 @@
       <c r="J4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="17"/>
+      <c r="L4" s="16"/>
       <c r="M4" s="4" t="s">
         <v>16</v>
       </c>
@@ -1950,32 +1952,34 @@
       <c r="A23" s="10">
         <v>19</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="6">
+        <v>45916.632835648146</v>
+      </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>128</v>
       </c>
       <c r="F23" s="10"/>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="L23" s="14" t="s">
+      <c r="L23" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="M23" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1983,32 +1987,34 @@
       <c r="A24" s="10">
         <v>20</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="6">
+        <v>45916.632835648146</v>
+      </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>129</v>
       </c>
       <c r="F24" s="10"/>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="L24" s="14" t="s">
+      <c r="L24" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="M24" s="11" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2016,32 +2022,34 @@
       <c r="A25" s="10">
         <v>21</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="6">
+        <v>45916.632835648146</v>
+      </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>132</v>
       </c>
       <c r="F25" s="10"/>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="K25" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="L25" s="14" t="s">
+      <c r="L25" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="M25" s="12" t="s">
+      <c r="M25" s="11" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2049,32 +2057,34 @@
       <c r="A26" s="10">
         <v>22</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="6">
+        <v>45916.632835648146</v>
+      </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>133</v>
       </c>
       <c r="F26" s="10"/>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="K26" s="13" t="s">
+      <c r="K26" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="L26" s="14" t="s">
+      <c r="L26" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="M26" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2082,32 +2092,34 @@
       <c r="A27" s="10">
         <v>23</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="6">
+        <v>45916.632835648146</v>
+      </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="11" t="s">
         <v>138</v>
       </c>
       <c r="F27" s="10"/>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="K27" s="13" t="s">
+      <c r="K27" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="L27" s="14" t="s">
+      <c r="L27" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="M27" s="12" t="s">
+      <c r="M27" s="11" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2115,32 +2127,34 @@
       <c r="A28" s="10">
         <v>24</v>
       </c>
-      <c r="B28" s="11"/>
+      <c r="B28" s="6">
+        <v>45916.632835648146</v>
+      </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="11" t="s">
         <v>142</v>
       </c>
       <c r="F28" s="10"/>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="J28" s="13" t="s">
+      <c r="J28" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="K28" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="L28" s="14" t="s">
+      <c r="L28" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="M28" s="12" t="s">
+      <c r="M28" s="11" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2148,36 +2162,38 @@
       <c r="A29" s="10">
         <v>25</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="6">
+        <v>45916.632835648146</v>
+      </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="11" t="s">
         <v>143</v>
       </c>
       <c r="F29" s="10"/>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="K29" s="13" t="s">
+      <c r="K29" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="L29" s="14" t="s">
+      <c r="L29" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="M29" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="5"/>
@@ -2190,7 +2206,9 @@
       <c r="J30" s="7"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="5"/>
+      <c r="M30" s="18" t="s">
+        <v>157</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2198,7 +2216,7 @@
     <mergeCell ref="K4:L4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -15,10 +15,9 @@
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__bookmark_1">Sheet0!$A$1:$M$13</definedName>
+    <definedName name="__bookmark_1">Sheet0!$A$1:$M$39</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="211">
   <si>
     <t>STATE LOAD DESPATCH CENTRE 
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
@@ -88,118 +87,163 @@
     <t>REMARK</t>
   </si>
   <si>
-    <t>MR2509/0704</t>
+    <t>MR2510/0049</t>
+  </si>
+  <si>
+    <t>220KV_100 MVA X- MER Make AREVA</t>
+  </si>
+  <si>
+    <t>400KV_ASHTA4</t>
+  </si>
+  <si>
+    <t>NON-OCCM-MP</t>
+  </si>
+  <si>
+    <t>Post Monsoon Maintenance &amp; testing work.</t>
+  </si>
+  <si>
+    <t>03-10-2025 08:00:00</t>
+  </si>
+  <si>
+    <t>03-10-2025 17:00:00</t>
+  </si>
+  <si>
+    <t>Jitendra Lohana</t>
+  </si>
+  <si>
+    <t>9425804978</t>
+  </si>
+  <si>
+    <t>MR2510/0012</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>220KV_220 kV Bus bar</t>
+  </si>
+  <si>
+    <t>220KV_BHOPAL</t>
+  </si>
+  <si>
+    <t>Repeated False alarm in Busbar Pannel</t>
+  </si>
+  <si>
+    <t>01-10-2025 16:30:00</t>
+  </si>
+  <si>
+    <t>03-10-2025 15:00:00</t>
+  </si>
+  <si>
+    <t>A K Jain</t>
+  </si>
+  <si>
+    <t>9425806899</t>
+  </si>
+  <si>
+    <t>MR2510/0029</t>
+  </si>
+  <si>
+    <t>220KV_200 MVA X-mer (T&amp;R)</t>
+  </si>
+  <si>
+    <t>220KV_BINA</t>
+  </si>
+  <si>
+    <t>post monsoon maintenance work</t>
+  </si>
+  <si>
+    <t>03-10-2025 09:30:00</t>
+  </si>
+  <si>
+    <t>03-10-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>Lalit singh</t>
+  </si>
+  <si>
+    <t>9425806845</t>
+  </si>
+  <si>
+    <t>220KV_DATIA</t>
+  </si>
+  <si>
+    <t>NON-OCCM-WR</t>
+  </si>
+  <si>
+    <t>Post monsoon maintenance &amp; testing work</t>
+  </si>
+  <si>
+    <t>03-10-2025 10:00:00</t>
+  </si>
+  <si>
+    <t>6265080313</t>
+  </si>
+  <si>
+    <t>MR2510/0024</t>
+  </si>
+  <si>
+    <t>132KV_132 KV 40 MVA X-MER -1,BHEL</t>
+  </si>
+  <si>
+    <t>Raksha Chhapariya</t>
+  </si>
+  <si>
+    <t>MR2510/0022</t>
   </si>
   <si>
     <t>Daily</t>
   </si>
   <si>
-    <t>132KV_132kV Balaghat Baihar Line</t>
-  </si>
-  <si>
-    <t>132KV_BALAGHAT</t>
+    <t>132KV_132kV Deolond - Beohari Ckt</t>
+  </si>
+  <si>
+    <t>132KV_DEVLOND</t>
+  </si>
+  <si>
+    <t>OPGW Work</t>
+  </si>
+  <si>
+    <t>03-10-2025 07:00:00</t>
+  </si>
+  <si>
+    <t>30-10-2025 19:00:00</t>
+  </si>
+  <si>
+    <t>G.L Sahu</t>
+  </si>
+  <si>
+    <t>9425805102</t>
+  </si>
+  <si>
+    <t>MR2510/0021</t>
+  </si>
+  <si>
+    <t>132KV_132kV Deolond - Jhinna ckt</t>
+  </si>
+  <si>
+    <t>MR2510/0036</t>
+  </si>
+  <si>
+    <t>132KV_132kv Dongrital-Anuppur Feeder bay</t>
+  </si>
+  <si>
+    <t>132KV_DONGRITAL</t>
   </si>
   <si>
     <t>OCCM-MP</t>
   </si>
   <si>
-    <t>Hand Trip Due to load Manage</t>
-  </si>
-  <si>
-    <t>28-09-2025 08:00:00</t>
-  </si>
-  <si>
-    <t>02-10-2025 17:00:00</t>
-  </si>
-  <si>
-    <t>S.K. BHALADHARE</t>
-  </si>
-  <si>
-    <t>9425807264</t>
-  </si>
-  <si>
-    <t>MR2510/0012</t>
-  </si>
-  <si>
-    <t>Continuous</t>
-  </si>
-  <si>
-    <t>220KV_220 kV Bus bar</t>
-  </si>
-  <si>
-    <t>220KV_BHOPAL</t>
-  </si>
-  <si>
-    <t>NON-OCCM-MP</t>
-  </si>
-  <si>
-    <t>Repeated False alarm in Busbar Pannel</t>
-  </si>
-  <si>
-    <t>01-10-2025 16:30:00</t>
-  </si>
-  <si>
-    <t>03-10-2025 15:00:00</t>
-  </si>
-  <si>
-    <t>A K Jain</t>
-  </si>
-  <si>
-    <t>9425806899</t>
-  </si>
-  <si>
-    <t>MR2509/0783</t>
-  </si>
-  <si>
-    <t>132KV_132KV bus coupler</t>
-  </si>
-  <si>
-    <t>220KV_HANDIYA</t>
-  </si>
-  <si>
-    <t>Safety Purpose</t>
-  </si>
-  <si>
-    <t>30-09-2025 10:00:00</t>
-  </si>
-  <si>
-    <t>K R Dongre</t>
-  </si>
-  <si>
-    <t>9424430754</t>
-  </si>
-  <si>
-    <t>MR2509/0782</t>
-  </si>
-  <si>
-    <t>220KV_220KV Bus Coupler</t>
-  </si>
-  <si>
-    <t>K.R. Dongre</t>
-  </si>
-  <si>
-    <t>MR2510/0004</t>
-  </si>
-  <si>
-    <t>132KV_132 KV Hoshangabad-SPM</t>
-  </si>
-  <si>
-    <t>220KV_HOSHANGABAD</t>
-  </si>
-  <si>
-    <t>Attending Hot point on CT</t>
-  </si>
-  <si>
-    <t>02-10-2025 10:00:00</t>
-  </si>
-  <si>
-    <t>02-10-2025 13:00:00</t>
-  </si>
-  <si>
-    <t>Ashutosh Rai</t>
-  </si>
-  <si>
-    <t>9425806902</t>
+    <t>DPR relay testing work.</t>
+  </si>
+  <si>
+    <t>03-10-2025 11:00:00</t>
+  </si>
+  <si>
+    <t>Mr.SABHAPATI PRAJAPATI</t>
+  </si>
+  <si>
+    <t>9039634660</t>
   </si>
   <si>
     <t>MR2510/0001</t>
@@ -226,57 +270,336 @@
     <t>9425805298</t>
   </si>
   <si>
-    <t>01-10-2025 09:00:00</t>
-  </si>
-  <si>
-    <t>MR2509/0709</t>
-  </si>
-  <si>
-    <t>132KV_132kV Balaghat Kirnapur Ckt-IInd</t>
-  </si>
-  <si>
-    <t>400KV_KIRNAPUR</t>
-  </si>
-  <si>
-    <t>Re-sagging of section Loc 465 to 478 &amp; 529 to 547</t>
-  </si>
-  <si>
-    <t>Shridhar Kumar Bhaladhare</t>
-  </si>
-  <si>
-    <t>9425448642</t>
-  </si>
-  <si>
-    <t>MR2509/0801</t>
-  </si>
-  <si>
-    <t>220KV_220 /132 kv 160 Bhel X-mer3</t>
+    <t>MR2510/0048</t>
+  </si>
+  <si>
+    <t>132KV_132 kv katni sleemnabad ckt 1</t>
+  </si>
+  <si>
+    <t>400KV_KATNI4</t>
+  </si>
+  <si>
+    <t>line maintenance work</t>
+  </si>
+  <si>
+    <t>pankaj yadav</t>
+  </si>
+  <si>
+    <t>9406713326</t>
+  </si>
+  <si>
+    <t>MR2510/0047</t>
+  </si>
+  <si>
+    <t>132KV_132kV Lalbarra Samnapur RTS</t>
+  </si>
+  <si>
+    <t>132KV_LALBARRA</t>
+  </si>
+  <si>
+    <t>The Dismantling of ABT Meter at 132kV HV side</t>
+  </si>
+  <si>
+    <t>03-10-2025 14:00:00</t>
+  </si>
+  <si>
+    <t>S.K. Nadekar</t>
+  </si>
+  <si>
+    <t>9425806848</t>
+  </si>
+  <si>
+    <t>MR2510/0039</t>
+  </si>
+  <si>
+    <t>160MVA_220/132KV_BBL_Xmer_2</t>
+  </si>
+  <si>
+    <t>400KV_MANDSOUR4</t>
+  </si>
+  <si>
+    <t>Post monsoon maintenance and testing work</t>
+  </si>
+  <si>
+    <t>03-10-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>Prakash Chandra Dhakad</t>
+  </si>
+  <si>
+    <t>7587951067</t>
+  </si>
+  <si>
+    <t>MR2510/0050</t>
+  </si>
+  <si>
+    <t>220KV_220/132 Kv 160MVA BHEL 3 X-mer</t>
   </si>
   <si>
     <t>220KV_NARSINGHPUR</t>
   </si>
   <si>
-    <t>Sd for replacement Cb ,pi erection isolator</t>
-  </si>
-  <si>
-    <t>06-10-2025 17:00:00</t>
-  </si>
-  <si>
-    <t>Dinesh kushwaha</t>
+    <t>Replacement of CB,PI&amp;Mainbus isolator erection</t>
+  </si>
+  <si>
+    <t>08-10-2025 17:00:00</t>
+  </si>
+  <si>
+    <t>Dinesh Kumar Kushwaha</t>
   </si>
   <si>
     <t>9425182413</t>
   </si>
   <si>
-    <t>MR2509/0042</t>
+    <t>MR2510/0031</t>
+  </si>
+  <si>
+    <t>220KV_220 Kv Nimrani Julwaniya</t>
+  </si>
+  <si>
+    <t>220KV_NIMRANI</t>
+  </si>
+  <si>
+    <t>S/d On 220 kV Main Bus For Hot Point attending</t>
+  </si>
+  <si>
+    <t>Pradip Patidar</t>
+  </si>
+  <si>
+    <t>9981046192</t>
+  </si>
+  <si>
+    <t>MR2510/0025</t>
+  </si>
+  <si>
+    <t>220KV_220/132KV 160MVA X-Mer-I CGL</t>
+  </si>
+  <si>
+    <t>MR2510/0026</t>
+  </si>
+  <si>
+    <t>220KV_220/132KV 160MVA X-Mer-II BHEL</t>
+  </si>
+  <si>
+    <t>MR2510/0027</t>
+  </si>
+  <si>
+    <t>220KV_220/132KV 160MVA X-Mer-III BBL</t>
+  </si>
+  <si>
+    <t>MR2510/0028</t>
+  </si>
+  <si>
+    <t>220KV_220 Kv Nimrani Chhegaon-I</t>
+  </si>
+  <si>
+    <t>MR2510/0030</t>
+  </si>
+  <si>
+    <t>220KV_220 Kv Nimrani-Chhegaon -II</t>
+  </si>
+  <si>
+    <t>MR2510/0032</t>
+  </si>
+  <si>
+    <t>220KV_220 Kv Nimrani Barwaha</t>
+  </si>
+  <si>
+    <t>MR2510/0033</t>
+  </si>
+  <si>
+    <t>220KV_220 Kv Nimrani Maheshwer-I</t>
+  </si>
+  <si>
+    <t>MR2510/0034</t>
+  </si>
+  <si>
+    <t>220KV_220 Kv Nimrani Maheshhwer-II</t>
+  </si>
+  <si>
+    <t>MR2510/0035</t>
+  </si>
+  <si>
+    <t>220KV_220 Kv PT</t>
+  </si>
+  <si>
+    <t>MR2510/0051</t>
+  </si>
+  <si>
+    <t>132KV_40MVA TRANSFORMER TAL</t>
+  </si>
+  <si>
+    <t>132KV_PETLAWAD</t>
+  </si>
+  <si>
+    <t>For hot point attend on on LV side bushing clamp</t>
+  </si>
+  <si>
+    <t>03-10-2025 12:00:00</t>
+  </si>
+  <si>
+    <t>Er varsingh mohoniya</t>
+  </si>
+  <si>
+    <t>9425803496</t>
+  </si>
+  <si>
+    <t>MR2510/0020</t>
+  </si>
+  <si>
+    <t>132KV_132kV Rampur Naikin - Beohari Ckt</t>
+  </si>
+  <si>
+    <t>132KV_RAMPUR NAIKEN</t>
+  </si>
+  <si>
+    <t>OPGW Work.</t>
+  </si>
+  <si>
+    <t>MR2510/0019</t>
+  </si>
+  <si>
+    <t>132KV_132kV Rewa - jhinna</t>
+  </si>
+  <si>
+    <t>220KV_REWA</t>
+  </si>
+  <si>
+    <t>MR2510/0008</t>
+  </si>
+  <si>
+    <t>220KV_160mva 220/132kv BHEL X-MER</t>
+  </si>
+  <si>
+    <t>400KV_SAGAR</t>
+  </si>
+  <si>
+    <t>POST MANSOON MAINTENANCE &amp; TESTING WORK</t>
+  </si>
+  <si>
+    <t>Srajan Sisodiya</t>
+  </si>
+  <si>
+    <t>7879960164</t>
+  </si>
+  <si>
+    <t>132KV_132KV Seoni -Gopalganj feeder</t>
+  </si>
+  <si>
+    <t>132KV_SEONI1</t>
+  </si>
+  <si>
+    <t>Rph CT replacement work due to high Tan-delta</t>
+  </si>
+  <si>
+    <t>Ramkumar Meshram</t>
+  </si>
+  <si>
+    <t>7587951054</t>
+  </si>
+  <si>
+    <t>MR2510/0046</t>
+  </si>
+  <si>
+    <t>MR2510/0011</t>
+  </si>
+  <si>
+    <t>132KV_132kV Seoni Katangi Feeder</t>
+  </si>
+  <si>
+    <t>Replacement of broken disc insulator</t>
+  </si>
+  <si>
+    <t>MR2509/0785</t>
+  </si>
+  <si>
+    <t>220KV_Bay #04, 220 KV Birsinghpur pali I/C-II</t>
+  </si>
+  <si>
+    <t>400KV_SGTPS</t>
+  </si>
+  <si>
+    <t>for the closing circuit checking work</t>
+  </si>
+  <si>
+    <t>KIRAN SINGH</t>
+  </si>
+  <si>
+    <t>9425826084</t>
+  </si>
+  <si>
+    <t>MR2510/0041</t>
+  </si>
+  <si>
+    <t>220KV_220KV Main Bus-II alongwith connected feeder Chhegaon-II , ST-3,ICT-1,Bus-coupler for protection circuit checking work</t>
+  </si>
+  <si>
+    <t>400KV_SINGHAJI TPS</t>
+  </si>
+  <si>
+    <t>Protection circuit checking / BCU checking work</t>
+  </si>
+  <si>
+    <t>Deepak Sharma</t>
+  </si>
+  <si>
+    <t>8005696855</t>
+  </si>
+  <si>
+    <t>MR2509/0780</t>
+  </si>
+  <si>
+    <t>400KV_400KV Chhegaon-I for PMU commissioning</t>
+  </si>
+  <si>
+    <t>commissioning of PMU at SSTPP PH-I</t>
+  </si>
+  <si>
+    <t>MR2510/0037</t>
+  </si>
+  <si>
+    <t>132KV_40mva BBL-make-Make Transformer</t>
+  </si>
+  <si>
+    <t>220KV_TIKAMGARH</t>
+  </si>
+  <si>
+    <t>Post mansoon maintenance</t>
+  </si>
+  <si>
+    <t>Pushpendra Kumar soni</t>
+  </si>
+  <si>
+    <t>9425806398</t>
+  </si>
+  <si>
+    <t>MR2510/0038</t>
+  </si>
+  <si>
+    <t>132KV_50 MVA TAl -make transformer</t>
+  </si>
+  <si>
+    <t>MR2510/0009</t>
+  </si>
+  <si>
+    <t>220KV_160 MVA XMER BHEL -I</t>
+  </si>
+  <si>
+    <t>220KV_UJJAIN</t>
+  </si>
+  <si>
+    <t>Post Monsoon Maint &amp; Testing work</t>
+  </si>
+  <si>
+    <t>B.C JOSHI</t>
+  </si>
+  <si>
+    <t>7587951137</t>
   </si>
   <si>
     <t>220KV_160 MVA NGEF</t>
   </si>
   <si>
-    <t>220KV_UJJAIN</t>
-  </si>
-  <si>
     <t>X-MER REPLACEMENT WORK BY NEW 160 MAV XMER</t>
   </si>
   <si>
@@ -286,25 +609,64 @@
     <t>03-11-2025 18:00:00</t>
   </si>
   <si>
-    <t>B.C JOSHI</t>
-  </si>
-  <si>
-    <t>7587951137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OK, FTC TO BE SUBMITTED </t>
-  </si>
-  <si>
-    <t>Deffered for 2nd October</t>
+    <t>MR2509/0043</t>
+  </si>
+  <si>
+    <t>ok, through sub ld, o&amp;m shall be informed</t>
+  </si>
+  <si>
+    <t>work completed</t>
+  </si>
+  <si>
+    <t>ok, through sub ld</t>
   </si>
   <si>
     <t>sub ld</t>
   </si>
   <si>
-    <t>work completed</t>
+    <t>ok, line to be in service through TBC</t>
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>Deffered, due to s/d on Sagar x-mer</t>
+  </si>
+  <si>
+    <t>please confirm the availability of telemetry from communication</t>
+  </si>
+  <si>
+    <t>ABT confirmation required for meter work</t>
+  </si>
+  <si>
+    <t>Deffered due to multiple outages in the region</t>
+  </si>
+  <si>
+    <t>real time, omkareshwar HPS is running on full load, so 220kv Barwaha-Nimrani tap OSP shall only be kept off at Nimrani end so that power evacuation at OSP may not be hampered, O&amp;M shall be informed</t>
+  </si>
+  <si>
+    <t>400KV/220KV SATNA-ICT-3</t>
+  </si>
+  <si>
+    <t>132KV-DHARNI-NEPANAGAR-1</t>
+  </si>
+  <si>
+    <t>For excavation work related to construction of cable trench for 220 kV EHT cable associated with upcoming 400/220 kV ICT#4, Dia to be kept open at both sides.</t>
+  </si>
+  <si>
+    <t>For PID work, Shifting of auto reclose switch to non auto mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">real time, </t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>S/I ,SLDC MPPTCL JABALPUR</t>
+  </si>
+  <si>
+    <t>APPROVED OUTAGE LIST FOR DTD.03.10.2025</t>
   </si>
 </sst>
 </file>
@@ -312,10 +674,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-1010809]dd\-mm\-yyyy"/>
-    <numFmt numFmtId="165" formatCode="[$-1010809]dd/mm/yyyy\ hh:mm"/>
+    <numFmt numFmtId="164" formatCode="[$-1010409]dd\-mm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-1010409]dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -328,19 +690,15 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
@@ -349,15 +707,38 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,8 +750,20 @@
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -430,58 +823,121 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -513,8 +969,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>605333</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>3335</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>551023</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -847,509 +1303,1614 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="11.140625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="52.140625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="53.28515625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="44.140625" style="12" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="56.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="43.7109375" customWidth="1"/>
+    <col min="9" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="58.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:13" ht="78" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="15"/>
-    </row>
-    <row r="2" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="42" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>45932</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="19">
+        <v>45933</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" s="15" customFormat="1" ht="42" customHeight="1">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" s="15" customFormat="1" ht="42" customHeight="1">
+      <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="11" t="s">
+      <c r="L4" s="18"/>
+      <c r="M4" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="7">
-        <v>45926.447789351849</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="3">
+        <v>45932.639733796299</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="M5" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A6" s="2">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="3">
         <v>45931.681504629632</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="J6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="K6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="L6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="M6" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A7" s="2">
+        <f t="shared" ref="A7:A41" si="0">A6+1</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45932.540451388886</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45932.503171296295</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45932.473009259258</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45932.471319444441</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45932.550092592595</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45931.399131944447</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45932.624247685184</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45932.614490740743</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <f t="shared" ref="A7:A13" si="0">A6+1</f>
-        <v>3</v>
-      </c>
-      <c r="B7" s="7">
-        <v>45929.7496875</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="K14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45932.574942129628</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45932.644097222219</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45932.542164351849</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45932.534305555557</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M18" s="25"/>
+    </row>
+    <row r="19" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45932.536458333336</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M19" s="25"/>
+    </row>
+    <row r="20" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45932.537986111114</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M20" s="25"/>
+    </row>
+    <row r="21" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45932.539490740739</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M21" s="25"/>
+    </row>
+    <row r="22" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45932.540648148148</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M22" s="25"/>
+    </row>
+    <row r="23" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45932.543576388889</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M23" s="25"/>
+    </row>
+    <row r="24" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45932.545115740744</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M24" s="25"/>
+    </row>
+    <row r="25" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45932.547407407408</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M25" s="25"/>
+    </row>
+    <row r="26" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45932.548738425925</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M26" s="26"/>
+    </row>
+    <row r="27" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45932.650868055556</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45932.469768518517</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45932.467893518522</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45931.587199074071</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45932.608530092592</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45931.63076388889</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A33" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="3">
+        <v>45930.44703703704</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="42.75" customHeight="1">
+      <c r="A34" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="3">
+        <v>45932.593194444446</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A35" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="3">
+        <v>45929.730578703704</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A36" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="3">
+        <v>45932.570798611108</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A37" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B37" s="3">
+        <v>45932.572199074071</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A38" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B38" s="3">
+        <v>45931.600312499999</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A39" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B39" s="3">
+        <v>45902.59034722222</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="51">
+      <c r="A40" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B40" s="3">
+        <v>45902.59034722222</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="25.5">
+      <c r="A41" s="2">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="7">
-        <v>45929.741319444445</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="7">
-        <v>45931.51939814815</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="7">
-        <v>45931.399131944447</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="7">
-        <v>45926.491331018522</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="B41" s="3">
+        <v>45902.59034722222</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="7">
-        <v>45930.698657407411</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="7">
-        <v>45902.59002314815</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>85</v>
+      <c r="H41" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="23.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="9" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="K4:L4"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="M17:M26"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -574,9 +574,6 @@
     <t>data availability confirmation required from communication</t>
   </si>
   <si>
-    <t>pending</t>
-  </si>
-  <si>
     <t>132KV-VSTPS-WAIDHAN-1</t>
   </si>
   <si>
@@ -623,6 +620,9 @@
   </si>
   <si>
     <t>OCCM-WR</t>
+  </si>
+  <si>
+    <t>APPROVED  FOR 4 HRS.OSP 5 M/C TO BE RUN DURING S/D PERIOD.</t>
   </si>
 </sst>
 </file>
@@ -930,8 +930,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>605333</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2083</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>3335</xdr:rowOff>
     </xdr:to>
@@ -1268,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1312,7 +1312,7 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
@@ -1504,7 +1504,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="31" customFormat="1" ht="40.5" customHeight="1">
+    <row r="8" spans="1:13" s="31" customFormat="1" ht="57" customHeight="1">
       <c r="A8" s="25">
         <v>4</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>48</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="31" customFormat="1" ht="40.5" customHeight="1">
@@ -2425,29 +2425,29 @@
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
       <c r="E31" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F31" s="25"/>
       <c r="G31" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I31" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="J31" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="J31" s="28" t="s">
+      <c r="K31" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="K31" s="29" t="s">
+      <c r="L31" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="L31" s="30" t="s">
-        <v>195</v>
-      </c>
       <c r="M31" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="75">
@@ -2460,29 +2460,29 @@
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H32" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="M32" s="25" t="s">
         <v>188</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="M32" s="25" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="75">
@@ -2495,29 +2495,29 @@
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H33" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="M33" s="25" t="s">
         <v>188</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="M33" s="25" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="36">
@@ -2534,7 +2534,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="6"/>
       <c r="M34" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2544,7 +2544,7 @@
     <mergeCell ref="E2:L2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -1579,7 +1579,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,21 +9,34 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__bookmark_1">Sheet0!$A$1:$M$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet0!$A$1:$M$12</definedName>
+    <definedName name="__bookmark_1">Sheet0!$A$1:$M$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet0!$A$1:$M$14</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>STATE LOAD DESPATCH CENTRE 
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
@@ -113,30 +126,6 @@
     <t>132KV_132kV Deolond - Jhinna ckt</t>
   </si>
   <si>
-    <t>MR2510/0491</t>
-  </si>
-  <si>
-    <t>132KV_132 KV  PANAGAR KATANGI LINE</t>
-  </si>
-  <si>
-    <t>220KV_PANAGAR</t>
-  </si>
-  <si>
-    <t>MODIFICATION SHIFTING WORK</t>
-  </si>
-  <si>
-    <t>19-10-2025 12:00:00</t>
-  </si>
-  <si>
-    <t>19-10-2025 18:00:00</t>
-  </si>
-  <si>
-    <t>PANKAJ YADAV</t>
-  </si>
-  <si>
-    <t>9406713326</t>
-  </si>
-  <si>
     <t>MR2510/0020</t>
   </si>
   <si>
@@ -185,10 +174,25 @@
     <t>MR2509/0043</t>
   </si>
   <si>
-    <t>Deffered</t>
-  </si>
-  <si>
-    <t>Deffered by site</t>
+    <t xml:space="preserve">deffered </t>
+  </si>
+  <si>
+    <t xml:space="preserve">continuous </t>
+  </si>
+  <si>
+    <t>400KV/220KV SEONI-PG-ICT-1</t>
+  </si>
+  <si>
+    <t>20-Oct-2025</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>AMP of ICT at Seoni S/s.</t>
   </si>
   <si>
     <t>S/I ,SLDC MPPTCL JABALPUR</t>
@@ -199,14 +203,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-1010809]dd\-mm\-yyyy"/>
-    <numFmt numFmtId="165" formatCode="[$-1010809]dd/mm/yyyy\ hh:mm"/>
+    <numFmt numFmtId="164" formatCode="[$-1010409]dd\-mm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-1010409]dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -218,20 +222,46 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -242,23 +272,11 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -355,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,30 +393,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -428,10 +449,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2083</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>605333</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>558960</xdr:rowOff>
+      <xdr:rowOff>551975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -478,39 +499,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -562,7 +583,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -673,13 +694,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -688,6 +702,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -752,11 +773,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -766,48 +807,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="53.28515625" customWidth="1"/>
-    <col min="9" max="10" width="19.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="47.5703125" customWidth="1"/>
+    <col min="5" max="5" width="39.5" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="53.375" customWidth="1"/>
+    <col min="9" max="10" width="19.5" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="72" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="14"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="63" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
-        <v>45949</v>
+      <c r="B2" s="10">
+        <v>45950</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -821,7 +862,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="63" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -844,7 +885,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="63" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -883,258 +924,245 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+    <row r="5" spans="1:13" s="16" customFormat="1" ht="57" customHeight="1">
+      <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="12">
         <v>45932.473009259258</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>53</v>
+      <c r="M5" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <f>A5+1</f>
+    <row r="6" spans="1:13" s="16" customFormat="1" ht="57" customHeight="1">
+      <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="12">
         <v>45932.471319444441</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>53</v>
+      <c r="M6" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <f t="shared" ref="A7:A10" si="0">A6+1</f>
+    <row r="7" spans="1:13" s="16" customFormat="1" ht="57" customHeight="1">
+      <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="8">
-        <v>45948.583067129628</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="12">
+        <v>45932.469768518517</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="16" customFormat="1" ht="57" customHeight="1">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12">
+        <v>45932.467893518522</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="D8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="G8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="16" customFormat="1" ht="57" customHeight="1">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12">
+        <v>45902.59034722222</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="7" t="s">
-        <v>54</v>
+      <c r="E9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="8">
-        <v>45932.469768518517</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>53</v>
+    <row r="10" spans="1:13" s="16" customFormat="1" ht="42" customHeight="1">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="8">
-        <v>45932.467893518522</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="8">
-        <v>45902.59034722222</v>
-      </c>
-      <c r="C10" s="7" t="s">
+    <row r="11" spans="1:13" ht="36">
+      <c r="M11" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="M11" s="15" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1143,7 +1171,7 @@
     <mergeCell ref="K4:L4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="45" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
   <si>
     <t>STATE LOAD DESPATCH CENTRE 
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
@@ -171,31 +171,58 @@
     <t>7587951137</t>
   </si>
   <si>
-    <t>MR2509/0043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deffered </t>
-  </si>
-  <si>
-    <t xml:space="preserve">continuous </t>
-  </si>
-  <si>
-    <t>400KV/220KV SEONI-PG-ICT-1</t>
-  </si>
-  <si>
-    <t>20-Oct-2025</t>
-  </si>
-  <si>
-    <t>07:00</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>AMP of ICT at Seoni S/s.</t>
-  </si>
-  <si>
-    <t>S/I ,SLDC MPPTCL JABALPUR</t>
+    <t xml:space="preserve">data availability confirmation required from communication </t>
+  </si>
+  <si>
+    <t>MR2510/0492</t>
+  </si>
+  <si>
+    <t>220KV_160MVA X-MER IMP</t>
+  </si>
+  <si>
+    <t>220KV_KOTAR</t>
+  </si>
+  <si>
+    <t>OCCM-MP</t>
+  </si>
+  <si>
+    <t>CTR DRAIN VALVE REPLACEMENT BY CTR REPRESENTATIVE</t>
+  </si>
+  <si>
+    <t>21-10-2025 13:30:00</t>
+  </si>
+  <si>
+    <t>21-10-2025 17:00:00</t>
+  </si>
+  <si>
+    <t>ARUN KUMAR KOL</t>
+  </si>
+  <si>
+    <t>8319677721</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>MR2509/0042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK, FTC TO BE SUBMITTED </t>
+  </si>
+  <si>
+    <t>132KV-VSTPS-WAIDHAN-2</t>
+  </si>
+  <si>
+    <t>NTPC_VSTPS</t>
+  </si>
+  <si>
+    <t>MADHYA PRADESH,NTPC</t>
+  </si>
+  <si>
+    <t>Annual Bay Maitenanace/ replacement of CRP</t>
+  </si>
+  <si>
+    <t>ok, CKT 1 to be in service, discom to be informed ;  SLDC MP Consent to be taken.Load to be managed by SLDC MP</t>
   </si>
 </sst>
 </file>
@@ -206,7 +233,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010409]dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-1010409]dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -225,55 +252,18 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -293,7 +283,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,20 +350,24 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -381,45 +375,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -477,6 +468,50 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>605333</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>553632</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="605333" cy="553632"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -805,365 +840,414 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="39.5" customWidth="1"/>
     <col min="6" max="6" width="24.625" customWidth="1"/>
     <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="53.375" customWidth="1"/>
+    <col min="8" max="8" width="60.75" customWidth="1"/>
     <col min="9" max="10" width="19.5" customWidth="1"/>
-    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
     <col min="12" max="12" width="12.125" customWidth="1"/>
     <col min="13" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="72" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="9"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="63" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" ht="63" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
-        <v>45950</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="B2" s="5">
+        <v>45951</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="63" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:13" ht="63" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="63" customHeight="1">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:13" ht="63" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="4" t="s">
+      <c r="L4" s="9"/>
+      <c r="M4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="16" customFormat="1" ht="57" customHeight="1">
-      <c r="A5" s="11">
+    <row r="5" spans="1:13" ht="57" customHeight="1">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>45932.473009259258</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="57" customHeight="1">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11">
+        <v>45932.471319444441</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="57" customHeight="1">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11">
+        <v>45950.623784722222</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>45</v>
       </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" s="16" customFormat="1" ht="57" customHeight="1">
-      <c r="A6" s="11">
-        <v>2</v>
-      </c>
-      <c r="B6" s="12">
-        <v>45932.471319444441</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="11" t="s">
+    <row r="8" spans="1:13" ht="57" customHeight="1">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11">
+        <v>45932.469768518517</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="E8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="13" t="s">
+      <c r="H8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>45</v>
+      <c r="M8" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="16" customFormat="1" ht="57" customHeight="1">
-      <c r="A7" s="11">
-        <v>3</v>
-      </c>
-      <c r="B7" s="12">
-        <v>45932.469768518517</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="11" t="s">
+    <row r="9" spans="1:13" ht="57" customHeight="1">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="11">
+        <v>45932.467893518522</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="E9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>45</v>
+      <c r="M9" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="16" customFormat="1" ht="57" customHeight="1">
-      <c r="A8" s="11">
-        <v>4</v>
-      </c>
-      <c r="B8" s="12">
-        <v>45932.467893518522</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="11" t="s">
+    <row r="10" spans="1:13" ht="42" customHeight="1">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11">
+        <v>45902.59002314815</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>45</v>
+      <c r="H10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="16" customFormat="1" ht="57" customHeight="1">
-      <c r="A9" s="11">
-        <v>5</v>
-      </c>
-      <c r="B9" s="12">
-        <v>45902.59034722222</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>46</v>
+    <row r="11" spans="1:13" ht="51">
+      <c r="A11" s="10">
+        <v>7</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="12">
+        <v>45903.333333333336</v>
+      </c>
+      <c r="J11" s="12">
+        <v>45903.75</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="16" customFormat="1" ht="42" customHeight="1">
-      <c r="A10" s="11">
-        <v>6</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="36">
-      <c r="M11" s="17" t="s">
-        <v>52</v>
-      </c>
+    <row r="12" spans="1:13">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/1.xlsx
+++ b/1.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__bookmark_1">Sheet0!$A$1:$M$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet0!$A$1:$M$14</definedName>
+    <definedName name="__bookmark_1">Sheet0!$A$1:$M$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,8 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="143">
   <si>
     <t>STATE LOAD DESPATCH CENTRE 
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
@@ -90,6 +87,153 @@
     <t>REMARK</t>
   </si>
   <si>
+    <t>MR2510/0496</t>
+  </si>
+  <si>
+    <t>132KV_40MVA BBL X-mer</t>
+  </si>
+  <si>
+    <t>132KV_AMARPATAN</t>
+  </si>
+  <si>
+    <t>NON-OCCM-MP</t>
+  </si>
+  <si>
+    <t>Differential relay replacement work</t>
+  </si>
+  <si>
+    <t>22-10-2025 10:00:00</t>
+  </si>
+  <si>
+    <t>22-10-2025 20:00:00</t>
+  </si>
+  <si>
+    <t>ARUN KUMAR KOL</t>
+  </si>
+  <si>
+    <t>9425802368</t>
+  </si>
+  <si>
+    <t>MR2510/0499</t>
+  </si>
+  <si>
+    <t>220KV_220 kV Interconnector 2 from Bus Transfer bay to main CB</t>
+  </si>
+  <si>
+    <t>220KV_BHOPAL</t>
+  </si>
+  <si>
+    <t>NON-OCCM-WR</t>
+  </si>
+  <si>
+    <t>replacement of damaged  overhead Conductor</t>
+  </si>
+  <si>
+    <t>22-10-2025 08:00:00</t>
+  </si>
+  <si>
+    <t>22-10-2025 17:00:00</t>
+  </si>
+  <si>
+    <t>A. K. Jain</t>
+  </si>
+  <si>
+    <t>9425806899</t>
+  </si>
+  <si>
+    <t>MR2510/0500</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>220KV_Transfer the Load of 220 kV Interconnector 2  line on Bus Transfer</t>
+  </si>
+  <si>
+    <t>main CB of 220 kV Interconnector 2 line is not rel</t>
+  </si>
+  <si>
+    <t>24-10-2025 17:00:00</t>
+  </si>
+  <si>
+    <t>MR2510/0497</t>
+  </si>
+  <si>
+    <t>220KV_200 MVA Transformer</t>
+  </si>
+  <si>
+    <t>replacement damaged  overhead Conductor</t>
+  </si>
+  <si>
+    <t>MR2510/0498</t>
+  </si>
+  <si>
+    <t>220KV_220 KV  Aux. bus</t>
+  </si>
+  <si>
+    <t>MR2510/0503</t>
+  </si>
+  <si>
+    <t>220KV_220 KV Bina-Sagar Ckt-2</t>
+  </si>
+  <si>
+    <t>400KV_BINA4</t>
+  </si>
+  <si>
+    <t>For f/o disc replacement &amp; other line maint.</t>
+  </si>
+  <si>
+    <t>22-10-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>Sanjay Singh Thakur</t>
+  </si>
+  <si>
+    <t>9425806936</t>
+  </si>
+  <si>
+    <t>MR2510/0501</t>
+  </si>
+  <si>
+    <t>400KV_80MVAR Guna-2 Line Reactor</t>
+  </si>
+  <si>
+    <t>Post Monsoon Maintenance wprk.</t>
+  </si>
+  <si>
+    <t>22-10-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>22-10-2025 14:00:00</t>
+  </si>
+  <si>
+    <t>Mr.P.N. Namdeo</t>
+  </si>
+  <si>
+    <t>7587951092</t>
+  </si>
+  <si>
+    <t>MR2509/0455</t>
+  </si>
+  <si>
+    <t>220KV_220KV DAMOH - KATNI LINE</t>
+  </si>
+  <si>
+    <t>220KV_DAMOH</t>
+  </si>
+  <si>
+    <t>TOWER STRENGTHENING WORK</t>
+  </si>
+  <si>
+    <t>25-10-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>SHRI M.M. BAIG</t>
+  </si>
+  <si>
+    <t>9425805067</t>
+  </si>
+  <si>
     <t>MR2510/0022</t>
   </si>
   <si>
@@ -102,9 +246,6 @@
     <t>132KV_DEVLOND</t>
   </si>
   <si>
-    <t>NON-OCCM-MP</t>
-  </si>
-  <si>
     <t>OPGW Work</t>
   </si>
   <si>
@@ -126,6 +267,57 @@
     <t>132KV_132kV Deolond - Jhinna ckt</t>
   </si>
   <si>
+    <t>MR2509/0413</t>
+  </si>
+  <si>
+    <t>400KV_400KV DAMOH - KATNI LINE</t>
+  </si>
+  <si>
+    <t>400KV_KATNI4</t>
+  </si>
+  <si>
+    <t>OCCM-MP</t>
+  </si>
+  <si>
+    <t>MR2510/0502</t>
+  </si>
+  <si>
+    <t>220KV_160 mva x-mer make BHEL-02</t>
+  </si>
+  <si>
+    <t>220KV_NALKHEDA</t>
+  </si>
+  <si>
+    <t>HV SIDE BREAKER B-PHASE POLE MECHANISM PRO. RECTIF</t>
+  </si>
+  <si>
+    <t>22-10-2025 11:00:00</t>
+  </si>
+  <si>
+    <t>VK Gupta</t>
+  </si>
+  <si>
+    <t>9425801214</t>
+  </si>
+  <si>
+    <t>MR2510/0493</t>
+  </si>
+  <si>
+    <t>132KV_132 kv Panagar Katangi</t>
+  </si>
+  <si>
+    <t>220KV_PANAGAR</t>
+  </si>
+  <si>
+    <t>For installation of ERS in modification work</t>
+  </si>
+  <si>
+    <t>pankaj Yadav</t>
+  </si>
+  <si>
+    <t>9406713326</t>
+  </si>
+  <si>
     <t>MR2510/0020</t>
   </si>
   <si>
@@ -147,7 +339,22 @@
     <t>220KV_REWA</t>
   </si>
   <si>
-    <t>Continuous</t>
+    <t>MR2510/0495</t>
+  </si>
+  <si>
+    <t>160MVA_220/132KV_IMP_X'mer</t>
+  </si>
+  <si>
+    <t>220KV_SIRMOUR</t>
+  </si>
+  <si>
+    <t>Post Monsoon &amp; Testing Work</t>
+  </si>
+  <si>
+    <t>Mr. Indrajeet Singh</t>
+  </si>
+  <si>
+    <t>9424734033</t>
   </si>
   <si>
     <t>220KV_160 MVA NGEF</t>
@@ -171,58 +378,91 @@
     <t>7587951137</t>
   </si>
   <si>
-    <t xml:space="preserve">data availability confirmation required from communication </t>
-  </si>
-  <si>
-    <t>MR2510/0492</t>
-  </si>
-  <si>
-    <t>220KV_160MVA X-MER IMP</t>
-  </si>
-  <si>
-    <t>220KV_KOTAR</t>
-  </si>
-  <si>
-    <t>OCCM-MP</t>
-  </si>
-  <si>
-    <t>CTR DRAIN VALVE REPLACEMENT BY CTR REPRESENTATIVE</t>
-  </si>
-  <si>
-    <t>21-10-2025 13:30:00</t>
-  </si>
-  <si>
-    <t>21-10-2025 17:00:00</t>
-  </si>
-  <si>
-    <t>ARUN KUMAR KOL</t>
-  </si>
-  <si>
-    <t>8319677721</t>
+    <t>MR2509/0043</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>MR2509/0042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OK, FTC TO BE SUBMITTED </t>
-  </si>
-  <si>
-    <t>132KV-VSTPS-WAIDHAN-2</t>
-  </si>
-  <si>
-    <t>NTPC_VSTPS</t>
-  </si>
-  <si>
-    <t>MADHYA PRADESH,NTPC</t>
-  </si>
-  <si>
-    <t>Annual Bay Maitenanace/ replacement of CRP</t>
-  </si>
-  <si>
-    <t>ok, CKT 1 to be in service, discom to be informed ;  SLDC MP Consent to be taken.Load to be managed by SLDC MP</t>
+    <t>Deffered</t>
+  </si>
+  <si>
+    <t>data confirmation required from communication</t>
+  </si>
+  <si>
+    <t>ok, through sub ld</t>
+  </si>
+  <si>
+    <t>provide the details of work to be done</t>
+  </si>
+  <si>
+    <t>o&amp;m consent required</t>
+  </si>
+  <si>
+    <t>APPROVED OUTAGE LIST FOR DATED 22.10.2025</t>
+  </si>
+  <si>
+    <t>400KV/132KV VINDHYACHAL-ICT-3</t>
+  </si>
+  <si>
+    <t>NTPC</t>
+  </si>
+  <si>
+    <t>22-Oct-2025</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>25-Oct-2025</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>Annual Bay Maintenance and Testing/ Relay testing</t>
+  </si>
+  <si>
+    <t>POWERGRID-WR2 (PGCIL)</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>INDORE - 400KV - BUS 3</t>
+  </si>
+  <si>
+    <t>30-Oct-2025</t>
+  </si>
+  <si>
+    <t>ICT 3 Erection &amp; Commissioning work</t>
+  </si>
+  <si>
+    <t>POWERGRID-WR1 (PGCIL)</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>220KV-SEONI-PG-CHINDWARA-2</t>
+  </si>
+  <si>
+    <t>MADHYA PRADESH</t>
+  </si>
+  <si>
+    <t>FOR LINE MAINTENANCE WORK i.e. CLEANING OF DISC INSULATORS DURING LINE PATROLLING , REPLACEMENT OF FLASHOVERED DISC INSULATORS, TREE BRANCH CUTTING ETC AT VARIOUS TOWER LOCATIONS</t>
+  </si>
+  <si>
+    <t>real time</t>
+  </si>
+  <si>
+    <t>400KV/220KV SEONI-PG-ICT-2</t>
+  </si>
+  <si>
+    <t>AMP of ICT at Seoni S/s.</t>
+  </si>
+  <si>
+    <t>S/I SLDC JABALPUR</t>
   </si>
 </sst>
 </file>
@@ -233,11 +473,11 @@
     <numFmt numFmtId="164" formatCode="[$-1010409]dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-1010409]dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -263,13 +503,28 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,12 +538,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -363,34 +624,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -407,11 +689,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,8 +760,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>605333</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>551975</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3335</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -476,50 +794,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>605333</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>553632</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="605333" cy="553632"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -534,39 +808,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -618,7 +892,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -729,6 +1003,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -737,13 +1018,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -808,31 +1082,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -840,74 +1094,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="39.5" customWidth="1"/>
-    <col min="6" max="6" width="24.625" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="60.75" customWidth="1"/>
-    <col min="9" max="10" width="19.5" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="12.125" customWidth="1"/>
-    <col min="13" max="13" width="28" customWidth="1"/>
+    <col min="5" max="5" width="61.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="60.140625" customWidth="1"/>
+    <col min="9" max="10" width="19.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="72" customHeight="1">
+    <row r="1" spans="1:13" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" ht="63" customHeight="1">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>45951</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="B2" s="2">
+        <v>45952</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="63" customHeight="1">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1"/>
@@ -920,342 +1179,901 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="63" customHeight="1">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="6" t="s">
+      <c r="L4" s="11"/>
+      <c r="M4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="57" customHeight="1">
-      <c r="A5" s="10">
+    <row r="5" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="5">
+        <v>45951.49422453704</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <f>A5+1</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>45951.532175925924</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <f t="shared" ref="A7:A25" si="0">A6+1</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45951.537245370368</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45951.517280092594</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45951.530416666668</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="5">
+        <v>45951.593136574076</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="5">
+        <v>45951.54420138889</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>45918.72488425926</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="5">
         <v>45932.473009259258</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="5">
+        <v>45932.471319444441</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="5">
+        <v>45918.547048611108</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="5">
+        <v>45951.583553240744</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="5">
+        <v>45951.471712962964</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45932.469768518517</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="5">
+        <v>45932.467893518522</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="5">
+        <v>45951.482662037037</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="B21" s="17">
+        <v>45902.59034722222</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="M23" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="M24" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="57" customHeight="1">
-      <c r="A6" s="10">
-        <v>2</v>
-      </c>
-      <c r="B6" s="11">
-        <v>45932.471319444441</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="57" customHeight="1">
-      <c r="A7" s="10">
-        <v>3</v>
-      </c>
-      <c r="B7" s="11">
-        <v>45950.623784722222</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="57" customHeight="1">
-      <c r="A8" s="10">
-        <v>4</v>
-      </c>
-      <c r="B8" s="11">
-        <v>45932.469768518517</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="57" customHeight="1">
-      <c r="A9" s="10">
-        <v>5</v>
-      </c>
-      <c r="B9" s="11">
-        <v>45932.467893518522</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="42" customHeight="1">
-      <c r="A10" s="10">
-        <v>6</v>
-      </c>
-      <c r="B10" s="11">
-        <v>45902.59002314815</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="51">
-      <c r="A11" s="10">
-        <v>7</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="12">
-        <v>45903.333333333336</v>
-      </c>
-      <c r="J11" s="12">
-        <v>45903.75</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="10"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="M25" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="24" t="s">
+        <v>142</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C2:J2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="45" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__bookmark_1">Sheet0!$A$1:$M$21</definedName>
+    <definedName name="__bookmark_1">Sheet0!$A$1:$M$26</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="175">
   <si>
     <t>STATE LOAD DESPATCH CENTRE 
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
@@ -87,10 +87,10 @@
     <t>REMARK</t>
   </si>
   <si>
-    <t>MR2510/0496</t>
-  </si>
-  <si>
-    <t>132KV_40MVA BBL X-mer</t>
+    <t>MR2510/0525</t>
+  </si>
+  <si>
+    <t>132KV_33 KV Main bus</t>
   </si>
   <si>
     <t>132KV_AMARPATAN</t>
@@ -99,25 +99,82 @@
     <t>NON-OCCM-MP</t>
   </si>
   <si>
-    <t>Differential relay replacement work</t>
-  </si>
-  <si>
-    <t>22-10-2025 10:00:00</t>
-  </si>
-  <si>
-    <t>22-10-2025 20:00:00</t>
-  </si>
-  <si>
-    <t>ARUN KUMAR KOL</t>
-  </si>
-  <si>
-    <t>9425802368</t>
-  </si>
-  <si>
-    <t>MR2510/0499</t>
-  </si>
-  <si>
-    <t>220KV_220 kV Interconnector 2 from Bus Transfer bay to main CB</t>
+    <t>erection of radiator of 40 mva Telk Xmer</t>
+  </si>
+  <si>
+    <t>23-10-2025 10:00:00</t>
+  </si>
+  <si>
+    <t>23-10-2025 14:00:00</t>
+  </si>
+  <si>
+    <t>Arun Kumar</t>
+  </si>
+  <si>
+    <t>9425426476</t>
+  </si>
+  <si>
+    <t>MR2510/0523</t>
+  </si>
+  <si>
+    <t>132KV_40 MVA BBL Xmer</t>
+  </si>
+  <si>
+    <t>for erection 40 MVA Telk Xmer</t>
+  </si>
+  <si>
+    <t>23-10-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>23-10-2025 17:00:00</t>
+  </si>
+  <si>
+    <t>MR2510/0522</t>
+  </si>
+  <si>
+    <t>132KV_132 kV Anuppur-Shahdol line</t>
+  </si>
+  <si>
+    <t>220KV_ANUPPUR</t>
+  </si>
+  <si>
+    <t>F/o disc replacement &amp; other line maintenance</t>
+  </si>
+  <si>
+    <t>Jitendra Tiwari</t>
+  </si>
+  <si>
+    <t>9425805298</t>
+  </si>
+  <si>
+    <t>MR2510/0514</t>
+  </si>
+  <si>
+    <t>132KV_132kV Balaghat Baihar Line</t>
+  </si>
+  <si>
+    <t>132KV_BALAGHAT</t>
+  </si>
+  <si>
+    <t>Jumper Cone Tightening &amp; PID Difective</t>
+  </si>
+  <si>
+    <t>23-10-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>S.K. BHALADHARE</t>
+  </si>
+  <si>
+    <t>9425807264</t>
+  </si>
+  <si>
+    <t>MR2510/0500</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>220KV_Transfer the Load of 220 kV Interconnector 2  line on Bus Transfer</t>
   </si>
   <si>
     <t>220KV_BHOPAL</t>
@@ -126,105 +183,36 @@
     <t>NON-OCCM-WR</t>
   </si>
   <si>
-    <t>replacement of damaged  overhead Conductor</t>
-  </si>
-  <si>
-    <t>22-10-2025 08:00:00</t>
+    <t>main CB of 220 kV Interconnector 2 line is not rel</t>
   </si>
   <si>
     <t>22-10-2025 17:00:00</t>
   </si>
   <si>
+    <t>24-10-2025 17:00:00</t>
+  </si>
+  <si>
     <t>A. K. Jain</t>
   </si>
   <si>
     <t>9425806899</t>
   </si>
   <si>
-    <t>MR2510/0500</t>
-  </si>
-  <si>
-    <t>Continuous</t>
-  </si>
-  <si>
-    <t>220KV_Transfer the Load of 220 kV Interconnector 2  line on Bus Transfer</t>
-  </si>
-  <si>
-    <t>main CB of 220 kV Interconnector 2 line is not rel</t>
-  </si>
-  <si>
-    <t>24-10-2025 17:00:00</t>
-  </si>
-  <si>
-    <t>MR2510/0497</t>
-  </si>
-  <si>
-    <t>220KV_200 MVA Transformer</t>
-  </si>
-  <si>
-    <t>replacement damaged  overhead Conductor</t>
-  </si>
-  <si>
-    <t>MR2510/0498</t>
-  </si>
-  <si>
-    <t>220KV_220 KV  Aux. bus</t>
-  </si>
-  <si>
-    <t>MR2510/0503</t>
-  </si>
-  <si>
-    <t>220KV_220 KV Bina-Sagar Ckt-2</t>
-  </si>
-  <si>
-    <t>400KV_BINA4</t>
-  </si>
-  <si>
-    <t>For f/o disc replacement &amp; other line maint.</t>
-  </si>
-  <si>
-    <t>22-10-2025 18:00:00</t>
-  </si>
-  <si>
-    <t>Sanjay Singh Thakur</t>
-  </si>
-  <si>
-    <t>9425806936</t>
-  </si>
-  <si>
-    <t>MR2510/0501</t>
-  </si>
-  <si>
-    <t>400KV_80MVAR Guna-2 Line Reactor</t>
-  </si>
-  <si>
-    <t>Post Monsoon Maintenance wprk.</t>
+    <t>MR2509/0455</t>
+  </si>
+  <si>
+    <t>220KV_220KV DAMOH - KATNI LINE</t>
+  </si>
+  <si>
+    <t>220KV_DAMOH</t>
+  </si>
+  <si>
+    <t>TOWER STRENGTHENING WORK</t>
   </si>
   <si>
     <t>22-10-2025 09:00:00</t>
   </si>
   <si>
-    <t>22-10-2025 14:00:00</t>
-  </si>
-  <si>
-    <t>Mr.P.N. Namdeo</t>
-  </si>
-  <si>
-    <t>7587951092</t>
-  </si>
-  <si>
-    <t>MR2509/0455</t>
-  </si>
-  <si>
-    <t>220KV_220KV DAMOH - KATNI LINE</t>
-  </si>
-  <si>
-    <t>220KV_DAMOH</t>
-  </si>
-  <si>
-    <t>TOWER STRENGTHENING WORK</t>
-  </si>
-  <si>
     <t>25-10-2025 18:00:00</t>
   </si>
   <si>
@@ -234,6 +222,21 @@
     <t>9425805067</t>
   </si>
   <si>
+    <t>MR2510/0518</t>
+  </si>
+  <si>
+    <t>220KV_200MVA 220/132KV  T&amp;R X-MER</t>
+  </si>
+  <si>
+    <t>Post Monsoon Maintenance &amp; Testing work.</t>
+  </si>
+  <si>
+    <t>M.K.Choubey</t>
+  </si>
+  <si>
+    <t>9425801424</t>
+  </si>
+  <si>
     <t>MR2510/0022</t>
   </si>
   <si>
@@ -267,6 +270,45 @@
     <t>132KV_132kV Deolond - Jhinna ckt</t>
   </si>
   <si>
+    <t>MR2510/0527</t>
+  </si>
+  <si>
+    <t>220KV_220KV INDORE-BARNAGAR LINE</t>
+  </si>
+  <si>
+    <t>400KV_INDORE4</t>
+  </si>
+  <si>
+    <t>POST MONSOON MAINTANANCE WORK</t>
+  </si>
+  <si>
+    <t>ATUL PARADKAR</t>
+  </si>
+  <si>
+    <t>9425804929</t>
+  </si>
+  <si>
+    <t>MR2510/0515</t>
+  </si>
+  <si>
+    <t>50MVAR_BUS _Reactor</t>
+  </si>
+  <si>
+    <t>400KV_JULWANIYA4</t>
+  </si>
+  <si>
+    <t>Post monsoon maintenance &amp; testing work</t>
+  </si>
+  <si>
+    <t>23-10-2025 16:00:00</t>
+  </si>
+  <si>
+    <t>ER. Ravindra Patil</t>
+  </si>
+  <si>
+    <t>8305612190</t>
+  </si>
+  <si>
     <t>MR2509/0413</t>
   </si>
   <si>
@@ -279,43 +321,76 @@
     <t>OCCM-MP</t>
   </si>
   <si>
-    <t>MR2510/0502</t>
-  </si>
-  <si>
-    <t>220KV_160 mva x-mer make BHEL-02</t>
-  </si>
-  <si>
-    <t>220KV_NALKHEDA</t>
-  </si>
-  <si>
-    <t>HV SIDE BREAKER B-PHASE POLE MECHANISM PRO. RECTIF</t>
-  </si>
-  <si>
-    <t>22-10-2025 11:00:00</t>
-  </si>
-  <si>
-    <t>VK Gupta</t>
-  </si>
-  <si>
-    <t>9425801214</t>
-  </si>
-  <si>
-    <t>MR2510/0493</t>
-  </si>
-  <si>
-    <t>132KV_132 kv Panagar Katangi</t>
-  </si>
-  <si>
-    <t>220KV_PANAGAR</t>
-  </si>
-  <si>
-    <t>For installation of ERS in modification work</t>
-  </si>
-  <si>
-    <t>pankaj Yadav</t>
-  </si>
-  <si>
-    <t>9406713326</t>
+    <t>MR2510/0526</t>
+  </si>
+  <si>
+    <t>132KV_132 KV INTERCONNECTOR NO -2 Feeder</t>
+  </si>
+  <si>
+    <t>132KV_NARSINGHPUR1</t>
+  </si>
+  <si>
+    <t>R Phase line side isoiator jaw clamp hot point att</t>
+  </si>
+  <si>
+    <t>23-10-2025 11:00:00</t>
+  </si>
+  <si>
+    <t>23-10-2025 15:00:00</t>
+  </si>
+  <si>
+    <t>Jayprakash Dharne</t>
+  </si>
+  <si>
+    <t>7587951106</t>
+  </si>
+  <si>
+    <t>MR2510/0505</t>
+  </si>
+  <si>
+    <t>220KV_Bus A and Bus Coupler</t>
+  </si>
+  <si>
+    <t>220KV_OMKARESHWAR</t>
+  </si>
+  <si>
+    <t>Annual Maintenance</t>
+  </si>
+  <si>
+    <t>23-10-2025 09:30:00</t>
+  </si>
+  <si>
+    <t>Pankaj Sharma</t>
+  </si>
+  <si>
+    <t>7898703187</t>
+  </si>
+  <si>
+    <t>MR2510/0504</t>
+  </si>
+  <si>
+    <t>220KV_OMKARESHWAR-NIMRANI-Tap-BARWAHA_Ckt</t>
+  </si>
+  <si>
+    <t>Annual maintenance</t>
+  </si>
+  <si>
+    <t>MR2510/0517</t>
+  </si>
+  <si>
+    <t>132KV_40 MVA X-mer-III Make-IMP</t>
+  </si>
+  <si>
+    <t>132KV_RAJGARH DHAR1</t>
+  </si>
+  <si>
+    <t>For Post monsoon maintenance work.</t>
+  </si>
+  <si>
+    <t>Er. Manoj Randha</t>
+  </si>
+  <si>
+    <t>9425820034</t>
   </si>
   <si>
     <t>MR2510/0020</t>
@@ -339,24 +414,60 @@
     <t>220KV_REWA</t>
   </si>
   <si>
-    <t>MR2510/0495</t>
-  </si>
-  <si>
-    <t>160MVA_220/132KV_IMP_X'mer</t>
+    <t>MR2510/0516</t>
+  </si>
+  <si>
+    <t>132KV_132 kv  Satna â¿¿Prism (Cement) line</t>
+  </si>
+  <si>
+    <t>220KV_SATNA</t>
+  </si>
+  <si>
+    <t>Damage conductor strength repaired work</t>
+  </si>
+  <si>
+    <t>Mr. R.K.Prajapati</t>
+  </si>
+  <si>
+    <t>9407070182</t>
+  </si>
+  <si>
+    <t>MR2510/0520</t>
+  </si>
+  <si>
+    <t>220KV_220/132KV 160 MVA BBL X-mer</t>
   </si>
   <si>
     <t>220KV_SIRMOUR</t>
   </si>
   <si>
-    <t>Post Monsoon &amp; Testing Work</t>
-  </si>
-  <si>
-    <t>Mr. Indrajeet Singh</t>
+    <t>Post Monsoon Maintenance &amp; Testing Work</t>
+  </si>
+  <si>
+    <t>Shri Indrajeet Singh</t>
   </si>
   <si>
     <t>9424734033</t>
   </si>
   <si>
+    <t>MR2510/0524</t>
+  </si>
+  <si>
+    <t>220KV_160MVA TRANSFORMER-II</t>
+  </si>
+  <si>
+    <t>220KV_SUWASRA2</t>
+  </si>
+  <si>
+    <t>POST MANSOON MAINTENANCE &amp; TESTING WORK</t>
+  </si>
+  <si>
+    <t>SUNIL PAWAR</t>
+  </si>
+  <si>
+    <t>9425804939</t>
+  </si>
+  <si>
     <t>220KV_160 MVA NGEF</t>
   </si>
   <si>
@@ -381,6 +492,9 @@
     <t>MR2509/0043</t>
   </si>
   <si>
+    <t>o&amp;m consent required</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
@@ -393,76 +507,58 @@
     <t>ok, through sub ld</t>
   </si>
   <si>
-    <t>provide the details of work to be done</t>
-  </si>
-  <si>
-    <t>o&amp;m consent required</t>
-  </si>
-  <si>
-    <t>APPROVED OUTAGE LIST FOR DATED 22.10.2025</t>
-  </si>
-  <si>
-    <t>400KV/132KV VINDHYACHAL-ICT-3</t>
-  </si>
-  <si>
-    <t>NTPC</t>
-  </si>
-  <si>
-    <t>22-Oct-2025</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>25-Oct-2025</t>
+    <t>real time</t>
+  </si>
+  <si>
+    <t>sub ld</t>
+  </si>
+  <si>
+    <t>APPROVED OUTAGE LIST FOR DATED 23.10.2025</t>
+  </si>
+  <si>
+    <t>400KV/220KV SEONI-PG-ICT-1</t>
+  </si>
+  <si>
+    <t>POWERGRID-WR1 (PGCIL)</t>
+  </si>
+  <si>
+    <t>23-Oct-2025</t>
+  </si>
+  <si>
+    <t>09:00</t>
   </si>
   <si>
     <t>18:00</t>
   </si>
   <si>
-    <t>Annual Bay Maintenance and Testing/ Relay testing</t>
+    <t xml:space="preserve">	 For AMP Works@Seoni SS</t>
+  </si>
+  <si>
+    <t>400KV/220KV SATNA-ICT-2</t>
   </si>
   <si>
     <t>POWERGRID-WR2 (PGCIL)</t>
   </si>
   <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>INDORE - 400KV - BUS 3</t>
-  </si>
-  <si>
-    <t>30-Oct-2025</t>
-  </si>
-  <si>
-    <t>ICT 3 Erection &amp; Commissioning work</t>
-  </si>
-  <si>
-    <t>POWERGRID-WR1 (PGCIL)</t>
-  </si>
-  <si>
-    <t>07:00</t>
-  </si>
-  <si>
-    <t>220KV-SEONI-PG-CHINDWARA-2</t>
+    <t>AMP Work, Dia to be kept open at both sides.</t>
+  </si>
+  <si>
+    <t>400KV-BHOPAL-MP-BINA-MP-2</t>
   </si>
   <si>
     <t>MADHYA PRADESH</t>
   </si>
   <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>FOR BAY MAINTENANCE &amp; TESTING WORK AT SUBSTASTION, REPLACEMENT OF DAMAGED CLAMPS/JUMPERS ETC.</t>
+  </si>
+  <si>
+    <t>220KV-GWALIOR-MALANPUR-1</t>
+  </si>
+  <si>
     <t>FOR LINE MAINTENANCE WORK i.e. CLEANING OF DISC INSULATORS DURING LINE PATROLLING , REPLACEMENT OF FLASHOVERED DISC INSULATORS, TREE BRANCH CUTTING ETC AT VARIOUS TOWER LOCATIONS</t>
-  </si>
-  <si>
-    <t>real time</t>
-  </si>
-  <si>
-    <t>400KV/220KV SEONI-PG-ICT-2</t>
-  </si>
-  <si>
-    <t>AMP of ICT at Seoni S/s.</t>
-  </si>
-  <si>
-    <t>S/I SLDC JABALPUR</t>
   </si>
 </sst>
 </file>
@@ -470,10 +566,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-1010409]dd\-mm\-yyyy"/>
-    <numFmt numFmtId="165" formatCode="[$-1010409]dd/mm/yyyy\ hh:mm"/>
+    <numFmt numFmtId="164" formatCode="[$-1010809]dd\-mm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-1010809]dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -504,21 +600,13 @@
     </font>
     <font>
       <b/>
-      <sz val="36"/>
+      <sz val="28"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -538,7 +626,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,6 +777,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -727,9 +818,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1094,13 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,52 +1193,52 @@
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="66.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="60.140625" customWidth="1"/>
+    <col min="8" max="8" width="44.28515625" customWidth="1"/>
     <col min="9" max="10" width="19.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="43.5703125" customWidth="1"/>
+    <col min="13" max="13" width="55.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>45952</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+        <v>45953</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -1210,20 +1295,20 @@
       <c r="J4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="11"/>
+      <c r="L4" s="12"/>
       <c r="M4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="5">
-        <v>45951.49422453704</v>
+        <v>45952.646122685182</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>17</v>
@@ -1254,16 +1339,16 @@
         <v>25</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="5">
-        <v>45951.532175925924</v>
+        <v>45952.637499999997</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>26</v>
@@ -1273,804 +1358,1004 @@
         <v>27</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="J6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="K6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <f t="shared" ref="A7:A30" si="0">A6+1</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45952.626064814816</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="G7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <f t="shared" ref="A7:A25" si="0">A6+1</f>
-        <v>3</v>
-      </c>
-      <c r="B7" s="5">
-        <v>45951.537245370368</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="I7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="L7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="M7" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="5">
-        <v>45951.517280092594</v>
+        <v>45952.524548611109</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="L8" s="8" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="5">
-        <v>45951.530416666668</v>
+        <v>45951.537245370368</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="E9" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="5">
-        <v>45951.593136574076</v>
+        <v>45918.72488425926</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="5">
-        <v>45951.54420138889</v>
+        <v>45952.566435185188</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="5">
-        <v>45918.72488425926</v>
+        <v>45932.473009259258</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B13" s="5">
-        <v>45932.473009259258</v>
+        <v>45932.471319444441</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B14" s="5">
-        <v>45932.471319444441</v>
+        <v>45952.679537037038</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>67</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B15" s="5">
-        <v>45918.547048611108</v>
+        <v>45952.546585648146</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>36</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B16" s="5">
-        <v>45951.583553240744</v>
+        <v>45918.547048611108</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="E16" s="4" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B17" s="5">
-        <v>45951.471712962964</v>
+        <v>45952.646944444445</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B18" s="5">
-        <v>45932.469768518517</v>
+        <v>45951.855000000003</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>95</v>
+        <v>103</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B19" s="5">
-        <v>45932.467893518522</v>
+        <v>45951.840902777774</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>99</v>
+        <v>68</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B20" s="5">
-        <v>45951.482662037037</v>
+        <v>45952.552847222221</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="17">
-        <v>45902.59034722222</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="16" t="s">
+      <c r="B21" s="5">
+        <v>45932.469768518517</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="L21" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="M21" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22" t="s">
+      <c r="B22" s="5">
+        <v>45932.467893518522</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="L22" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="M22" s="23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+      <c r="I22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22" t="s">
+      <c r="B23" s="5">
+        <v>45952.546655092592</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L23" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F23" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="L23" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="M23" s="23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="M23" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22" t="s">
+      <c r="B24" s="5">
+        <v>45952.613275462965</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="L24" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="J24" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="K24" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="M24" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
+      <c r="M24" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22" t="s">
+      <c r="B25" s="5">
+        <v>45952.639710648145</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F25" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22" t="s">
+      <c r="G25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I25" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="L25" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="M25" s="23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="24" t="s">
+      <c r="I25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>142</v>
       </c>
+      <c r="L25" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="18">
+        <v>45902.59034722222</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="M27" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="M28" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="M29" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="M30" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C2:L2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -1290,7 +1290,7 @@
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>

--- a/1.xlsx
+++ b/1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,31 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__bookmark_1">Sheet0!$A$1:$M$33</definedName>
+    <definedName name="__bookmark_1">Sheet0!$A$1:$M$34</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="220">
   <si>
     <t>STATE LOAD DESPATCH CENTRE 
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
@@ -87,271 +76,289 @@
     <t>REMARK</t>
   </si>
   <si>
-    <t>MR2510/0603</t>
-  </si>
-  <si>
-    <t>132KV_40 MVA BBL Xmer</t>
-  </si>
-  <si>
-    <t>132KV_AMARPATAN</t>
+    <t>MR2510/0619</t>
+  </si>
+  <si>
+    <t>400KV_315mva ict-2 x-mer make-t&amp;r</t>
+  </si>
+  <si>
+    <t>400KV_BADNAWAR</t>
   </si>
   <si>
     <t>NON-OCCM-MP</t>
   </si>
   <si>
-    <t>erection of 40 mva BBL Xmer</t>
-  </si>
-  <si>
-    <t>27-10-2025 10:00:00</t>
-  </si>
-  <si>
-    <t>27-10-2025 17:00:00</t>
-  </si>
-  <si>
-    <t>Arun KUmar</t>
-  </si>
-  <si>
-    <t>9131207339</t>
-  </si>
-  <si>
-    <t>MR2510/0600</t>
-  </si>
-  <si>
-    <t>132KV_63 MVA X-MER (  BBL)</t>
-  </si>
-  <si>
-    <t>220KV_ASHOKNAGAR</t>
+    <t>POST MANS</t>
+  </si>
+  <si>
+    <t>28-10-2025 08:00:00</t>
+  </si>
+  <si>
+    <t>28-10-2025 17:00:00</t>
+  </si>
+  <si>
+    <t>ER.ABHISHEK VERMA</t>
+  </si>
+  <si>
+    <t>9340855901</t>
+  </si>
+  <si>
+    <t>MR2510/0513</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>400KV_315 MVA X-MER NO.4</t>
+  </si>
+  <si>
+    <t>400KV_BHOPAL4</t>
+  </si>
+  <si>
+    <t>POST MONSOON MAINT. &amp; TESTING WORK</t>
+  </si>
+  <si>
+    <t>27-10-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>28-10-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>SHRI AKRAM KHAN A</t>
+  </si>
+  <si>
+    <t>9425804695</t>
+  </si>
+  <si>
+    <t>MR2510/0617</t>
+  </si>
+  <si>
+    <t>132KV_132 kV Hatta â¿¿ Bijawar Line</t>
+  </si>
+  <si>
+    <t>132KV_BIJAWAR</t>
+  </si>
+  <si>
+    <t>AH/VD tightening and other line maintenance work</t>
+  </si>
+  <si>
+    <t>28-10-2025 11:00:00</t>
+  </si>
+  <si>
+    <t>Manoj Kumar Tiwari</t>
+  </si>
+  <si>
+    <t>9425804993</t>
+  </si>
+  <si>
+    <t>MR2510/0618</t>
+  </si>
+  <si>
+    <t>220KV_160 MVA X-MER-II MAKE - BBL</t>
+  </si>
+  <si>
+    <t>220KV_CHANERA</t>
+  </si>
+  <si>
+    <t>POST MONSOON MAINTENANCE WORK</t>
+  </si>
+  <si>
+    <t>28-10-2025 10:00:00</t>
+  </si>
+  <si>
+    <t>SUKHRAM BADKHANE</t>
+  </si>
+  <si>
+    <t>8462074203</t>
+  </si>
+  <si>
+    <t>MR2510/0613</t>
+  </si>
+  <si>
+    <t>132KV_50 MVA BHEL Xmer</t>
+  </si>
+  <si>
+    <t>220KV_CHICHLI</t>
+  </si>
+  <si>
+    <t>Post monsoon shutdown</t>
+  </si>
+  <si>
+    <t>Rajesh chaturvedi</t>
+  </si>
+  <si>
+    <t>9425805203</t>
+  </si>
+  <si>
+    <t>220KV_220KV DAMOH - KATNI LINE</t>
+  </si>
+  <si>
+    <t>220KV_DAMOH</t>
+  </si>
+  <si>
+    <t>TOWER STRENGTHENING WORK</t>
+  </si>
+  <si>
+    <t>01-11-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>SHRI M.M. BAIG</t>
+  </si>
+  <si>
+    <t>9425805067</t>
+  </si>
+  <si>
+    <t>MR2510/0478</t>
+  </si>
+  <si>
+    <t>M.M. BAIG</t>
+  </si>
+  <si>
+    <t>MR2510/0605</t>
+  </si>
+  <si>
+    <t>220KV_160 MVA X-MER -l BHEL</t>
+  </si>
+  <si>
+    <t>220KV_DATIA</t>
+  </si>
+  <si>
+    <t>Post mansoon maintenance</t>
+  </si>
+  <si>
+    <t>Raksha Chaparia</t>
+  </si>
+  <si>
+    <t>6265080313</t>
+  </si>
+  <si>
+    <t>MR2510/0022</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>132KV_132kV Deolond - Beohari Ckt</t>
+  </si>
+  <si>
+    <t>132KV_DEVLOND</t>
+  </si>
+  <si>
+    <t>OPGW Work</t>
+  </si>
+  <si>
+    <t>03-10-2025 07:00:00</t>
+  </si>
+  <si>
+    <t>30-10-2025 19:00:00</t>
+  </si>
+  <si>
+    <t>G.L Sahu</t>
+  </si>
+  <si>
+    <t>9425805102</t>
+  </si>
+  <si>
+    <t>MR2510/0021</t>
+  </si>
+  <si>
+    <t>132KV_132kV Deolond - Jhinna ckt</t>
+  </si>
+  <si>
+    <t>MR2510/0620</t>
+  </si>
+  <si>
+    <t>132KV_50 MVA X-MER BBL</t>
+  </si>
+  <si>
+    <t>132KV_ESAGARH</t>
   </si>
   <si>
     <t>POST MANSOON MAINT.</t>
   </si>
   <si>
-    <t>27-10-2025 18:00:00</t>
-  </si>
-  <si>
     <t>RAKESH SUMAN</t>
   </si>
   <si>
     <t>7587951093</t>
   </si>
   <si>
-    <t>MR2510/0513</t>
-  </si>
-  <si>
-    <t>Continuous</t>
-  </si>
-  <si>
-    <t>400KV_315 MVA X-MER NO.4</t>
-  </si>
-  <si>
-    <t>400KV_BHOPAL4</t>
-  </si>
-  <si>
-    <t>POST MONSOON MAINT. &amp; TESTING WORK</t>
-  </si>
-  <si>
-    <t>27-10-2025 09:00:00</t>
-  </si>
-  <si>
-    <t>28-10-2025 18:00:00</t>
-  </si>
-  <si>
-    <t>SHRI AKRAM KHAN A</t>
-  </si>
-  <si>
-    <t>9425804695</t>
-  </si>
-  <si>
-    <t>MR2510/0593</t>
-  </si>
-  <si>
-    <t>160MVA_220/132KV_BHEL_X'mer_2</t>
-  </si>
-  <si>
-    <t>220KV_CHHINDWARA</t>
-  </si>
-  <si>
-    <t>POST MANSOON MAINTENANCE WORK.</t>
-  </si>
-  <si>
-    <t>A A QURESHI</t>
-  </si>
-  <si>
-    <t>9425804318</t>
-  </si>
-  <si>
-    <t>220KV_220KV DAMOH - KATNI LINE</t>
-  </si>
-  <si>
-    <t>220KV_DAMOH</t>
-  </si>
-  <si>
-    <t>TOWER STRENGTHENING WORK</t>
-  </si>
-  <si>
-    <t>01-11-2025 18:00:00</t>
-  </si>
-  <si>
-    <t>SHRI M.M. BAIG</t>
-  </si>
-  <si>
-    <t>9425805067</t>
-  </si>
-  <si>
-    <t>MR2510/0478</t>
-  </si>
-  <si>
-    <t>M.M. BAIG</t>
-  </si>
-  <si>
-    <t>MR2510/0022</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>132KV_132kV Deolond - Beohari Ckt</t>
-  </si>
-  <si>
-    <t>132KV_DEVLOND</t>
-  </si>
-  <si>
-    <t>OPGW Work</t>
-  </si>
-  <si>
-    <t>03-10-2025 07:00:00</t>
-  </si>
-  <si>
-    <t>30-10-2025 19:00:00</t>
-  </si>
-  <si>
-    <t>G.L Sahu</t>
-  </si>
-  <si>
-    <t>9425805102</t>
-  </si>
-  <si>
-    <t>MR2510/0021</t>
-  </si>
-  <si>
-    <t>132KV_132kV Deolond - Jhinna ckt</t>
-  </si>
-  <si>
-    <t>MR2510/0599</t>
-  </si>
-  <si>
-    <t>220KV_160MVA X-MER BHEL - make</t>
-  </si>
-  <si>
-    <t>220KV_DHAR</t>
-  </si>
-  <si>
-    <t>post monsoon maintenance work</t>
-  </si>
-  <si>
-    <t>Er. Nirmal Patel</t>
-  </si>
-  <si>
-    <t>9826854560</t>
-  </si>
-  <si>
-    <t>MR2510/0597</t>
-  </si>
-  <si>
-    <t>132KV_132 kV Tikamgarh - Diguada Ckt. IInd Line</t>
-  </si>
-  <si>
-    <t>132KV_DIGODA</t>
-  </si>
-  <si>
-    <t>JCT &amp; other line maintenance work.</t>
-  </si>
-  <si>
-    <t>Manoj Kumar Tiwari</t>
-  </si>
-  <si>
-    <t>9425804993</t>
-  </si>
-  <si>
-    <t>MR2510/0592</t>
-  </si>
-  <si>
-    <t>220KV_220 KV Gujjar khedi - (mandsour)Sitamau Ckt- II line</t>
-  </si>
-  <si>
     <t>220KV_GUJARKHEDI</t>
   </si>
   <si>
-    <t>for  OPGW  stringing work</t>
-  </si>
-  <si>
-    <t>27-10-2025 12:00:00</t>
-  </si>
-  <si>
-    <t>Ravindra Kumar Marskole</t>
-  </si>
-  <si>
-    <t>9425814080</t>
-  </si>
-  <si>
-    <t>MR2510/0594</t>
-  </si>
-  <si>
-    <t>220KV_100 MVA  TRANSFORMER -2 IMP MAKE</t>
-  </si>
-  <si>
-    <t>POST MANSOON MAINTANENCE &amp; TESTING WORK</t>
-  </si>
-  <si>
-    <t>27-10-2025 14:00:00</t>
-  </si>
-  <si>
-    <t>27-10-2025 20:00:00</t>
+    <t>28-10-2025 14:00:00</t>
+  </si>
+  <si>
+    <t>28-10-2025 20:00:00</t>
+  </si>
+  <si>
+    <t>9425804939</t>
+  </si>
+  <si>
+    <t>MR2510/0624</t>
+  </si>
+  <si>
+    <t>220KV_100MVA XMER -3 IMP MAKE</t>
+  </si>
+  <si>
+    <t>POST MANSOON MAINTANANCE &amp;TESTING WORK</t>
   </si>
   <si>
     <t>SUNIL PAWAR</t>
   </si>
   <si>
-    <t>9425804939</t>
-  </si>
-  <si>
-    <t>MR2510/0587</t>
-  </si>
-  <si>
-    <t>220KV_160 MVA BHEL XMER 220/132 KV</t>
-  </si>
-  <si>
-    <t>220KV_HOSHANGABAD</t>
-  </si>
-  <si>
-    <t>POST MANSOON MAINTENANCE &amp; TESTING WORK</t>
-  </si>
-  <si>
-    <t>V.P.DWIVEDI</t>
-  </si>
-  <si>
-    <t>9425804799</t>
-  </si>
-  <si>
-    <t>MR2510/0602</t>
-  </si>
-  <si>
-    <t>132KV_40MVA TRANSFORMER-II NGEF</t>
-  </si>
-  <si>
-    <t>132KV_JHABUA</t>
-  </si>
-  <si>
-    <t>POST MONSOON MAINTENANCE</t>
-  </si>
-  <si>
-    <t>27-10-2025 16:00:00</t>
-  </si>
-  <si>
-    <t>VARSINGH MOHANIYA</t>
-  </si>
-  <si>
-    <t>9425803496</t>
+    <t>MR2510/0608</t>
+  </si>
+  <si>
+    <t>220KV_220 KV Itarsi-Handia Ckt-II</t>
+  </si>
+  <si>
+    <t>220KV_ITARSI</t>
+  </si>
+  <si>
+    <t>Replacement of Single to Double disc insut.string</t>
+  </si>
+  <si>
+    <t>28-10-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>30-10-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>Ashutosh Rai</t>
+  </si>
+  <si>
+    <t>9425806902</t>
+  </si>
+  <si>
+    <t>MR2510/0614</t>
+  </si>
+  <si>
+    <t>132KV_132KV 40MVA Transformer</t>
+  </si>
+  <si>
+    <t>Oil sampling &amp; fixing of band pipe on PVR work.</t>
+  </si>
+  <si>
+    <t>28-10-2025 12:00:00</t>
+  </si>
+  <si>
+    <t>J.D.Khoria</t>
+  </si>
+  <si>
+    <t>9425804975</t>
+  </si>
+  <si>
+    <t>MR2510/0615</t>
+  </si>
+  <si>
+    <t>132KV_132KV 50MVA Transformer</t>
+  </si>
+  <si>
+    <t>Oil sampling &amp; fixing of bend pipe on PRV  work.</t>
+  </si>
+  <si>
+    <t>28-10-2025 13:00:00</t>
   </si>
   <si>
     <t>400KV_400KV KATNI - DAMOH LINE</t>
@@ -366,40 +373,124 @@
     <t>MR2509/0414</t>
   </si>
   <si>
-    <t>MR2510/0590</t>
-  </si>
-  <si>
-    <t>220KV_220kv 200MVA Xmer CGL</t>
+    <t>MR2510/0604</t>
+  </si>
+  <si>
+    <t>40MVA_132/33KV_TELK_X'mer_1</t>
+  </si>
+  <si>
+    <t>132KV_KHAPASWAMI</t>
+  </si>
+  <si>
+    <t>POST MONSOON MAINTENANCE WORK.</t>
+  </si>
+  <si>
+    <t>S.K.OKTE</t>
+  </si>
+  <si>
+    <t>7587951132</t>
+  </si>
+  <si>
+    <t>MR2510/0611</t>
+  </si>
+  <si>
+    <t>132KV_132KV Bargi and 132KV Bus Coupler</t>
+  </si>
+  <si>
+    <t>132KV_LAKHNADONE</t>
+  </si>
+  <si>
+    <t>Tan Delta Measurement of 06No. CTs</t>
+  </si>
+  <si>
+    <t>Seema Dongre</t>
+  </si>
+  <si>
+    <t>8717944384</t>
+  </si>
+  <si>
+    <t>MR2510/0606</t>
+  </si>
+  <si>
+    <t>132KV_132/33 KV 63 MVA BBL X-MER</t>
+  </si>
+  <si>
+    <t>132KV_MADHOTAL</t>
+  </si>
+  <si>
+    <t>132/33 KV 63 MVA BBL X-MER for Post monsoon maint</t>
+  </si>
+  <si>
+    <t>A.K. Pandey</t>
+  </si>
+  <si>
+    <t>9424645081</t>
+  </si>
+  <si>
+    <t>MR2510/0612</t>
+  </si>
+  <si>
+    <t>220KV_200 MVA X-MER</t>
   </si>
   <si>
     <t>220KV_MALANPUR</t>
   </si>
   <si>
-    <t>Post Monsoon Maint. work</t>
-  </si>
-  <si>
-    <t>Vikram Ahirwar</t>
+    <t>VIKRAM AHIRWAR</t>
   </si>
   <si>
     <t>9425805415</t>
   </si>
   <si>
-    <t>MR2510/0596</t>
-  </si>
-  <si>
-    <t>132KV_40 mva bbl x-mer</t>
-  </si>
-  <si>
-    <t>132KV_MANERI</t>
-  </si>
-  <si>
-    <t>post mansoon maintenance work</t>
-  </si>
-  <si>
-    <t>S.K JAIN</t>
-  </si>
-  <si>
-    <t>9425385281</t>
+    <t>MR2510/0609</t>
+  </si>
+  <si>
+    <t>132KV_132kV Mandla-Bichhiya  CKT- II Line</t>
+  </si>
+  <si>
+    <t>132KV_MANDLA</t>
+  </si>
+  <si>
+    <t>Jumper Cone Tightening &amp; Other Maint. Work</t>
+  </si>
+  <si>
+    <t>S.K. BHALADHARE</t>
+  </si>
+  <si>
+    <t>9425807264</t>
+  </si>
+  <si>
+    <t>MR2510/0625</t>
+  </si>
+  <si>
+    <t>132KV_40 MVA  BBL X-MER</t>
+  </si>
+  <si>
+    <t>POST MANSOON MAINTENANCE</t>
+  </si>
+  <si>
+    <t>R S BAIS</t>
+  </si>
+  <si>
+    <t>9425163265</t>
+  </si>
+  <si>
+    <t>MR2510/0622</t>
+  </si>
+  <si>
+    <t>220KV_160 MVA X-mer-I Make-EMCO</t>
+  </si>
+  <si>
+    <t>220KV_RAJGARH DHAR</t>
+  </si>
+  <si>
+    <t>For post monsoon maintenance work.</t>
+  </si>
+  <si>
+    <t>Er. Manoj Randha</t>
+  </si>
+  <si>
+    <t>9425820034</t>
   </si>
   <si>
     <t>MR2510/0020</t>
@@ -423,25 +514,19 @@
     <t>220KV_REWA</t>
   </si>
   <si>
-    <t>MR2510/0598</t>
-  </si>
-  <si>
-    <t>220KV_220 kv Satna (MPPTCL) â¿¿ Ajaygarh line</t>
-  </si>
-  <si>
-    <t>220KV_SATNA</t>
-  </si>
-  <si>
-    <t>Line maintenance work</t>
-  </si>
-  <si>
-    <t>27-10-2025 11:00:00</t>
-  </si>
-  <si>
-    <t>Mr. R.K. Prajapati</t>
-  </si>
-  <si>
-    <t>9407070182</t>
+    <t>MR2510/0610</t>
+  </si>
+  <si>
+    <t>132KV_132/33 KV 40 mva x-mer EMCO</t>
+  </si>
+  <si>
+    <t>Post monsoon maint.&amp; Testing work</t>
+  </si>
+  <si>
+    <t>KANISHKA SINGH</t>
+  </si>
+  <si>
+    <t>9425804656</t>
   </si>
   <si>
     <t>MR2509/0126</t>
@@ -465,36 +550,6 @@
     <t>9425611046</t>
   </si>
   <si>
-    <t>MR2510/0595</t>
-  </si>
-  <si>
-    <t>220KV_SHEOPUR KALAN2</t>
-  </si>
-  <si>
-    <t>I.A.KHAN</t>
-  </si>
-  <si>
-    <t>6264419968</t>
-  </si>
-  <si>
-    <t>MR2510/0601</t>
-  </si>
-  <si>
-    <t>132KV_40MVA TRANSFORMER IMP</t>
-  </si>
-  <si>
-    <t>132KV_SINGHANA</t>
-  </si>
-  <si>
-    <t>JAGDISH MUJHALDE</t>
-  </si>
-  <si>
-    <t>9893790114</t>
-  </si>
-  <si>
-    <t>MR2509/0042</t>
-  </si>
-  <si>
     <t>220KV_160 MVA NGEF</t>
   </si>
   <si>
@@ -516,106 +571,118 @@
     <t>7587951137</t>
   </si>
   <si>
-    <t xml:space="preserve"> 160 MVA  transformer no 1st  BBL</t>
-  </si>
-  <si>
-    <t>for post monsoon maintenance &amp; RELAY testing work</t>
+    <t>MR2509/0043</t>
+  </si>
+  <si>
+    <t>MR2510/0621</t>
+  </si>
+  <si>
+    <t>132KV_40 MVA XMER</t>
+  </si>
+  <si>
+    <t>132KV_UMARIYA</t>
+  </si>
+  <si>
+    <t>OLTC OIL LEAKAGE ATTENDING &amp; 33KV RYB CT REPLACEME</t>
+  </si>
+  <si>
+    <t>TOSHAN SINGH</t>
+  </si>
+  <si>
+    <t>9425809482</t>
+  </si>
+  <si>
+    <t>MR2510/0626</t>
+  </si>
+  <si>
+    <t>132KV_132 kV Umreth Parasiya RTS</t>
+  </si>
+  <si>
+    <t>132KV_UMRETH</t>
+  </si>
+  <si>
+    <t>Flash over disc replace and J/c,A/h,V/d tightening</t>
+  </si>
+  <si>
+    <t>28-10-2025 16:00:00</t>
+  </si>
+  <si>
+    <t>A.M.Shende</t>
+  </si>
+  <si>
+    <t>7587951136</t>
+  </si>
+  <si>
+    <t>MR2510/0616</t>
+  </si>
+  <si>
+    <t>220KV_160MVA X-MER-II BHEL</t>
+  </si>
+  <si>
+    <t>220KV_VIDISHA</t>
+  </si>
+  <si>
+    <t>For suspected dc leakage of NIFPS &amp; testing work</t>
+  </si>
+  <si>
+    <t>K.C GOSWAMI</t>
+  </si>
+  <si>
+    <t>9425804976</t>
+  </si>
+  <si>
+    <t>ok, through sub ld</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Deffered</t>
+  </si>
+  <si>
+    <t>data confirmation required from communication</t>
+  </si>
+  <si>
+    <t>sub ld</t>
+  </si>
+  <si>
+    <t>ok, o&amp;m to be informed</t>
   </si>
   <si>
     <t>o&amp;m consent required</t>
   </si>
   <si>
-    <t>sub ld</t>
-  </si>
-  <si>
-    <t>ok, through sub ld</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>Deferred</t>
-  </si>
-  <si>
-    <t>data confirmation required from communication</t>
-  </si>
-  <si>
-    <t>ok, o&amp;m shall be informed</t>
-  </si>
-  <si>
-    <t>real time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deferred, due to s/d on 400KV_SARNI-Itarsi LINE </t>
-  </si>
-  <si>
-    <t>400KV-KORBA-NTPC-BIRSINGPUR-1</t>
-  </si>
-  <si>
-    <t>400KV-BINA-MP-GUNA-MP-2</t>
-  </si>
-  <si>
-    <t>400KV-SEONI-KIRNAPUR-1</t>
-  </si>
-  <si>
-    <t>220KV-ANNUPUR-KOTMIKALA-2</t>
-  </si>
-  <si>
-    <t>220KV-REWA-SINDHI-MP-2</t>
-  </si>
-  <si>
-    <t>400KV-BALCO (MRSDS)-BIRSINGPUR-1</t>
-  </si>
-  <si>
-    <t>POWERGRID_WR2</t>
-  </si>
-  <si>
-    <t>MP_SLDC</t>
-  </si>
-  <si>
-    <t>POWERGRID-WR1 (PGCIL)</t>
-  </si>
-  <si>
-    <t>PBGTL</t>
-  </si>
-  <si>
-    <t>MADHYA PRADESH,POWERGRID-WR1 (PGCIL)</t>
-  </si>
-  <si>
-    <t>MADHYA PRADESH,CHATTISGARH</t>
-  </si>
-  <si>
-    <t>MADHYA PRADESH</t>
-  </si>
-  <si>
-    <t>ATTENDING S/D NATURE DEFECTS IN LINE, AMP Work of of Line terminal equipment &amp; Associated LR and its BAY, Non auto mode of ckt 2 is required . Dia to be kept open at both ends.</t>
-  </si>
-  <si>
-    <t>FOR BAY MAINTENANCE &amp; TESTING WORK AT SUBSTASTION, REPLACEMENT OF DAMAGED CLAMPS/JUMPERS ETC.</t>
-  </si>
-  <si>
-    <t>FOR LINE MAINTENANCE WORK i.e. CLEANING OF DISC INSULATORS DURING LINE PATROLLING , REPLACEMENT OF FLASHOVERED DISC INSULATORS, TREE BRANCH CUTTING ETC AT VARIOUS TOWER LOCATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Non auto mode of ckt 2 is required for attending defects in circuit 1.</t>
-  </si>
-  <si>
-    <t>OK; Ok.400kV BIRSINGPUR -BALCO-T1 Sensitivity of  36.62% and All other lines at KORBA-NTPC - 400KV and BIRSINGPUR - 400KV to be in service.BALCO to be informed.</t>
-  </si>
-  <si>
-    <t>REAL TIME ;400kV BINA-MP-GUNA-Q1 Sensitivity of  73.00% and All other lines at BINA-MP - 400KV and GUNA-MP - 400KV to be in service with A/R Enabled. 400KV-BHOPAL-MP-BINA-MP-1 is already out under Tower Collapse.</t>
-  </si>
-  <si>
-    <t>REAL TIME; 400kV KORADI-BHILAI-T1 Sensitivity of  11.00% and All other lines at SEONI-PG - 400KV and Kirnapur - 400KV to be in service with A/R Enabled</t>
-  </si>
-  <si>
-    <t>REAL TIME; All other lines at Annuppur/Kotmikala to be in service with AR enabled. consent from SLDC CG is required.  Load to be managed by SLDC MP/CG</t>
-  </si>
-  <si>
-    <t>REAL TIME; All other 220 kV lines at Rewa/Sindhi to be in service. Load to be managed by SLDC MP.</t>
-  </si>
-  <si>
-    <t>OK; BALCO to be informed. A/R in NA, Line to be in service</t>
+    <t>generator consent required</t>
+  </si>
+  <si>
+    <t>APPROVED OUTAGE LIST FOR DATED 28.10.2025</t>
+  </si>
+  <si>
+    <t>132KV-VSTPS-WAIDHAN-2</t>
+  </si>
+  <si>
+    <t>MADHYA PRADESH,NTPC</t>
+  </si>
+  <si>
+    <t>28-Oct-2025</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>06-Nov-2025</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>Annual Bay Maitenanace/ replacement of CRP</t>
+  </si>
+  <si>
+    <t>other ckt to be in service</t>
+  </si>
+  <si>
+    <t>S/I SLDC JABALPUR</t>
   </si>
 </sst>
 </file>
@@ -626,7 +693,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010809]dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-1010809]dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -656,13 +723,28 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,12 +758,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -756,11 +850,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -785,6 +914,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -794,22 +938,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1173,10 +1345,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,49 +1359,51 @@
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="54.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="44.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="50.140625" customWidth="1"/>
     <col min="9" max="10" width="19.5703125" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="42.5703125" customWidth="1"/>
+    <col min="13" max="13" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="11"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="D2" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
@@ -1243,7 +1420,7 @@
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1253,7 +1430,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1266,7 +1443,7 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -1284,26 +1461,26 @@
       <c r="J4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="11"/>
+      <c r="L4" s="16"/>
       <c r="M4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="5">
-        <v>45956.694409722222</v>
+        <v>45957.600173611114</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -1328,80 +1505,80 @@
         <v>25</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="5">
-        <v>45956.612141203703</v>
+        <v>45952.485833333332</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="E6" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="F6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <f t="shared" ref="A7:A35" si="0">A6+1</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45957.580185185187</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <f t="shared" ref="A7:A25" si="0">A6+1</f>
-        <v>3</v>
-      </c>
-      <c r="B7" s="5">
-        <v>45952.485833333332</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>40</v>
@@ -1410,22 +1587,22 @@
         <v>41</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="5">
-        <v>45956.506215277775</v>
+        <v>45957.580312500002</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="11" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -1438,256 +1615,256 @@
         <v>45</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="5">
-        <v>45946.719189814816</v>
+        <v>45957.528738425928</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="M9" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="5">
-        <v>45932.473009259258</v>
+        <v>45946.719189814816</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="G10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="I10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="K10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="M10" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="5">
-        <v>45932.471319444441</v>
+        <v>45957.482997685183</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="G11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="I11" s="6" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="5">
-        <v>45956.59646990741</v>
+        <v>45932.473009259258</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B13" s="5">
-        <v>45956.559756944444</v>
+        <v>45932.471319444441</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
+      <c r="I13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="J13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="K13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L13" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="M13" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B14" s="5">
-        <v>45956.497303240743</v>
+        <v>45957.607361111113</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>80</v>
+      <c r="E14" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>84</v>
@@ -1696,224 +1873,226 @@
         <v>85</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B15" s="5">
-        <v>45956.52484953704</v>
+        <v>45957.669374999998</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
+      <c r="G15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="J15" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="K15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="M15" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B16" s="5">
-        <v>45955.808553240742</v>
+        <v>45957.493171296293</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="D16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="F16" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B17" s="5">
-        <v>45956.649907407409</v>
+        <v>45957.549560185187</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
-        <v>100</v>
+      <c r="E17" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B18" s="5">
-        <v>45918.550300925926</v>
+        <v>45957.552337962959</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="L18" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="M18" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B19" s="5">
-        <v>45956.324097222219</v>
+        <v>45918.550300925926</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B20" s="5">
-        <v>45956.54960648148</v>
+        <v>45957.476481481484</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>116</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="11" t="s">
         <v>117</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -1926,7 +2105,7 @@
         <v>119</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>23</v>
@@ -1938,24 +2117,22 @@
         <v>121</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B21" s="5">
-        <v>45932.469768518517</v>
+        <v>45957.510324074072</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="11" t="s">
         <v>123</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -1968,465 +2145,613 @@
         <v>125</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B22" s="5">
-        <v>45932.467893518522</v>
+        <v>45957.484178240738</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B23" s="5">
-        <v>45956.563206018516</v>
+        <v>45957.510960648149</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="4" t="s">
-        <v>130</v>
+      <c r="E23" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B24" s="5">
-        <v>45905.731736111113</v>
+        <v>45957.503587962965</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B25" s="5">
-        <v>45956.533784722225</v>
+        <v>45957.674699074072</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
-        <v>160</v>
+      <c r="E25" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M25" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="5">
+        <v>45957.648888888885</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="5">
+        <v>45932.469768518517</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="5">
+        <v>45932.467893518522</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="5">
+        <v>45957.505555555559</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="11" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <f>A25+1</f>
-        <v>22</v>
-      </c>
-      <c r="B26" s="5">
-        <v>45956.644571759258</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" s="6" t="s">
+      <c r="F29" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="5">
+        <v>45905.731736111113</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="5">
+        <v>45902.59034722222</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="5">
+        <v>45957.626122685186</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="5">
+        <v>45957.678240740737</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="B34" s="22">
+        <v>45957.560613425929</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="5">
-        <v>45902.59002314815</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>24</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="I28" s="14">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J28" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="K28" s="15"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N28" s="18"/>
-    </row>
-    <row r="29" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>25</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="I29" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="J29" s="14">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K29" s="15"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="N29" s="18"/>
-    </row>
-    <row r="30" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>26</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="I30" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="J30" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="K30" s="15"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="N30" s="18"/>
-    </row>
-    <row r="31" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>27</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="I31" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="J31" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="K31" s="15"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="N31" s="18"/>
-    </row>
-    <row r="32" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>28</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="I32" s="14">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J32" s="14">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K32" s="15"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="N32" s="18"/>
-    </row>
-    <row r="33" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>29</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="I33" s="14">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J33" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="K33" s="15"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="N33" s="18"/>
+      <c r="K34" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="L34" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="M34" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="27">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="G35" s="32"/>
+      <c r="H35" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="K35" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="L35" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="M35" s="32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="33" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J43" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="K4:L4"/>
+    <mergeCell ref="D2:K2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__bookmark_1">Sheet0!$A$1:$M$18</definedName>
+    <definedName name="__bookmark_1">Sheet0!$A$1:$M$29</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="210">
   <si>
     <t>STATE LOAD DESPATCH CENTRE 
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
@@ -87,6 +87,54 @@
     <t>REMARK</t>
   </si>
   <si>
+    <t>MR2511/0501</t>
+  </si>
+  <si>
+    <t>400KV_400KV ASHTA-UJJAIN CKT NO-01</t>
+  </si>
+  <si>
+    <t>400KV_ASHTA4</t>
+  </si>
+  <si>
+    <t>NON-OCCM-MP</t>
+  </si>
+  <si>
+    <t>PLCC panel testing work</t>
+  </si>
+  <si>
+    <t>24-11-2025 11:00:00</t>
+  </si>
+  <si>
+    <t>24-11-2025 17:00:00</t>
+  </si>
+  <si>
+    <t>Jitendra Lohana</t>
+  </si>
+  <si>
+    <t>9425804978</t>
+  </si>
+  <si>
+    <t>MR2511/0502</t>
+  </si>
+  <si>
+    <t>220KV_220/132KV 160MVA Transformer (CGL)</t>
+  </si>
+  <si>
+    <t>220KV_BARWAHA</t>
+  </si>
+  <si>
+    <t>Post monsoon Maintenance work</t>
+  </si>
+  <si>
+    <t>24-11-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>Er.Imran Beg</t>
+  </si>
+  <si>
+    <t>9425805200</t>
+  </si>
+  <si>
     <t>MR2511/0023</t>
   </si>
   <si>
@@ -99,9 +147,6 @@
     <t>132KV_BEOHARI</t>
   </si>
   <si>
-    <t>NON-OCCM-MP</t>
-  </si>
-  <si>
     <t>HOT LINE OPGW WORK</t>
   </si>
   <si>
@@ -117,46 +162,40 @@
     <t>9425805102</t>
   </si>
   <si>
-    <t>MR2511/0497</t>
-  </si>
-  <si>
-    <t>50MVA_132/33KV_BHEL_X'mer_2</t>
-  </si>
-  <si>
-    <t>132KV_CHOURAI</t>
-  </si>
-  <si>
-    <t>33KV INCOMING-2 MAIN BUS ISOLATOR BLADE REPLACMENT</t>
-  </si>
-  <si>
-    <t>23-11-2025 10:00:00</t>
-  </si>
-  <si>
-    <t>23-11-2025 14:00:00</t>
-  </si>
-  <si>
-    <t>S.K.OKTE</t>
-  </si>
-  <si>
-    <t>7587951132</t>
-  </si>
-  <si>
-    <t>MR2511/0488</t>
-  </si>
-  <si>
-    <t>132KV_132KV DAMOH - BATIYAGARH LINE</t>
-  </si>
-  <si>
-    <t>220KV_DAMOH</t>
-  </si>
-  <si>
-    <t>TOWER STRENGTHENING &amp; OTHER LINE MAINTENANCE WORK</t>
-  </si>
-  <si>
-    <t>23-11-2025 09:00:00</t>
-  </si>
-  <si>
-    <t>23-11-2025 16:00:00</t>
+    <t>MR2511/0504</t>
+  </si>
+  <si>
+    <t>132KV_40 MVA XMER No. - I BHEL</t>
+  </si>
+  <si>
+    <t>132KV_BOREGAON</t>
+  </si>
+  <si>
+    <t>OIL TOPPING WORK IN CONSERVATOR TANK</t>
+  </si>
+  <si>
+    <t>24-11-2025 12:00:00</t>
+  </si>
+  <si>
+    <t>24-11-2025 15:00:00</t>
+  </si>
+  <si>
+    <t>SANJAY SHENDE</t>
+  </si>
+  <si>
+    <t>9425811447</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>220KV_220KV DAMOH - KATNI LINE</t>
+  </si>
+  <si>
+    <t>TOWER STRENGTHENING WORK</t>
+  </si>
+  <si>
+    <t>29-11-2025 18:00:00</t>
   </si>
   <si>
     <t>M.M. BAIG</t>
@@ -186,12 +225,72 @@
     <t>132KV_132kV Deolond - Jhinna Ckt</t>
   </si>
   <si>
+    <t>MR2511/0503</t>
+  </si>
+  <si>
+    <t>132KV_132KV Anuppur-Dongrital ckt</t>
+  </si>
+  <si>
+    <t>132KV_DONGRITAL</t>
+  </si>
+  <si>
+    <t>disc replacement work</t>
+  </si>
+  <si>
+    <t>24-11-2025 08:00:00</t>
+  </si>
+  <si>
+    <t>MR2511/0514</t>
+  </si>
+  <si>
+    <t>220KV_22OKV BETUL-1ST CKT</t>
+  </si>
+  <si>
+    <t>220KV_GUDGAON2</t>
+  </si>
+  <si>
+    <t>tan delta &amp; cap measurement</t>
+  </si>
+  <si>
+    <t>24-11-2025 10:00:00</t>
+  </si>
+  <si>
+    <t>24-11-2025 13:00:00</t>
+  </si>
+  <si>
+    <t>ER SANJAY PAWAR</t>
+  </si>
+  <si>
+    <t>9425656425</t>
+  </si>
+  <si>
+    <t>MR2511/0515</t>
+  </si>
+  <si>
+    <t>220KV_220 KV PT-1ST</t>
+  </si>
+  <si>
+    <t>TAN DELTA CAP MEASUREMENT</t>
+  </si>
+  <si>
+    <t>24-11-2025 13:30:00</t>
+  </si>
+  <si>
+    <t>ER SANJAY KUMAR PAWAR</t>
+  </si>
+  <si>
+    <t>MR2511/0516</t>
+  </si>
+  <si>
+    <t>220KV_220 KV PT-2ND</t>
+  </si>
+  <si>
+    <t>24-11-2025 15:30:00</t>
+  </si>
+  <si>
     <t>MR2511/0441</t>
   </si>
   <si>
-    <t>Continuous</t>
-  </si>
-  <si>
     <t>132KV_132 kV Jabalpur- Madhotal Ckt-I</t>
   </si>
   <si>
@@ -222,6 +321,102 @@
     <t>Tower erection &amp; stringing at loc. 30R, 31R &amp; 32R</t>
   </si>
   <si>
+    <t>400KV_KATNI4</t>
+  </si>
+  <si>
+    <t>OCCM-MP</t>
+  </si>
+  <si>
+    <t>MR2510/0488</t>
+  </si>
+  <si>
+    <t>400KV_400KV KATNI - DAMOH LINE</t>
+  </si>
+  <si>
+    <t>MR2510/0550</t>
+  </si>
+  <si>
+    <t>132KV_132 KV Sirmour-I</t>
+  </si>
+  <si>
+    <t>132KV_KATRA</t>
+  </si>
+  <si>
+    <t>For equipment painting work.</t>
+  </si>
+  <si>
+    <t>Mr. Kanishka</t>
+  </si>
+  <si>
+    <t>9425804656</t>
+  </si>
+  <si>
+    <t>24-11-2025 16:00:00</t>
+  </si>
+  <si>
+    <t>MR2511/0510</t>
+  </si>
+  <si>
+    <t>MR2511/0499</t>
+  </si>
+  <si>
+    <t>132KV_JABALPUR NO.2</t>
+  </si>
+  <si>
+    <t>132KV_MADHOTAL</t>
+  </si>
+  <si>
+    <t>Main &amp; auxiliary  Isolator replacement work</t>
+  </si>
+  <si>
+    <t>25-11-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>ER. SHRI A.K. PANDEY</t>
+  </si>
+  <si>
+    <t>9424645081</t>
+  </si>
+  <si>
+    <t>MR2511/0492</t>
+  </si>
+  <si>
+    <t>132KV_132 KV Ujjain - Makdone</t>
+  </si>
+  <si>
+    <t>132KV_MAKDONE</t>
+  </si>
+  <si>
+    <t>For Line Maintenance Work.</t>
+  </si>
+  <si>
+    <t>Ravindra Kumar Marskole</t>
+  </si>
+  <si>
+    <t>9425814080</t>
+  </si>
+  <si>
+    <t>MR2511/0489</t>
+  </si>
+  <si>
+    <t>132KV_132kV Mandla Maneri Line</t>
+  </si>
+  <si>
+    <t>132KV_MANDLA</t>
+  </si>
+  <si>
+    <t>Jumper Cone Tightening &amp; Emergency Tree Cutting Wo</t>
+  </si>
+  <si>
+    <t>24-11-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>S.K. BHALADHARE</t>
+  </si>
+  <si>
+    <t>9425807264</t>
+  </si>
+  <si>
     <t>MR2511/0180</t>
   </si>
   <si>
@@ -246,40 +441,16 @@
     <t>9425820045</t>
   </si>
   <si>
-    <t>MR2511/0498</t>
-  </si>
-  <si>
-    <t>220KV_220 kV Chhegaon -Nimrani line Ckt.II</t>
-  </si>
-  <si>
-    <t>220KV_NIMRANI</t>
-  </si>
-  <si>
-    <t>Line Maintenance work</t>
-  </si>
-  <si>
-    <t>23-11-2025 17:00:00</t>
-  </si>
-  <si>
-    <t>Anil Alawa</t>
-  </si>
-  <si>
-    <t>9691647063</t>
-  </si>
-  <si>
-    <t>MR2511/0491</t>
-  </si>
-  <si>
-    <t>132KV_40 MVA TELK X-MER &amp; 50 MVA BHEL X-MER</t>
+    <t>MR2511/0513</t>
+  </si>
+  <si>
+    <t>132KV_50 MVA BHEL X-MER</t>
   </si>
   <si>
     <t>132KV_PANNA</t>
   </si>
   <si>
-    <t>33 KV Main bus divider isolator Hotpoint attend wo</t>
-  </si>
-  <si>
-    <t>23-11-2025 11:00:00</t>
+    <t>Post mansoon maintenance work</t>
   </si>
   <si>
     <t>RN UPADHYAY</t>
@@ -315,21 +486,6 @@
     <t>8120516165</t>
   </si>
   <si>
-    <t>MR2511/0490</t>
-  </si>
-  <si>
-    <t>132KV_132KV RAJMILAN-JANAKPUR CKT</t>
-  </si>
-  <si>
-    <t>132KV_RAJMILAN</t>
-  </si>
-  <si>
-    <t>DISC REPLACEMENT WORK</t>
-  </si>
-  <si>
-    <t>23-11-2025 08:00:00</t>
-  </si>
-  <si>
     <t>MR2511/0026</t>
   </si>
   <si>
@@ -342,6 +498,27 @@
     <t>OPGW HOT LINE WORK</t>
   </si>
   <si>
+    <t>MR2511/0493</t>
+  </si>
+  <si>
+    <t>220KV_220kv Shivpuri Sei Sunshine Ckt-Ist</t>
+  </si>
+  <si>
+    <t>220KV_SHIVPURI</t>
+  </si>
+  <si>
+    <t>for ABT meter calibration in GSS end.</t>
+  </si>
+  <si>
+    <t>24-11-2025 23:00:00</t>
+  </si>
+  <si>
+    <t>SURAJ PAWAR</t>
+  </si>
+  <si>
+    <t>9425814079</t>
+  </si>
+  <si>
     <t>MR2511/0025</t>
   </si>
   <si>
@@ -351,43 +528,142 @@
     <t>220KV_SIDHI</t>
   </si>
   <si>
+    <t>MR2511/0496</t>
+  </si>
+  <si>
+    <t>220KV_220/132/33KV 160 MVA BHEL X-MER</t>
+  </si>
+  <si>
+    <t>POST MANSOON MAINTENCE AND TESTING WORK</t>
+  </si>
+  <si>
+    <t>ARSHAD QURESHI</t>
+  </si>
+  <si>
+    <t>7000771014</t>
+  </si>
+  <si>
+    <t>ok, through sub ld</t>
+  </si>
+  <si>
     <t>data confirmation required from communication</t>
   </si>
   <si>
-    <t>ok, through sub ld</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
+    <t>shall only be given if power flow from Maneri to mandla during the s/d period proposed</t>
+  </si>
+  <si>
+    <t>sub ld</t>
+  </si>
+  <si>
+    <t>Deferred due to s/d on sidhi 160MVA x-mer</t>
+  </si>
+  <si>
+    <t>ABT consent required</t>
+  </si>
+  <si>
+    <t>o&amp;m consent required</t>
+  </si>
+  <si>
+    <t>as opportunity s/d</t>
+  </si>
+  <si>
+    <t>400KV-DAMOH-BIRSINGPUR-1</t>
+  </si>
+  <si>
+    <t>INDORE - 400KV - BUS 2</t>
+  </si>
+  <si>
+    <t>400KV-BADNAWAR-RAJGARH-1</t>
+  </si>
+  <si>
+    <t>220KV-REWA-REWA-MP-1</t>
+  </si>
+  <si>
+    <t>400KV-DAMOH-KATNI-1</t>
+  </si>
+  <si>
     <t>400KV-SSP-RAJGARH-2</t>
   </si>
   <si>
+    <t>BINA-MP - 400KV - BUS 1</t>
+  </si>
+  <si>
+    <t>INDORE - 400KV - BUS 4</t>
+  </si>
+  <si>
+    <t>POWERGRID_WR2</t>
+  </si>
+  <si>
+    <t>MP_SLDC</t>
+  </si>
+  <si>
+    <t>WR</t>
+  </si>
+  <si>
+    <t>AMP of 400KV Damoh Birsingpur 1 Line reactor at damoh end, Non auto mode of ckt 2 is required . Dia to be kept open at both ends.</t>
+  </si>
+  <si>
+    <t>Rotation work ,rotation of CT Rupture Disc work</t>
+  </si>
+  <si>
+    <t>FOR LINE MAINTENANCE WORK i.e. CLEANING OF DISC INSULATORS DURING LINE PATROLLING , REPLACEMENT OF FLASHOVERED DISC INSULATORS, TREE BRANCH CUTTING ETC AT VARIOUS TOWER LOCATIONS</t>
+  </si>
+  <si>
+    <t>Tower Strengthening Work</t>
+  </si>
+  <si>
+    <t>for old disc replacement Work &amp; other line maintenance work</t>
+  </si>
+  <si>
+    <t>STRINGING &amp; EXTENSION WORK OF MAIN BUS</t>
+  </si>
+  <si>
+    <t>VT JB compoment replecment &amp; Rotation work ,rotation of CT Rupture Disc work</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>17:59</t>
+  </si>
+  <si>
+    <t>16:59</t>
+  </si>
+  <si>
+    <t>400kv Katni-Damoh ckt also approved, this s/d shall be availed after normalisation of 400kv Katni-Damoh ckt to maintain the reliability of damoh area.</t>
+  </si>
+  <si>
+    <t>shall be giver after normalisation of already approved s/d of Bus-4</t>
+  </si>
+  <si>
+    <t>real time</t>
+  </si>
+  <si>
+    <t>ok, line to be in service</t>
+  </si>
+  <si>
     <t>400KV-SSP-RAJGARH-1</t>
   </si>
   <si>
-    <t>MP_SLDC</t>
-  </si>
-  <si>
-    <t>WR</t>
-  </si>
-  <si>
-    <t>for old disc replacement Work &amp; other line maintenance work</t>
+    <t>07:00</t>
   </si>
   <si>
     <t>A/R off required in NON AUTO MODE.</t>
-  </si>
-  <si>
-    <t>ok, line to be in service</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>07:00</t>
-  </si>
-  <si>
-    <t>17:59</t>
   </si>
 </sst>
 </file>
@@ -398,7 +674,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010809]dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-1010809]dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -411,25 +687,21 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -438,12 +710,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -571,63 +848,65 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -992,52 +1271,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="11.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11" style="5" customWidth="1"/>
-    <col min="5" max="5" width="49.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="62.5703125" style="5" customWidth="1"/>
-    <col min="9" max="10" width="19.5703125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="12" style="5" customWidth="1"/>
-    <col min="13" max="13" width="41.140625" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" customWidth="1"/>
+    <col min="9" max="10" width="19.5703125" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="65.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="43.7" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" ht="42" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>45984</v>
+      <c r="B2" s="2">
+        <v>45985</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1051,17 +1328,17 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:13" ht="42" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1"/>
@@ -1074,688 +1351,1370 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:13" ht="42" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="1" t="s">
+      <c r="L4" s="11"/>
+      <c r="M4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+    <row r="5" spans="1:13" ht="39" customHeight="1">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
-        <v>45963.700092592589</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="5">
+        <v>45984.547881944447</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="L5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="M5" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="39" customHeight="1">
+      <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="9">
-        <v>45983.641747685186</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="5">
+        <v>45984.554432870369</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="I6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="39" customHeight="1">
+      <c r="A7" s="4">
+        <f t="shared" ref="A7:A38" si="0">A6+1</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45963.700092592589</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="39" customHeight="1">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45984.562361111108</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="39" customHeight="1">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45964.491226851853</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="39" customHeight="1">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="5">
+        <v>45964.492615740739</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="39" customHeight="1">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="5">
+        <v>45984.561585648145</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="39" customHeight="1">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>45984.649270833332</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="39" customHeight="1">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="5">
+        <v>45984.651504629626</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="39" customHeight="1">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="5">
+        <v>45984.653333333335</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="39" customHeight="1">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="5">
+        <v>45981.531319444446</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="39" customHeight="1">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="5">
+        <v>45981.532766203702</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="39" customHeight="1">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="5">
+        <v>45946.770590277774</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="39" customHeight="1">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45953.714629629627</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="39" customHeight="1">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="5">
+        <v>45984.614386574074</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="39" customHeight="1">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="5">
+        <v>45983.717835648145</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="39" customHeight="1">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="5">
+        <v>45983.578287037039</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="39" customHeight="1">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="5">
+        <v>45983.479305555556</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="39" customHeight="1">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="5">
+        <v>45970.434675925928</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="39" customHeight="1">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="5">
+        <v>45984.639513888891</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="39" customHeight="1">
+      <c r="A25" s="13">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="B25" s="14">
+        <v>45938.524513888886</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="39" customHeight="1">
+      <c r="A26" s="18">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="19">
+        <v>45963.714502314811</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="39" customHeight="1">
+      <c r="A27" s="18">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="19">
+        <v>45983.609872685185</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="39" customHeight="1">
+      <c r="A28" s="18">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="19">
+        <v>45963.711967592593</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="39" customHeight="1">
+      <c r="A29" s="18">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="19">
+        <v>45983.627939814818</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I29" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="J29" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="45">
+      <c r="A30" s="18">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22">
+        <v>269042</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="39" customHeight="1">
+      <c r="A31" s="18">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22">
+        <v>269970</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="75">
+      <c r="A32" s="18">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22">
+        <v>269425</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="75">
+      <c r="A33" s="18">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22">
+        <v>269475</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="39" customHeight="1">
+      <c r="A34" s="18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22">
+        <v>269513</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="39" customHeight="1">
+      <c r="A35" s="18">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="B35" s="21"/>
+      <c r="C35" s="22">
+        <v>272708</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="39" customHeight="1">
+      <c r="A36" s="18">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="B36" s="21"/>
+      <c r="C36" s="22">
+        <v>278750</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="39" customHeight="1">
+      <c r="A37" s="18">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="B37" s="21"/>
+      <c r="C37" s="22">
+        <v>269961</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="23"/>
+    </row>
+    <row r="38" spans="1:13" ht="39" customHeight="1">
+      <c r="A38" s="18">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <f t="shared" ref="A7:A20" si="0">A6+1</f>
-        <v>3</v>
-      </c>
-      <c r="B7" s="9">
-        <v>45982.719236111108</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="9">
-        <v>45964.491226851853</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="9">
-        <v>45964.492615740739</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="9">
-        <v>45981.531319444446</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="9">
-        <v>45981.532766203702</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="9">
-        <v>45970.434675925928</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="9">
-        <v>45983.659571759257</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="14">
-        <v>45983.519074074073</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="19">
-        <v>45938.524513888886</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="19">
-        <v>45983.492847222224</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="19">
-        <v>45963.714502314811</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B18" s="19">
-        <v>45963.711967592593</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22">
-        <v>272707</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22">
-        <v>278595</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="23" t="s">
-        <v>114</v>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22">
+        <v>278596</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="23" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -610,9 +610,6 @@
     <t>500VA ICT-1 Shutdown taken for Meachanical body protection (OSR, PRV, WTI &amp; OTI) Implementation as per IOM. Dia to be kept open at both sides.</t>
   </si>
   <si>
-    <t>shall be reviewed in real time in view of t he high loading</t>
-  </si>
-  <si>
     <t>SEONI-PG - 220KV - BUS 2</t>
   </si>
   <si>
@@ -623,6 +620,9 @@
   </si>
   <si>
     <t>S/I SLDC JABALPUR</t>
+  </si>
+  <si>
+    <t>DIFFERED DUE TO  high loading</t>
   </si>
 </sst>
 </file>
@@ -1313,11 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:L2"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2517,12 +2514,12 @@
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
       <c r="H31" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I31" s="27" t="s">
         <v>178</v>
@@ -2534,7 +2531,7 @@
         <v>178</v>
       </c>
       <c r="L31" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M31" s="29" t="s">
         <v>170</v>
@@ -2601,7 +2598,7 @@
         <v>180</v>
       </c>
       <c r="M33" s="29" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="26" customFormat="1" ht="75">
@@ -2746,7 +2743,7 @@
       <c r="K38" s="28"/>
       <c r="L38" s="28"/>
       <c r="M38" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__bookmark_1">Sheet0!$A$1:$M$26</definedName>
+    <definedName name="__bookmark_1">Sheet0!$A$1:$M$29</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="204">
   <si>
     <t>STATE LOAD DESPATCH CENTRE 
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
@@ -87,117 +87,51 @@
     <t>REMARK</t>
   </si>
   <si>
-    <t>MR2511/0638</t>
-  </si>
-  <si>
-    <t>132KV_63MVA TRANSFORMER-I&amp;II</t>
-  </si>
-  <si>
-    <t>132KV_ALIRAJPUR</t>
+    <t>MR2511/0598</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>132KV_132 KV Bhopal Bairagarh Lalghati Tap line Off from Bhopal end only</t>
+  </si>
+  <si>
+    <t>220KV_BHOPAL</t>
   </si>
   <si>
     <t>NON-OCCM-MP</t>
   </si>
   <si>
-    <t>Hot point attend on 132kV Main bus</t>
-  </si>
-  <si>
-    <t>30-11-2025 11:00:00</t>
-  </si>
-  <si>
-    <t>30-11-2025 13:00:00</t>
-  </si>
-  <si>
-    <t>MANOJ RANDHA</t>
-  </si>
-  <si>
-    <t>9425820034</t>
-  </si>
-  <si>
-    <t>MR2511/0640</t>
-  </si>
-  <si>
-    <t>132KV_132KV ALIRAJPUR LIFT IRRIGATION LINE</t>
-  </si>
-  <si>
-    <t>MR2511/0637</t>
-  </si>
-  <si>
-    <t>132KV_132KV MAIN BUS</t>
-  </si>
-  <si>
-    <t>MR2511/0639</t>
-  </si>
-  <si>
-    <t>132KV_132KV KUSKHI-I&amp;II FEEDER</t>
-  </si>
-  <si>
-    <t>MR2511/0023</t>
+    <t>Structure erection work for New 200 MVA Xmer</t>
+  </si>
+  <si>
+    <t>28-11-2025 12:00:00</t>
+  </si>
+  <si>
+    <t>02-12-2025 17:00:00</t>
+  </si>
+  <si>
+    <t>A K Jain</t>
+  </si>
+  <si>
+    <t>9425806899</t>
+  </si>
+  <si>
+    <t>MR2511/0599</t>
+  </si>
+  <si>
+    <t>220KV_220 KV Bus 2 PT</t>
+  </si>
+  <si>
+    <t>Safe clearance for structure erection work</t>
+  </si>
+  <si>
+    <t>28-11-2025 09:00:00</t>
   </si>
   <si>
     <t>Daily</t>
   </si>
   <si>
-    <t>132KV_BEOHARI-RAMPUR NAIKEN_Ckt</t>
-  </si>
-  <si>
-    <t>132KV_BEOHARI</t>
-  </si>
-  <si>
-    <t>HOT LINE OPGW WORK</t>
-  </si>
-  <si>
-    <t>03-11-2025 07:00:00</t>
-  </si>
-  <si>
-    <t>30-11-2025 19:00:00</t>
-  </si>
-  <si>
-    <t>G.L SAHU</t>
-  </si>
-  <si>
-    <t>9425805102</t>
-  </si>
-  <si>
-    <t>MR2511/0598</t>
-  </si>
-  <si>
-    <t>Continuous</t>
-  </si>
-  <si>
-    <t>132KV_132 KV Bhopal Bairagarh Lalghati Tap line Off from Bhopal end only</t>
-  </si>
-  <si>
-    <t>220KV_BHOPAL</t>
-  </si>
-  <si>
-    <t>Structure erection work for New 200 MVA Xmer</t>
-  </si>
-  <si>
-    <t>28-11-2025 12:00:00</t>
-  </si>
-  <si>
-    <t>02-12-2025 17:00:00</t>
-  </si>
-  <si>
-    <t>A K Jain</t>
-  </si>
-  <si>
-    <t>9425806899</t>
-  </si>
-  <si>
-    <t>MR2511/0599</t>
-  </si>
-  <si>
-    <t>220KV_220 KV Bus 2 PT</t>
-  </si>
-  <si>
-    <t>Safe clearance for structure erection work</t>
-  </si>
-  <si>
-    <t>28-11-2025 09:00:00</t>
-  </si>
-  <si>
     <t>220KV_220kV Bhopal-Ganjbasoda ckt</t>
   </si>
   <si>
@@ -219,208 +153,319 @@
     <t>For 35 year old disc insulator replace.work.</t>
   </si>
   <si>
-    <t>MR2511/0636</t>
-  </si>
-  <si>
-    <t>132KV_132/33 KV 63 MVA TRANSFORMER BBL</t>
-  </si>
-  <si>
-    <t>220KV_CHATARPUR</t>
-  </si>
-  <si>
-    <t>For incoming CB Replacemnt</t>
-  </si>
-  <si>
-    <t>30-11-2025 10:00:00</t>
-  </si>
-  <si>
-    <t>30-11-2025 17:00:00</t>
-  </si>
-  <si>
-    <t>Brajendra Soni</t>
-  </si>
-  <si>
-    <t>9131327770</t>
-  </si>
-  <si>
-    <t>MR2511/0624</t>
-  </si>
-  <si>
-    <t>132KV_132KV DAMOH - BATIYAGARH LINE</t>
-  </si>
-  <si>
-    <t>220KV_DAMOH</t>
-  </si>
-  <si>
-    <t>TOWER STRENGTHENING &amp; OTHER LINE MAINTENANCE WORK</t>
-  </si>
-  <si>
-    <t>30-11-2025 09:00:00</t>
-  </si>
-  <si>
-    <t>30-11-2025 16:00:00</t>
+    <t>TOWER STRENGTHENING WORK</t>
+  </si>
+  <si>
+    <t>01-12-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>06-12-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>9425805067</t>
+  </si>
+  <si>
+    <t>MR2511/0623</t>
+  </si>
+  <si>
+    <t>132KV_50MVA BBL X-MER</t>
+  </si>
+  <si>
+    <t>132KV_GORAKHPUR</t>
+  </si>
+  <si>
+    <t>Post-mosoon maintenance &amp; testing work</t>
+  </si>
+  <si>
+    <t>01-12-2025 10:00:00</t>
+  </si>
+  <si>
+    <t>01-12-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>Dharampal singh</t>
+  </si>
+  <si>
+    <t>9009393895</t>
+  </si>
+  <si>
+    <t>MR2511/0650</t>
+  </si>
+  <si>
+    <t>220KV_160 MVA BHEL XMER 220/132 KV</t>
+  </si>
+  <si>
+    <t>220KV_HOSHANGABAD</t>
+  </si>
+  <si>
+    <t>FOR TEN DELTA MEASURMENT &amp; TESTING WORK</t>
+  </si>
+  <si>
+    <t>01-12-2025 12:00:00</t>
+  </si>
+  <si>
+    <t>01-12-2025 15:00:00</t>
+  </si>
+  <si>
+    <t>V. P.DWIVEDI</t>
+  </si>
+  <si>
+    <t>9425804799</t>
+  </si>
+  <si>
+    <t>MR2511/0628</t>
+  </si>
+  <si>
+    <t>220KV_220kV Indore 400 - Jaitpura Line</t>
+  </si>
+  <si>
+    <t>400KV_INDORE4</t>
+  </si>
+  <si>
+    <t>OPGW Stringing Hotline permit</t>
+  </si>
+  <si>
+    <t>01-12-2025 14:00:00</t>
+  </si>
+  <si>
+    <t>AR Kanel</t>
+  </si>
+  <si>
+    <t>9425805217</t>
+  </si>
+  <si>
+    <t>MR2511/0627</t>
+  </si>
+  <si>
+    <t>220KV_220kV Indore400 - Indore SZ Ckt-3</t>
+  </si>
+  <si>
+    <t>OPGW Stringing Shutdown</t>
+  </si>
+  <si>
+    <t>MR2511/0603</t>
+  </si>
+  <si>
+    <t>220KV_Sarni-Itarsi Ckt. III</t>
+  </si>
+  <si>
+    <t>220KV_ITARSI</t>
+  </si>
+  <si>
+    <t>For OPGW Stringing Work</t>
+  </si>
+  <si>
+    <t>01-12-2025 17:00:00</t>
+  </si>
+  <si>
+    <t>Atul Nabar</t>
+  </si>
+  <si>
+    <t>9425805129</t>
+  </si>
+  <si>
+    <t>MR2511/0604</t>
+  </si>
+  <si>
+    <t>220KV_Sarni-Itarsi Ckt. IV</t>
+  </si>
+  <si>
+    <t>MR2511/0612</t>
+  </si>
+  <si>
+    <t>132KV_132 kV Jabalpur- Madhotal ckt-I</t>
+  </si>
+  <si>
+    <t>220KV_JABALPUR</t>
+  </si>
+  <si>
+    <t>stringing work at loc. 30R, 31R &amp; 32R.</t>
+  </si>
+  <si>
+    <t>28-11-2025 16:00:00</t>
+  </si>
+  <si>
+    <t>05-12-2025 16:00:00</t>
+  </si>
+  <si>
+    <t>Jitendra Tiwari</t>
+  </si>
+  <si>
+    <t>9425805298</t>
+  </si>
+  <si>
+    <t>MR2511/0613</t>
+  </si>
+  <si>
+    <t>220KV_132 kV Jabalpur- Madhotal ckt-II</t>
+  </si>
+  <si>
+    <t>400KV_KATNI4</t>
+  </si>
+  <si>
+    <t>OCCM-MP</t>
+  </si>
+  <si>
+    <t>400KV_400KV KATNI - DAMOH LINE</t>
   </si>
   <si>
     <t>M.M. BAIG</t>
   </si>
   <si>
-    <t>9425805067</t>
-  </si>
-  <si>
-    <t>MR2511/0030</t>
-  </si>
-  <si>
-    <t>132KV_132kV - Deolond - Beohari Ckt</t>
-  </si>
-  <si>
-    <t>132KV_DEVLOND</t>
-  </si>
-  <si>
-    <t>OPGW Work</t>
-  </si>
-  <si>
-    <t>G.L Sahu</t>
-  </si>
-  <si>
-    <t>MR2511/0031</t>
-  </si>
-  <si>
-    <t>132KV_132kV Deolond - Jhinna Ckt</t>
-  </si>
-  <si>
-    <t>MR2511/0603</t>
-  </si>
-  <si>
-    <t>220KV_Sarni-Itarsi Ckt. III</t>
-  </si>
-  <si>
-    <t>220KV_ITARSI</t>
-  </si>
-  <si>
-    <t>For OPGW Stringing Work</t>
-  </si>
-  <si>
-    <t>01-12-2025 17:00:00</t>
-  </si>
-  <si>
-    <t>Atul Nabar</t>
-  </si>
-  <si>
-    <t>9425805129</t>
-  </si>
-  <si>
-    <t>MR2511/0604</t>
-  </si>
-  <si>
-    <t>220KV_Sarni-Itarsi Ckt. IV</t>
-  </si>
-  <si>
-    <t>MR2511/0612</t>
-  </si>
-  <si>
-    <t>132KV_132 kV Jabalpur- Madhotal ckt-I</t>
-  </si>
-  <si>
-    <t>220KV_JABALPUR</t>
-  </si>
-  <si>
-    <t>stringing work at loc. 30R, 31R &amp; 32R.</t>
-  </si>
-  <si>
-    <t>28-11-2025 16:00:00</t>
-  </si>
-  <si>
-    <t>05-12-2025 16:00:00</t>
-  </si>
-  <si>
-    <t>Jitendra Tiwari</t>
-  </si>
-  <si>
-    <t>9425805298</t>
-  </si>
-  <si>
-    <t>MR2511/0613</t>
-  </si>
-  <si>
-    <t>220KV_132 kV Jabalpur- Madhotal ckt-II</t>
-  </si>
-  <si>
-    <t>MR2511/0180</t>
-  </si>
-  <si>
-    <t>220KV_Only Main CB of Nagda-Nagra ckt-2 bay</t>
-  </si>
-  <si>
-    <t>400KV_NAGDA4</t>
-  </si>
-  <si>
-    <t>For replacement of main CB of nagra ckt-2 bay</t>
-  </si>
-  <si>
-    <t>10-11-2025 09:00:00</t>
-  </si>
-  <si>
-    <t>Sunil Bamniya</t>
-  </si>
-  <si>
-    <t>9425820045</t>
-  </si>
-  <si>
-    <t>MR2510/0205</t>
-  </si>
-  <si>
-    <t>400KV_400KV Rajgarh- SSP Ckt-2</t>
+    <t>220KV_220KV KATNI - DAMOH LINE</t>
+  </si>
+  <si>
+    <t>MR2510/0725</t>
+  </si>
+  <si>
+    <t>MR2510/0734</t>
+  </si>
+  <si>
+    <t>M.M.BAIG</t>
+  </si>
+  <si>
+    <t>132KV_132/33 KV  40 MVA BBL X-MER</t>
+  </si>
+  <si>
+    <t>132KV_MADHOTAL</t>
+  </si>
+  <si>
+    <t>Painting work</t>
+  </si>
+  <si>
+    <t>04-12-2025 17:00:00</t>
+  </si>
+  <si>
+    <t>Er. Shri A. K. Pandey</t>
+  </si>
+  <si>
+    <t>9424645081</t>
+  </si>
+  <si>
+    <t>MR2511/0630</t>
+  </si>
+  <si>
+    <t>MR2511/0642</t>
+  </si>
+  <si>
+    <t>220KV_200 MVA trabsformer (CGL)</t>
+  </si>
+  <si>
+    <t>220KV_NEPANAGAR</t>
+  </si>
+  <si>
+    <t>for B ph HVCB aux.switch replace work</t>
+  </si>
+  <si>
+    <t>01-12-2025 16:00:00</t>
+  </si>
+  <si>
+    <t>M.K.Pawar</t>
+  </si>
+  <si>
+    <t>9425805191</t>
+  </si>
+  <si>
+    <t>MR2511/0643</t>
+  </si>
+  <si>
+    <t>40MVA_132/33KV_BHEL_X'mer</t>
+  </si>
+  <si>
+    <t>220KV_PANAGAR</t>
+  </si>
+  <si>
+    <t>Post mansoon maintenance work</t>
+  </si>
+  <si>
+    <t>H L koshta</t>
+  </si>
+  <si>
+    <t>7587951105</t>
+  </si>
+  <si>
+    <t>MR2511/0641</t>
+  </si>
+  <si>
+    <t>220KV_220kV TBC ( Transfer bus coupler)</t>
+  </si>
+  <si>
+    <t>400KV_PITHAMPUR4</t>
+  </si>
+  <si>
+    <t>Post monsoon maintenance work</t>
+  </si>
+  <si>
+    <t>Sh. Rajudas bairagi</t>
+  </si>
+  <si>
+    <t>9425801532</t>
+  </si>
+  <si>
+    <t>MR2510/0690</t>
+  </si>
+  <si>
+    <t>400KV_Rajgarh (PGCIL) â¿¿ SSP Ckt-1</t>
   </si>
   <si>
     <t>400KV_RAJGARH-PG</t>
   </si>
   <si>
+    <t>for old disc replacement Work</t>
+  </si>
+  <si>
+    <t>01-12-2025 08:00:00</t>
+  </si>
+  <si>
+    <t>15-12-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>V.R. Panadia</t>
+  </si>
+  <si>
+    <t>9425802330</t>
+  </si>
+  <si>
+    <t>MR2511/0644</t>
+  </si>
+  <si>
+    <t>132KV_40 MVA BBL -Xmer</t>
+  </si>
+  <si>
+    <t>132KV_SATNA1</t>
+  </si>
+  <si>
     <t>NON-OCCM-WR</t>
   </si>
   <si>
-    <t>Old disc insulator replacement work</t>
-  </si>
-  <si>
-    <t>16-11-2025 08:00:00</t>
-  </si>
-  <si>
-    <t>30-11-2025 18:00:00</t>
-  </si>
-  <si>
-    <t>V.RPanadia</t>
-  </si>
-  <si>
-    <t>8120516165</t>
-  </si>
-  <si>
-    <t>MR2511/0026</t>
-  </si>
-  <si>
-    <t>132KV_132KV REWA-RAMPUR NAIKIN CKT</t>
-  </si>
-  <si>
-    <t>220KV_REWA</t>
-  </si>
-  <si>
-    <t>OPGW HOT LINE WORK</t>
-  </si>
-  <si>
-    <t>MR2511/0538</t>
-  </si>
-  <si>
-    <t>400KV_400 KV SARNI-SEONI</t>
+    <t>Post Mansoon Maintenance and Testing work</t>
+  </si>
+  <si>
+    <t>01-12-2025 11:00:00</t>
+  </si>
+  <si>
+    <t>shri Arun Kumar Kol</t>
+  </si>
+  <si>
+    <t>8319677721</t>
+  </si>
+  <si>
+    <t>MR2511/0379</t>
+  </si>
+  <si>
+    <t>220KV_220 KV SARNI-ITARSI-4</t>
   </si>
   <si>
     <t>400KV_SATPURA TPS</t>
   </si>
   <si>
-    <t>For work of DCRM testing of 400kv breakers,general</t>
-  </si>
-  <si>
-    <t>D.P.MISHRA</t>
-  </si>
-  <si>
-    <t>9425611132</t>
+    <t>For Ruutine testing, genral checking &amp; maintenance</t>
+  </si>
+  <si>
+    <t>Yashwant Warathe</t>
+  </si>
+  <si>
+    <t>9425611046</t>
   </si>
   <si>
     <t>MR2511/0484</t>
@@ -444,55 +489,160 @@
     <t>9425806917</t>
   </si>
   <si>
-    <t>MR2511/0025</t>
-  </si>
-  <si>
-    <t>132KV_132KV REWA-Jhinna</t>
+    <t>MR2511/0649</t>
+  </si>
+  <si>
+    <t>220KV_160 MVA 3RD</t>
+  </si>
+  <si>
+    <t>220KV_SHIVPURI</t>
+  </si>
+  <si>
+    <t>160MVA 3RD FOR REPLACEMENT OF NIFPS DRAIN VALVE</t>
+  </si>
+  <si>
+    <t>01-12-2025 02:00:00</t>
+  </si>
+  <si>
+    <t>ROHIT KUMAR YADAV</t>
+  </si>
+  <si>
+    <t>8120064160</t>
+  </si>
+  <si>
+    <t>132KV_132/33KV BHEL TRANSFORMER</t>
   </si>
   <si>
     <t>220KV_SIDHI</t>
   </si>
   <si>
+    <t>POST MANSOON MAINTENANCE WORK</t>
+  </si>
+  <si>
+    <t>ARSHAD QURESHI</t>
+  </si>
+  <si>
+    <t>7000771014</t>
+  </si>
+  <si>
+    <t>MR2511/0631</t>
+  </si>
+  <si>
+    <t>MR2511/0647</t>
+  </si>
+  <si>
+    <t>220KV_220 kv main bus</t>
+  </si>
+  <si>
+    <t>220KV_TIKAMGARH</t>
+  </si>
+  <si>
+    <t>220 kv overhead stringing work</t>
+  </si>
+  <si>
+    <t>Sameer parte</t>
+  </si>
+  <si>
+    <t>9575673359</t>
+  </si>
+  <si>
+    <t>220KV_VIDISHA</t>
+  </si>
+  <si>
+    <t>TEN DELTA measurement of CT and Bay maintenance wo</t>
+  </si>
+  <si>
+    <t>KC GOSWAMI</t>
+  </si>
+  <si>
+    <t>9425804976</t>
+  </si>
+  <si>
+    <t>MR2511/0646</t>
+  </si>
+  <si>
+    <t>132KV_132KV VIDISHA-RAISEN CKT-II</t>
+  </si>
+  <si>
+    <t>01-12-2025 13:00:00</t>
+  </si>
+  <si>
     <t>sub ld</t>
   </si>
   <si>
+    <t>ok, through sub ld</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>real time</t>
+  </si>
+  <si>
     <t>data confirmation required from communication</t>
   </si>
   <si>
-    <t>ok, through sub ld</t>
-  </si>
-  <si>
     <t>ok, line to be in service</t>
   </si>
   <si>
     <t>deferred by site</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>not being availed by site</t>
   </si>
   <si>
-    <t>APPROVED OUTAGE LIST FOR DATED 30.11.2025</t>
-  </si>
-  <si>
-    <t>400KV-SEONI-PG-SATPURA-1</t>
-  </si>
-  <si>
-    <t>POWERGRID-WR1 (PGCIL)</t>
-  </si>
-  <si>
-    <t>30-Nov-2025</t>
+    <t>ok, through sub ld, AR off also approved</t>
+  </si>
+  <si>
+    <t>ok, line to be in service, outage also approved</t>
+  </si>
+  <si>
+    <t>o&amp;m consent required</t>
+  </si>
+  <si>
+    <t>APPROVED OUTAGE LIST FOR DATED 01.12.2025</t>
+  </si>
+  <si>
+    <t>220KV-HOSHANGABAD-ITARSI-1</t>
+  </si>
+  <si>
+    <t>01-Dec-2025</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>02-Dec-2025</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>FOR MAIN 2 DPR RELAY INSTALLATION AND TESTING WORK AT 220 KV S/S NARMADAPURAM</t>
+  </si>
+  <si>
+    <t>400KV-DAMOH-KATNI-1</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>06-Dec-2025</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>Tower Strengthening Work</t>
+  </si>
+  <si>
+    <t>SATNA - 220KV - BUS 1</t>
   </si>
   <si>
     <t>09:00</t>
   </si>
   <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>for DCRM testing of 400 KV Circuit Breakers &amp; other bay equipment testing.</t>
+    <t>For integration of relays of upcoming 220kV bays in existing system</t>
   </si>
   <si>
     <t>S/I SLDC JABALPUR</t>
@@ -537,7 +687,7 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -571,7 +721,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -722,6 +872,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -742,6 +895,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -755,14 +917,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1127,13 +1283,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,48 +1298,48 @@
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="68.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="62.5703125" customWidth="1"/>
+    <col min="8" max="8" width="49.28515625" customWidth="1"/>
     <col min="9" max="10" width="19.5703125" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="59.42578125" customWidth="1"/>
+    <col min="13" max="13" width="55.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="43.7" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="42" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="15"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="16"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1212,7 +1368,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="42" customHeight="1">
+    <row r="4" spans="1:13" ht="60" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1243,840 +1399,836 @@
       <c r="J4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="11"/>
+      <c r="L4" s="12"/>
       <c r="M4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="39" customHeight="1">
+    <row r="5" spans="1:13" ht="33.75" customHeight="1">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="5">
-        <v>45990.641041666669</v>
+        <v>45988.643414351849</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="39" customHeight="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="33.75" customHeight="1">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="5">
-        <v>45990.644074074073</v>
+        <v>45988.653032407405</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="M6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="33.75" customHeight="1">
+      <c r="A7" s="4">
+        <f t="shared" ref="A7:A32" si="0">A6+1</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45988.581759259258</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="39" customHeight="1">
-      <c r="A7" s="4">
-        <f t="shared" ref="A7:A26" si="0">A6+1</f>
-        <v>3</v>
-      </c>
-      <c r="B7" s="5">
-        <v>45990.639652777776</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="39" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="33.75" customHeight="1">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="5">
-        <v>45990.642372685186</v>
+        <v>45989.608090277776</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="39" customHeight="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="33.75" customHeight="1">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="5">
-        <v>45963.700092592589</v>
+        <v>45991.620324074072</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="39" customHeight="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="33.75" customHeight="1">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="5">
-        <v>45988.643414351849</v>
+        <v>45989.759965277779</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="39" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="33.75" customHeight="1">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="5">
-        <v>45988.653032407405</v>
+        <v>45989.758657407408</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="39" customHeight="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="33.75" customHeight="1">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="5">
-        <v>45988.581759259258</v>
+        <v>45988.672442129631</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="39" customHeight="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="33.75" customHeight="1">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B13" s="5">
-        <v>45990.620405092595</v>
+        <v>45988.674618055556</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="E13" s="4" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="39" customHeight="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="33.75" customHeight="1">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B14" s="5">
-        <v>45989.662523148145</v>
+        <v>45989.529398148145</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E14" s="4" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="39" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="33.75" customHeight="1">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B15" s="5">
-        <v>45964.491226851853</v>
+        <v>45989.530763888892</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="39" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="33.75" customHeight="1">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B16" s="5">
-        <v>45964.492615740739</v>
+        <v>45961.716087962966</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="39" customHeight="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="33.75" customHeight="1">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B17" s="5">
-        <v>45988.672442129631</v>
+        <v>45961.740891203706</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="39" customHeight="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="33.75" customHeight="1">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B18" s="5">
-        <v>45988.674618055556</v>
+        <v>45990.520740740743</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="39" customHeight="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="33.75" customHeight="1">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B19" s="5">
-        <v>45989.529398148145</v>
+        <v>45991.446006944447</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="39" customHeight="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="33.75" customHeight="1">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B20" s="5">
-        <v>45989.530763888892</v>
+        <v>45991.502534722225</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="39" customHeight="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="33.75" customHeight="1">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B21" s="5">
-        <v>45970.434675925928</v>
+        <v>45991.397696759261</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="39" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="33.75" customHeight="1">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B22" s="5">
-        <v>45938.524513888886</v>
+        <v>45960.566990740743</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="39" customHeight="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="33.75" customHeight="1">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B23" s="5">
-        <v>45963.714502314811</v>
+        <v>45991.527615740742</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="39" customHeight="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="33.75" customHeight="1">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B24" s="5">
-        <v>45986.535694444443</v>
+        <v>45978.703657407408</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="39" customHeight="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="33.75" customHeight="1">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2085,134 +2237,317 @@
         <v>45982.62771990741</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="39" customHeight="1">
-      <c r="A26" s="16">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="33.75" customHeight="1">
+      <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="17">
-        <v>45963.711967592593</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K26" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="L26" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="30">
-      <c r="A27" s="24">
+      <c r="B26" s="5">
+        <v>45991.61824074074</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="33.75" customHeight="1">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="L27" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="M27" s="21"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="23" t="s">
-        <v>153</v>
+      <c r="B27" s="5">
+        <v>45990.534363425926</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="33.75" customHeight="1">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="5">
+        <v>45991.614942129629</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="33.75" customHeight="1">
+      <c r="A29" s="17">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="21">
+        <v>45991.539733796293</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="L29" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="M29" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="30">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="30">
+      <c r="A31" s="17">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="M31" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="L32" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="M32" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="26" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E2:I2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,31 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__bookmark_1">Sheet0!$A$1:$M$29</definedName>
+    <definedName name="__bookmark_1">Sheet0!$A$1:$M$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="230">
   <si>
     <t>STATE LOAD DESPATCH CENTRE 
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
@@ -87,6 +76,57 @@
     <t>REMARK</t>
   </si>
   <si>
+    <t>MR2512/0012</t>
+  </si>
+  <si>
+    <t>220KV_220kv transfer breaker (b/c)</t>
+  </si>
+  <si>
+    <t>220KV_BADNAGAR</t>
+  </si>
+  <si>
+    <t>OCCM-MP</t>
+  </si>
+  <si>
+    <t>For Bay maintenance work</t>
+  </si>
+  <si>
+    <t>02-12-2025 10:00:00</t>
+  </si>
+  <si>
+    <t>02-12-2025 12:00:00</t>
+  </si>
+  <si>
+    <t>Poshkar kushwaha</t>
+  </si>
+  <si>
+    <t>9425813990</t>
+  </si>
+  <si>
+    <t>MR2512/0002</t>
+  </si>
+  <si>
+    <t>220KV_220 KV Bhanpura - Nipaniya line</t>
+  </si>
+  <si>
+    <t>220KV_BHANPURA</t>
+  </si>
+  <si>
+    <t>NON-OCCM-MP</t>
+  </si>
+  <si>
+    <t>For Line Maintenance work</t>
+  </si>
+  <si>
+    <t>02-12-2025 17:00:00</t>
+  </si>
+  <si>
+    <t>Ravindra Kumar Marksole</t>
+  </si>
+  <si>
+    <t>9425814080</t>
+  </si>
+  <si>
     <t>MR2511/0598</t>
   </si>
   <si>
@@ -99,18 +139,12 @@
     <t>220KV_BHOPAL</t>
   </si>
   <si>
-    <t>NON-OCCM-MP</t>
-  </si>
-  <si>
     <t>Structure erection work for New 200 MVA Xmer</t>
   </si>
   <si>
     <t>28-11-2025 12:00:00</t>
   </si>
   <si>
-    <t>02-12-2025 17:00:00</t>
-  </si>
-  <si>
     <t>A K Jain</t>
   </si>
   <si>
@@ -165,174 +199,153 @@
     <t>9425805067</t>
   </si>
   <si>
-    <t>MR2511/0623</t>
-  </si>
-  <si>
-    <t>132KV_50MVA BBL X-MER</t>
-  </si>
-  <si>
-    <t>132KV_GORAKHPUR</t>
-  </si>
-  <si>
-    <t>Post-mosoon maintenance &amp; testing work</t>
+    <t>MR2512/0014</t>
+  </si>
+  <si>
+    <t>220KV_220KV DEWAS CHAPDA FEEDER  CT</t>
+  </si>
+  <si>
+    <t>220KV_DEWAS</t>
+  </si>
+  <si>
+    <t>NON-OCCM-WR</t>
+  </si>
+  <si>
+    <t>CT TEN DELTA WORK BOTH END</t>
+  </si>
+  <si>
+    <t>02-12-2025 15:00:00</t>
+  </si>
+  <si>
+    <t>A.K JOSHI</t>
+  </si>
+  <si>
+    <t>9424887657</t>
+  </si>
+  <si>
+    <t>MR2512/0011</t>
+  </si>
+  <si>
+    <t>220KV_SARNI ITARSI CKT-3</t>
+  </si>
+  <si>
+    <t>220KV_ITARSI</t>
+  </si>
+  <si>
+    <t>OPGW STRINGING WORK</t>
+  </si>
+  <si>
+    <t>02-12-2025 14:00:00</t>
+  </si>
+  <si>
+    <t>ATUL NABAR</t>
+  </si>
+  <si>
+    <t>9425805129</t>
+  </si>
+  <si>
+    <t>MR2511/0612</t>
+  </si>
+  <si>
+    <t>132KV_132 kV Jabalpur- Madhotal ckt-I</t>
+  </si>
+  <si>
+    <t>220KV_JABALPUR</t>
+  </si>
+  <si>
+    <t>stringing work at loc. 30R, 31R &amp; 32R.</t>
+  </si>
+  <si>
+    <t>28-11-2025 16:00:00</t>
+  </si>
+  <si>
+    <t>05-12-2025 16:00:00</t>
+  </si>
+  <si>
+    <t>Jitendra Tiwari</t>
+  </si>
+  <si>
+    <t>9425805298</t>
+  </si>
+  <si>
+    <t>MR2511/0613</t>
+  </si>
+  <si>
+    <t>220KV_132 kV Jabalpur- Madhotal ckt-II</t>
+  </si>
+  <si>
+    <t>400KV_KATNI4</t>
+  </si>
+  <si>
+    <t>400KV_400KV KATNI - DAMOH LINE</t>
+  </si>
+  <si>
+    <t>M.M. BAIG</t>
+  </si>
+  <si>
+    <t>220KV_220KV KATNI - DAMOH LINE</t>
+  </si>
+  <si>
+    <t>MR2511/0276</t>
+  </si>
+  <si>
+    <t>400KV_400 kv katni brishigpur line</t>
+  </si>
+  <si>
+    <t>maintence work</t>
+  </si>
+  <si>
+    <t>02-12-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>pankaj yadav</t>
+  </si>
+  <si>
+    <t>9406713326</t>
+  </si>
+  <si>
+    <t>MR2510/0725</t>
+  </si>
+  <si>
+    <t>MR2510/0734</t>
+  </si>
+  <si>
+    <t>M.M.BAIG</t>
+  </si>
+  <si>
+    <t>MR2512/0017</t>
+  </si>
+  <si>
+    <t>132KV_40 MVA ECE X-MER</t>
+  </si>
+  <si>
+    <t>132KV_KATRA</t>
+  </si>
+  <si>
+    <t>X-MER PAINTING WORK</t>
+  </si>
+  <si>
+    <t>02-12-2025 11:00:00</t>
+  </si>
+  <si>
+    <t>KANISHKA SINGH</t>
+  </si>
+  <si>
+    <t>9425804656</t>
+  </si>
+  <si>
+    <t>132KV_132/33 KV  40 MVA BBL X-MER</t>
+  </si>
+  <si>
+    <t>132KV_MADHOTAL</t>
+  </si>
+  <si>
+    <t>Painting work</t>
   </si>
   <si>
     <t>01-12-2025 10:00:00</t>
   </si>
   <si>
-    <t>01-12-2025 18:00:00</t>
-  </si>
-  <si>
-    <t>Dharampal singh</t>
-  </si>
-  <si>
-    <t>9009393895</t>
-  </si>
-  <si>
-    <t>MR2511/0650</t>
-  </si>
-  <si>
-    <t>220KV_160 MVA BHEL XMER 220/132 KV</t>
-  </si>
-  <si>
-    <t>220KV_HOSHANGABAD</t>
-  </si>
-  <si>
-    <t>FOR TEN DELTA MEASURMENT &amp; TESTING WORK</t>
-  </si>
-  <si>
-    <t>01-12-2025 12:00:00</t>
-  </si>
-  <si>
-    <t>01-12-2025 15:00:00</t>
-  </si>
-  <si>
-    <t>V. P.DWIVEDI</t>
-  </si>
-  <si>
-    <t>9425804799</t>
-  </si>
-  <si>
-    <t>MR2511/0628</t>
-  </si>
-  <si>
-    <t>220KV_220kV Indore 400 - Jaitpura Line</t>
-  </si>
-  <si>
-    <t>400KV_INDORE4</t>
-  </si>
-  <si>
-    <t>OPGW Stringing Hotline permit</t>
-  </si>
-  <si>
-    <t>01-12-2025 14:00:00</t>
-  </si>
-  <si>
-    <t>AR Kanel</t>
-  </si>
-  <si>
-    <t>9425805217</t>
-  </si>
-  <si>
-    <t>MR2511/0627</t>
-  </si>
-  <si>
-    <t>220KV_220kV Indore400 - Indore SZ Ckt-3</t>
-  </si>
-  <si>
-    <t>OPGW Stringing Shutdown</t>
-  </si>
-  <si>
-    <t>MR2511/0603</t>
-  </si>
-  <si>
-    <t>220KV_Sarni-Itarsi Ckt. III</t>
-  </si>
-  <si>
-    <t>220KV_ITARSI</t>
-  </si>
-  <si>
-    <t>For OPGW Stringing Work</t>
-  </si>
-  <si>
-    <t>01-12-2025 17:00:00</t>
-  </si>
-  <si>
-    <t>Atul Nabar</t>
-  </si>
-  <si>
-    <t>9425805129</t>
-  </si>
-  <si>
-    <t>MR2511/0604</t>
-  </si>
-  <si>
-    <t>220KV_Sarni-Itarsi Ckt. IV</t>
-  </si>
-  <si>
-    <t>MR2511/0612</t>
-  </si>
-  <si>
-    <t>132KV_132 kV Jabalpur- Madhotal ckt-I</t>
-  </si>
-  <si>
-    <t>220KV_JABALPUR</t>
-  </si>
-  <si>
-    <t>stringing work at loc. 30R, 31R &amp; 32R.</t>
-  </si>
-  <si>
-    <t>28-11-2025 16:00:00</t>
-  </si>
-  <si>
-    <t>05-12-2025 16:00:00</t>
-  </si>
-  <si>
-    <t>Jitendra Tiwari</t>
-  </si>
-  <si>
-    <t>9425805298</t>
-  </si>
-  <si>
-    <t>MR2511/0613</t>
-  </si>
-  <si>
-    <t>220KV_132 kV Jabalpur- Madhotal ckt-II</t>
-  </si>
-  <si>
-    <t>400KV_KATNI4</t>
-  </si>
-  <si>
-    <t>OCCM-MP</t>
-  </si>
-  <si>
-    <t>400KV_400KV KATNI - DAMOH LINE</t>
-  </si>
-  <si>
-    <t>M.M. BAIG</t>
-  </si>
-  <si>
-    <t>220KV_220KV KATNI - DAMOH LINE</t>
-  </si>
-  <si>
-    <t>MR2510/0725</t>
-  </si>
-  <si>
-    <t>MR2510/0734</t>
-  </si>
-  <si>
-    <t>M.M.BAIG</t>
-  </si>
-  <si>
-    <t>132KV_132/33 KV  40 MVA BBL X-MER</t>
-  </si>
-  <si>
-    <t>132KV_MADHOTAL</t>
-  </si>
-  <si>
-    <t>Painting work</t>
-  </si>
-  <si>
     <t>04-12-2025 17:00:00</t>
   </si>
   <si>
@@ -345,61 +358,61 @@
     <t>MR2511/0630</t>
   </si>
   <si>
-    <t>MR2511/0642</t>
-  </si>
-  <si>
-    <t>220KV_200 MVA trabsformer (CGL)</t>
-  </si>
-  <si>
-    <t>220KV_NEPANAGAR</t>
-  </si>
-  <si>
-    <t>for B ph HVCB aux.switch replace work</t>
-  </si>
-  <si>
-    <t>01-12-2025 16:00:00</t>
-  </si>
-  <si>
-    <t>M.K.Pawar</t>
-  </si>
-  <si>
-    <t>9425805191</t>
-  </si>
-  <si>
-    <t>MR2511/0643</t>
-  </si>
-  <si>
-    <t>40MVA_132/33KV_BHEL_X'mer</t>
-  </si>
-  <si>
-    <t>220KV_PANAGAR</t>
-  </si>
-  <si>
-    <t>Post mansoon maintenance work</t>
-  </si>
-  <si>
-    <t>H L koshta</t>
-  </si>
-  <si>
-    <t>7587951105</t>
-  </si>
-  <si>
-    <t>MR2511/0641</t>
-  </si>
-  <si>
-    <t>220KV_220kV TBC ( Transfer bus coupler)</t>
+    <t>MR2512/0018</t>
+  </si>
+  <si>
+    <t>220KV_220 Kv Narsinghpur -Sukha -1 line</t>
+  </si>
+  <si>
+    <t>220KV_NARSINGHPUR</t>
+  </si>
+  <si>
+    <t>CT Tan delta mesurment work</t>
+  </si>
+  <si>
+    <t>02-12-2025 11:30:00</t>
+  </si>
+  <si>
+    <t>02-12-2025 16:30:00</t>
+  </si>
+  <si>
+    <t>Dinesh Kushwaha</t>
+  </si>
+  <si>
+    <t>9425801319</t>
+  </si>
+  <si>
+    <t>MR2511/0579</t>
+  </si>
+  <si>
+    <t>400KV_400KV SSTPH-Pithampur ckt-2</t>
   </si>
   <si>
     <t>400KV_PITHAMPUR4</t>
   </si>
   <si>
-    <t>Post monsoon maintenance work</t>
-  </si>
-  <si>
-    <t>Sh. Rajudas bairagi</t>
-  </si>
-  <si>
-    <t>9425801532</t>
+    <t>Hotline permit for OPGW Stringing work</t>
+  </si>
+  <si>
+    <t>02-12-2025 07:00:00</t>
+  </si>
+  <si>
+    <t>12-12-2025 19:00:00</t>
+  </si>
+  <si>
+    <t>Naresh Pandre</t>
+  </si>
+  <si>
+    <t>9425806905</t>
+  </si>
+  <si>
+    <t>MR2511/0578</t>
+  </si>
+  <si>
+    <t>400KV_400KV SSTPH Pithampur ckt-1</t>
+  </si>
+  <si>
+    <t>hotline permit for OPGW Stringing work</t>
   </si>
   <si>
     <t>MR2510/0690</t>
@@ -426,34 +439,76 @@
     <t>9425802330</t>
   </si>
   <si>
-    <t>MR2511/0644</t>
-  </si>
-  <si>
-    <t>132KV_40 MVA BBL -Xmer</t>
+    <t>MR2512/0008</t>
+  </si>
+  <si>
+    <t>220KV_220 KV 160 MVA X-MER BHEL</t>
+  </si>
+  <si>
+    <t>220KV_REWA</t>
+  </si>
+  <si>
+    <t>FOR OIL TOPPING WORK</t>
+  </si>
+  <si>
+    <t>MR2512/0010</t>
+  </si>
+  <si>
+    <t>220KV_SARNI HANDIYA</t>
+  </si>
+  <si>
+    <t>220KV_SARNI</t>
+  </si>
+  <si>
+    <t>MR2512/0009</t>
+  </si>
+  <si>
+    <t>220KV_SARNI ITARSI CKT-2</t>
+  </si>
+  <si>
+    <t>OPGW stringing work</t>
+  </si>
+  <si>
+    <t>MR2512/0006</t>
+  </si>
+  <si>
+    <t>132KV_132 kv Satna  â¿¿  Satna IC â¿¿II  line</t>
+  </si>
+  <si>
+    <t>220KV_SATNA</t>
+  </si>
+  <si>
+    <t>Line maintenance work</t>
+  </si>
+  <si>
+    <t>Mr. R.K.Prajapati</t>
+  </si>
+  <si>
+    <t>9407070182</t>
+  </si>
+  <si>
+    <t>132KV_40 MVA BBL X-mer</t>
   </si>
   <si>
     <t>132KV_SATNA1</t>
   </si>
   <si>
-    <t>NON-OCCM-WR</t>
-  </si>
-  <si>
-    <t>Post Mansoon Maintenance and Testing work</t>
-  </si>
-  <si>
-    <t>01-12-2025 11:00:00</t>
-  </si>
-  <si>
-    <t>shri Arun Kumar Kol</t>
+    <t>Post Mansoon Maintenanace and testing</t>
+  </si>
+  <si>
+    <t>shri Arun kumar kol</t>
   </si>
   <si>
     <t>8319677721</t>
   </si>
   <si>
-    <t>MR2511/0379</t>
-  </si>
-  <si>
-    <t>220KV_220 KV SARNI-ITARSI-4</t>
+    <t>MR2512/0016</t>
+  </si>
+  <si>
+    <t>MR2511/0380</t>
+  </si>
+  <si>
+    <t>400KV_400 KV SARNI-ASHTA LINE-II</t>
   </si>
   <si>
     <t>400KV_SATPURA TPS</t>
@@ -462,6 +517,12 @@
     <t>For Ruutine testing, genral checking &amp; maintenance</t>
   </si>
   <si>
+    <t>02-12-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>04-12-2025 18:00:00</t>
+  </si>
+  <si>
     <t>Yashwant Warathe</t>
   </si>
   <si>
@@ -474,9 +535,6 @@
     <t>400KV_SARNI INDIRASAGAR LINE</t>
   </si>
   <si>
-    <t>OPGW STRINGING WORK</t>
-  </si>
-  <si>
     <t>25-11-2025 07:00:00</t>
   </si>
   <si>
@@ -489,61 +547,40 @@
     <t>9425806917</t>
   </si>
   <si>
-    <t>MR2511/0649</t>
-  </si>
-  <si>
-    <t>220KV_160 MVA 3RD</t>
-  </si>
-  <si>
-    <t>220KV_SHIVPURI</t>
-  </si>
-  <si>
-    <t>160MVA 3RD FOR REPLACEMENT OF NIFPS DRAIN VALVE</t>
-  </si>
-  <si>
-    <t>01-12-2025 02:00:00</t>
-  </si>
-  <si>
-    <t>ROHIT KUMAR YADAV</t>
-  </si>
-  <si>
-    <t>8120064160</t>
-  </si>
-  <si>
-    <t>132KV_132/33KV BHEL TRANSFORMER</t>
-  </si>
-  <si>
-    <t>220KV_SIDHI</t>
-  </si>
-  <si>
-    <t>POST MANSOON MAINTENANCE WORK</t>
-  </si>
-  <si>
-    <t>ARSHAD QURESHI</t>
+    <t>MR2512/0007</t>
+  </si>
+  <si>
+    <t>220KV_220 kV Birsinghpur TPH-Manpur [TBCB] Circuit</t>
+  </si>
+  <si>
+    <t>400KV_SGTPS</t>
+  </si>
+  <si>
+    <t>F/o disc replacement &amp; other line maintenance</t>
+  </si>
+  <si>
+    <t>MR2512/0004</t>
+  </si>
+  <si>
+    <t>132KV_132/33 KV 50 MVA TAL X-MER</t>
+  </si>
+  <si>
+    <t>132KV_SINHAWAL</t>
+  </si>
+  <si>
+    <t>POST MONSOON MAINTENANCE &amp; TESTING WORK</t>
+  </si>
+  <si>
+    <t>SHRI ARSHAD QURESHI</t>
   </si>
   <si>
     <t>7000771014</t>
   </si>
   <si>
-    <t>MR2511/0631</t>
-  </si>
-  <si>
-    <t>MR2511/0647</t>
-  </si>
-  <si>
-    <t>220KV_220 kv main bus</t>
-  </si>
-  <si>
-    <t>220KV_TIKAMGARH</t>
-  </si>
-  <si>
-    <t>220 kv overhead stringing work</t>
-  </si>
-  <si>
-    <t>Sameer parte</t>
-  </si>
-  <si>
-    <t>9575673359</t>
+    <t>MR2512/0013</t>
+  </si>
+  <si>
+    <t>132KV_132KV GULABGANJ TRACTION - I</t>
   </si>
   <si>
     <t>220KV_VIDISHA</t>
@@ -552,97 +589,127 @@
     <t>TEN DELTA measurement of CT and Bay maintenance wo</t>
   </si>
   <si>
+    <t>02-12-2025 13:00:00</t>
+  </si>
+  <si>
     <t>KC GOSWAMI</t>
   </si>
   <si>
     <t>9425804976</t>
   </si>
   <si>
-    <t>MR2511/0646</t>
-  </si>
-  <si>
-    <t>132KV_132KV VIDISHA-RAISEN CKT-II</t>
-  </si>
-  <si>
-    <t>01-12-2025 13:00:00</t>
+    <t>ok, through sub ld</t>
   </si>
   <si>
     <t>sub ld</t>
   </si>
   <si>
-    <t>ok, through sub ld</t>
+    <t>Deferred due to s/d on 400kv Korba-Birsinghpur ckt</t>
+  </si>
+  <si>
+    <t>ok, line to be in service</t>
+  </si>
+  <si>
+    <t>deferred by site</t>
+  </si>
+  <si>
+    <t>not being availed by site</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
+    <t>o&amp;m consent required</t>
+  </si>
+  <si>
+    <t>in real time, after load management</t>
+  </si>
+  <si>
+    <t>ok, o&amp;m to be informed</t>
+  </si>
+  <si>
+    <t>as per real time loading</t>
+  </si>
+  <si>
+    <t>shall be reviewed after 11.30hrs</t>
+  </si>
+  <si>
+    <t>APPROVED OUTAGE LIST FOR DATED 02.12.2025</t>
+  </si>
+  <si>
+    <t>400KV-KORADI-SATPURA-1</t>
+  </si>
+  <si>
+    <t>02-Dec-2025</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>05-Dec-2025</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For replacemnet of Bus-1 PG isolator under ADD CAP at MPGENCO (Simultaneous outage of 400kV Bus-1 is required  at Sarni S/S of MPGENCO) </t>
+  </si>
+  <si>
+    <t>not being availed by pgcil</t>
+  </si>
+  <si>
+    <t>SATPURA - 400KV - BUS 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For replacemnet of Bus-1 PG isolator under ADD CAP at MPGENCO (Simultaneous outage of 400KV-SATPURA-KORADI-1 is required) </t>
+  </si>
+  <si>
+    <t>220KV-INDORE-INDORE NORTH ZONE-1</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>06-Dec-2025</t>
+  </si>
+  <si>
+    <t>FOR REPLACEMENT OF OLD DISC INSULATOR ON VARIOUS TOWERS</t>
+  </si>
+  <si>
     <t>real time</t>
   </si>
   <si>
-    <t>data confirmation required from communication</t>
-  </si>
-  <si>
-    <t>ok, line to be in service</t>
-  </si>
-  <si>
-    <t>deferred by site</t>
-  </si>
-  <si>
-    <t>not being availed by site</t>
-  </si>
-  <si>
-    <t>ok, through sub ld, AR off also approved</t>
-  </si>
-  <si>
-    <t>ok, line to be in service, outage also approved</t>
-  </si>
-  <si>
-    <t>o&amp;m consent required</t>
-  </si>
-  <si>
-    <t>APPROVED OUTAGE LIST FOR DATED 01.12.2025</t>
+    <t>400KV/220KV JABALPUR-ICT-1</t>
+  </si>
+  <si>
+    <t>03-Dec-2025</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOR BAY MAINTENANCE &amp; TESTING WORK </t>
+  </si>
+  <si>
+    <t>01-Dec-2025</t>
+  </si>
+  <si>
+    <t>23:59</t>
+  </si>
+  <si>
+    <t>BAY PM</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>FOR MAIN 2 DPR RELAY INSTALLATION AND TESTING WORK AT 220 KV S/S NARMADAPURAM</t>
+  </si>
+  <si>
+    <t>400KV-KORBA-NTPC-BIRSINGPUR-1</t>
   </si>
   <si>
     <t>220KV-HOSHANGABAD-ITARSI-1</t>
-  </si>
-  <si>
-    <t>01-Dec-2025</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>02-Dec-2025</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>FOR MAIN 2 DPR RELAY INSTALLATION AND TESTING WORK AT 220 KV S/S NARMADAPURAM</t>
-  </si>
-  <si>
-    <t>400KV-DAMOH-KATNI-1</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>06-Dec-2025</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>Tower Strengthening Work</t>
-  </si>
-  <si>
-    <t>SATNA - 220KV - BUS 1</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>For integration of relays of upcoming 220kV bays in existing system</t>
   </si>
   <si>
     <t>S/I SLDC JABALPUR</t>
@@ -687,7 +754,7 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -700,14 +767,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -722,6 +789,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,7 +919,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -883,25 +956,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -916,8 +980,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -947,8 +1017,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>605333</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2083</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>3335</xdr:rowOff>
     </xdr:to>
@@ -1283,13 +1353,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1298,13 +1368,13 @@
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="68.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="49.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="43.42578125" customWidth="1"/>
     <col min="9" max="10" width="19.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="55.85546875" customWidth="1"/>
+    <col min="13" max="13" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="43.7" customHeight="1">
@@ -1329,18 +1399,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="14" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="1"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1368,7 +1438,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="60" customHeight="1">
+    <row r="4" spans="1:13" ht="42" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1407,237 +1477,237 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="33.75" customHeight="1">
+    <row r="5" spans="1:13" ht="46.5" customHeight="1">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="5">
-        <v>45988.643414351849</v>
+        <v>45992.620335648149</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="M5" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="33.75" customHeight="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="46.5" customHeight="1">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="5">
-        <v>45988.653032407405</v>
+        <v>45992.432824074072</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="46.5" customHeight="1">
+      <c r="A7" s="4">
+        <f t="shared" ref="A7:A38" si="0">A6+1</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45988.643414351849</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A7" s="4">
-        <f t="shared" ref="A7:A32" si="0">A6+1</f>
-        <v>3</v>
-      </c>
-      <c r="B7" s="5">
-        <v>45988.581759259258</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="46.5" customHeight="1">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45988.653032407405</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A8" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="5">
-        <v>45989.608090277776</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="I8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="J8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="46.5" customHeight="1">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45988.581759259258</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="G9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="K9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A9" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="5">
-        <v>45991.620324074072</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="L9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="46.5" customHeight="1">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="5">
+        <v>45992.6559375</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A10" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="5">
-        <v>45989.759965277779</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>62</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>63</v>
@@ -1649,302 +1719,298 @@
         <v>65</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="33.75" customHeight="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="46.5" customHeight="1">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="5">
-        <v>45989.758657407408</v>
+        <v>45992.597604166665</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="9" t="s">
         <v>67</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="33.75" customHeight="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="46.5" customHeight="1">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="5">
-        <v>45988.672442129631</v>
+        <v>45989.529398148145</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="46.5" customHeight="1">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="5">
+        <v>45989.530763888892</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="46.5" customHeight="1">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="5">
+        <v>45974.60428240741</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="46.5" customHeight="1">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="5">
+        <v>45961.716087962966</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="46.5" customHeight="1">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="5">
+        <v>45961.740891203706</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="46.5" customHeight="1">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="5">
+        <v>45992.672523148147</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A13" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="5">
-        <v>45988.674618055556</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A14" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="5">
-        <v>45989.529398148145</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A15" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="5">
-        <v>45989.530763888892</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A16" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="5">
-        <v>45961.716087962966</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A17" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="5">
-        <v>45961.740891203706</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="33.75" customHeight="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="46.5" customHeight="1">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1953,160 +2019,164 @@
         <v>45990.520740740743</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="33.75" customHeight="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="46.5" customHeight="1">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B19" s="5">
-        <v>45991.446006944447</v>
+        <v>45992.675613425927</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>104</v>
+      <c r="E19" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="33.75" customHeight="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="46.5" customHeight="1">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B20" s="5">
-        <v>45991.502534722225</v>
+        <v>45988.354861111111</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="33.75" customHeight="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="46.5" customHeight="1">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B21" s="5">
-        <v>45991.397696759261</v>
+        <v>45988.353136574071</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="33.75" customHeight="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="46.5" customHeight="1">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2115,439 +2185,672 @@
         <v>45960.566990740743</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="33.75" customHeight="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="46.5" customHeight="1">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B23" s="5">
-        <v>45991.527615740742</v>
+        <v>45992.591365740744</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="33.75" customHeight="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="46.5" customHeight="1">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B24" s="5">
-        <v>45978.703657407408</v>
+        <v>45992.595729166664</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
-        <v>139</v>
+      <c r="E24" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="46.5" customHeight="1">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A25" s="4">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
       <c r="B25" s="5">
-        <v>45982.62771990741</v>
+        <v>45992.593819444446</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="G25" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="J25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="46.5" customHeight="1">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="5">
+        <v>45992.551064814812</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A26" s="4">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B26" s="5">
-        <v>45991.61824074074</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="L26" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>157</v>
-      </c>
       <c r="M26" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="33.75" customHeight="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="46.5" customHeight="1">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B27" s="5">
-        <v>45990.534363425926</v>
+        <v>45992.661817129629</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L27" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="4" t="s">
+      <c r="M27" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="46.5" customHeight="1">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="5">
+        <v>45978.705983796295</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="7" t="s">
+      <c r="D28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="F28" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="G28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="46.5" customHeight="1">
+      <c r="A29" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="5">
+        <v>45982.62771990741</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="46.5" customHeight="1">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="5">
+        <v>45992.565798611111</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="46.5" customHeight="1">
+      <c r="A31" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="5">
+        <v>45992.533807870372</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A28" s="4">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B28" s="5">
-        <v>45991.614942129629</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A29" s="17">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B29" s="21">
-        <v>45991.539733796293</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="L29" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="M29" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="30">
-      <c r="A30" s="4">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="I30" s="18" t="s">
+      <c r="F31" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="46.5" customHeight="1">
+      <c r="A32" s="17">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="18">
+        <v>45992.645601851851</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="L32" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="J30" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="K30" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="L30" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="M30" s="20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="30">
-      <c r="A31" s="17">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="K31" s="18" t="s">
+      <c r="M32" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="L31" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="M31" s="20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="4">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="K32" s="18" t="s">
+    </row>
+    <row r="33" spans="1:13" ht="60">
+      <c r="A33" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="K33" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="M33" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="45">
+      <c r="A34" s="17">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="K34" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="L34" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="M34" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="30">
+      <c r="A35" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="J35" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="K35" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="L35" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="M35" s="24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="17">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="K36" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="L36" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="M36" s="24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="J37" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="L37" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="M37" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="L32" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="M32" s="20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="26" t="s">
-        <v>203</v>
-      </c>
+    </row>
+    <row r="38" spans="1:13" ht="45">
+      <c r="A38" s="17">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="J38" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="L38" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="M38" s="24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="18.75">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E2:J2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__bookmark_1">Sheet0!$A$1:$M$28</definedName>
+    <definedName name="__bookmark_1">Sheet0!$A$1:$M$33</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="236">
   <si>
     <t>STATE LOAD DESPATCH CENTRE 
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
@@ -76,7 +76,31 @@
     <t>REMARK</t>
   </si>
   <si>
-    <t>MR2511/0531</t>
+    <t>MR2512/0066</t>
+  </si>
+  <si>
+    <t>220KV_220 KV Bus PT</t>
+  </si>
+  <si>
+    <t>220KV_BHOPAL</t>
+  </si>
+  <si>
+    <t>NON-OCCM-WR</t>
+  </si>
+  <si>
+    <t>for structure erection work</t>
+  </si>
+  <si>
+    <t>04-12-2025 10:00:00</t>
+  </si>
+  <si>
+    <t>04-12-2025 17:00:00</t>
+  </si>
+  <si>
+    <t>A.K. Jain</t>
+  </si>
+  <si>
+    <t>9425806899</t>
   </si>
   <si>
     <t>Daily</t>
@@ -91,12 +115,6 @@
     <t>NON-OCCM-MP</t>
   </si>
   <si>
-    <t>For 35 year old disc insulator replacement work.</t>
-  </si>
-  <si>
-    <t>25-11-2025 09:00:00</t>
-  </si>
-  <si>
     <t>20-12-2025 18:00:00</t>
   </si>
   <si>
@@ -106,6 +124,15 @@
     <t>9425820042</t>
   </si>
   <si>
+    <t>MR2511/0587</t>
+  </si>
+  <si>
+    <t>For 35 year old disc insulator replace.work.</t>
+  </si>
+  <si>
+    <t>28-11-2025 09:00:00</t>
+  </si>
+  <si>
     <t>MR2512/0037</t>
   </si>
   <si>
@@ -124,15 +151,30 @@
     <t>03-12-2025 09:00:00</t>
   </si>
   <si>
-    <t>04-12-2025 17:00:00</t>
-  </si>
-  <si>
     <t>MR. P.N. NAMDEO</t>
   </si>
   <si>
     <t>7587951092</t>
   </si>
   <si>
+    <t>MR2512/0055</t>
+  </si>
+  <si>
+    <t>220KV_220 KV Bina Datia line</t>
+  </si>
+  <si>
+    <t>Flash over disc replacement work and other line ma</t>
+  </si>
+  <si>
+    <t>04-12-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>Satish Kumar Bhagat</t>
+  </si>
+  <si>
+    <t>9425806916</t>
+  </si>
+  <si>
     <t>TOWER STRENGTHENING WORK</t>
   </si>
   <si>
@@ -145,25 +187,22 @@
     <t>9425805067</t>
   </si>
   <si>
-    <t>MR2512/0042</t>
-  </si>
-  <si>
-    <t>220KV_220KV DEWAS BICHOLI LINE</t>
+    <t>MR2512/0064</t>
+  </si>
+  <si>
+    <t>220KV_220 KV ASHTA LINE</t>
   </si>
   <si>
     <t>220KV_DEWAS</t>
   </si>
   <si>
-    <t>NON-OCCM-WR</t>
-  </si>
-  <si>
-    <t>CT &amp; CVT TEN DELTA WORK</t>
-  </si>
-  <si>
-    <t>03-12-2025 09:30:00</t>
-  </si>
-  <si>
-    <t>03-12-2025 12:30:00</t>
+    <t>CT &amp; CVT TAN DELTA MEASURE.</t>
+  </si>
+  <si>
+    <t>04-12-2025 09:30:00</t>
+  </si>
+  <si>
+    <t>04-12-2025 13:30:00</t>
   </si>
   <si>
     <t>A.K. JOSHI</t>
@@ -172,16 +211,55 @@
     <t>9424887657</t>
   </si>
   <si>
-    <t>MR2512/0043</t>
-  </si>
-  <si>
-    <t>220KV_220KV DEWAS INDORE LINE</t>
-  </si>
-  <si>
-    <t>03-12-2025 13:30:00</t>
-  </si>
-  <si>
-    <t>03-12-2025 16:30:00</t>
+    <t>MR2512/0065</t>
+  </si>
+  <si>
+    <t>220KV_220KV BUS COUPLER</t>
+  </si>
+  <si>
+    <t>CT  TAN DELTA MEASURE</t>
+  </si>
+  <si>
+    <t>04-12-2025 16:30:00</t>
+  </si>
+  <si>
+    <t>MR2512/0063</t>
+  </si>
+  <si>
+    <t>132KV_50 MVA bbl-make transformer</t>
+  </si>
+  <si>
+    <t>132KV_DIGODA</t>
+  </si>
+  <si>
+    <t>Replacement of y-phase 33kv ct</t>
+  </si>
+  <si>
+    <t>04-12-2025 12:00:00</t>
+  </si>
+  <si>
+    <t>Pushpendra soni</t>
+  </si>
+  <si>
+    <t>9425806398</t>
+  </si>
+  <si>
+    <t>MR2512/0062</t>
+  </si>
+  <si>
+    <t>220KV_160 MVA TRANSFORMER -I BBL MAKE</t>
+  </si>
+  <si>
+    <t>220KV_INDORE-II (JETPURA)</t>
+  </si>
+  <si>
+    <t>POST MONSOON MAINTENANCE AND TESTING WORK</t>
+  </si>
+  <si>
+    <t>DEEPAK GUPTA</t>
+  </si>
+  <si>
+    <t>9425803845</t>
   </si>
   <si>
     <t>MR2512/0022</t>
@@ -250,6 +328,24 @@
     <t>220KV_220KV KATNI - DAMOH LINE</t>
   </si>
   <si>
+    <t>MR2511/0278</t>
+  </si>
+  <si>
+    <t>400KV_400 kv katni brishigpur line</t>
+  </si>
+  <si>
+    <t>line maintence work</t>
+  </si>
+  <si>
+    <t>04-12-2025 00:00:00</t>
+  </si>
+  <si>
+    <t>pankaj yadav</t>
+  </si>
+  <si>
+    <t>9406713326</t>
+  </si>
+  <si>
     <t>MR2510/0725</t>
   </si>
   <si>
@@ -259,6 +355,42 @@
     <t>M.M.BAIG</t>
   </si>
   <si>
+    <t>MR2512/0053</t>
+  </si>
+  <si>
+    <t>132KV_132 KV KATNI SLEEMNABAD CKT 1</t>
+  </si>
+  <si>
+    <t>for line maintenance work .</t>
+  </si>
+  <si>
+    <t>04-12-2025 11:00:00</t>
+  </si>
+  <si>
+    <t>PANKAJ YADAV</t>
+  </si>
+  <si>
+    <t>MR2512/0054</t>
+  </si>
+  <si>
+    <t>132KV_40MVA BBL Transformer No. 2</t>
+  </si>
+  <si>
+    <t>132KV_LAKHNADONE</t>
+  </si>
+  <si>
+    <t>To attend oil leakage problem</t>
+  </si>
+  <si>
+    <t>04-12-2025 13:00:00</t>
+  </si>
+  <si>
+    <t>Seema Dongre</t>
+  </si>
+  <si>
+    <t>9425807247</t>
+  </si>
+  <si>
     <t>132KV_132/33 KV  40 MVA BBL X-MER</t>
   </si>
   <si>
@@ -280,30 +412,6 @@
     <t>MR2511/0630</t>
   </si>
   <si>
-    <t>MR2512/0020</t>
-  </si>
-  <si>
-    <t>132KV_132/33 KV 50 MVA TAL X-MER</t>
-  </si>
-  <si>
-    <t>132KV_MADWAS</t>
-  </si>
-  <si>
-    <t>FOR POST MONSOON MAINTENANCE &amp; TESTING WORK.</t>
-  </si>
-  <si>
-    <t>03-12-2025 10:00:00</t>
-  </si>
-  <si>
-    <t>03-12-2025 18:00:00</t>
-  </si>
-  <si>
-    <t>VINOD PANIKA</t>
-  </si>
-  <si>
-    <t>9425804643</t>
-  </si>
-  <si>
     <t>MR2511/0579</t>
   </si>
   <si>
@@ -328,16 +436,13 @@
     <t>9425806905</t>
   </si>
   <si>
-    <t>MR2512/0046</t>
-  </si>
-  <si>
-    <t>220KV_220KV Super Corridor-2</t>
-  </si>
-  <si>
-    <t>Post Monsoon maintenance</t>
-  </si>
-  <si>
-    <t>03-12-2025 14:00:00</t>
+    <t>MR2512/0059</t>
+  </si>
+  <si>
+    <t>220KV_220KV Pithampur-Pithampur Sector-1 line</t>
+  </si>
+  <si>
+    <t>For Post Monsoon maintenance work</t>
   </si>
   <si>
     <t>Rajudas Bairagi</t>
@@ -355,15 +460,6 @@
     <t>hotline permit for OPGW Stringing work</t>
   </si>
   <si>
-    <t>MR2512/0045</t>
-  </si>
-  <si>
-    <t>220KV_220KV Super Corridor ckt-1</t>
-  </si>
-  <si>
-    <t>Post monsoon maintenance</t>
-  </si>
-  <si>
     <t>MR2510/0690</t>
   </si>
   <si>
@@ -388,6 +484,27 @@
     <t>9425802330</t>
   </si>
   <si>
+    <t>MR2512/0052</t>
+  </si>
+  <si>
+    <t>132KV_132KV KHANIYADANA-RAJGHAT_Ckt</t>
+  </si>
+  <si>
+    <t>132KV_RAJGHAT</t>
+  </si>
+  <si>
+    <t>upgradation of numerical relay(DPR&amp;E/F, O/C)</t>
+  </si>
+  <si>
+    <t>07-12-2025 17:00:00</t>
+  </si>
+  <si>
+    <t>132KV rajghat hydel power station</t>
+  </si>
+  <si>
+    <t>9630685929</t>
+  </si>
+  <si>
     <t>MR2512/0041</t>
   </si>
   <si>
@@ -409,81 +526,45 @@
     <t>9407070182</t>
   </si>
   <si>
-    <t>MR2512/0044</t>
-  </si>
-  <si>
-    <t>132KV_50MVA TAL Xmer</t>
-  </si>
-  <si>
-    <t>132KV_SATNA1</t>
-  </si>
-  <si>
-    <t>Post Mansoon Maintenance and Testing</t>
-  </si>
-  <si>
-    <t>03-12-2025 11:00:00</t>
-  </si>
-  <si>
-    <t>03-12-2025 17:00:00</t>
-  </si>
-  <si>
-    <t>SHRI Arun kumar kol</t>
+    <t>220KV_220 KV SATNA-AJAYGARH LINE</t>
+  </si>
+  <si>
+    <t>R Phase C.B. hot point attending work</t>
+  </si>
+  <si>
+    <t>04-12-2025 16:00:00</t>
+  </si>
+  <si>
+    <t>Er. Arun Kol</t>
   </si>
   <si>
     <t>8319677721</t>
   </si>
   <si>
-    <t>MR2512/0023</t>
-  </si>
-  <si>
-    <t>220KV_220 KV SARNI-ITARSI -3</t>
+    <t>MR2512/0061</t>
+  </si>
+  <si>
+    <t>MR2511/0380</t>
+  </si>
+  <si>
+    <t>400KV_400 KV SARNI-ASHTA LINE-II</t>
   </si>
   <si>
     <t>400KV_SATPURA TPS</t>
   </si>
   <si>
-    <t>220kv transmission element for RTU Installation wo</t>
-  </si>
-  <si>
-    <t>PANKAJ SHRIVAS</t>
-  </si>
-  <si>
-    <t>9425611278</t>
-  </si>
-  <si>
-    <t>MR2511/0380</t>
-  </si>
-  <si>
-    <t>400KV_400 KV SARNI-ASHTA LINE-II</t>
-  </si>
-  <si>
     <t>For Ruutine testing, genral checking &amp; maintenance</t>
   </si>
   <si>
     <t>02-12-2025 09:00:00</t>
   </si>
   <si>
-    <t>04-12-2025 18:00:00</t>
-  </si>
-  <si>
     <t>Yashwant Warathe</t>
   </si>
   <si>
     <t>9425611046</t>
   </si>
   <si>
-    <t>MR2512/0021</t>
-  </si>
-  <si>
-    <t>220KV_220 KV SARNI - ITARSI -4</t>
-  </si>
-  <si>
-    <t>220kv transmission elementforRTU Installation work</t>
-  </si>
-  <si>
-    <t>03-12-2025 12:00:00</t>
-  </si>
-  <si>
     <t>MR2511/0484</t>
   </si>
   <si>
@@ -505,37 +586,40 @@
     <t>9425806917</t>
   </si>
   <si>
-    <t>MR2512/0047</t>
-  </si>
-  <si>
-    <t>220KV_220KV PGCIL CKT-2</t>
-  </si>
-  <si>
-    <t>220KV_SEONI</t>
-  </si>
-  <si>
-    <t>DPR and LDR relay testing and Wiring work</t>
-  </si>
-  <si>
-    <t>Er.Sandeep Damahe</t>
-  </si>
-  <si>
-    <t>9425805009</t>
-  </si>
-  <si>
-    <t>MR2512/0040</t>
-  </si>
-  <si>
-    <t>132KV_132KV VIDISHA-SANCHI TRACTION CKT-II</t>
+    <t>MR2512/0056</t>
+  </si>
+  <si>
+    <t>132KV_40MVA BBL X-MER NO.- 2</t>
+  </si>
+  <si>
+    <t>132KV_VFJ</t>
+  </si>
+  <si>
+    <t>33KV I/C.-2  CT Replecment .</t>
+  </si>
+  <si>
+    <t>04-12-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>AMIT KUMAR DAHIYA</t>
+  </si>
+  <si>
+    <t>9425806926</t>
+  </si>
+  <si>
+    <t>MR2512/0058</t>
+  </si>
+  <si>
+    <t>132KV_132KV VIDISHA-SALAMATPUR CKT</t>
   </si>
   <si>
     <t>220KV_VIDISHA</t>
   </si>
   <si>
-    <t>CT TenDelta measurement &amp; bay maintenance work</t>
-  </si>
-  <si>
-    <t>03-12-2025 13:00:00</t>
+    <t>TEN DELTA measurement of CT and Bay maintenance wo</t>
+  </si>
+  <si>
+    <t>04-12-2025 15:00:00</t>
   </si>
   <si>
     <t>KC GOSWAMI</t>
@@ -544,6 +628,12 @@
     <t>9425804976</t>
   </si>
   <si>
+    <t>MR2512/0057</t>
+  </si>
+  <si>
+    <t>132KV_132KV VIDISHA-GAIRATGANJ CKT</t>
+  </si>
+  <si>
     <t>ok, through sub ld</t>
   </si>
   <si>
@@ -562,100 +652,85 @@
     <t>not being availed by site</t>
   </si>
   <si>
-    <t>o&amp;m consent required</t>
-  </si>
-  <si>
-    <t>ok, line to be in service through TBC</t>
-  </si>
-  <si>
-    <t>RTS consent required</t>
-  </si>
-  <si>
-    <t>is this line charged or not</t>
-  </si>
-  <si>
-    <t>400KV-KORADI-SATPURA-1</t>
-  </si>
-  <si>
-    <t>SATPURA - 400KV - BUS 1</t>
+    <t>real time</t>
+  </si>
+  <si>
+    <t>ok, check the loading on panagar x-mer before issuing code</t>
+  </si>
+  <si>
+    <t>deferred due to s/d on 400KV KATNI - DAMOH LINE</t>
+  </si>
+  <si>
+    <t>400KV/220KV ITARSI-ICT-3</t>
+  </si>
+  <si>
+    <t>400KV/220KV SATNA-ICT-2</t>
+  </si>
+  <si>
+    <t>220KV-GWALIOR-MALANPUR-1</t>
+  </si>
+  <si>
+    <t>220KV-PITHAMPUR-RAJGARH-1</t>
+  </si>
+  <si>
+    <t>220KV-HOSHANGABAD-ITARSI-2</t>
   </si>
   <si>
     <t>220KV-INDORE-INDORE NORTH ZONE-1</t>
   </si>
   <si>
-    <t>400KV/220KV JABALPUR-ICT-1</t>
-  </si>
-  <si>
-    <t>400KV-KORBA-NTPC-BIRSINGPUR-1</t>
-  </si>
-  <si>
-    <t>220KV-HOSHANGABAD-ITARSI-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For replacemnet of Bus-1 PG isolator under ADD CAP at MPGENCO (Simultaneous outage of 400kV Bus-1 is required  at Sarni S/S of MPGENCO) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">For replacemnet of Bus-1 PG isolator under ADD CAP at MPGENCO (Simultaneous outage of 400KV-SATPURA-KORADI-1 is required) </t>
+    <t>AMP works of ICT-3, Dia to be kept open at both sides.</t>
+  </si>
+  <si>
+    <t>AMP Work, Dia to be kept open at both sides.</t>
+  </si>
+  <si>
+    <t>FOR LINE MAINTENANCE WORK i.e. CLEANING OF DISC INSULATORS DURING LINE PATROLLING , REPLACEMENT OF FLASHOVERED DISC INSULATORS, TREE BRANCH CUTTING ETC AT VARIOUS TOWER LOCATIONS</t>
+  </si>
+  <si>
+    <t>FOR REPLACEMENT OF OLD DISC INSULATOR ON VARIOUS TOWERS (DAILY BASIS)</t>
+  </si>
+  <si>
+    <t>FOR MAIN 2 DPR RELAY INSTALLATION AND TESTING WORK AT 220 KV S/S NARMADAPURAM</t>
   </si>
   <si>
     <t>FOR REPLACEMENT OF OLD DISC INSULATOR ON VARIOUS TOWERS</t>
   </si>
   <si>
-    <t xml:space="preserve">FOR BAY MAINTENANCE &amp; TESTING WORK </t>
-  </si>
-  <si>
-    <t>BAY PM</t>
-  </si>
-  <si>
-    <t>FOR MAIN 2 DPR RELAY INSTALLATION AND TESTING WORK AT 220 KV S/S NARMADAPURAM</t>
-  </si>
-  <si>
-    <t>not being availed by pgcil</t>
-  </si>
-  <si>
-    <t>real time</t>
+    <t>deferred due to high loading</t>
+  </si>
+  <si>
+    <t>04-Dec-2025</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>05-Dec-2025</t>
   </si>
   <si>
     <t>02-Dec-2025</t>
   </si>
   <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>05-Dec-2025</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
     <t>06-Dec-2025</t>
   </si>
   <si>
-    <t>03-Dec-2025</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>01-Dec-2025</t>
-  </si>
-  <si>
-    <t>23:59</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>OCCM-WR</t>
-  </si>
-  <si>
-    <t>S/I, SLDC MPPTCL JBP</t>
-  </si>
-  <si>
-    <t>APPROVED OUTAGE LIST FOR DTD.03.12.2025</t>
+    <t>APPROVED OUTAGE LIST FOR DTD.04.12.2025</t>
+  </si>
+  <si>
+    <t>S/I ,SLDC MPPTCL JBP.</t>
   </si>
 </sst>
 </file>
@@ -666,7 +741,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010809]dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-1010809]dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -679,15 +754,18 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -730,7 +808,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,7 +897,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -830,15 +920,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -852,9 +933,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1220,819 +1298,811 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="44.5703125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="43.42578125" customWidth="1"/>
+    <col min="8" max="8" width="53.28515625" customWidth="1"/>
     <col min="9" max="10" width="19.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="43.7109375" customWidth="1"/>
+    <col min="13" max="13" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43.7" customHeight="1">
+    <row r="1" spans="1:13" ht="43.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="11"/>
-    </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="42" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20">
-        <v>45994</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="12"/>
-    </row>
-    <row r="3" spans="1:13" s="13" customFormat="1" ht="42" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="11">
+        <v>45995</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="1:13" s="13" customFormat="1" ht="42" customHeight="1">
-      <c r="A4" s="14" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="14" t="s">
+      <c r="L4" s="17"/>
+      <c r="M4" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="51" customHeight="1">
+    <row r="5" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>45985.656458333331</v>
+        <v>45994.687962962962</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="M5" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="51" customHeight="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="3">
+        <v>45988.581759259258</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" ref="A7:A39" si="0">A6+1</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
         <v>45993.525706018518</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="51" customHeight="1">
-      <c r="A7" s="2">
-        <f t="shared" ref="A7:A34" si="0">A6+1</f>
-        <v>3</v>
-      </c>
-      <c r="B7" s="3">
-        <v>45993.620370370372</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+      <c r="I7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="L7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="M7" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45994.55746527778</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="I8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="K8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="51" customHeight="1">
-      <c r="A8" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="3">
-        <v>45993.623749999999</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="L8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="M8" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="51" customHeight="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="3">
-        <v>45993.475023148145</v>
+        <v>45994.673275462963</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45994.676458333335</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="6" t="s">
+      <c r="G10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="51" customHeight="1">
-      <c r="A10" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="3">
-        <v>45989.529398148145</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>65</v>
       </c>
       <c r="K10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45994.668668981481</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="51" customHeight="1">
-      <c r="A11" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="F11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45994.645787037036</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45993.475023148145</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45989.529398148145</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="3">
         <v>45989.530763888892</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="51" customHeight="1">
-      <c r="A12" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="C15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45974.607106481482</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
         <v>45961.716087962966</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="4" t="s">
+      <c r="C17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="51" customHeight="1">
-      <c r="A13" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="E17" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="3">
         <v>45961.740891203706</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="4" t="s">
+      <c r="C18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="51" customHeight="1">
-      <c r="A14" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="3">
-        <v>45990.520740740743</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="51" customHeight="1">
-      <c r="A15" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="3">
-        <v>45993.465578703705</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="51" customHeight="1">
-      <c r="A16" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="3">
-        <v>45988.354861111111</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="E18" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="51" customHeight="1">
-      <c r="A17" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="3">
-        <v>45993.663842592592</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="51" customHeight="1">
-      <c r="A18" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B18" s="3">
-        <v>45988.353136574071</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="L18" s="6" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="51" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B19" s="3">
-        <v>45993.662326388891</v>
+        <v>45994.508645833332</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="9" t="s">
         <v>111</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>112</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>106</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="51" customHeight="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B20" s="3">
-        <v>45960.566990740743</v>
+        <v>45994.554027777776</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="J20" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="51" customHeight="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B21" s="3">
-        <v>45993.564918981479</v>
+        <v>45990.520740740743</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>122</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>123</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>124</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>126</v>
@@ -2041,78 +2111,80 @@
         <v>127</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="51" customHeight="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B22" s="3">
-        <v>45993.644953703704</v>
+        <v>45988.354861111111</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="F22" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45994.615902777776</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="51" customHeight="1">
-      <c r="A23" s="2">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B23" s="3">
-        <v>45993.475648148145</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="G23" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>139</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>140</v>
@@ -2121,119 +2193,121 @@
         <v>141</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="51" customHeight="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B24" s="3">
-        <v>45978.705983796295</v>
+        <v>45988.353136574071</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>143</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>144</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45960.566990740743</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="D25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="F25" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="G25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="51" customHeight="1">
-      <c r="A25" s="2">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B25" s="3">
-        <v>45993.473182870373</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="I25" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
+      <c r="J25" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="2" t="s">
+      <c r="K25" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J25" s="4" t="s">
+      <c r="L25" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="K25" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>141</v>
-      </c>
       <c r="M25" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="51" customHeight="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B26" s="3">
-        <v>45982.62771990741</v>
+        <v>45994.501851851855</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>154</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>157</v>
@@ -2245,381 +2319,527 @@
         <v>159</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="51" customHeight="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B27" s="3">
-        <v>45993.678773148145</v>
+        <v>45993.564918981479</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
+      <c r="D27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>161</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>163</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M27" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45994.631319444445</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45978.705983796295</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45982.62771990741</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="51" customHeight="1">
-      <c r="A28" s="2">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B28" s="3">
-        <v>45993.562604166669</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="M28" s="2" t="s">
+      <c r="D30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="51">
-      <c r="A29" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B29" s="3">
-        <v>45993.562604166669</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
+      <c r="G30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
+      <c r="J30" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M30" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H29" s="7" t="s">
+    </row>
+    <row r="31" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45994.571018518516</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="G31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45994.61446759259</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="38.25">
-      <c r="A30" s="2">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B30" s="3">
-        <v>45993.562604166669</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="25.5">
-      <c r="A31" s="2">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B31" s="3">
-        <v>45993.562604166669</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="2">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B32" s="3">
-        <v>45993.562604166669</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="I32" s="4" t="s">
-        <v>197</v>
+        <v>119</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>198</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M32" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="3">
+        <v>45994.613125000003</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="2">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B33" s="3">
-        <v>45993.562604166669</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>193</v>
+        <v>97</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="I33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="M33" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="38.25">
+    </row>
+    <row r="34" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B34" s="3">
-        <v>45993.562604166669</v>
+        <v>45994.613125000003</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
-        <v>188</v>
+      <c r="E34" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>194</v>
+        <v>97</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>218</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="18">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="3">
+        <v>45994.613125000003</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="E35" s="9" t="s">
+        <v>213</v>
+      </c>
       <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
+      <c r="G35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="3">
+        <v>45994.613125000003</v>
+      </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="E36" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
+      <c r="G36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B37" s="3">
+        <v>45994.613125000003</v>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="E37" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
+      <c r="G37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B38" s="3">
+        <v>45994.613125000003</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="E38" s="9" t="s">
+        <v>216</v>
+      </c>
       <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3"/>
+      <c r="G38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B39" s="3">
+        <v>45994.613125000003</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="E39" s="9" t="s">
+        <v>217</v>
+      </c>
       <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="12" t="s">
+        <v>235</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/1.xlsx
+++ b/1.xlsx
@@ -1,5 +1,1021 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NEXT DAY SHUTDOWN\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="21600" windowHeight="9525"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <definedNames>
+    <definedName name="__bookmark_1">Sheet0!$A$1:$M$32</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="233">
+  <si>
+    <t>STATE LOAD DESPATCH CENTRE _x000D_
+Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
+  </si>
+  <si>
+    <t>From Date:</t>
+  </si>
+  <si>
+    <t>Control Area :</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circle :  </t>
+  </si>
+  <si>
+    <t>S.NO.</t>
+  </si>
+  <si>
+    <t>APPLICATION DATE</t>
+  </si>
+  <si>
+    <t>REQ_ID</t>
+  </si>
+  <si>
+    <t>REQ TYPE</t>
+  </si>
+  <si>
+    <t>ELEMENT</t>
+  </si>
+  <si>
+    <t>SUBSTATION</t>
+  </si>
+  <si>
+    <t>CATEGORY TYPE</t>
+  </si>
+  <si>
+    <t>REASON FOR SHUT DOWN</t>
+  </si>
+  <si>
+    <t>PROPOSED START DATE &amp; TIME</t>
+  </si>
+  <si>
+    <t>PROPOSED STOP DATE &amp; TIME</t>
+  </si>
+  <si>
+    <t>Availing Officer Name &amp; Mob. No.</t>
+  </si>
+  <si>
+    <t>REMARK</t>
+  </si>
+  <si>
+    <t>MR2512/0099</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>400KV_400KV &amp; 220KV Bus</t>
+  </si>
+  <si>
+    <t>400KV_BADNAWAR</t>
+  </si>
+  <si>
+    <t>NON-OCCM-MP</t>
+  </si>
+  <si>
+    <t>220kV &amp; 400kV Main Buses for Connecting New 500 M</t>
+  </si>
+  <si>
+    <t>08-12-2025 08:00:00</t>
+  </si>
+  <si>
+    <t>11-12-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>Er. Abhishek Verma</t>
+  </si>
+  <si>
+    <t>9340855901</t>
+  </si>
+  <si>
+    <t>220KV_220kV Bhopal-Ganjbasoda ckt</t>
+  </si>
+  <si>
+    <t>400KV_BHOPAL4</t>
+  </si>
+  <si>
+    <t>20-12-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>Rajkumar Bhusare</t>
+  </si>
+  <si>
+    <t>9425820042</t>
+  </si>
+  <si>
+    <t>MR2511/0587</t>
+  </si>
+  <si>
+    <t>For 35 year old disc insulator replace.work.</t>
+  </si>
+  <si>
+    <t>28-11-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>MR2512/0131</t>
+  </si>
+  <si>
+    <t>220KV_220 kV Seoni-Chhindwara Ckt-Ist</t>
+  </si>
+  <si>
+    <t>220KV_CHHINDWARA</t>
+  </si>
+  <si>
+    <t>OCCM-MP</t>
+  </si>
+  <si>
+    <t>Bird guard provide and J/c tightening</t>
+  </si>
+  <si>
+    <t>09-12-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>09-12-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>A.M.Shende</t>
+  </si>
+  <si>
+    <t>7587951136</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>TOWER STRENGTHENING WORK</t>
+  </si>
+  <si>
+    <t>08-12-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>13-12-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>M.M. BAIG</t>
+  </si>
+  <si>
+    <t>9425805067</t>
+  </si>
+  <si>
+    <t>MR2512/0132</t>
+  </si>
+  <si>
+    <t>132KV_132/33 kv 63 MVA BBL X-MER</t>
+  </si>
+  <si>
+    <t>132KV_GADARWARA</t>
+  </si>
+  <si>
+    <t>for 33 KV CT Replacement Work</t>
+  </si>
+  <si>
+    <t>09-12-2025 10:00:00</t>
+  </si>
+  <si>
+    <t>09-12-2025 17:00:00</t>
+  </si>
+  <si>
+    <t>Rajesh chaturvedi</t>
+  </si>
+  <si>
+    <t>9425805203</t>
+  </si>
+  <si>
+    <t>MR2512/0022</t>
+  </si>
+  <si>
+    <t>132KV_132 KV Itarsi-Pipariya line</t>
+  </si>
+  <si>
+    <t>220KV_ITARSI</t>
+  </si>
+  <si>
+    <t>Defective Disc replacement work</t>
+  </si>
+  <si>
+    <t>03-12-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>Ashutosh Rai</t>
+  </si>
+  <si>
+    <t>9425806902</t>
+  </si>
+  <si>
+    <t>400KV_KATNI4</t>
+  </si>
+  <si>
+    <t>400KV_400KV KATNI - DAMOH LINE</t>
+  </si>
+  <si>
+    <t>220KV_220KV KATNI - DAMOH LINE</t>
+  </si>
+  <si>
+    <t>MR2510/0726</t>
+  </si>
+  <si>
+    <t>MR2510/0735</t>
+  </si>
+  <si>
+    <t>M.M.BAIG</t>
+  </si>
+  <si>
+    <t>MR2512/0106</t>
+  </si>
+  <si>
+    <t>132KV_40 MVA 132/33KV BBL X-MER_2</t>
+  </si>
+  <si>
+    <t>132KV_KOTMA</t>
+  </si>
+  <si>
+    <t>POST MONSOON MAINTENANCE &amp; TESTING WORK</t>
+  </si>
+  <si>
+    <t>RAM NARESH SINGH GOND</t>
+  </si>
+  <si>
+    <t>9425801257</t>
+  </si>
+  <si>
+    <t>MR2512/0136</t>
+  </si>
+  <si>
+    <t>132KV_63MVA X MER BBL</t>
+  </si>
+  <si>
+    <t>132KV_MADHOTAL</t>
+  </si>
+  <si>
+    <t>painting work</t>
+  </si>
+  <si>
+    <t>13-12-2025 10:00:00</t>
+  </si>
+  <si>
+    <t>Shree S.K. mehra</t>
+  </si>
+  <si>
+    <t>9425801626</t>
+  </si>
+  <si>
+    <t>MR2512/0140</t>
+  </si>
+  <si>
+    <t>132KV_40MVA BBL X-MER</t>
+  </si>
+  <si>
+    <t>220KV_MAIHAR</t>
+  </si>
+  <si>
+    <t>For oil topping work</t>
+  </si>
+  <si>
+    <t>09-12-2025 12:00:00</t>
+  </si>
+  <si>
+    <t>09-12-2025 14:00:00</t>
+  </si>
+  <si>
+    <t>ARUN KUMAR KOL</t>
+  </si>
+  <si>
+    <t>7000923305</t>
+  </si>
+  <si>
+    <t>MR2512/0141</t>
+  </si>
+  <si>
+    <t>220KV_160MVA BBL X-MER</t>
+  </si>
+  <si>
+    <t>09-12-2025 15:00:00</t>
+  </si>
+  <si>
+    <t>MR2512/0133</t>
+  </si>
+  <si>
+    <t>220KV_Nagra-Ratlam-I</t>
+  </si>
+  <si>
+    <t>220KV_NAGRA</t>
+  </si>
+  <si>
+    <t>Post monsoon maintenance work.</t>
+  </si>
+  <si>
+    <t>Er. Nikhil Dunge</t>
+  </si>
+  <si>
+    <t>9425801487</t>
+  </si>
+  <si>
+    <t>MR2512/0130</t>
+  </si>
+  <si>
+    <t>220KV_200 MVA-1 (CG POWER)</t>
+  </si>
+  <si>
+    <t>220KV_PITHAMPUR (SEC-III)</t>
+  </si>
+  <si>
+    <t>PRV OIL LEAKAGE ATTENDING WORK</t>
+  </si>
+  <si>
+    <t>09-12-2025 23:59:00</t>
+  </si>
+  <si>
+    <t>RAJU DAS BAIRAGI</t>
+  </si>
+  <si>
+    <t>9425801532</t>
+  </si>
+  <si>
+    <t>MR2512/0120</t>
+  </si>
+  <si>
+    <t>220KV_220KV Main Bus -I</t>
+  </si>
+  <si>
+    <t>For 220KV Bus Tie Main Bus -I RYB Phase Iso. Rep.</t>
+  </si>
+  <si>
+    <t>08-12-2025 10:00:00</t>
+  </si>
+  <si>
+    <t>Sh. Rajudas Bairagi</t>
+  </si>
+  <si>
+    <t>MR2511/0579</t>
+  </si>
+  <si>
+    <t>400KV_400KV SSTPH-Pithampur ckt-2</t>
+  </si>
+  <si>
+    <t>400KV_PITHAMPUR4</t>
+  </si>
+  <si>
+    <t>Hotline permit for OPGW Stringing work</t>
+  </si>
+  <si>
+    <t>02-12-2025 07:00:00</t>
+  </si>
+  <si>
+    <t>12-12-2025 19:00:00</t>
+  </si>
+  <si>
+    <t>Naresh Pandre</t>
+  </si>
+  <si>
+    <t>9425806905</t>
+  </si>
+  <si>
+    <t>MR2512/0138</t>
+  </si>
+  <si>
+    <t>220KV_220KV TBC (Transfer bus coupler) bay</t>
+  </si>
+  <si>
+    <t>For CB CRM Testing work</t>
+  </si>
+  <si>
+    <t>Rajudas Bairagi</t>
+  </si>
+  <si>
+    <t>MR2511/0578</t>
+  </si>
+  <si>
+    <t>400KV_400KV SSTPH Pithampur ckt-1</t>
+  </si>
+  <si>
+    <t>hotline permit for OPGW Stringing work</t>
+  </si>
+  <si>
+    <t>MR2510/0690</t>
+  </si>
+  <si>
+    <t>400KV_Rajgarh (PGCIL) â¿¿ SSP Ckt-1</t>
+  </si>
+  <si>
+    <t>400KV_RAJGARH-PG</t>
+  </si>
+  <si>
+    <t>for old disc replacement Work</t>
+  </si>
+  <si>
+    <t>01-12-2025 08:00:00</t>
+  </si>
+  <si>
+    <t>15-12-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>V.R. Panadia</t>
+  </si>
+  <si>
+    <t>9425802330</t>
+  </si>
+  <si>
+    <t>MR2512/0139</t>
+  </si>
+  <si>
+    <t>132KV_132 KV Rajghat BINA FEEDER</t>
+  </si>
+  <si>
+    <t>132KV_RAJGHAT</t>
+  </si>
+  <si>
+    <t>Retrofitting of numerical relay</t>
+  </si>
+  <si>
+    <t>14-12-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>Rajghat hps MPPGCL CHANDERI</t>
+  </si>
+  <si>
+    <t>9630685929</t>
+  </si>
+  <si>
+    <t>MR2512/0137</t>
+  </si>
+  <si>
+    <t>132KV_132kV Rewa - Jhinna Ckt</t>
+  </si>
+  <si>
+    <t>220KV_REWA</t>
+  </si>
+  <si>
+    <t>Tension Tower Disc String Replacement Work</t>
+  </si>
+  <si>
+    <t>G.L Sahu</t>
+  </si>
+  <si>
+    <t>9425805102</t>
+  </si>
+  <si>
+    <t>MR2512/0129</t>
+  </si>
+  <si>
+    <t>400KV_400kv Sagar-Bina Lilo (PGCIL) Line</t>
+  </si>
+  <si>
+    <t>400KV_SAGAR</t>
+  </si>
+  <si>
+    <t>Line maintenance work</t>
+  </si>
+  <si>
+    <t>J.P. Asati</t>
+  </si>
+  <si>
+    <t>9424445533</t>
+  </si>
+  <si>
+    <t>MR2512/0041</t>
+  </si>
+  <si>
+    <t>220KV_220  kv Satna (MPPTCL)â¿¿ Kotar  line</t>
+  </si>
+  <si>
+    <t>220KV_SATNA</t>
+  </si>
+  <si>
+    <t>Double  fitting work</t>
+  </si>
+  <si>
+    <t>10-12-2025 17:00:00</t>
+  </si>
+  <si>
+    <t>Mr.R.K.Prajapati</t>
+  </si>
+  <si>
+    <t>9407070182</t>
+  </si>
+  <si>
+    <t>MR2511/0383</t>
+  </si>
+  <si>
+    <t>400KV_400 KV SARNI-ISP</t>
+  </si>
+  <si>
+    <t>400KV_SATPURA TPS</t>
+  </si>
+  <si>
+    <t>For Ruutine testing, genral checking &amp; maintenance</t>
+  </si>
+  <si>
+    <t>Yashwant Warathe</t>
+  </si>
+  <si>
+    <t>9425611046</t>
+  </si>
+  <si>
+    <t>YASHWANT WARATHE</t>
+  </si>
+  <si>
+    <t>MR2512/0112</t>
+  </si>
+  <si>
+    <t>400KV_400KV SARNI -ASHTA LINE-II</t>
+  </si>
+  <si>
+    <t>for routine testing general checking &amp; maintenance</t>
+  </si>
+  <si>
+    <t>MR2511/0484</t>
+  </si>
+  <si>
+    <t>400KV_SARNI INDIRASAGAR LINE</t>
+  </si>
+  <si>
+    <t>OPGW STRINGING WORK</t>
+  </si>
+  <si>
+    <t>25-11-2025 07:00:00</t>
+  </si>
+  <si>
+    <t>25-12-2025 19:00:00</t>
+  </si>
+  <si>
+    <t>SHIV KUMAR</t>
+  </si>
+  <si>
+    <t>9425806917</t>
+  </si>
+  <si>
+    <t>MR2512/0134</t>
+  </si>
+  <si>
+    <t>220KV_220 KV PGCIL CKT-2</t>
+  </si>
+  <si>
+    <t>220KV_SEONI</t>
+  </si>
+  <si>
+    <t>DPR RELAY &amp; LDR RELAY TESTING &amp; WIRING WORK</t>
+  </si>
+  <si>
+    <t>Er SANDEEP DAMAHE</t>
+  </si>
+  <si>
+    <t>9425805009</t>
+  </si>
+  <si>
+    <t>MR2511/0556</t>
+  </si>
+  <si>
+    <t>400KV_400 kv KATNI CKT-1</t>
+  </si>
+  <si>
+    <t>400KV_SGTPS</t>
+  </si>
+  <si>
+    <t>Third party audit for relay and DR</t>
+  </si>
+  <si>
+    <t>Pramod Mishra</t>
+  </si>
+  <si>
+    <t>8989973149</t>
+  </si>
+  <si>
+    <t>MR2512/0135</t>
+  </si>
+  <si>
+    <t>40MVA_132/33KV_BBL_X'mer_3</t>
+  </si>
+  <si>
+    <t>132KV_WAIDHAN</t>
+  </si>
+  <si>
+    <t>Post Monsoon Maintenance &amp; testing work</t>
+  </si>
+  <si>
+    <t>G.S.Khairwar</t>
+  </si>
+  <si>
+    <t>9584321714</t>
+  </si>
+  <si>
+    <t>ok, for 220kv Main bus 2, through sub ld, no new charging to be done</t>
+  </si>
+  <si>
+    <t>sub ld</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>ok, through sub ld</t>
+  </si>
+  <si>
+    <t>ok, line to be in service</t>
+  </si>
+  <si>
+    <t>deferred by site</t>
+  </si>
+  <si>
+    <t>not being availed by site</t>
+  </si>
+  <si>
+    <t>deferred due to 400kv Sarni-Ashta</t>
+  </si>
+  <si>
+    <t>ok, line to be in service through TBC</t>
+  </si>
+  <si>
+    <t>Deferred due to s/d on 400KV KATNI - DAMOH LINE</t>
+  </si>
+  <si>
+    <t>real time as per loading conditions</t>
+  </si>
+  <si>
+    <t>o&amp;m consent required</t>
+  </si>
+  <si>
+    <t>deferred due to high loading</t>
+  </si>
+  <si>
+    <t>400KV-INDORE-MP-ASOJ-2</t>
+  </si>
+  <si>
+    <t>400KV-SAGAR-BINA-1</t>
+  </si>
+  <si>
+    <t>220KV-GWALIOR-GWALIOR-II-1</t>
+  </si>
+  <si>
+    <t>220KV-KHANDWA-CHHANERA-1</t>
+  </si>
+  <si>
+    <t>220KV-SEONI-PG-CHINDWARA-1</t>
+  </si>
+  <si>
+    <t>220KV-INDORE-INDORE NORTH ZONE-2</t>
+  </si>
+  <si>
+    <t>400KV/220KV JABALPUR-ICT-2</t>
+  </si>
+  <si>
+    <t>For Cleaning Pollution on  insulators under Pre-winter preparedness works  AND DEFECT RETIFICATION WORK</t>
+  </si>
+  <si>
+    <t>FOR LINE MAINTENANCE WORK i.e. CLEANING OF DISC INSULATORS DURING LINE PATROLLING , REPLACEMENT OF FLASHOVERED DISC INSULATORS, TREE BRANCH CUTTING ETC AT VARIOUS TOWER LOCATIONS</t>
+  </si>
+  <si>
+    <t>FOR BAY MAINTENANCE &amp; TESTING WORK AT SUBSTASTION, REPLACEMENT OF DAMAGED CLAMPS/JUMPERS ETC.</t>
+  </si>
+  <si>
+    <t>FOR REPLACEMENT OF OLD DISC INSULATOR ON VARIOUS TOWERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOR BAY MAINTENANCE &amp; TESTING WORK </t>
+  </si>
+  <si>
+    <t>real time</t>
+  </si>
+  <si>
+    <t>09-Dec-2025</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>13-Dec-2025</t>
+  </si>
+  <si>
+    <t>08-Dec-2025</t>
+  </si>
+  <si>
+    <t>OCCM-WR</t>
+  </si>
+  <si>
+    <t>S/I ,SLDC MPPTCL JABALPUR</t>
+  </si>
+  <si>
+    <t>APPROVED OUTAGE LIST FOR DTD.09.12.2025</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="172" formatCode="[$-1010809]dd\-mm\-yyyy"/>
+    <numFmt numFmtId="173" formatCode="[$-1010809]dd/mm/yyyy\ hh:mm"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="5">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="5">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="609600" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -289,6 +1305,1582 @@
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="50.42578125" customWidth="1"/>
+    <col min="9" max="10" width="19.5703125" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="49.5703125" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="43.7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>46000</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="20"/>
+      <c r="M4" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45996.648553240739</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <f>A5+1</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45988.581759259258</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <f t="shared" ref="A7:A39" si="0">A6+1</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45999.580347222225</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45999.604085648149</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45993.475023148145</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45961.717812499999</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45961.743993055556</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45996.732812499999</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45999.665462962963</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45999.684837962966</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45999.686192129629</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45999.610659722224</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45999.535081018519</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45998.353993055556</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45988.354861111111</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45999.683530092596</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45988.353136574071</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45960.566990740743</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45999.684027777781</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45999.67087962963</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45999.534050925926</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45993.564918981479</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45978.713506944441</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45997.705069444448</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45982.62771990741</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45999.626122685186</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45987.45521990741</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45999.658148148148</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="3">
+        <v>45999.658148148148</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="3">
+        <v>45999.658148148148</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="3">
+        <v>45999.658148148148</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="3">
+        <v>45999.658148148148</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B37" s="3">
+        <v>45999.658148148148</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B38" s="3">
+        <v>45999.658148148148</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B39" s="3">
+        <v>45999.658148148148</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="9"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="E2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__bookmark_1">Sheet0!$A$1:$M$32</definedName>
+    <definedName name="__bookmark_1">Sheet0!$A$1:$M$33</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="263">
   <si>
     <t>STATE LOAD DESPATCH CENTRE 
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
@@ -106,255 +106,213 @@
     <t>9425804506</t>
   </si>
   <si>
-    <t>MR2512/0291</t>
-  </si>
-  <si>
-    <t>132KV_40 MVA BBL TRANSFORMER</t>
-  </si>
-  <si>
-    <t>132KV_BADAMALHERA</t>
-  </si>
-  <si>
-    <t>FOR Neutral strip locking work</t>
-  </si>
-  <si>
-    <t>16-12-2025 12:00:00</t>
-  </si>
-  <si>
-    <t>16-12-2025 13:00:00</t>
-  </si>
-  <si>
-    <t>Brajendra soni</t>
-  </si>
-  <si>
-    <t>9131327770</t>
-  </si>
-  <si>
-    <t>MR2512/0293</t>
-  </si>
-  <si>
-    <t>132KV_50 mva Transformer</t>
-  </si>
-  <si>
-    <t>For Neutral strip locking work</t>
-  </si>
-  <si>
-    <t>16-12-2025 14:00:00</t>
-  </si>
-  <si>
-    <t>16-12-2025 15:00:00</t>
-  </si>
-  <si>
-    <t>MR2512/0297</t>
-  </si>
-  <si>
-    <t>220KV_220kv badnawar -1f/d</t>
+    <t>17-12-2025 10:00:00</t>
+  </si>
+  <si>
+    <t>17-12-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>Manoj Kumar Tiwari</t>
+  </si>
+  <si>
+    <t>9425804993</t>
+  </si>
+  <si>
+    <t>MR2512/0319</t>
+  </si>
+  <si>
+    <t>132KV_132kv Badnagar - Orange(Berchha)  line.</t>
   </si>
   <si>
     <t>220KV_BADNAGAR</t>
   </si>
   <si>
+    <t>For line maintenance work</t>
+  </si>
+  <si>
+    <t>Gaurav Goyal</t>
+  </si>
+  <si>
+    <t>7748045537</t>
+  </si>
+  <si>
+    <t>132KV_BARHI</t>
+  </si>
+  <si>
+    <t>For postmonsoon maintenance</t>
+  </si>
+  <si>
+    <t>17-12-2025 17:00:00</t>
+  </si>
+  <si>
+    <t>RP Rawat</t>
+  </si>
+  <si>
+    <t>9907030507</t>
+  </si>
+  <si>
+    <t>MR2512/0317</t>
+  </si>
+  <si>
+    <t>132KV_40MVA IMP Xmer</t>
+  </si>
+  <si>
+    <t>220KV_220kV Bhopal-Ganjbasoda ckt</t>
+  </si>
+  <si>
+    <t>400KV_BHOPAL4</t>
+  </si>
+  <si>
+    <t>20-12-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>Rajkumar Bhusare</t>
+  </si>
+  <si>
+    <t>9425820042</t>
+  </si>
+  <si>
+    <t>MR2511/0587</t>
+  </si>
+  <si>
+    <t>For 35 year old disc insulator replace.work.</t>
+  </si>
+  <si>
+    <t>28-11-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>MR2512/0325</t>
+  </si>
+  <si>
+    <t>132KV_Shut down on 132 kV Bijawar - Badamalhera Line</t>
+  </si>
+  <si>
+    <t>132KV_BIJAWAR</t>
+  </si>
+  <si>
+    <t>Bird Guard Installation and other line maintenance</t>
+  </si>
+  <si>
+    <t>MR2512/0152</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>400KV_50MVAR Bus Reactor (BHEL)</t>
+  </si>
+  <si>
+    <t>400KV_BINA4</t>
+  </si>
+  <si>
+    <t>Main CB and Tie CB C&amp;Relay Panel Replacement</t>
+  </si>
+  <si>
+    <t>10-12-2025 10:00:00</t>
+  </si>
+  <si>
+    <t>Mr.P.N.Namdeo</t>
+  </si>
+  <si>
+    <t>7587951092</t>
+  </si>
+  <si>
+    <t>TOWER STRENGTHENING WORK</t>
+  </si>
+  <si>
+    <t>15-12-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>M.M. BAIG</t>
+  </si>
+  <si>
+    <t>9425805067</t>
+  </si>
+  <si>
+    <t>MR2512/0327</t>
+  </si>
+  <si>
+    <t>132KV_132kV Deolond - Jhinna Ckt</t>
+  </si>
+  <si>
+    <t>132KV_DEVLOND</t>
+  </si>
+  <si>
+    <t>disc string replacement  Work.</t>
+  </si>
+  <si>
+    <t>17-12-2025 09:30:00</t>
+  </si>
+  <si>
+    <t>G.L Sahu</t>
+  </si>
+  <si>
+    <t>9425805102</t>
+  </si>
+  <si>
+    <t>MR2512/0308</t>
+  </si>
+  <si>
+    <t>220KV_220 KV Itarsi-Pipariya Ckt-II</t>
+  </si>
+  <si>
+    <t>220KV_ITARSI</t>
+  </si>
+  <si>
+    <t>Replacement of Single to Double disc insul. work</t>
+  </si>
+  <si>
+    <t>17-12-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>21-12-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>Ashutosh rai</t>
+  </si>
+  <si>
+    <t>9425806902</t>
+  </si>
+  <si>
+    <t>MR2512/0252</t>
+  </si>
+  <si>
+    <t>132KV_132 KV Itarsi-Pipariya line</t>
+  </si>
+  <si>
+    <t>Defective disc replacement work</t>
+  </si>
+  <si>
+    <t>14-12-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>Ashutosh Rai</t>
+  </si>
+  <si>
+    <t>MR2512/0318</t>
+  </si>
+  <si>
+    <t>220KV_220KV Julwania-Kukshi DCDS line Ckt-1</t>
+  </si>
+  <si>
+    <t>400KV_JULWANIYA4</t>
+  </si>
+  <si>
+    <t>Add. Bird Guard installation &amp; other line maint.t</t>
+  </si>
+  <si>
+    <t>Dinesh More</t>
+  </si>
+  <si>
+    <t>9425806860</t>
+  </si>
+  <si>
+    <t>400KV_KATNI4</t>
+  </si>
+  <si>
     <t>OCCM-MP</t>
   </si>
   <si>
-    <t>For attending red hot point Rph</t>
-  </si>
-  <si>
-    <t>16-12-2025 10:00:00</t>
-  </si>
-  <si>
-    <t>Poshkar kushwaha</t>
-  </si>
-  <si>
-    <t>9425813990</t>
-  </si>
-  <si>
-    <t>MR2512/0214</t>
-  </si>
-  <si>
-    <t>Continuous</t>
-  </si>
-  <si>
-    <t>400KV_400kv bus bar protection</t>
-  </si>
-  <si>
-    <t>400KV_BADNAWAR</t>
-  </si>
-  <si>
-    <t>for new bay connecting and testing work</t>
-  </si>
-  <si>
-    <t>15-12-2025 09:00:00</t>
-  </si>
-  <si>
-    <t>16-12-2025 18:00:00</t>
-  </si>
-  <si>
-    <t>Er. Abhishek verma</t>
-  </si>
-  <si>
-    <t>9340855901</t>
-  </si>
-  <si>
-    <t>MR2512/0268</t>
-  </si>
-  <si>
-    <t>220KV_220KV BUS BAR PROTECTION</t>
-  </si>
-  <si>
-    <t>CONNECTING OF NEW 500MVA X-MER</t>
-  </si>
-  <si>
-    <t>ABHISHEK VERMA</t>
-  </si>
-  <si>
-    <t>MR2512/0294</t>
-  </si>
-  <si>
-    <t>132KV_132 KV Barman Narsinghpur-II</t>
-  </si>
-  <si>
-    <t>132KV_BARMAN</t>
-  </si>
-  <si>
-    <t>C.T.&amp; C.B. painting work</t>
-  </si>
-  <si>
-    <t>16-12-2025 16:00:00</t>
-  </si>
-  <si>
-    <t>Er K.K. Choure</t>
-  </si>
-  <si>
-    <t>9425801357</t>
-  </si>
-  <si>
-    <t>MR2512/0292</t>
-  </si>
-  <si>
-    <t>132KV_132 KV Barman Narsinghpur -I</t>
-  </si>
-  <si>
-    <t>C.T. &amp; C.B. Painting work.</t>
-  </si>
-  <si>
-    <t>16-12-2025 11:00:00</t>
-  </si>
-  <si>
-    <t>220KV_220kV Bhopal-Ganjbasoda ckt</t>
-  </si>
-  <si>
-    <t>400KV_BHOPAL4</t>
-  </si>
-  <si>
-    <t>20-12-2025 18:00:00</t>
-  </si>
-  <si>
-    <t>Rajkumar Bhusare</t>
-  </si>
-  <si>
-    <t>9425820042</t>
-  </si>
-  <si>
-    <t>MR2511/0587</t>
-  </si>
-  <si>
-    <t>For 35 year old disc insulator replace.work.</t>
-  </si>
-  <si>
-    <t>28-11-2025 09:00:00</t>
-  </si>
-  <si>
-    <t>MR2512/0152</t>
-  </si>
-  <si>
-    <t>400KV_50MVAR Bus Reactor (BHEL)</t>
-  </si>
-  <si>
-    <t>400KV_BINA4</t>
-  </si>
-  <si>
-    <t>Main CB and Tie CB C&amp;Relay Panel Replacement</t>
-  </si>
-  <si>
-    <t>10-12-2025 10:00:00</t>
-  </si>
-  <si>
-    <t>17-12-2025 17:00:00</t>
-  </si>
-  <si>
-    <t>Mr.P.N.Namdeo</t>
-  </si>
-  <si>
-    <t>7587951092</t>
-  </si>
-  <si>
-    <t>MR2512/0290</t>
-  </si>
-  <si>
-    <t>132KV_132 kv chhatarpur-bijawar-tap nowgaon</t>
-  </si>
-  <si>
-    <t>220KV_CHATARPUR</t>
-  </si>
-  <si>
-    <t>for c&amp;r panel sifting work</t>
-  </si>
-  <si>
-    <t>16-12-2025 17:00:00</t>
-  </si>
-  <si>
-    <t>TOWER STRENGTHENING WORK</t>
-  </si>
-  <si>
-    <t>M.M. BAIG</t>
-  </si>
-  <si>
-    <t>9425805067</t>
-  </si>
-  <si>
-    <t>MR2512/0296</t>
-  </si>
-  <si>
-    <t>132KV_50MVA Atlanta Transformer</t>
-  </si>
-  <si>
-    <t>132KV_DINDORI</t>
-  </si>
-  <si>
-    <t>Post monsoon maintenance work</t>
-  </si>
-  <si>
-    <t>Vikram Singh</t>
-  </si>
-  <si>
-    <t>8319555199</t>
-  </si>
-  <si>
-    <t>MR2512/0252</t>
-  </si>
-  <si>
-    <t>132KV_132 KV Itarsi-Pipariya line</t>
-  </si>
-  <si>
-    <t>220KV_ITARSI</t>
-  </si>
-  <si>
-    <t>Defective disc replacement work</t>
-  </si>
-  <si>
-    <t>14-12-2025 09:00:00</t>
-  </si>
-  <si>
-    <t>Ashutosh Rai</t>
-  </si>
-  <si>
-    <t>9425806902</t>
-  </si>
-  <si>
-    <t>400KV_KATNI4</t>
-  </si>
-  <si>
     <t>400KV_400KV KATNI - DAMOH LINE</t>
   </si>
   <si>
@@ -373,6 +331,42 @@
     <t>M.M.BAIG</t>
   </si>
   <si>
+    <t>MR2512/0305</t>
+  </si>
+  <si>
+    <t>132KV_132KV Khachrod-Bhaisola Line</t>
+  </si>
+  <si>
+    <t>132KV_KHACHROD</t>
+  </si>
+  <si>
+    <t>Line Maintenance work.</t>
+  </si>
+  <si>
+    <t>Kamal Solanki</t>
+  </si>
+  <si>
+    <t>9425805262</t>
+  </si>
+  <si>
+    <t>MR2512/0301</t>
+  </si>
+  <si>
+    <t>400KV_400kV Kirnapur Bhilai Line</t>
+  </si>
+  <si>
+    <t>400KV_KIRNAPUR</t>
+  </si>
+  <si>
+    <t>Work For Line Suspension Clamp Tightening Work</t>
+  </si>
+  <si>
+    <t>S.K. Bhaladhare</t>
+  </si>
+  <si>
+    <t>9425807264</t>
+  </si>
+  <si>
     <t>220KV_220  kv Satna (PGCIL)  â¿¿  Kotar  line</t>
   </si>
   <si>
@@ -406,130 +400,139 @@
     <t>Mr.R.K.Prajapati</t>
   </si>
   <si>
-    <t>MR2512/0299</t>
-  </si>
-  <si>
-    <t>132KV_50MVA BHEL X-MER</t>
-  </si>
-  <si>
-    <t>132KV_KYMORE</t>
-  </si>
-  <si>
-    <t>For postmonsoon maintenance work</t>
-  </si>
-  <si>
-    <t>RP Rawat</t>
-  </si>
-  <si>
-    <t>9907030507</t>
-  </si>
-  <si>
-    <t>MR2512/0300</t>
-  </si>
-  <si>
-    <t>220KV_220KV Neemuch Mandsaur Circuit Ist</t>
-  </si>
-  <si>
-    <t>220KV_NEEMUCH</t>
-  </si>
-  <si>
-    <t>For Line Maintenance work</t>
-  </si>
-  <si>
-    <t>Gaurav Goyal</t>
-  </si>
-  <si>
-    <t>9425805120</t>
-  </si>
-  <si>
-    <t>MR2512/0288</t>
-  </si>
-  <si>
-    <t>220KV_220 kV Khandwa (PGCIL) - Omkareshwar Line Ckt 1st</t>
-  </si>
-  <si>
-    <t>220KV_OMKARESHWAR</t>
-  </si>
-  <si>
-    <t>OCCM-WR</t>
-  </si>
-  <si>
-    <t>For Maintenance Work.</t>
+    <t>MR2512/0178</t>
+  </si>
+  <si>
+    <t>132KV_132KV MORWA-ANPARA CKT</t>
+  </si>
+  <si>
+    <t>132KV_MORWA</t>
+  </si>
+  <si>
+    <t>CONDUCTOR R ARMORING</t>
+  </si>
+  <si>
+    <t>17-12-2025 13:00:00</t>
+  </si>
+  <si>
+    <t>G.L SAHU</t>
+  </si>
+  <si>
+    <t>MR2512/0316</t>
+  </si>
+  <si>
+    <t>220KV_220KV Nagra-Sailana-I</t>
+  </si>
+  <si>
+    <t>220KV_NAGRA</t>
+  </si>
+  <si>
+    <t>Post monsoon Maintanance both end tan delta nagra</t>
+  </si>
+  <si>
+    <t>Er. Shailendra Bourasi</t>
+  </si>
+  <si>
+    <t>7587951148</t>
+  </si>
+  <si>
+    <t>MR2512/0303</t>
+  </si>
+  <si>
+    <t>132KV_132 kv panagar katangi line</t>
+  </si>
+  <si>
+    <t>220KV_PANAGAR</t>
+  </si>
+  <si>
+    <t>Line maintenance work</t>
+  </si>
+  <si>
+    <t>17-12-2025 08:00:00</t>
+  </si>
+  <si>
+    <t>pankaj yadav</t>
+  </si>
+  <si>
+    <t>9406713326</t>
+  </si>
+  <si>
+    <t>MR2512/0309</t>
+  </si>
+  <si>
+    <t>132KV_132 kv  panagar katangi line</t>
+  </si>
+  <si>
+    <t>modifition shifting work</t>
+  </si>
+  <si>
+    <t>MR2510/0691</t>
+  </si>
+  <si>
+    <t>400KV_Rajgarh (PGCIL) â¿¿ SSP Ckt-2</t>
+  </si>
+  <si>
+    <t>400KV_RAJGARH-PG</t>
+  </si>
+  <si>
+    <t>for old disc replacement work</t>
   </si>
   <si>
     <t>16-12-2025 08:00:00</t>
   </si>
   <si>
-    <t>Manoj More</t>
-  </si>
-  <si>
-    <t>9425805258</t>
-  </si>
-  <si>
-    <t>MR2510/0691</t>
-  </si>
-  <si>
-    <t>400KV_RAJGARH-PG</t>
-  </si>
-  <si>
-    <t>for old disc replacement work</t>
-  </si>
-  <si>
     <t>V.R. Panadia</t>
   </si>
   <si>
     <t>9425802330</t>
   </si>
   <si>
-    <t>MR2512/0298</t>
-  </si>
-  <si>
-    <t>132KV_132kV Rewa - jhinna Ckt</t>
-  </si>
-  <si>
-    <t>220KV_REWA</t>
-  </si>
-  <si>
-    <t>Tension Tower Disc String Replacement Work.</t>
-  </si>
-  <si>
-    <t>G.L Sahu</t>
-  </si>
-  <si>
-    <t>9425805102</t>
-  </si>
-  <si>
-    <t>MR2512/0295</t>
-  </si>
-  <si>
-    <t>132KV_40MVA X-MER ABB</t>
-  </si>
-  <si>
-    <t>220KV_SATNA</t>
-  </si>
-  <si>
-    <t>For Post Mansoon maintenance and Testing work</t>
-  </si>
-  <si>
-    <t>16-12-2025 01:00:00</t>
-  </si>
-  <si>
-    <t>Arun kumar kol</t>
-  </si>
-  <si>
-    <t>8319677721</t>
-  </si>
-  <si>
-    <t>MR2512/0036</t>
-  </si>
-  <si>
-    <t>220KV_220KV SARNI-ITARSI - 4</t>
+    <t>MR2512/0307</t>
+  </si>
+  <si>
+    <t>132KV_132kv Sagar-Rahatgarh Line</t>
+  </si>
+  <si>
+    <t>400KV_SAGAR</t>
+  </si>
+  <si>
+    <t>J.P. Asati</t>
+  </si>
+  <si>
+    <t>9424445533</t>
+  </si>
+  <si>
+    <t>MR2511/0484</t>
+  </si>
+  <si>
+    <t>400KV_SARNI INDIRASAGAR LINE</t>
   </si>
   <si>
     <t>400KV_SATPURA TPS</t>
   </si>
   <si>
-    <t>Work of routine testing DCRM testing Relay testing</t>
+    <t>OPGW STRINGING WORK</t>
+  </si>
+  <si>
+    <t>25-11-2025 07:00:00</t>
+  </si>
+  <si>
+    <t>25-12-2025 19:00:00</t>
+  </si>
+  <si>
+    <t>SHIV KUMAR</t>
+  </si>
+  <si>
+    <t>9425806917</t>
+  </si>
+  <si>
+    <t>MR2512/0149</t>
+  </si>
+  <si>
+    <t>400KV_400KV SARNI-ISP</t>
+  </si>
+  <si>
+    <t>for routine testing general checking &amp; maintenance</t>
   </si>
   <si>
     <t>YASHWANT WARATHE</t>
@@ -538,34 +541,25 @@
     <t>9425611046</t>
   </si>
   <si>
-    <t>MR2511/0484</t>
-  </si>
-  <si>
-    <t>400KV_SARNI INDIRASAGAR LINE</t>
-  </si>
-  <si>
-    <t>OPGW STRINGING WORK</t>
-  </si>
-  <si>
-    <t>25-11-2025 07:00:00</t>
-  </si>
-  <si>
-    <t>25-12-2025 19:00:00</t>
-  </si>
-  <si>
-    <t>SHIV KUMAR</t>
-  </si>
-  <si>
-    <t>9425806917</t>
-  </si>
-  <si>
-    <t>MR2512/0148</t>
-  </si>
-  <si>
-    <t>400KV_400kv SARNI-ISP</t>
-  </si>
-  <si>
-    <t>for routine testing general checking &amp; maintenance</t>
+    <t>220KV_220KV PGCIL No. - II</t>
+  </si>
+  <si>
+    <t>220KV_SEONI</t>
+  </si>
+  <si>
+    <t>Line Isolator replacement work</t>
+  </si>
+  <si>
+    <t>17-12-2025 12:00:00</t>
+  </si>
+  <si>
+    <t>Smt. Seema Dongre</t>
+  </si>
+  <si>
+    <t>9425807247</t>
+  </si>
+  <si>
+    <t>MR2512/0321</t>
   </si>
   <si>
     <t>220KV_220 KV SHUJALPUR-BHOPAL-I CKT</t>
@@ -589,6 +583,36 @@
     <t>MR2512/0233</t>
   </si>
   <si>
+    <t>MR2512/0326</t>
+  </si>
+  <si>
+    <t>132KV_132kv Tikamgarh-Interconnector 1st line</t>
+  </si>
+  <si>
+    <t>220KV_TIKAMGARH</t>
+  </si>
+  <si>
+    <t>Tan-delta of ct</t>
+  </si>
+  <si>
+    <t>17-12-2025 14:00:00</t>
+  </si>
+  <si>
+    <t>Pushpendra Kumar soni</t>
+  </si>
+  <si>
+    <t>9425806398</t>
+  </si>
+  <si>
+    <t>MR2512/0320</t>
+  </si>
+  <si>
+    <t>132KV_132kv Tikamgarh-Digoda 2nd line</t>
+  </si>
+  <si>
+    <t>Tan-delta testing of ct</t>
+  </si>
+  <si>
     <t>MR2512/0266</t>
   </si>
   <si>
@@ -604,100 +628,191 @@
     <t>26-12-2025 18:00:00</t>
   </si>
   <si>
+    <t>Deferred</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>sub ld</t>
+  </si>
+  <si>
+    <t>ok, through sub ld</t>
+  </si>
+  <si>
+    <t>not approved by WRPC</t>
+  </si>
+  <si>
+    <t>Deferred by site</t>
+  </si>
+  <si>
+    <t>RTS and o&amp;m consent required</t>
+  </si>
+  <si>
+    <t>deferred due to Jabalpur ICT s/d</t>
+  </si>
+  <si>
+    <t>provide details of work of modification</t>
+  </si>
+  <si>
+    <t>deferred due to Begumgan jICT s/d</t>
+  </si>
+  <si>
+    <t>ok, line to be inservice</t>
+  </si>
+  <si>
+    <t>wrldc emergency approval required</t>
+  </si>
+  <si>
+    <t>ok, o&amp;m shall be informed</t>
+  </si>
+  <si>
+    <t>reason not clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pending due to satna ICT </t>
+  </si>
+  <si>
+    <t>o&amp;m consent required</t>
+  </si>
+  <si>
+    <t>shall be given after 11:30hrs, AR off also approved</t>
+  </si>
+  <si>
+    <t>APPROVED OUTAGE LIST FOR DATED 17.12.2025</t>
+  </si>
+  <si>
+    <t>400KV-KIRNAPUR-BHILAI-1</t>
+  </si>
+  <si>
+    <t>Line Circuits</t>
+  </si>
+  <si>
+    <t>MADHYA PRADESH,CHATTISGARH</t>
+  </si>
+  <si>
+    <t>17-Dec-2025</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>MP_SLDC</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>FOR LINE MAINTENANCE WORK i.e. CLEANING OF DISC INSULATORS DURING LINE PATROLLING , REPLACEMENT OF FLASHOVERED DISC INSULATORS, TREE BRANCH CUTTING ETC AT VARIOUS TOWER LOCATIONS</t>
+  </si>
+  <si>
+    <t>400KV Seoni-Kirnapur to be in service with AR enabled.  SLDC Chhattisgarh consent is required.  Load to be managed by SLDC CG/MP.</t>
+  </si>
+  <si>
+    <t>220KV-GWALIOR-MAHALGAON-3</t>
+  </si>
+  <si>
+    <t>MADHYA PRADESH</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>FOR BAY MAINTENANCE &amp; TESTING WORK AT SUBSTASTION, REPLACEMENT OF DAMAGED CLAMPS/JUMPERS ETC.</t>
+  </si>
+  <si>
+    <t>All other lines at 220kV Mahalgaon to be in service. Load to be managed by SLDC MP. WR-2 to be informed.</t>
+  </si>
+  <si>
+    <t>real time</t>
+  </si>
+  <si>
+    <t>220KV-AJAYGARH-SATNA-1</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>All other lines at 220kV Ajaygarh to be in service. Load to be managed by SLDC MP. WR-2 to be informed.</t>
+  </si>
+  <si>
+    <t>220KV-BHANPURA-MODAK-1</t>
+  </si>
+  <si>
+    <t>POWERGRID-NR,NLDC,MADHYA PRADESH</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>All other lines at Bhanpura to be in service with AR enabled. drawl restricted in 220KV Bhanpura-Ranpur line by 150MW. Load to be managed by SLDC MP. NLDC consent is required.</t>
+  </si>
+  <si>
+    <t>132KV-SHEOPUR-KHANDAR-1</t>
+  </si>
+  <si>
+    <t>POWERGRID-NR,MADHYA PRADESH</t>
+  </si>
+  <si>
+    <t>Load to be managed by SLDC MP. NLDC consent is required.</t>
+  </si>
+  <si>
+    <t>400KV/220KV JABALPUR-ICT-2</t>
+  </si>
+  <si>
+    <t>Transformer</t>
+  </si>
+  <si>
+    <t>400KV/220KV</t>
+  </si>
+  <si>
+    <t>POWERGRID-WR2 (PGCIL)</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>POWERGRID_WR2</t>
+  </si>
+  <si>
+    <t>AMP Work of  ICT &amp; Line terminal equipment, Dia to be kept open at both sides.</t>
+  </si>
+  <si>
+    <t>SLDC MP consent is required. ICT-1&amp;3 to be in service with complete dia. Load to be managed by SLDC MP</t>
+  </si>
+  <si>
     <t>deferred</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>sub ld</t>
-  </si>
-  <si>
-    <t>deferred, not approved by WRPC</t>
-  </si>
-  <si>
-    <t>ok, through sub ld</t>
-  </si>
-  <si>
-    <t>deferred by site</t>
-  </si>
-  <si>
-    <t>RTS consent required</t>
-  </si>
-  <si>
-    <t>ok, line to be in service</t>
-  </si>
-  <si>
-    <t>deferred due to s/d on 400kv Satpura-Koradi ckt</t>
-  </si>
-  <si>
-    <t>o&amp;m consent required</t>
-  </si>
-  <si>
-    <t>400KV_Rajgarh (PGCIL) - SSP Ckt-2</t>
-  </si>
-  <si>
-    <t>REAL TIME</t>
-  </si>
-  <si>
-    <t>220KV-ITARSI-MP-ITARSI-2</t>
-  </si>
-  <si>
-    <t>220KV-INDORE-UJJAIN-1</t>
-  </si>
-  <si>
-    <t>220KV-KHANDWA-OMKARESHWAR-1</t>
-  </si>
-  <si>
-    <t>220KV-BETUL-PANDURNA-1</t>
-  </si>
-  <si>
-    <t>MORENA - 400KV - BUS 1</t>
-  </si>
-  <si>
-    <t>POWERGRID_WR2</t>
-  </si>
-  <si>
-    <t>MP_SLDC</t>
-  </si>
-  <si>
-    <t>MEGPTCL</t>
-  </si>
-  <si>
-    <t>WR</t>
-  </si>
-  <si>
-    <t>For Repairing/Replacement of Damaged Conductor for Wave Trap of Line</t>
-  </si>
-  <si>
-    <t>FOR LINE MAINTENANCE WORK i.e. CLEANING OF DISC INSULATORS DURING LINE PATROLLING , REPLACEMENT OF FLASHOVERED DISC INSULATORS, TREE BRANCH CUTTING ETC AT VARIOUS TOWER LOCATIONS</t>
-  </si>
-  <si>
-    <t>AMP work of 400kV Bus-1</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>15:30</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>real time</t>
-  </si>
-  <si>
-    <t>DEFERRED DUE TO MULTIPLE OUTAGES IN BHOPAL AREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHALL BE REVIEWED IN REAL TIME </t>
+    <t>400KV/220KV SATNA-ICT-2</t>
+  </si>
+  <si>
+    <t>AMP Work, Dia to be kept open at both sides.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLDC MP consent is required. ICT-1,3  to be in service with complete dia. Load to be managed by SLDC MP. care to be taken
+</t>
+  </si>
+  <si>
+    <t>400KV/220KV SEONI-PG-ICT-2</t>
+  </si>
+  <si>
+    <t>POWERGRID-WR1 (PGCIL)</t>
+  </si>
+  <si>
+    <t>POWERGRID_WR1</t>
+  </si>
+  <si>
+    <t>FOR AMP WORK @ SEONI SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICT-1 to be in service with complete dia. SLDC MP consent is required in view of load management. </t>
+  </si>
+  <si>
+    <t>S/I SLDC JABALPUR</t>
   </si>
 </sst>
 </file>
@@ -708,7 +823,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010809]dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-1010809]dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -721,21 +836,32 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -744,22 +870,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -904,7 +1017,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -930,20 +1043,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -953,14 +1054,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -971,57 +1091,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1386,65 +1470,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="49.140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="45.5703125" customWidth="1"/>
+    <col min="8" max="8" width="43.42578125" customWidth="1"/>
     <col min="9" max="10" width="19.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="40" style="12" customWidth="1"/>
+    <col min="13" max="13" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="E2" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="9"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1459,7 +1544,7 @@
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1467,7 +1552,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="9"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1482,7 +1567,7 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -1500,15 +1585,15 @@
       <c r="J4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="10" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1521,7 +1606,7 @@
       <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -1545,473 +1630,475 @@
       <c r="L5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="39" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="5">
-        <v>46006.590451388889</v>
+        <v>46007.63790509259</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="11" t="s">
-        <v>28</v>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f t="shared" ref="A7:A37" si="0">A6+1</f>
+        <f t="shared" ref="A7:A41" si="0">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="5">
-        <v>46006.595902777779</v>
+        <v>46007.609722222223</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="11" t="s">
-        <v>36</v>
+      <c r="E7" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="5">
-        <v>46006.636423611111</v>
+        <v>45988.581759259258</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="11" t="s">
-        <v>41</v>
+        <v>49</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="5">
-        <v>46002.603055555555</v>
+        <v>46007.660324074073</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="39" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="5">
-        <v>46005.383900462963</v>
+        <v>46000.478981481479</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="5">
-        <v>46006.596134259256</v>
+        <v>46007.663530092592</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="11" t="s">
-        <v>62</v>
+      <c r="E11" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="5">
-        <v>46006.590717592589</v>
+        <v>46007.546875</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="11" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B13" s="5">
-        <v>45988.581759259258</v>
+        <v>46004.404293981483</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>72</v>
+      <c r="E13" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="M13" s="39" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B14" s="5">
-        <v>46000.478981481479</v>
+        <v>46007.623819444445</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>81</v>
+        <v>88</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B15" s="5">
-        <v>46006.581469907411</v>
+        <v>45961.720381944448</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="11" t="s">
-        <v>89</v>
+        <v>99</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B16" s="5">
-        <v>46006.612430555557</v>
+        <v>45961.745856481481</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="11" t="s">
-        <v>97</v>
+        <v>100</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B17" s="5">
-        <v>46004.404293981483</v>
+        <v>46007.490185185183</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
         <v>103</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -2024,310 +2111,306 @@
         <v>105</v>
       </c>
       <c r="I17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="L17" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B18" s="5">
-        <v>45961.720381944448</v>
+        <v>46006.705046296294</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L18" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B19" s="5">
-        <v>45961.745856481481</v>
+        <v>46001.502152777779</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>112</v>
-      </c>
       <c r="F19" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B20" s="5">
-        <v>46001.502152777779</v>
+        <v>46003.590949074074</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>116</v>
+      <c r="E20" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="J20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="36" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B21" s="5">
-        <v>46003.590949074074</v>
+        <v>46001.555277777778</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B22" s="5">
-        <v>46006.650138888886</v>
+        <v>46007.608344907407</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="11" t="s">
-        <v>128</v>
+      <c r="E22" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B23" s="5">
-        <v>46006.680752314816</v>
+        <v>46007.462569444448</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="11" t="s">
-        <v>134</v>
+      <c r="E23" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B24" s="5">
-        <v>46006.497187499997</v>
+        <v>46007.578738425924</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="J24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="L24" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2341,494 +2424,995 @@
       <c r="D25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>203</v>
+      <c r="E25" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="M25" s="37" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B26" s="5">
-        <v>46006.644236111111</v>
+        <v>46007.518784722219</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="11" t="s">
-        <v>153</v>
+      <c r="E26" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="M26" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B27" s="5">
-        <v>46006.609907407408</v>
+        <v>45982.62771990741</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="11" t="s">
         <v>159</v>
       </c>
+      <c r="D27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="F27" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B28" s="5">
-        <v>45993.523622685185</v>
+        <v>45999.781018518515</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="11" t="s">
-        <v>166</v>
+      <c r="E28" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+        <v>171</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="19">
-        <v>45982.62771990741</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="20" t="s">
+      <c r="B29" s="5">
+        <v>46007.648530092592</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F29" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="G29" s="18" t="s">
+      <c r="F29" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="I29" s="21" t="s">
+      <c r="H29" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="J29" s="21" t="s">
+      <c r="I29" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="K29" s="22" t="s">
+      <c r="J29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="L29" s="23" t="s">
+      <c r="L29" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="M29" s="20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
+      <c r="M29" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="25">
-        <v>45999.779085648152</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="26" t="s">
+      <c r="B30" s="5">
+        <v>46003.541168981479</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F30" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="G30" s="24" t="s">
+      <c r="F30" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="L30" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="M30" s="40" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29">
+      <c r="H30" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="30">
-        <v>46003.541168981479</v>
-      </c>
-      <c r="C31" s="29" t="s">
+      <c r="B31" s="5">
+        <v>46007.661226851851</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D31" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="29" t="s">
+      <c r="F31" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="I31" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="J31" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="K31" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="L31" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="M31" s="31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29">
+      <c r="H31" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="30">
-        <v>46004.649699074071</v>
-      </c>
-      <c r="C32" s="29" t="s">
+      <c r="B32" s="5">
+        <v>46007.643750000003</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D32" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="H32" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="I32" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="J32" s="32" t="s">
+      <c r="L32" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="K32" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="L32" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="M32" s="31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29">
+      <c r="M32" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34">
-        <v>283114</v>
-      </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="H33" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="I33" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="J33" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="41" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="29">
+      <c r="B33" s="23">
+        <v>46004.649699074071</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="L33" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="M33" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="34">
-        <v>275246</v>
-      </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="F34" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="G34" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="H34" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="I34" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="J34" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="28" t="s">
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="I34" s="28" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="29">
+      <c r="J34" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="K34" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="L34" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="34">
-        <v>275247</v>
-      </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="G35" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="H35" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="I35" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="J35" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="35" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="29">
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="J35" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="K35" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="L35" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="M35" s="29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="34">
-        <v>275248</v>
-      </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="F36" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="G36" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="H36" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="I36" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="J36" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="28" t="s">
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="I36" s="28" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29">
+      <c r="J36" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="K36" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="L36" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="M36" s="29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="34">
-        <v>273894</v>
-      </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="G37" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="H37" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="I37" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="J37" s="34" t="s">
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="K37" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="L37" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="M37" s="29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="J38" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="K38" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="L38" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="M38" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="22">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="J39" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="K39" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="L39" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="M39" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="J40" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="K40" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="L40" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="M40" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="22">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="J41" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="K41" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="L41" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="M41" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="210" x14ac:dyDescent="0.25">
+      <c r="E45" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="K45" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="L45" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="M45" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N45" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="O45" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="P45" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q45" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="R45" s="21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="270" x14ac:dyDescent="0.25">
+      <c r="E46" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="K46" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="L46" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="M46" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N46" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="O46" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="P46" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q46" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="R46" s="21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="240" x14ac:dyDescent="0.25">
+      <c r="E47" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="K47" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="L47" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="M47" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N47" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="O47" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="P47" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q47" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="R47" s="21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="E48" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F48" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="35" t="s">
-        <v>194</v>
-      </c>
+      <c r="G48" s="17">
+        <v>400</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="J48" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="K48" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="L48" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="M48" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N48" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="O48" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="P48" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q48" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="R48" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="S48" s="21"/>
+    </row>
+    <row r="49" spans="5:19" ht="255" x14ac:dyDescent="0.25">
+      <c r="E49" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="G49" s="17">
+        <v>220</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="K49" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="L49" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="M49" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N49" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="O49" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="P49" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q49" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="R49" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="S49" s="21"/>
+    </row>
+    <row r="50" spans="5:19" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="E50" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="G50" s="17">
+        <v>220</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="K50" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="L50" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="M50" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N50" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="O50" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="P50" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q50" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="R50" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="S50" s="21"/>
+    </row>
+    <row r="51" spans="5:19" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="E51" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="G51" s="17">
+        <v>220</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="L51" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="M51" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N51" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="O51" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="P51" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q51" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="R51" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="S51" s="21"/>
+    </row>
+    <row r="52" spans="5:19" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="E52" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="G52" s="17">
+        <v>132</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="I52" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="J52" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="K52" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="L52" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="M52" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N52" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="O52" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="P52" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q52" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="R52" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="S52" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="K4:L4"/>
+    <mergeCell ref="E2:K2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="211">
   <si>
     <t>STATE LOAD DESPATCH CENTRE 
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
@@ -123,9 +123,6 @@
     <t>9425820042</t>
   </si>
   <si>
-    <t>9425163265</t>
-  </si>
-  <si>
     <t>DAMAGE CONDUCTOR REPLACEMENT</t>
   </si>
   <si>
@@ -159,24 +156,9 @@
     <t>Ravindra patil</t>
   </si>
   <si>
-    <t>MR2512/0338</t>
-  </si>
-  <si>
-    <t>220KV_220 KV Itarsi-Pipariya Ckt-II</t>
-  </si>
-  <si>
     <t>220KV_ITARSI</t>
   </si>
   <si>
-    <t>for replacement of Single to Double Disc Insulator</t>
-  </si>
-  <si>
-    <t>18-12-2025 09:00:00</t>
-  </si>
-  <si>
-    <t>21-12-2025 18:00:00</t>
-  </si>
-  <si>
     <t>Ashutosh Rai</t>
   </si>
   <si>
@@ -216,9 +198,6 @@
     <t>13-12-2025 09:00:00</t>
   </si>
   <si>
-    <t>NON-OCCM-WR</t>
-  </si>
-  <si>
     <t>MR2510/0691</t>
   </si>
   <si>
@@ -240,9 +219,6 @@
     <t>9425802330</t>
   </si>
   <si>
-    <t>G.L Sahu</t>
-  </si>
-  <si>
     <t>9425805102</t>
   </si>
   <si>
@@ -321,217 +297,447 @@
     <t>ok, line to be in service</t>
   </si>
   <si>
-    <t>MR2512/0421</t>
-  </si>
-  <si>
-    <t>132KV_40 mva Xmer</t>
-  </si>
-  <si>
-    <t>for saftey clearance purpose</t>
-  </si>
-  <si>
-    <t>21-12-2025 09:30:00</t>
-  </si>
-  <si>
-    <t>21-12-2025 16:30:00</t>
-  </si>
-  <si>
-    <t>MR2512/0417</t>
-  </si>
-  <si>
-    <t>220KV_220 KV Bus No.1</t>
-  </si>
-  <si>
-    <t>Dismantling &amp; restringing of overhead conductor</t>
-  </si>
-  <si>
-    <t>21-12-2025 09:00:00</t>
-  </si>
-  <si>
-    <t>21-12-2025 17:00:00</t>
-  </si>
-  <si>
-    <t>MR2512/0390</t>
-  </si>
-  <si>
-    <t>132KV_132KV Main Bus at 132KV Sub Dindori</t>
-  </si>
-  <si>
-    <t>132KV_DINDORI</t>
-  </si>
-  <si>
-    <t>For Jumper connection work with 132kv Main Bus</t>
-  </si>
-  <si>
-    <t>21-12-2025 12:00:00</t>
-  </si>
-  <si>
-    <t>21-12-2025 16:00:00</t>
-  </si>
-  <si>
-    <t>Vijay Kumar Tandekar</t>
-  </si>
-  <si>
-    <t>9425805095</t>
-  </si>
-  <si>
-    <t>loading of mandla and maneri shall be reviewed before, if required 132kv Balaghat-Baihar to be taken in service, gorakhpur shall be extended supply from shahdol in consultation with EE-T&amp;C</t>
-  </si>
-  <si>
-    <t>MR2512/0416</t>
-  </si>
-  <si>
-    <t>132KV_132 kV Shahdol-Dindori Circuit II</t>
-  </si>
-  <si>
-    <t>F/o disc replacement &amp; other line maintenance</t>
-  </si>
-  <si>
-    <t>Jitendra Tiwari</t>
-  </si>
-  <si>
-    <t>9425805298</t>
-  </si>
-  <si>
-    <t>as opportunity s/d</t>
-  </si>
-  <si>
-    <t>MR2512/0414</t>
-  </si>
-  <si>
-    <t>132KV_40mva X-mer BBL</t>
-  </si>
-  <si>
     <t>132KV_MAJHGAWAN</t>
   </si>
   <si>
-    <t>For Post mansoon maintenance and Testing work</t>
-  </si>
-  <si>
-    <t>21-12-2025 11:00:00</t>
-  </si>
-  <si>
     <t>Arun Kumar kol</t>
   </si>
   <si>
     <t>8319677721</t>
   </si>
   <si>
-    <t>MR2512/0408</t>
-  </si>
-  <si>
-    <t>132KV_132 KV MAIN BUS</t>
-  </si>
-  <si>
-    <t>220KV_PITHAMPUR-II (SEC-I)</t>
-  </si>
-  <si>
-    <t>132 KV MAIN BUS SHUTDOWN</t>
-  </si>
-  <si>
-    <t>21-12-2025 07:00:00</t>
-  </si>
-  <si>
-    <t>21-12-2025 22:00:00</t>
-  </si>
-  <si>
-    <t>RAJU DASH BAIRAGI</t>
-  </si>
-  <si>
-    <t>9425801532</t>
-  </si>
-  <si>
-    <t>sub ld to manage/monitor the loading</t>
-  </si>
-  <si>
-    <t>MR2512/0412</t>
-  </si>
-  <si>
-    <t>132KV_132kV Rewa - Rampur Naikin Ckt</t>
-  </si>
-  <si>
     <t>220KV_REWA</t>
   </si>
   <si>
-    <t>Tension Tower Disc String Replacement</t>
-  </si>
-  <si>
-    <t>21-12-2025 10:00:00</t>
-  </si>
-  <si>
-    <t>o&amp;m and RTS consent required</t>
-  </si>
-  <si>
-    <t>MR2512/0402</t>
-  </si>
-  <si>
-    <t>132KV_132 KV Main bus</t>
-  </si>
-  <si>
-    <t>220KV_SHIVPURI</t>
-  </si>
-  <si>
-    <t>Main bus to isolator jumpering work</t>
-  </si>
-  <si>
-    <t>21-12-2025 15:00:00</t>
-  </si>
-  <si>
-    <t>Er. Sunny Kumar</t>
-  </si>
-  <si>
-    <t>9425806888</t>
-  </si>
-  <si>
-    <t>sub ld to manage, RTS consent to be taken, no new charging will be allowed</t>
-  </si>
-  <si>
-    <t>MR2512/0403</t>
-  </si>
-  <si>
-    <t>132KV_132kv Shivpuri Karahal Line</t>
-  </si>
-  <si>
-    <t>Line Maintenance work</t>
-  </si>
-  <si>
-    <t>Suraj Pawar</t>
-  </si>
-  <si>
-    <t>9425814079</t>
-  </si>
-  <si>
-    <t>MR2512/0410</t>
-  </si>
-  <si>
-    <t>132KV_132 kv main bus shutdown</t>
-  </si>
-  <si>
-    <t>for connecting jumper of 132 kV Karahal circuit 2n</t>
-  </si>
-  <si>
-    <t>rohit  kumar yadav</t>
-  </si>
-  <si>
-    <t>9425804921</t>
-  </si>
-  <si>
-    <t>MR2512/0409</t>
-  </si>
-  <si>
-    <t>132KV_VFJ CKT 2 TAPPED VINOBA</t>
-  </si>
-  <si>
-    <t>132KV_VINOBA BHAVE</t>
-  </si>
-  <si>
-    <t>FOR SECOND CIRCUITING WORK</t>
-  </si>
-  <si>
-    <t>R S BAIS</t>
-  </si>
-  <si>
-    <t>ok, no new charging will be allowed</t>
+    <t>MR2512/0429</t>
+  </si>
+  <si>
+    <t>132KV_40 mva Telk Xmer</t>
+  </si>
+  <si>
+    <t>erection of 63 MVA TAL Xmer</t>
+  </si>
+  <si>
+    <t>22-12-2025 09:30:00</t>
+  </si>
+  <si>
+    <t>22-12-2025 16:30:00</t>
+  </si>
+  <si>
+    <t>MR2512/0415</t>
+  </si>
+  <si>
+    <t>400KV_315MVA No-1 Make-CGL</t>
+  </si>
+  <si>
+    <t>400KV_ASHTA4</t>
+  </si>
+  <si>
+    <t>220 KV Side 03 no CT Replacement work</t>
+  </si>
+  <si>
+    <t>22-12-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>22-12-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>Jitendra Lohana</t>
+  </si>
+  <si>
+    <t>9425804978</t>
+  </si>
+  <si>
+    <t>deferred, due to s/d on bhopal bus</t>
+  </si>
+  <si>
+    <t>MR2512/0411</t>
+  </si>
+  <si>
+    <t>400KV_400kv aux.bus</t>
+  </si>
+  <si>
+    <t>400KV_BADNAWAR</t>
+  </si>
+  <si>
+    <t>newly installed 500mva ict T&amp;R make</t>
+  </si>
+  <si>
+    <t>Er. abhishek verma</t>
+  </si>
+  <si>
+    <t>9340855901</t>
+  </si>
+  <si>
+    <t>MR2512/0413</t>
+  </si>
+  <si>
+    <t>400KV_400kv bus tie</t>
+  </si>
+  <si>
+    <t>sefty purpose of new aux bus connection of 500mva</t>
+  </si>
+  <si>
+    <t>Er abhishek verma</t>
+  </si>
+  <si>
+    <t>MR2512/0393</t>
+  </si>
+  <si>
+    <t>400KV_40kv Bus Bar Protection</t>
+  </si>
+  <si>
+    <t>400kv Bus Bar Prot. Panel Wiring and Testing work</t>
+  </si>
+  <si>
+    <t>23-12-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>Er.Abhishek Verma</t>
+  </si>
+  <si>
+    <t>MR2512/0428</t>
+  </si>
+  <si>
+    <t>220KV_220KV Interconnector 2 on Bus Transfer Bay</t>
+  </si>
+  <si>
+    <t>Main CB is not reliable so keep it on Bus Transfer</t>
+  </si>
+  <si>
+    <t>22-12-2025 17:00:00</t>
+  </si>
+  <si>
+    <t>29-12-2025 17:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok, through sub ld, line to be in service </t>
+  </si>
+  <si>
+    <t>MR2512/0425</t>
+  </si>
+  <si>
+    <t>220KV_220 kV Interconnector 2 transfer on Main CB</t>
+  </si>
+  <si>
+    <t>To transfer 220KV Interconnector 1 on Bus Transfer</t>
+  </si>
+  <si>
+    <t>MR2512/0426</t>
+  </si>
+  <si>
+    <t>220KV_220 KV Interconnector 1 on Bus Transfer</t>
+  </si>
+  <si>
+    <t>For safe clearance during Stringing of conductor</t>
+  </si>
+  <si>
+    <t>MR2512/0427</t>
+  </si>
+  <si>
+    <t>220KV_220 KV Bus No. 1</t>
+  </si>
+  <si>
+    <t>Stringing of overhead conductor for new 200MVA Xm</t>
+  </si>
+  <si>
+    <t>MR2512/0404</t>
+  </si>
+  <si>
+    <t>220KV_220 KV SARNI-ITARSI IV LINE</t>
+  </si>
+  <si>
+    <t>RESAGGING WORK LOC.NO. 199-218</t>
+  </si>
+  <si>
+    <t>ok, RTS consent required on 26th also during normalisation</t>
+  </si>
+  <si>
+    <t>MR2510/0557</t>
+  </si>
+  <si>
+    <t>220KV_220KV KATNI - DAMOH LINE</t>
+  </si>
+  <si>
+    <t>400KV_KATNI4</t>
+  </si>
+  <si>
+    <t>TOWER STRENGTHENING WORK</t>
+  </si>
+  <si>
+    <t>01-12-2025 09:00:00</t>
+  </si>
+  <si>
+    <t>M.M. BAIG</t>
+  </si>
+  <si>
+    <t>9425805067</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>MR2509/0449</t>
+  </si>
+  <si>
+    <t>400KV_400KV DAMOH - KATNI LINE</t>
+  </si>
+  <si>
+    <t>24-12-2025 18:00:00</t>
+  </si>
+  <si>
+    <t>SHRI M.M. BAIG</t>
+  </si>
+  <si>
+    <t>MR2512/0430</t>
+  </si>
+  <si>
+    <t>220KV_160MVA TELK X-MER</t>
+  </si>
+  <si>
+    <t>For postmonsoon maintenance</t>
+  </si>
+  <si>
+    <t>22-12-2025 10:00:00</t>
+  </si>
+  <si>
+    <t>SK chaturvedi</t>
+  </si>
+  <si>
+    <t>9425806938</t>
+  </si>
+  <si>
+    <t>real time</t>
+  </si>
+  <si>
+    <t>MR2512/0423</t>
+  </si>
+  <si>
+    <t>220KV_160MVA X-MER AREVA</t>
+  </si>
+  <si>
+    <t>FOR POST MANSOON MAINTENANCE AND TESTING WORK</t>
+  </si>
+  <si>
+    <t>MR2512/0424</t>
+  </si>
+  <si>
+    <t>132KV_40MVA X-MER BBL</t>
+  </si>
+  <si>
+    <t>FOR OIL TOPPING IN CONSERVATOR TANK.</t>
+  </si>
+  <si>
+    <t>22-12-2025 14:00:00</t>
+  </si>
+  <si>
+    <t>22-12-2025 16:00:00</t>
+  </si>
+  <si>
+    <t>MR2512/0422</t>
+  </si>
+  <si>
+    <t>220KV_NAGRA KHEMAAMBA - I</t>
+  </si>
+  <si>
+    <t>220KV_NAGRA</t>
+  </si>
+  <si>
+    <t>Post mossoon maintenance and tan delta work</t>
+  </si>
+  <si>
+    <t>shailandra Borasi</t>
+  </si>
+  <si>
+    <t>9907246485</t>
+  </si>
+  <si>
+    <t>MR2512/0407</t>
+  </si>
+  <si>
+    <t>220KV_220KV Main Bus-I</t>
+  </si>
+  <si>
+    <t>220KV_PITHAMPUR (SEC-III)</t>
+  </si>
+  <si>
+    <t>220KV Rajgarh fdr Main Bus-1 Isolators. Replace</t>
+  </si>
+  <si>
+    <t>23-12-2025 15:00:00</t>
+  </si>
+  <si>
+    <t>Sh Mukesh Patil</t>
+  </si>
+  <si>
+    <t>8120562072</t>
+  </si>
+  <si>
+    <t>MR2512/0432</t>
+  </si>
+  <si>
+    <t>132KV_132KV Rewa-Jhinna ckt</t>
+  </si>
+  <si>
+    <t>Disc String replacement work</t>
+  </si>
+  <si>
+    <t>G.L SAHU</t>
+  </si>
+  <si>
+    <t>MR2512/0418</t>
+  </si>
+  <si>
+    <t>132KV_132kv Sagar-Rahatgarh line</t>
+  </si>
+  <si>
+    <t>400KV_SAGAR</t>
+  </si>
+  <si>
+    <t>Line maintenance work</t>
+  </si>
+  <si>
+    <t>J.P. Asati</t>
+  </si>
+  <si>
+    <t>9424445533</t>
+  </si>
+  <si>
+    <t>220KV-DAMOH-DAMOH-MP-3</t>
+  </si>
+  <si>
+    <t>MADHYA PRADESH</t>
+  </si>
+  <si>
+    <t>Retrofitting of Line Differential Relay</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok, SLDC MP consent required. Load management shall be done by SLDC. POWERGRID to submit SLDC consent before availing outage.
+</t>
+  </si>
+  <si>
+    <t>400KV-DAMOH-KATNI-1</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok,   400kV DAMOH-PG-BIRSINGPUR-T2 (Sensitivity of 33%) and All other lines at Damoh/Katni to be in service. No other element shall be effected. care to be taken. WR2 to be informed
+</t>
+  </si>
+  <si>
+    <t>220KV-SHUJALPUR-RAJGARH-MP-1</t>
+  </si>
+  <si>
+    <t>FOR LINE MAINTENANCE WORK i.e. CLEANING OF DISC INSULATORS DURING LINE PATROLLING , REPLACEMENT OF FLASHOVERED DISC INSULATORS, TREE BRANCH CUTTING ETC AT VARIOUS TOWER LOCATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real time ,  Ckt-1 and All other lines at Rajgarh-MP to be in service with AR enabled. WR2 to be informed. Load to be managed by SLDC MP
+</t>
+  </si>
+  <si>
+    <t>SEONI-PG - 400KV - BUS 2</t>
+  </si>
+  <si>
+    <t>POWERGRID-WR1 (PGCIL)</t>
+  </si>
+  <si>
+    <t>FOR AMP WORK @ SEONI SS</t>
+  </si>
+  <si>
+    <r>
+      <t>ok,  All elements to be in service with bus-1.  In case of N-1, 400/220 kV ICT-1, Khandwa-2, 765/400 kV ICT-3, BR will be out. 765/400 kV ICT-1 will be in service with 400/220 kV ICT-1 via tie bay, Kirnapur will be in service with Satpura via tie bay,  765/400 kV ICT-2 will be in service with Khandwa-1 via tie bay.  No other element shall be effected. care to be taken.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SLDC MP CONSENT TO BE TAKEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>400KV-NAGDA-SHUJALPUR-1</t>
+  </si>
+  <si>
+    <t>POWERGRID-WR2 (PGCIL)</t>
+  </si>
+  <si>
+    <t>For power line crossing/ stringing work of 400kV D/C Pachora Ujjain Transmission line</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ok, Time schedule to be followed strictly.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SLDC MP Consent to be taken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 400kV Nagda-Ujjain D/C (Sensitivity of 14% on each ckt),400kV Indore-Ujjain (Sensitivity of 8% on each ckt) ,400/220kV Sujalpur (ICT 1,2 Sensitivity of 10% each and ICT-3 Sensitivity of 15%), All Other lines at 400kV Nagda/Shujalpur to be in service with A/R Enabled. In case of contingency load to be managed by SLDC MP.</t>
+    </r>
+  </si>
+  <si>
+    <t>400KV-NAGDA-SHUJALPUR-2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ok, Time schedule to be followed strictly.    SLDC MP Consent to be taken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 400kV Nagda-Ujjain D/C (Sensitivity of 14% on each ckt),400kV Indore-Ujjain (Sensitivity of 8% on each ckt) ,400/220kV Sujalpur (ICT 1,2 Sensitivity of 10% each and ICT-3 Sensitivity of 15%), All Other lines at 400kV Nagda/Shujalpur to be in service with A/R Enabled. In case of contingency load to be managed by SLDC MP.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -542,7 +748,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010809]dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-1010809]dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -555,24 +761,48 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,8 +820,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -651,11 +887,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -690,6 +941,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -771,6 +1037,94 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="605333" cy="555785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>605333</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="605333" cy="555785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>605333</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -1102,27 +1456,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="64.140625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="49.7109375" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="45" customWidth="1"/>
+    <col min="8" max="8" width="48.140625" customWidth="1"/>
     <col min="9" max="10" width="19.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="57.85546875" customWidth="1"/>
+    <col min="13" max="13" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43.7" customHeight="1">
+    <row r="1" spans="1:13" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -1139,12 +1494,12 @@
       <c r="L1" s="11"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="42" customHeight="1">
+    <row r="2" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>46012</v>
+        <v>46013</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1158,7 +1513,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="42" customHeight="1">
+    <row r="3" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -1181,7 +1536,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="42" customHeight="1">
+    <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -1220,19 +1575,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="35.25" customHeight="1">
+    <row r="5" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="4">
-        <v>46011.694502314815</v>
+        <v>46012.653113425928</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>20</v>
@@ -1241,13 +1596,13 @@
         <v>18</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>21</v>
@@ -1256,62 +1611,62 @@
         <v>22</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="35.25" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="4">
-        <v>46011.645543981482</v>
+        <v>46011.621979166666</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="L6" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="M6" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="74.25" customHeight="1">
+    </row>
+    <row r="7" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <f t="shared" ref="A7:A22" si="0">A6+1</f>
+        <f t="shared" ref="A7:A35" si="0">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="4">
-        <v>46009.910185185188</v>
+        <v>46011.595578703702</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>105</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="3" t="s">
         <v>106</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -1324,35 +1679,35 @@
         <v>108</v>
       </c>
       <c r="I7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="L7" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="M7" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="35.25" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="4">
-        <v>46011.635057870371</v>
+        <v>46011.605034722219</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="8" t="s">
-        <v>115</v>
+      <c r="E8" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>107</v>
@@ -1361,638 +1716,1134 @@
         <v>18</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="M8" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="35.25" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="4">
-        <v>46008.563807870371</v>
+        <v>46010.539652777778</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="35.25" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="4">
-        <v>46008.567314814813</v>
+        <v>46012.581736111111</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="35.25" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="4">
-        <v>46008.480185185188</v>
+        <v>46012.573842592596</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>42</v>
+        <v>126</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="35.25" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="4">
-        <v>46001.502152777779</v>
+        <v>46012.575821759259</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>52</v>
+        <v>129</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="35.25" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B13" s="4">
-        <v>46011.620405092595</v>
+        <v>46012.578055555554</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>121</v>
+      <c r="E13" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="K13" s="6" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="35.25" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B14" s="4">
-        <v>46011.53266203704</v>
+        <v>46008.563807870371</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8" t="s">
-        <v>128</v>
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="35.25" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B15" s="4">
-        <v>45960.569027777776</v>
+        <v>46008.567314814813</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="35.25" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B16" s="4">
-        <v>46011.603807870371</v>
+        <v>46011.522326388891</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="35.25" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B17" s="4">
-        <v>45982.62771990741</v>
+        <v>45953.747557870367</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>71</v>
+        <v>23</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="35.25" customHeight="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B18" s="4">
-        <v>46010.746192129627</v>
+        <v>45918.685648148145</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="J18" s="5" t="s">
+      <c r="M18" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="35.25" customHeight="1">
+    </row>
+    <row r="19" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B19" s="4">
-        <v>46011.45034722222</v>
+        <v>46012.656886574077</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="35.25" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B20" s="4">
-        <v>46011.586076388892</v>
+        <v>46012.557997685188</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="8" t="s">
-        <v>156</v>
+      <c r="E20" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="35.25" customHeight="1">
+    </row>
+    <row r="21" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B21" s="4">
-        <v>46003.541168981479</v>
+        <v>46001.502152777779</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="K21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L21" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="35.25" customHeight="1">
+    </row>
+    <row r="22" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B22" s="4">
-        <v>46004.649699074071</v>
+        <v>46012.570868055554</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>87</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="H22" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" s="5" t="s">
+      <c r="L22" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="M22" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="35.25" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <f>A22+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B23" s="4">
-        <v>46011.580717592595</v>
+        <v>46012.405740740738</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="J23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="4">
+        <v>46011.52553240741</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="4">
+        <v>45960.569027777776</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="4">
+        <v>46012.669548611113</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="K23" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
+    </row>
+    <row r="27" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="4">
+        <v>46011.659317129626</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="4">
+        <v>45982.62771990741</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="4">
+        <v>46003.541168981479</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>26</v>
+      </c>
+      <c r="B30" s="4">
+        <v>46004.649699074071</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="K31" s="17"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>28</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="K32" s="17"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>165</v>
+      <c r="B33" s="15"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="K33" s="17"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>30</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="K34" s="17"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="K35" s="17"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>32</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="K36" s="17"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -9,22 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="21600" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__bookmark_1">Sheet0!$A$1:$M$17</definedName>
+    <definedName name="__bookmark_1">Sheet0!$A$1:$M$22</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="121">
-  <si>
-    <t>STATE LOAD DESPATCH CENTRE 
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="156">
+  <si>
+    <t>STATE LOAD DESPATCH CENTRE _x000D_
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
   </si>
   <si>
@@ -76,39 +76,39 @@
     <t>REMARK</t>
   </si>
   <si>
-    <t>MR2512/0567</t>
+    <t>MR2601/0005</t>
+  </si>
+  <si>
+    <t>400KV_400KV Badnawar-Pithampur Ckt-II Line</t>
+  </si>
+  <si>
+    <t>400KV_BADNAWAR</t>
+  </si>
+  <si>
+    <t>NON-OCCM-MP</t>
+  </si>
+  <si>
+    <t>Line Maintenance work</t>
+  </si>
+  <si>
+    <t>02-01-2026 10:00:00</t>
+  </si>
+  <si>
+    <t>02-01-2026 18:00:00</t>
+  </si>
+  <si>
+    <t>Kamal Solanki</t>
+  </si>
+  <si>
+    <t>9425805262</t>
+  </si>
+  <si>
+    <t>MR2512/0592</t>
   </si>
   <si>
     <t>Continuous</t>
   </si>
   <si>
-    <t>220KV_220 kV Bus 2</t>
-  </si>
-  <si>
-    <t>220KV_BHOPAL</t>
-  </si>
-  <si>
-    <t>NON-OCCM-MP</t>
-  </si>
-  <si>
-    <t>Bus extension work &amp; shifting of PTs</t>
-  </si>
-  <si>
-    <t>31-12-2025 08:00:00</t>
-  </si>
-  <si>
-    <t>01-01-2026 17:00:00</t>
-  </si>
-  <si>
-    <t>A K Jain</t>
-  </si>
-  <si>
-    <t>9425806899</t>
-  </si>
-  <si>
-    <t>MR2512/0592</t>
-  </si>
-  <si>
     <t>220KV_220kV Bhopal Vidisha ckt</t>
   </si>
   <si>
@@ -121,33 +121,114 @@
     <t>01-01-2026 09:00:00</t>
   </si>
   <si>
-    <t>02-01-2026 18:00:00</t>
-  </si>
-  <si>
     <t>Rajkumar Bhusare</t>
   </si>
   <si>
     <t>9425820042</t>
   </si>
   <si>
+    <t>MR2512/0593</t>
+  </si>
+  <si>
+    <t>400KV_400kV Bhopal Bina Ckt-II</t>
+  </si>
+  <si>
+    <t>For restoration work.</t>
+  </si>
+  <si>
+    <t>02-01-2026 09:00:00</t>
+  </si>
+  <si>
+    <t>03-01-2026 18:00:00</t>
+  </si>
+  <si>
+    <t>Rajkumar bhusare</t>
+  </si>
+  <si>
+    <t>MR2601/0006</t>
+  </si>
+  <si>
+    <t>400KV_315 MVA X-MER-I</t>
+  </si>
+  <si>
+    <t>400KV_BINA4</t>
+  </si>
+  <si>
+    <t>NON-OCCM-WR</t>
+  </si>
+  <si>
+    <t>for 400 kV, 315 MVA X-mer-I &amp; 400 kV,50 MVAR Bus R</t>
+  </si>
+  <si>
+    <t>02-01-2026 17:00:00</t>
+  </si>
+  <si>
+    <t>Er. PN NAMDEO</t>
+  </si>
+  <si>
+    <t>7587951092</t>
+  </si>
+  <si>
+    <t>MR2601/0007</t>
+  </si>
+  <si>
+    <t>220KV_220KV Daloda Nagda Circuit IInd</t>
+  </si>
+  <si>
+    <t>220KV_DALODA</t>
+  </si>
+  <si>
+    <t>For Line Maintenance work</t>
+  </si>
+  <si>
+    <t>02-01-2026 10:30:00</t>
+  </si>
+  <si>
+    <t>Gaurav Goyal</t>
+  </si>
+  <si>
+    <t>9425805120</t>
+  </si>
+  <si>
+    <t>MR2601/0003</t>
+  </si>
+  <si>
+    <t>132KV_132kV Delond - Jhinna Ckt</t>
+  </si>
+  <si>
+    <t>132KV_DEVLOND</t>
+  </si>
+  <si>
+    <t>disc string replacement  Work.</t>
+  </si>
+  <si>
+    <t>02-01-2026 09:30:00</t>
+  </si>
+  <si>
+    <t>G.L Sahu</t>
+  </si>
+  <si>
+    <t>9425805102</t>
+  </si>
+  <si>
     <t>Daily</t>
   </si>
   <si>
+    <t>CONDUCTOR REPLACEMENT AND OTHER MAINTANANCE WORK.</t>
+  </si>
+  <si>
+    <t>RAVINDRA PATIL</t>
+  </si>
+  <si>
+    <t>8305612190</t>
+  </si>
+  <si>
+    <t>MR2512/0471</t>
+  </si>
+  <si>
     <t>132KV_132 KV NORTHZONE (INDORE) - CHAMBAL CKT-1</t>
   </si>
   <si>
-    <t>8305612190</t>
-  </si>
-  <si>
-    <t>RAVINDRA PATIL</t>
-  </si>
-  <si>
-    <t>CONDUCTOR REPLACEMENT AND OTHER MAINTANANCE WORK.</t>
-  </si>
-  <si>
-    <t>MR2512/0471</t>
-  </si>
-  <si>
     <t>220KV_INDORE-NZ</t>
   </si>
   <si>
@@ -184,55 +265,82 @@
     <t>220KV_220KV KATNI - DAMOH LINE</t>
   </si>
   <si>
+    <t>MR2601/0009</t>
+  </si>
+  <si>
+    <t>132KV_132 kv katni ic line ckt 1 st</t>
+  </si>
+  <si>
+    <t>For stringing of htls conductor.</t>
+  </si>
+  <si>
+    <t>22-01-2026 18:00:00</t>
+  </si>
+  <si>
+    <t>pankaj yadav</t>
+  </si>
+  <si>
+    <t>9406713326</t>
+  </si>
+  <si>
     <t>MR2510/0729</t>
   </si>
   <si>
     <t>29-12-2025 09:00:00</t>
   </si>
   <si>
-    <t>03-01-2026 18:00:00</t>
-  </si>
-  <si>
     <t>MR2510/0738</t>
   </si>
   <si>
     <t>M.M.BAIG</t>
   </si>
   <si>
-    <t>MR2512/0591</t>
-  </si>
-  <si>
-    <t>400KV_400kV TBC</t>
+    <t>MR2512/0532</t>
+  </si>
+  <si>
+    <t>400KV_400KV Pithampur-Badnawar Ckt-II</t>
   </si>
   <si>
     <t>400KV_PITHAMPUR4</t>
   </si>
   <si>
-    <t>CB DCRM Testing</t>
-  </si>
-  <si>
-    <t>01-01-2026 10:00:00</t>
-  </si>
-  <si>
-    <t>Raju das bairagi</t>
+    <t>Post Monsoon maintenance work</t>
+  </si>
+  <si>
+    <t>Rajudas Bairagi</t>
   </si>
   <si>
     <t>9425801532</t>
   </si>
   <si>
-    <t>MR2512/0531</t>
-  </si>
-  <si>
-    <t>400KV_400KV Pithampur-SSTPS Ckt-IV</t>
-  </si>
-  <si>
-    <t>Post monsoon maintenance work</t>
-  </si>
-  <si>
-    <t>01-01-2026 18:00:00</t>
-  </si>
-  <si>
-    <t>Rajudas bairagi</t>
+    <t>MR2601/0002</t>
+  </si>
+  <si>
+    <t>132KV_132kV Rewa - jhinna Ckt</t>
+  </si>
+  <si>
+    <t>220KV_REWA</t>
+  </si>
+  <si>
+    <t>Tension Tower Disc String Replacement Work.</t>
+  </si>
+  <si>
+    <t>MR2601/0004</t>
+  </si>
+  <si>
+    <t>400KV_400kv Sagar-Bina Lilo line (PGCIL)</t>
+  </si>
+  <si>
+    <t>400KV_SAGAR</t>
+  </si>
+  <si>
+    <t>Line maintenance work</t>
+  </si>
+  <si>
+    <t>J.P. Asati</t>
+  </si>
+  <si>
+    <t>9424445533</t>
   </si>
   <si>
     <t>MR2512/0507</t>
@@ -259,28 +367,43 @@
     <t>9425806917</t>
   </si>
   <si>
-    <t>MR2512/0580</t>
-  </si>
-  <si>
-    <t>220KV_Bay no 3 construction transformer</t>
-  </si>
-  <si>
-    <t>400KV_SGTPS</t>
-  </si>
-  <si>
-    <t>Servicing of 220/33 kv transformer</t>
-  </si>
-  <si>
-    <t>01-01-2026 08:00:00</t>
-  </si>
-  <si>
-    <t>S Banerjee</t>
-  </si>
-  <si>
-    <t>9424352880</t>
-  </si>
-  <si>
-    <t>MR2512/0234</t>
+    <t>MR2601/0001</t>
+  </si>
+  <si>
+    <t>132KV_132 kV Seoni-Chourai</t>
+  </si>
+  <si>
+    <t>220KV_SEONI</t>
+  </si>
+  <si>
+    <t>PG Clamp Remove &amp; J/c, A/h, V/d tightening work</t>
+  </si>
+  <si>
+    <t>A.M.Shende</t>
+  </si>
+  <si>
+    <t>7587951136</t>
+  </si>
+  <si>
+    <t>MR2601/0008</t>
+  </si>
+  <si>
+    <t>33KV_33KV Half Main Bus Section-2</t>
+  </si>
+  <si>
+    <t>132KV_SEONI1</t>
+  </si>
+  <si>
+    <t>33KV keolari feeder main bus isolator replacement</t>
+  </si>
+  <si>
+    <t>02-01-2026 14:00:00</t>
+  </si>
+  <si>
+    <t>Ramkumar Meshram</t>
+  </si>
+  <si>
+    <t>7587951054</t>
   </si>
   <si>
     <t>220KV_220 KV SHUJALPUR-BHOPAL-I CKT</t>
@@ -304,88 +427,70 @@
     <t>9755836908</t>
   </si>
   <si>
-    <t>MR2512/0584</t>
-  </si>
-  <si>
-    <t>400KV_SINGHAJI-TPS-II-PITHAMPUR4_Ckt_3</t>
-  </si>
-  <si>
-    <t>400KV_SINGHAJI-TPS-II</t>
-  </si>
-  <si>
-    <t>LINE ISOLATOR TIGHTNESS WORK</t>
-  </si>
-  <si>
-    <t>31-12-2025 10:00:00</t>
-  </si>
-  <si>
-    <t>MR. DINESH VERMA</t>
-  </si>
-  <si>
-    <t>9699349518</t>
-  </si>
-  <si>
-    <t>MR2512/0585</t>
-  </si>
-  <si>
-    <t>400KV_400kv bus coupler</t>
-  </si>
-  <si>
-    <t>400KV_UJJAIN4</t>
-  </si>
-  <si>
-    <t>bay healthiness test charging work</t>
-  </si>
-  <si>
-    <t>01-01-2026 12:00:00</t>
-  </si>
-  <si>
-    <t>01-01-2026 13:00:00</t>
-  </si>
-  <si>
-    <t>Santosh Chavrasia</t>
-  </si>
-  <si>
-    <t>9425804677</t>
-  </si>
-  <si>
-    <t>Deferred due to s/d on Bhopal 220kv bus, shall be given after normalisation of bus s/d, Electrical Inspector approval required during the charging of ckt</t>
+    <t>MR2512/0233</t>
+  </si>
+  <si>
+    <t>deferred, not approved in WR list</t>
+  </si>
+  <si>
+    <t>deferred by EE Testing</t>
+  </si>
+  <si>
+    <t>ok, through sub ld</t>
   </si>
   <si>
     <t>sub ld</t>
   </si>
   <si>
-    <t>ok, through sub ld</t>
-  </si>
-  <si>
-    <t>deferred due to high SSTPS generation and peak demand</t>
+    <t>deferred</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>ok, line to be in service</t>
   </si>
   <si>
-    <t>consent of affected load area is required</t>
-  </si>
-  <si>
-    <t>220KV-KHANDWA-CHHANERA-1</t>
-  </si>
-  <si>
-    <t>MP_SLDC</t>
-  </si>
-  <si>
-    <t>FOR BAY MAINTENANCE &amp; TESTING WORK AT SUBSTASTION, REPLACEMENT OF DAMAGED CLAMPS/JUMPERS ETC.</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>real time</t>
+    <t>real time after 11 hrs</t>
+  </si>
+  <si>
+    <t>o&amp;m consent required</t>
+  </si>
+  <si>
+    <t>deferred due to s/d on rewa-jinna</t>
+  </si>
+  <si>
+    <t>deferred due to high loading and  s/d on 400kv Sagar-Bina Lilo line (PGCIL)</t>
+  </si>
+  <si>
+    <t>shall be considered after normalisation of bhopal 220kv bus s/d</t>
+  </si>
+  <si>
+    <t>pl route the proposal through higher office of T&amp;C and EHT-M along with their comments</t>
+  </si>
+  <si>
+    <t>ITARSI - 220KV - BUS 1</t>
+  </si>
+  <si>
+    <t>400KV-SAGAR-BINA-1</t>
+  </si>
+  <si>
+    <t>220KV-INDORE-INDORE NORTH ZONE-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simultaneous outage of     ITARSI - 220KV - BUS 1  is required for Isolator 204-89A Arm Replacement </t>
+  </si>
+  <si>
+    <t>FOR LINE MAINTENANCE WORK i.e. CLEANING OF DISC INSULATORS DURING LINE PATROLLING , REPLACEMENT OF FLASHOVERED DISC INSULATORS, TREE BRANCH CUTTING ETC AT VARIOUS TOWER LOCATIONS</t>
+  </si>
+  <si>
+    <t>FOR REPLACEMENT OF OLD DISC INSULATOR ON VARIOUS TOWERS</t>
   </si>
   <si>
     <t>WR</t>
+  </si>
+  <si>
+    <t>deferred by site</t>
   </si>
 </sst>
 </file>
@@ -393,28 +498,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-1010809]dd\-mm\-yyyy"/>
-    <numFmt numFmtId="165" formatCode="[$-1010809]dd/mm/yyyy\ hh:mm"/>
+    <numFmt numFmtId="172" formatCode="[$-1010809]dd\-mm\-yyyy"/>
+    <numFmt numFmtId="173" formatCode="[$-1010809]dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -425,18 +527,57 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,12 +586,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,16 +601,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,37 +644,46 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -530,51 +701,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -583,13 +719,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -601,55 +734,74 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -679,38 +831,62 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>605333</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>3335</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1036" name="Picture 1"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
+          <a:ext cx="609600" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1005,77 +1181,69 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="64.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="59.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="64.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="9" max="10" width="19.5703125" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="56.28515625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="54.42578125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="15"/>
-    </row>
-    <row r="2" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="34"/>
+    </row>
+    <row r="2" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1088,15 +1256,15 @@
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="9"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1111,10 +1279,10 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -1129,56 +1297,54 @@
       <c r="J4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="10" t="s">
+      <c r="L4" s="34"/>
+      <c r="M4" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="5">
-        <v>46021.520185185182</v>
+        <v>46023.569884259261</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
@@ -1187,526 +1353,820 @@
         <v>46022.685763888891</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="M6" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <f t="shared" ref="A7:A27" si="0">A6+1</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>46022.713645833333</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <f t="shared" ref="A7:A18" si="0">A6+1</f>
-        <v>3</v>
-      </c>
-      <c r="B7" s="5">
-        <v>46014.659282407411</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="5">
-        <v>46014.661435185182</v>
+        <v>46023.576956018522</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="I8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="5">
-        <v>45961.725763888891</v>
+        <v>46023.600451388891</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="L9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="5">
-        <v>45961.748831018522</v>
+        <v>46023.502523148149</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>47</v>
+      <c r="F10" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="5">
-        <v>46022.673437500001</v>
+        <v>46014.659282407411</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="I11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="5">
-        <v>46017.786400462966</v>
+        <v>46014.661435185182</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B13" s="5">
-        <v>46016.785428240742</v>
+        <v>46023.642534722225</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>72</v>
+        <v>27</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+        <v>20</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="18">
-        <v>46021.717083333337</v>
-      </c>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="5">
+        <v>45961.725763888891</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="M14" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="24">
-        <v>46003.541250000002</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="23" t="s">
+      <c r="B15" s="5">
+        <v>45961.748831018522</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="25" t="s">
+      <c r="J15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J15" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="K15" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="L15" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="M15" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+      <c r="L15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="24">
-        <v>46022.127685185187</v>
-      </c>
-      <c r="C16" s="23" t="s">
+      <c r="B16" s="5">
+        <v>46017.79241898148</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="23" t="s">
+      <c r="I16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="L16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="M16" s="26" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+      <c r="M16" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="24">
-        <v>46022.464641203704</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="K17" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="L17" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="M17" s="26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+      <c r="B17" s="5">
+        <v>46023.497499999998</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28">
-        <v>281017</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28" t="s">
+      <c r="B18" s="5">
+        <v>46023.518182870372</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="5">
+        <v>46016.785428240742</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="5">
+        <v>46023.42564814815</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="F20" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="5">
+        <v>46023.608657407407</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H18" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="29" t="s">
-        <v>119</v>
-      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="17">
+        <v>46003.541168981479</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="25">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="30">
+        <v>281440</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="30">
+        <v>280989</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="95.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="30">
+        <v>281020</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="27"/>
+    </row>
+    <row r="27" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1714,7 +2174,8 @@
     <mergeCell ref="K4:L4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="43" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -940,14 +940,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,6 +970,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1345,10 +1345,10 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,20 +1367,20 @@
   <sheetData>
     <row r="1" spans="1:13" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="15"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1455,10 +1455,10 @@
       <c r="J4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="26"/>
       <c r="M4" s="3" t="s">
         <v>16</v>
       </c>
@@ -2675,131 +2675,131 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
+      <c r="A35" s="13">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="14">
         <v>46003.541168981479</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G35" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="17" t="s">
+      <c r="H35" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="I35" s="20" t="s">
+      <c r="I35" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="J35" s="20" t="s">
+      <c r="J35" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="K35" s="21" t="s">
+      <c r="K35" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="L35" s="22" t="s">
+      <c r="L35" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="M35" s="17" t="s">
+      <c r="M35" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A36" s="23">
+      <c r="A36" s="19">
         <v>32</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="25" t="s">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="25" t="s">
+      <c r="G36" s="20"/>
+      <c r="H36" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="I36" s="26">
+      <c r="I36" s="22">
         <v>46028.458333333336</v>
       </c>
-      <c r="J36" s="26">
+      <c r="J36" s="22">
         <v>46028.75</v>
       </c>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="27" t="s">
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="23" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="23">
+      <c r="A37" s="19">
         <v>33</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="25" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="G37" s="24"/>
-      <c r="H37" s="25" t="s">
+      <c r="G37" s="20"/>
+      <c r="H37" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="I37" s="26">
+      <c r="I37" s="22">
         <v>46028.375</v>
       </c>
-      <c r="J37" s="26">
+      <c r="J37" s="22">
         <v>46028.75</v>
       </c>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="27" t="s">
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="23" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="23">
+      <c r="A38" s="19">
         <v>34</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="25" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="G38" s="24"/>
-      <c r="H38" s="25" t="s">
+      <c r="G38" s="20"/>
+      <c r="H38" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="I38" s="26">
+      <c r="I38" s="22">
         <v>46028.375</v>
       </c>
-      <c r="J38" s="26">
+      <c r="J38" s="22">
         <v>46028.75</v>
       </c>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="27" t="s">
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="23" t="s">
         <v>231</v>
       </c>
     </row>

--- a/1.xlsx
+++ b/1.xlsx
@@ -1249,7 +1249,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="194">
   <si>
     <t>STATE LOAD DESPATCH CENTRE 
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
@@ -76,373 +76,397 @@
     <t>REMARK</t>
   </si>
   <si>
-    <t>MR2601/0099</t>
-  </si>
-  <si>
-    <t>132KV_132kV Ashoknagar - Eshagarh line</t>
-  </si>
-  <si>
-    <t>220KV_ASHOKNAGAR</t>
+    <t>MR2601/0136</t>
+  </si>
+  <si>
+    <t>132KV_40 MVA TELK Xmer</t>
+  </si>
+  <si>
+    <t>132KV_AMARPATAN</t>
   </si>
   <si>
     <t>NON-OCCM-MP</t>
   </si>
   <si>
-    <t>For DF/O replacement &amp; other line maint. work</t>
+    <t>New 63 MVA TAL Xmer testing work</t>
+  </si>
+  <si>
+    <t>09-01-2026 12:00:00</t>
+  </si>
+  <si>
+    <t>09-01-2026 15:00:00</t>
+  </si>
+  <si>
+    <t>Arun KUmar</t>
+  </si>
+  <si>
+    <t>9131207339</t>
+  </si>
+  <si>
+    <t>220KV_220kv Pithampur feeder</t>
+  </si>
+  <si>
+    <t>220KV_BADNAGAR</t>
+  </si>
+  <si>
+    <t>OCCM-MP</t>
+  </si>
+  <si>
+    <t>For attending red hot CB RY pH top</t>
+  </si>
+  <si>
+    <t>09-01-2026 09:52:00</t>
+  </si>
+  <si>
+    <t>09-01-2026 14:00:00</t>
+  </si>
+  <si>
+    <t>Poshkar kushwaha</t>
+  </si>
+  <si>
+    <t>9425813990</t>
+  </si>
+  <si>
+    <t>MR2601/0126</t>
+  </si>
+  <si>
+    <t>MR2601/0135</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>220KV_220 kV Bus Transfer bay</t>
+  </si>
+  <si>
+    <t>220KV_BHOPAL</t>
+  </si>
+  <si>
+    <t>For shifting of panel &amp; erection of Isolator</t>
+  </si>
+  <si>
+    <t>09-01-2026 09:00:00</t>
+  </si>
+  <si>
+    <t>10-01-2026 17:00:00</t>
+  </si>
+  <si>
+    <t>A K Jain</t>
+  </si>
+  <si>
+    <t>9425806899</t>
+  </si>
+  <si>
+    <t>MR2601/0118</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>220KV_220kV Bhopal Ganjbasoda ckt</t>
+  </si>
+  <si>
+    <t>400KV_BHOPAL4</t>
+  </si>
+  <si>
+    <t>For old disc replacement work.</t>
+  </si>
+  <si>
+    <t>08-01-2026 09:00:00</t>
+  </si>
+  <si>
+    <t>10-01-2026 18:00:00</t>
+  </si>
+  <si>
+    <t>Rajkumar Bhusare</t>
+  </si>
+  <si>
+    <t>9425820042</t>
+  </si>
+  <si>
+    <t>MR2601/0128</t>
+  </si>
+  <si>
+    <t>220KV_220 KV Bina-Borl Ckt-1</t>
+  </si>
+  <si>
+    <t>400KV_BINA4</t>
+  </si>
+  <si>
+    <t>Work at BORL end</t>
+  </si>
+  <si>
+    <t>09-01-2026 18:00:00</t>
+  </si>
+  <si>
+    <t>Akhilesh Singh</t>
+  </si>
+  <si>
+    <t>8586865656</t>
+  </si>
+  <si>
+    <t>MR2601/0132</t>
+  </si>
+  <si>
+    <t>132KV_132 kV Shahdol-Birsinghpur Circuit I</t>
+  </si>
+  <si>
+    <t>220KV_BIRSINGHPUR</t>
+  </si>
+  <si>
+    <t>For Jumper cone tightening &amp; other line maint.</t>
+  </si>
+  <si>
+    <t>09-01-2026 10:00:00</t>
+  </si>
+  <si>
+    <t>09-01-2026 17:00:00</t>
+  </si>
+  <si>
+    <t>Jitendra Tiwari</t>
+  </si>
+  <si>
+    <t>9425805298</t>
+  </si>
+  <si>
+    <t>MR2601/0137</t>
+  </si>
+  <si>
+    <t>132KV_40 MVA X-MER BBL</t>
+  </si>
+  <si>
+    <t>132KV_GARHAKOTA</t>
+  </si>
+  <si>
+    <t>NON-OCCM-WR</t>
+  </si>
+  <si>
+    <t>CT Oil leckeg atttend work</t>
+  </si>
+  <si>
+    <t>S K Hajari</t>
+  </si>
+  <si>
+    <t>9425620010</t>
+  </si>
+  <si>
+    <t>MR2601/0109</t>
+  </si>
+  <si>
+    <t>220KV_SARNI ITARSI CKT-4</t>
+  </si>
+  <si>
+    <t>220KV_ITARSI</t>
+  </si>
+  <si>
+    <t>Bird guard installation work &amp; other line maint.</t>
   </si>
   <si>
     <t>08-01-2026 10:00:00</t>
   </si>
   <si>
-    <t>08-01-2026 17:00:00</t>
-  </si>
-  <si>
-    <t>Akhilesh Singh</t>
-  </si>
-  <si>
-    <t>8586865656</t>
-  </si>
-  <si>
-    <t>MR2601/0110</t>
-  </si>
-  <si>
-    <t>132KV_132KV Ichhawar CKT No-1</t>
-  </si>
-  <si>
-    <t>400KV_ASHTA4</t>
-  </si>
-  <si>
-    <t>132kV CTâ¿¿s of measurement of tan delta &amp; capacitan</t>
-  </si>
-  <si>
-    <t>08-01-2026 09:00:00</t>
-  </si>
-  <si>
-    <t>08-01-2026 12:00:00</t>
-  </si>
-  <si>
-    <t>Jitendra Lohana</t>
-  </si>
-  <si>
-    <t>9425804978</t>
-  </si>
-  <si>
-    <t>MR2601/0112</t>
-  </si>
-  <si>
-    <t>132KV_132KV Ashta-Ichhawar No-2</t>
-  </si>
-  <si>
-    <t>08-01-2026 13:00:00</t>
-  </si>
-  <si>
-    <t>08-01-2026 16:00:00</t>
-  </si>
-  <si>
-    <t>MR2601/0118</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>220KV_220kV Bhopal Ganjbasoda ckt</t>
-  </si>
-  <si>
-    <t>400KV_BHOPAL4</t>
-  </si>
-  <si>
-    <t>For old disc replacement work.</t>
-  </si>
-  <si>
-    <t>10-01-2026 18:00:00</t>
-  </si>
-  <si>
-    <t>Rajkumar Bhusare</t>
-  </si>
-  <si>
-    <t>9425820042</t>
-  </si>
-  <si>
-    <t>400KV_400 kV Bhopal-Itarsi Ckt-II</t>
-  </si>
-  <si>
-    <t>OCCM-MP</t>
-  </si>
-  <si>
-    <t>Ankit Mehroliya</t>
-  </si>
-  <si>
-    <t>9425804506</t>
-  </si>
-  <si>
-    <t>MR2601/0115</t>
-  </si>
-  <si>
-    <t>Jumper cone and Other line Maintenance work</t>
-  </si>
-  <si>
-    <t>MR2601/0117</t>
-  </si>
-  <si>
-    <t>220KV_220 KV Bina -BORL Ckt-2</t>
-  </si>
-  <si>
-    <t>400KV_BINA4</t>
-  </si>
-  <si>
-    <t>Work at BORL end</t>
-  </si>
-  <si>
-    <t>08-01-2026 18:00:00</t>
-  </si>
-  <si>
-    <t>MR2601/0100</t>
-  </si>
-  <si>
-    <t>132KV_132kV Guna Aron Line</t>
-  </si>
-  <si>
-    <t>220KV_GUNA</t>
-  </si>
-  <si>
-    <t>For Load Management</t>
-  </si>
-  <si>
-    <t>MR2601/0116</t>
-  </si>
-  <si>
-    <t>132KV_132 KV Hoshangabad-Vardhman</t>
-  </si>
-  <si>
-    <t>220KV_HOSHANGABAD</t>
-  </si>
-  <si>
-    <t>flash over disc replacement and vd provided</t>
-  </si>
-  <si>
-    <t>Ashutosh Rai</t>
-  </si>
-  <si>
-    <t>9425806902</t>
-  </si>
-  <si>
-    <t>MR2601/0109</t>
-  </si>
-  <si>
-    <t>220KV_SARNI ITARSI CKT-4</t>
-  </si>
-  <si>
-    <t>220KV_ITARSI</t>
-  </si>
-  <si>
-    <t>Bird guard installation work &amp; other line maint.</t>
-  </si>
-  <si>
-    <t>10-01-2026 17:00:00</t>
-  </si>
-  <si>
     <t>SHIV KUMAR</t>
   </si>
   <si>
     <t>9425806917</t>
   </si>
   <si>
-    <t>MR2601/0022</t>
-  </si>
-  <si>
-    <t>132KV_132 KV Itarsi-Pipariya</t>
-  </si>
-  <si>
-    <t>Defective Disc replacement work</t>
+    <t>MR2601/0124</t>
+  </si>
+  <si>
+    <t>220KV_220kv kanwan-dhar CKT 2</t>
+  </si>
+  <si>
+    <t>220KV_KANWAN2</t>
+  </si>
+  <si>
+    <t>Hot point at Y-phase Iso. clamp</t>
+  </si>
+  <si>
+    <t>09-01-2026 11:00:00</t>
+  </si>
+  <si>
+    <t>AE Abhishek verma</t>
+  </si>
+  <si>
+    <t>9340855901</t>
+  </si>
+  <si>
+    <t>400KV_400KV KATNI - DAMOH LINE</t>
+  </si>
+  <si>
+    <t>400KV_KATNI4</t>
+  </si>
+  <si>
+    <t>TOWER STRENGTHENING WORK</t>
+  </si>
+  <si>
+    <t>M.M. BAIG</t>
+  </si>
+  <si>
+    <t>9425805067</t>
+  </si>
+  <si>
+    <t>220KV_220KV KATNI - DAMOH LINE</t>
+  </si>
+  <si>
+    <t>MR2601/0009</t>
+  </si>
+  <si>
+    <t>132KV_132 kv katni ic line ckt 1 st</t>
+  </si>
+  <si>
+    <t>For stringing of htls conductor.</t>
+  </si>
+  <si>
+    <t>02-01-2026 09:00:00</t>
+  </si>
+  <si>
+    <t>22-01-2026 18:00:00</t>
+  </si>
+  <si>
+    <t>pankaj yadav</t>
+  </si>
+  <si>
+    <t>9406713326</t>
+  </si>
+  <si>
+    <t>MR2601/0123</t>
+  </si>
+  <si>
+    <t>132KV_132 kv katni kymore line ckt 1 st</t>
+  </si>
+  <si>
+    <t>line maintenance work.</t>
+  </si>
+  <si>
+    <t>MR2510/0739</t>
   </si>
   <si>
     <t>05-01-2026 09:00:00</t>
   </si>
   <si>
-    <t>Continuous</t>
-  </si>
-  <si>
-    <t>400KV_400KV KATNI - DAMOH LINE</t>
-  </si>
-  <si>
-    <t>400KV_KATNI4</t>
-  </si>
-  <si>
-    <t>TOWER STRENGTHENING WORK</t>
-  </si>
-  <si>
-    <t>M.M. BAIG</t>
-  </si>
-  <si>
-    <t>9425805067</t>
-  </si>
-  <si>
-    <t>220KV_220KV KATNI - DAMOH LINE</t>
-  </si>
-  <si>
-    <t>MR2601/0009</t>
-  </si>
-  <si>
-    <t>132KV_132 kv katni ic line ckt 1 st</t>
-  </si>
-  <si>
-    <t>For stringing of htls conductor.</t>
-  </si>
-  <si>
-    <t>02-01-2026 09:00:00</t>
-  </si>
-  <si>
-    <t>22-01-2026 18:00:00</t>
-  </si>
-  <si>
-    <t>pankaj yadav</t>
-  </si>
-  <si>
-    <t>9406713326</t>
-  </si>
-  <si>
-    <t>MR2510/0739</t>
-  </si>
-  <si>
     <t>M.M.BAIG</t>
   </si>
   <si>
     <t>MR2510/0730</t>
   </si>
   <si>
-    <t>MR2601/0111</t>
-  </si>
-  <si>
-    <t>132KV_132 KV Mauganjâ¿¿Katra DCSS line</t>
-  </si>
-  <si>
-    <t>132KV_KATRA</t>
-  </si>
-  <si>
-    <t>flashover disc insulator string replacement</t>
-  </si>
-  <si>
-    <t>Mr. Ajay Kumar Chaurasia</t>
-  </si>
-  <si>
-    <t>9425805081</t>
-  </si>
-  <si>
-    <t>MR2601/0108</t>
-  </si>
-  <si>
-    <t>220KV_50MVAR Reactor</t>
-  </si>
-  <si>
-    <t>220KV_PANDHURNA</t>
-  </si>
-  <si>
-    <t>PostMansoon Maintenance</t>
-  </si>
-  <si>
-    <t>08-01-2026 11:00:00</t>
-  </si>
-  <si>
-    <t>Sanjay Shende</t>
-  </si>
-  <si>
-    <t>9425811447</t>
-  </si>
-  <si>
-    <t>MR2601/0077</t>
-  </si>
-  <si>
-    <t>400KV_400 kv BUS Tie</t>
-  </si>
-  <si>
-    <t>400KV_PITHAMPUR4</t>
-  </si>
-  <si>
-    <t>for post mansoon and Bkr DCRM testing work</t>
-  </si>
-  <si>
-    <t>Rajudas bairagi</t>
-  </si>
-  <si>
-    <t>9425801532</t>
-  </si>
-  <si>
-    <t>MR2601/0119</t>
-  </si>
-  <si>
-    <t>132KV_132kV Sabalgarh - Motijheel Line</t>
-  </si>
-  <si>
-    <t>220KV_SABALGARH</t>
+    <t>MR2601/0133</t>
+  </si>
+  <si>
+    <t>132KV_132kV Lalbarra Samnapur RTS</t>
+  </si>
+  <si>
+    <t>132KV_LALBARRA</t>
+  </si>
+  <si>
+    <t>Work for installation of ABT meter at 132kV HVside</t>
+  </si>
+  <si>
+    <t>Amol Shende</t>
+  </si>
+  <si>
+    <t>7587951136</t>
+  </si>
+  <si>
+    <t>MR2601/0127</t>
+  </si>
+  <si>
+    <t>132KV_132KV RAJMILAN-JANAKPUR CKT</t>
+  </si>
+  <si>
+    <t>132KV_RAJMILAN</t>
+  </si>
+  <si>
+    <t>DISC REPLACEMENT WORK</t>
+  </si>
+  <si>
+    <t>09-01-2026 08:00:00</t>
+  </si>
+  <si>
+    <t>G.L SAHU</t>
+  </si>
+  <si>
+    <t>9425805102</t>
+  </si>
+  <si>
+    <t>132KV_40MVA X-MER BHEL</t>
+  </si>
+  <si>
+    <t>220KV_SARNI</t>
+  </si>
+  <si>
+    <t>Oil Leakage attending Top air realease valve oil</t>
+  </si>
+  <si>
+    <t>Er. Anup Kumar Dange</t>
+  </si>
+  <si>
+    <t>9425803243</t>
+  </si>
+  <si>
+    <t>MR2601/0131</t>
+  </si>
+  <si>
+    <t>MR2601/0079</t>
+  </si>
+  <si>
+    <t>400KV_400KV SARNI - ISP</t>
+  </si>
+  <si>
+    <t>400KV_SATPURA TPS</t>
+  </si>
+  <si>
+    <t>DCRM TESTING WORK</t>
+  </si>
+  <si>
+    <t>YASHWANT WARATHE</t>
+  </si>
+  <si>
+    <t>9425611046</t>
+  </si>
+  <si>
+    <t>MR2512/0028</t>
+  </si>
+  <si>
+    <t>220KV_220 KV SARNI-ITARSI-4</t>
+  </si>
+  <si>
+    <t>Transmision element for CT Replecement in 220 kv</t>
+  </si>
+  <si>
+    <t>MR2512/0507</t>
+  </si>
+  <si>
+    <t>400KV_Sarni Indirasagar</t>
+  </si>
+  <si>
+    <t>OPGW STRINGING WORK</t>
+  </si>
+  <si>
+    <t>26-12-2025 07:00:00</t>
+  </si>
+  <si>
+    <t>10-01-2026 19:00:00</t>
+  </si>
+  <si>
+    <t>MR2601/0129</t>
+  </si>
+  <si>
+    <t>132KV_132kv Shivpuri Pichhore Line</t>
+  </si>
+  <si>
+    <t>132KV_SHIVPURI1</t>
   </si>
   <si>
     <t>Line Maintenance work</t>
   </si>
   <si>
-    <t>Pankaj Kumar</t>
-  </si>
-  <si>
-    <t>9425805317</t>
-  </si>
-  <si>
-    <t>MR2601/0113</t>
-  </si>
-  <si>
-    <t>220KV_220 kv Satna  â¿¿  Rewa  line</t>
-  </si>
-  <si>
-    <t>220KV_SATNA</t>
-  </si>
-  <si>
-    <t>Line maintenance work</t>
-  </si>
-  <si>
-    <t>Mr. R.K.Prajapati</t>
-  </si>
-  <si>
-    <t>9407070182</t>
-  </si>
-  <si>
-    <t>MR2601/0078</t>
-  </si>
-  <si>
-    <t>400KV_400KV SARNI - ISP</t>
-  </si>
-  <si>
-    <t>400KV_SATPURA TPS</t>
-  </si>
-  <si>
-    <t>DCRM TESTING WORK</t>
-  </si>
-  <si>
-    <t>YASHWANT WARATHE</t>
-  </si>
-  <si>
-    <t>9425611046</t>
-  </si>
-  <si>
-    <t>MR2512/0027</t>
-  </si>
-  <si>
-    <t>220KV_220 KV SARNI-ITARSI-4</t>
-  </si>
-  <si>
-    <t>Transmision element for CT Replecement in 220 kv</t>
-  </si>
-  <si>
-    <t>MR2512/0507</t>
-  </si>
-  <si>
-    <t>400KV_Sarni Indirasagar</t>
-  </si>
-  <si>
-    <t>OPGW STRINGING WORK</t>
-  </si>
-  <si>
-    <t>26-12-2025 07:00:00</t>
-  </si>
-  <si>
-    <t>10-01-2026 19:00:00</t>
+    <t>Suraj Pawar</t>
+  </si>
+  <si>
+    <t>9425814079</t>
   </si>
   <si>
     <t>220KV_220 KV SHUJALPUR-BHOPAL-I CKT</t>
@@ -466,49 +490,70 @@
     <t>9755836908</t>
   </si>
   <si>
-    <t>MR2512/0234</t>
+    <t>MR2512/0233</t>
+  </si>
+  <si>
+    <t>MR2601/0134</t>
+  </si>
+  <si>
+    <t>220KV_220kV Sidhi - Bargwan (TBCB) Ckt -I</t>
+  </si>
+  <si>
+    <t>220KV_SIDHI</t>
+  </si>
+  <si>
+    <t>Line Maintenance Work.</t>
+  </si>
+  <si>
+    <t>09-01-2026 10:30:00</t>
+  </si>
+  <si>
+    <t>G.L Sahu</t>
+  </si>
+  <si>
+    <t>O&amp;M consent erquired</t>
+  </si>
+  <si>
+    <t>ok, through sub ld</t>
+  </si>
+  <si>
+    <t>shall be given after 9th, due to NHPTL testing</t>
+  </si>
+  <si>
+    <t>ok, o&amp;m to be informed</t>
+  </si>
+  <si>
+    <t>deferred</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>RTS consent required</t>
   </si>
   <si>
     <t>sub ld</t>
   </si>
   <si>
-    <t>Deferred by WRLDC</t>
-  </si>
-  <si>
-    <t>deferred</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>deferred, not in WR list</t>
-  </si>
-  <si>
-    <t>ok, through sub ld, Metering consent required if any meter related work to be done</t>
-  </si>
-  <si>
-    <t>RTS consent required</t>
-  </si>
-  <si>
-    <t>after normalisation of 400kv Bhopal-Bina ckt 2</t>
+    <t>ok, line to be in service, outage also approved, pl take care while normalisation</t>
+  </si>
+  <si>
+    <t>ok,  A/R off also approved, pl take care while normalisation</t>
   </si>
   <si>
     <t>as opportunity s/d</t>
   </si>
   <si>
-    <t>Deferred due to proposed NHPTL testing</t>
-  </si>
-  <si>
-    <t>ok,  A/R  also approved, Pl take care while normalisation</t>
-  </si>
-  <si>
-    <t>ok, line to be in service, Outage also approved, Pl take care while normalisation</t>
-  </si>
-  <si>
-    <t>deferred due to s/d on Manpur-Birsinghpur</t>
-  </si>
-  <si>
-    <t>APPROVED OUTAGE LIST FOR DATED 08.01.2026</t>
+    <t>Meter master details required of old and new meter</t>
+  </si>
+  <si>
+    <t>ABT consent to be taken if any meter related work to be done</t>
+  </si>
+  <si>
+    <t>ok, line to be in service, through sub ld</t>
+  </si>
+  <si>
+    <t>APPROVED OUTAGE LIST FOR DATED 09.01.2026</t>
   </si>
   <si>
     <t>400KV-BINA-BINA-NHPTL-1</t>
@@ -517,52 +562,49 @@
     <t>PWTL-POWERGRID</t>
   </si>
   <si>
+    <t>09-Jan-2026</t>
+  </si>
+  <si>
     <t>17:59</t>
   </si>
   <si>
     <t>SC TESTING of 160MVA, 220/33-33kV, Power Transformer, 3P</t>
   </si>
   <si>
-    <t>ok, after normlisation of 400kv Bhopal-Bina ckt 2</t>
-  </si>
-  <si>
-    <t>RAJGARH - 400KV - BUS 1</t>
-  </si>
-  <si>
-    <t>POWERGRID-WR2 (PGCIL)</t>
-  </si>
-  <si>
-    <t>08-Jan-2026</t>
-  </si>
-  <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For Bus Maintenance works </t>
+    <t xml:space="preserve">220 KV BUS -1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">220 KV GUNA </t>
+  </si>
+  <si>
+    <t>09.01.2026</t>
+  </si>
+  <si>
+    <t>9.01.2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deffered due to nhptcl testing </t>
+  </si>
+  <si>
+    <t>132 kv madotal jabalpur ckt-2</t>
+  </si>
+  <si>
+    <t>line isolator work at modotal</t>
+  </si>
+  <si>
+    <t>40 MVA BBL</t>
+  </si>
+  <si>
+    <t>132 KV GARHAKOTA</t>
+  </si>
+  <si>
+    <t>Y PH. CT OIL LEAKAGE ATTAND WORK</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
   <si>
     <t>S/I SLDC JABALPUR</t>
-  </si>
-  <si>
-    <t>220 KV MANPUR</t>
-  </si>
-  <si>
-    <t>220 KV BIRSINGHPUR MANPUR CIRCUIT-1</t>
-  </si>
-  <si>
-    <t>220 KV MAIN BUS -1</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>HOT POINT ATTEND WORK</t>
-  </si>
-  <si>
-    <t>HOT POINT ATTAND WORK</t>
   </si>
 </sst>
 </file>
@@ -573,7 +615,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010809]dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-1010809]dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -586,25 +628,30 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="28"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -637,18 +684,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -724,19 +771,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -775,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -821,64 +855,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1243,31 +1266,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <pane xSplit="5" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="47.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="50.7109375" customWidth="1"/>
-    <col min="9" max="10" width="19.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="43" style="12" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="41.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="36.7109375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43.7" customHeight="1">
+    <row r="1" spans="1:13" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="13" t="s">
         <v>0</v>
@@ -1284,18 +1307,18 @@
       <c r="L1" s="14"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13" ht="42" customHeight="1">
+    <row r="2" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>46030</v>
+        <v>46031</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="17" t="s">
-        <v>161</v>
-      </c>
+      <c r="D2" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -1305,7 +1328,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" ht="42" customHeight="1">
+    <row r="3" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1318,7 +1341,7 @@
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1328,7 +1351,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13" ht="42" customHeight="1">
+    <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1341,7 +1364,7 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -1367,18 +1390,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="42" customHeight="1">
+    <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="5">
-        <v>46028.665358796294</v>
+        <v>46030.684421296297</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -1403,29 +1426,29 @@
         <v>25</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="42" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="5">
-        <v>46029.651053240741</v>
+        <v>46030.529097222221</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>29</v>
@@ -1443,50 +1466,52 @@
         <v>33</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="42" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" ref="A7:A30" si="0">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="5">
-        <v>46029.652291666665</v>
+        <v>46030.667916666665</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="F7" s="4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="42" customHeight="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1495,326 +1520,324 @@
         <v>46029.680613425924</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="42" customHeight="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="5">
-        <v>46029.659456018519</v>
+        <v>46030.600324074076</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>46</v>
+      <c r="E9" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="42" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="5">
-        <v>46029.672256944446</v>
+        <v>46030.635069444441</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>53</v>
+      <c r="E10" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="42" customHeight="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="5">
-        <v>46028.668969907405</v>
+        <v>46030.689340277779</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="K11" s="7" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="42" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="5">
-        <v>46029.662152777775</v>
+        <v>46029.643321759257</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>62</v>
+        <v>75</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="42" customHeight="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B13" s="5">
-        <v>46029.643321759257</v>
+        <v>46030.501562500001</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>68</v>
+        <v>82</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="42" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B14" s="5">
-        <v>46025.465069444443</v>
+        <v>46023.642534722225</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>75</v>
+        <v>36</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="42" customHeight="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B15" s="5">
-        <v>46023.642534722225</v>
+        <v>46030.496319444443</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>86</v>
+        <v>102</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="42" customHeight="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1823,40 +1846,40 @@
         <v>45961.750509259262</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>84</v>
+        <v>36</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="M16" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="42" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1865,565 +1888,560 @@
         <v>45961.72996527778</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>79</v>
+        <v>36</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="42" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B18" s="5">
-        <v>46029.652175925927</v>
+        <v>46030.662557870368</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
-        <v>96</v>
+      <c r="E18" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="42" customHeight="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B19" s="5">
-        <v>46029.56659722222</v>
+        <v>46030.590902777774</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>102</v>
+      <c r="E19" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="42" customHeight="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B20" s="5">
-        <v>46027.8516087963</v>
+        <v>46030.620787037034</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
-        <v>109</v>
+      <c r="E20" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="42" customHeight="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B21" s="5">
-        <v>46029.683946759258</v>
+        <v>46027.879803240743</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
-        <v>115</v>
+      <c r="E21" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="42" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B22" s="5">
-        <v>46029.65347222222</v>
+        <v>45993.494791666664</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
-        <v>121</v>
+      <c r="E22" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="42" customHeight="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B23" s="5">
-        <v>46027.87641203704</v>
+        <v>46016.785428240742</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="42" customHeight="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B24" s="5">
-        <v>45993.49324074074</v>
+        <v>46030.602731481478</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
-        <v>133</v>
+      <c r="E24" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="42" customHeight="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B25" s="5">
-        <v>46016.785428240742</v>
+        <v>46003.541168981479</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>136</v>
+        <v>36</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="42" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B26" s="23">
-        <v>46003.541250000002</v>
+        <v>46030.662638888891</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>140</v>
+        <v>156</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="24" t="s">
+        <v>157</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="G26" s="22" t="s">
         <v>20</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="L26" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="M26" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="30">
-      <c r="A27" s="29">
+        <v>159</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="L26" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="M26" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31" t="s">
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="J27" s="21">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="M27" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="F27" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="I27" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="J27" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="K27" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="L27" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="M27" s="36" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="30">
-      <c r="A28" s="32">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="35"/>
-      <c r="H28" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="I28" s="33">
-        <v>46030</v>
-      </c>
-      <c r="J28" s="34">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="K28" s="33">
-        <v>46030</v>
-      </c>
-      <c r="L28" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="M28" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="N28" s="20"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="29">
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="J28" s="31">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="L28" s="31">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M28" s="30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="F29" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="I29" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="J29" s="37">
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="J29" s="31">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K29" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="L29" s="37">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="M29" s="36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="32">
+      <c r="K29" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="L29" s="31">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="M29" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="F30" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="I30" s="33">
-        <v>46030</v>
-      </c>
-      <c r="J30" s="37">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="K30" s="33">
-        <v>46030</v>
-      </c>
-      <c r="L30" s="37">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="M30" s="36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="28" t="s">
-        <v>173</v>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="J30" s="31">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K30" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="L30" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="M30" s="30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="32" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="D2:K2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,22 @@
     <definedName name="__bookmark_1">Sheet0!$A$1:$M$26</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="183">
   <si>
     <t>STATE LOAD DESPATCH CENTRE 
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
@@ -76,9 +87,6 @@
     <t>REMARK</t>
   </si>
   <si>
-    <t>MR2601/0136</t>
-  </si>
-  <si>
     <t>132KV_40 MVA TELK Xmer</t>
   </si>
   <si>
@@ -88,216 +96,174 @@
     <t>NON-OCCM-MP</t>
   </si>
   <si>
-    <t>New 63 MVA TAL Xmer testing work</t>
-  </si>
-  <si>
-    <t>09-01-2026 12:00:00</t>
-  </si>
-  <si>
-    <t>09-01-2026 15:00:00</t>
-  </si>
-  <si>
-    <t>Arun KUmar</t>
+    <t>For testing purpose o 63 MVA TAL Xmer</t>
+  </si>
+  <si>
+    <t>10-01-2026 12:00:00</t>
+  </si>
+  <si>
+    <t>10-01-2026 15:00:00</t>
+  </si>
+  <si>
+    <t>Arun Kumar</t>
   </si>
   <si>
     <t>9131207339</t>
   </si>
   <si>
-    <t>220KV_220kv Pithampur feeder</t>
-  </si>
-  <si>
-    <t>220KV_BADNAGAR</t>
+    <t>MR2601/0153</t>
+  </si>
+  <si>
+    <t>MR2601/0135</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>220KV_220 kV Bus Transfer bay</t>
+  </si>
+  <si>
+    <t>220KV_BHOPAL</t>
+  </si>
+  <si>
+    <t>For shifting of panel &amp; erection of Isolator</t>
+  </si>
+  <si>
+    <t>09-01-2026 09:00:00</t>
+  </si>
+  <si>
+    <t>10-01-2026 17:00:00</t>
+  </si>
+  <si>
+    <t>A K Jain</t>
+  </si>
+  <si>
+    <t>9425806899</t>
+  </si>
+  <si>
+    <t>MR2601/0118</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>220KV_220kV Bhopal Ganjbasoda ckt</t>
+  </si>
+  <si>
+    <t>400KV_BHOPAL4</t>
+  </si>
+  <si>
+    <t>For old disc replacement work.</t>
+  </si>
+  <si>
+    <t>08-01-2026 09:00:00</t>
+  </si>
+  <si>
+    <t>10-01-2026 18:00:00</t>
+  </si>
+  <si>
+    <t>Rajkumar Bhusare</t>
+  </si>
+  <si>
+    <t>9425820042</t>
+  </si>
+  <si>
+    <t>MR2601/0154</t>
+  </si>
+  <si>
+    <t>220KV_220kV Bhopal Vidisha Ckt</t>
+  </si>
+  <si>
+    <t>For modification/shifting work.</t>
+  </si>
+  <si>
+    <t>10-01-2026 09:00:00</t>
+  </si>
+  <si>
+    <t>11-01-2026 18:00:00</t>
+  </si>
+  <si>
+    <t>Rajkumar bhusare</t>
+  </si>
+  <si>
+    <t>MR2601/0142</t>
+  </si>
+  <si>
+    <t>132KV_132KVCHAMBAL â¿¿ ELECTRONIC  COMPLEX LINE</t>
+  </si>
+  <si>
+    <t>132KV_E.COMPLEX INDORE</t>
+  </si>
+  <si>
+    <t>CONDUCTOR REPLACEMENT  WORK AND OTHER MAINTANANCE</t>
+  </si>
+  <si>
+    <t>10-01-2026 08:00:00</t>
+  </si>
+  <si>
+    <t>RAVINDRA PATIL</t>
+  </si>
+  <si>
+    <t>8305612190</t>
+  </si>
+  <si>
+    <t>MR2601/0143</t>
+  </si>
+  <si>
+    <t>132KV_132 KV CHAMBAL-SATYASAI LINE</t>
+  </si>
+  <si>
+    <t>132KV_INDORE CHAMBAL</t>
+  </si>
+  <si>
+    <t>MR2601/0109</t>
+  </si>
+  <si>
+    <t>220KV_SARNI ITARSI CKT-4</t>
+  </si>
+  <si>
+    <t>220KV_ITARSI</t>
+  </si>
+  <si>
+    <t>Bird guard installation work &amp; other line maint.</t>
+  </si>
+  <si>
+    <t>08-01-2026 10:00:00</t>
+  </si>
+  <si>
+    <t>SHIV KUMAR</t>
+  </si>
+  <si>
+    <t>9425806917</t>
+  </si>
+  <si>
+    <t>MR2601/0140</t>
+  </si>
+  <si>
+    <t>132KV_132 KV Itarsi-Pipariya</t>
+  </si>
+  <si>
+    <t>Defective dis replacement work</t>
+  </si>
+  <si>
+    <t>13-01-2026 18:00:00</t>
+  </si>
+  <si>
+    <t>Ashutosh rai</t>
+  </si>
+  <si>
+    <t>9425806902</t>
+  </si>
+  <si>
+    <t>400KV_400KV KATNI - DAMOH LINE</t>
+  </si>
+  <si>
+    <t>400KV_KATNI4</t>
   </si>
   <si>
     <t>OCCM-MP</t>
   </si>
   <si>
-    <t>For attending red hot CB RY pH top</t>
-  </si>
-  <si>
-    <t>09-01-2026 09:52:00</t>
-  </si>
-  <si>
-    <t>09-01-2026 14:00:00</t>
-  </si>
-  <si>
-    <t>Poshkar kushwaha</t>
-  </si>
-  <si>
-    <t>9425813990</t>
-  </si>
-  <si>
-    <t>MR2601/0126</t>
-  </si>
-  <si>
-    <t>MR2601/0135</t>
-  </si>
-  <si>
-    <t>Continuous</t>
-  </si>
-  <si>
-    <t>220KV_220 kV Bus Transfer bay</t>
-  </si>
-  <si>
-    <t>220KV_BHOPAL</t>
-  </si>
-  <si>
-    <t>For shifting of panel &amp; erection of Isolator</t>
-  </si>
-  <si>
-    <t>09-01-2026 09:00:00</t>
-  </si>
-  <si>
-    <t>10-01-2026 17:00:00</t>
-  </si>
-  <si>
-    <t>A K Jain</t>
-  </si>
-  <si>
-    <t>9425806899</t>
-  </si>
-  <si>
-    <t>MR2601/0118</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>220KV_220kV Bhopal Ganjbasoda ckt</t>
-  </si>
-  <si>
-    <t>400KV_BHOPAL4</t>
-  </si>
-  <si>
-    <t>For old disc replacement work.</t>
-  </si>
-  <si>
-    <t>08-01-2026 09:00:00</t>
-  </si>
-  <si>
-    <t>10-01-2026 18:00:00</t>
-  </si>
-  <si>
-    <t>Rajkumar Bhusare</t>
-  </si>
-  <si>
-    <t>9425820042</t>
-  </si>
-  <si>
-    <t>MR2601/0128</t>
-  </si>
-  <si>
-    <t>220KV_220 KV Bina-Borl Ckt-1</t>
-  </si>
-  <si>
-    <t>400KV_BINA4</t>
-  </si>
-  <si>
-    <t>Work at BORL end</t>
-  </si>
-  <si>
-    <t>09-01-2026 18:00:00</t>
-  </si>
-  <si>
-    <t>Akhilesh Singh</t>
-  </si>
-  <si>
-    <t>8586865656</t>
-  </si>
-  <si>
-    <t>MR2601/0132</t>
-  </si>
-  <si>
-    <t>132KV_132 kV Shahdol-Birsinghpur Circuit I</t>
-  </si>
-  <si>
-    <t>220KV_BIRSINGHPUR</t>
-  </si>
-  <si>
-    <t>For Jumper cone tightening &amp; other line maint.</t>
-  </si>
-  <si>
-    <t>09-01-2026 10:00:00</t>
-  </si>
-  <si>
-    <t>09-01-2026 17:00:00</t>
-  </si>
-  <si>
-    <t>Jitendra Tiwari</t>
-  </si>
-  <si>
-    <t>9425805298</t>
-  </si>
-  <si>
-    <t>MR2601/0137</t>
-  </si>
-  <si>
-    <t>132KV_40 MVA X-MER BBL</t>
-  </si>
-  <si>
-    <t>132KV_GARHAKOTA</t>
-  </si>
-  <si>
-    <t>NON-OCCM-WR</t>
-  </si>
-  <si>
-    <t>CT Oil leckeg atttend work</t>
-  </si>
-  <si>
-    <t>S K Hajari</t>
-  </si>
-  <si>
-    <t>9425620010</t>
-  </si>
-  <si>
-    <t>MR2601/0109</t>
-  </si>
-  <si>
-    <t>220KV_SARNI ITARSI CKT-4</t>
-  </si>
-  <si>
-    <t>220KV_ITARSI</t>
-  </si>
-  <si>
-    <t>Bird guard installation work &amp; other line maint.</t>
-  </si>
-  <si>
-    <t>08-01-2026 10:00:00</t>
-  </si>
-  <si>
-    <t>SHIV KUMAR</t>
-  </si>
-  <si>
-    <t>9425806917</t>
-  </si>
-  <si>
-    <t>MR2601/0124</t>
-  </si>
-  <si>
-    <t>220KV_220kv kanwan-dhar CKT 2</t>
-  </si>
-  <si>
-    <t>220KV_KANWAN2</t>
-  </si>
-  <si>
-    <t>Hot point at Y-phase Iso. clamp</t>
-  </si>
-  <si>
-    <t>09-01-2026 11:00:00</t>
-  </si>
-  <si>
-    <t>AE Abhishek verma</t>
-  </si>
-  <si>
-    <t>9340855901</t>
-  </si>
-  <si>
-    <t>400KV_400KV KATNI - DAMOH LINE</t>
-  </si>
-  <si>
-    <t>400KV_KATNI4</t>
-  </si>
-  <si>
     <t>TOWER STRENGTHENING WORK</t>
   </si>
   <si>
@@ -331,15 +297,6 @@
     <t>9406713326</t>
   </si>
   <si>
-    <t>MR2601/0123</t>
-  </si>
-  <si>
-    <t>132KV_132 kv katni kymore line ckt 1 st</t>
-  </si>
-  <si>
-    <t>line maintenance work.</t>
-  </si>
-  <si>
     <t>MR2510/0739</t>
   </si>
   <si>
@@ -352,73 +309,136 @@
     <t>MR2510/0730</t>
   </si>
   <si>
-    <t>MR2601/0133</t>
-  </si>
-  <si>
-    <t>132KV_132kV Lalbarra Samnapur RTS</t>
-  </si>
-  <si>
-    <t>132KV_LALBARRA</t>
-  </si>
-  <si>
-    <t>Work for installation of ABT meter at 132kV HVside</t>
-  </si>
-  <si>
-    <t>Amol Shende</t>
-  </si>
-  <si>
-    <t>7587951136</t>
-  </si>
-  <si>
-    <t>MR2601/0127</t>
-  </si>
-  <si>
-    <t>132KV_132KV RAJMILAN-JANAKPUR CKT</t>
+    <t>MR2601/0155</t>
+  </si>
+  <si>
+    <t>132KV_132 KV Mauganjâ¿¿Katra DCSS line</t>
+  </si>
+  <si>
+    <t>132KV_KATRA</t>
+  </si>
+  <si>
+    <t>flashover disc insulator string replacement at var</t>
+  </si>
+  <si>
+    <t>10-01-2026 10:00:00</t>
+  </si>
+  <si>
+    <t>Mr. Ajay Kumar Chaurasia</t>
+  </si>
+  <si>
+    <t>9425805081</t>
+  </si>
+  <si>
+    <t>MR2601/0147</t>
+  </si>
+  <si>
+    <t>132KV_132 kV MACT-Mandideep &amp; 132 kV MACT-Amrawart Khurd</t>
+  </si>
+  <si>
+    <t>132KV_MACT BHOPAL</t>
+  </si>
+  <si>
+    <t>Emergency Tree Chopping</t>
+  </si>
+  <si>
+    <t>Ankit Mehroliya</t>
+  </si>
+  <si>
+    <t>9425804506</t>
+  </si>
+  <si>
+    <t>MR2601/0141</t>
+  </si>
+  <si>
+    <t>132KV_132kV Mandla Bichhiya CKT- II Line</t>
+  </si>
+  <si>
+    <t>132KV_MANDLA</t>
+  </si>
+  <si>
+    <t>Jumper Cone Tightening Work</t>
+  </si>
+  <si>
+    <t>S.K. Bhaladhare</t>
+  </si>
+  <si>
+    <t>9425807264</t>
   </si>
   <si>
     <t>132KV_RAJMILAN</t>
   </si>
   <si>
-    <t>DISC REPLACEMENT WORK</t>
-  </si>
-  <si>
-    <t>09-01-2026 08:00:00</t>
-  </si>
-  <si>
-    <t>G.L SAHU</t>
+    <t>disc string replacement</t>
+  </si>
+  <si>
+    <t>G.L Sahu</t>
   </si>
   <si>
     <t>9425805102</t>
   </si>
   <si>
-    <t>132KV_40MVA X-MER BHEL</t>
-  </si>
-  <si>
-    <t>220KV_SARNI</t>
-  </si>
-  <si>
-    <t>Oil Leakage attending Top air realease valve oil</t>
-  </si>
-  <si>
-    <t>Er. Anup Kumar Dange</t>
-  </si>
-  <si>
-    <t>9425803243</t>
-  </si>
-  <si>
-    <t>MR2601/0131</t>
-  </si>
-  <si>
-    <t>MR2601/0079</t>
-  </si>
-  <si>
-    <t>400KV_400KV SARNI - ISP</t>
+    <t>MR2601/0148</t>
+  </si>
+  <si>
+    <t>132KV_132kV rajmilan - Janakpur Ckt</t>
+  </si>
+  <si>
+    <t>MR2601/0149</t>
+  </si>
+  <si>
+    <t>220KV_SATNA- AJAYGARH FEEDER</t>
+  </si>
+  <si>
+    <t>220KV_SATNA</t>
+  </si>
+  <si>
+    <t>HOT POINT ATTENDIND WORK</t>
+  </si>
+  <si>
+    <t>10-01-2026 11:30:00</t>
+  </si>
+  <si>
+    <t>ER. ARUN KOL</t>
+  </si>
+  <si>
+    <t>8319677721</t>
+  </si>
+  <si>
+    <t>132KV_SATNA-II</t>
+  </si>
+  <si>
+    <t>OPGW Stringing  work</t>
+  </si>
+  <si>
+    <t>9407070182</t>
+  </si>
+  <si>
+    <t>MR2601/0151</t>
+  </si>
+  <si>
+    <t>132KV_132 kV Satna â¿¿II (Sonoura)  â¿¿  Maihar  line</t>
+  </si>
+  <si>
+    <t>Mr. R.K.Prajapati</t>
+  </si>
+  <si>
+    <t>MR2512/0507</t>
+  </si>
+  <si>
+    <t>400KV_Sarni Indirasagar</t>
   </si>
   <si>
     <t>400KV_SATPURA TPS</t>
   </si>
   <si>
-    <t>DCRM TESTING WORK</t>
+    <t>OPGW STRINGING WORK</t>
+  </si>
+  <si>
+    <t>26-12-2025 07:00:00</t>
+  </si>
+  <si>
+    <t>10-01-2026 19:00:00</t>
   </si>
   <si>
     <t>YASHWANT WARATHE</t>
@@ -427,37 +447,28 @@
     <t>9425611046</t>
   </si>
   <si>
-    <t>MR2512/0028</t>
-  </si>
-  <si>
-    <t>220KV_220 KV SARNI-ITARSI-4</t>
-  </si>
-  <si>
-    <t>Transmision element for CT Replecement in 220 kv</t>
-  </si>
-  <si>
-    <t>MR2512/0507</t>
-  </si>
-  <si>
-    <t>400KV_Sarni Indirasagar</t>
-  </si>
-  <si>
-    <t>OPGW STRINGING WORK</t>
-  </si>
-  <si>
-    <t>26-12-2025 07:00:00</t>
-  </si>
-  <si>
-    <t>10-01-2026 19:00:00</t>
-  </si>
-  <si>
-    <t>MR2601/0129</t>
-  </si>
-  <si>
-    <t>132KV_132kv Shivpuri Pichhore Line</t>
-  </si>
-  <si>
-    <t>132KV_SHIVPURI1</t>
+    <t>MR2512/0194</t>
+  </si>
+  <si>
+    <t>220KV_220KV SARNI-ITARSI-4</t>
+  </si>
+  <si>
+    <t>ROUTINE TESTING,RELAY TESTING, GEN CHECKING &amp; MAIN</t>
+  </si>
+  <si>
+    <t>MR2601/0144</t>
+  </si>
+  <si>
+    <t>132KV_SATYA SAI</t>
+  </si>
+  <si>
+    <t>MR2601/0156</t>
+  </si>
+  <si>
+    <t>132KV_132kv Shivpuri I/C Ckt Ist</t>
+  </si>
+  <si>
+    <t>220KV_SHIVPURI</t>
   </si>
   <si>
     <t>Line Maintenance work</t>
@@ -493,34 +504,19 @@
     <t>MR2512/0233</t>
   </si>
   <si>
-    <t>MR2601/0134</t>
-  </si>
-  <si>
-    <t>220KV_220kV Sidhi - Bargwan (TBCB) Ckt -I</t>
-  </si>
-  <si>
-    <t>220KV_SIDHI</t>
-  </si>
-  <si>
-    <t>Line Maintenance Work.</t>
-  </si>
-  <si>
-    <t>09-01-2026 10:30:00</t>
-  </si>
-  <si>
-    <t>G.L Sahu</t>
-  </si>
-  <si>
-    <t>O&amp;M consent erquired</t>
-  </si>
-  <si>
-    <t>ok, through sub ld</t>
-  </si>
-  <si>
-    <t>shall be given after 9th, due to NHPTL testing</t>
-  </si>
-  <si>
-    <t>ok, o&amp;m to be informed</t>
+    <t>o&amp;m consent required</t>
+  </si>
+  <si>
+    <t>ok, after normalisation of NHPTL testing</t>
+  </si>
+  <si>
+    <t>deferred due to s/d on 220kV Bhopal Vidisha Ckt</t>
+  </si>
+  <si>
+    <t>sub ld</t>
+  </si>
+  <si>
+    <t>RTS consent required</t>
   </si>
   <si>
     <t>deferred</t>
@@ -529,79 +525,61 @@
     <t>ok</t>
   </si>
   <si>
-    <t>RTS consent required</t>
-  </si>
-  <si>
-    <t>sub ld</t>
-  </si>
-  <si>
-    <t>ok, line to be in service, outage also approved, pl take care while normalisation</t>
-  </si>
-  <si>
-    <t>ok,  A/R off also approved, pl take care while normalisation</t>
-  </si>
-  <si>
-    <t>as opportunity s/d</t>
-  </si>
-  <si>
-    <t>Meter master details required of old and new meter</t>
-  </si>
-  <si>
-    <t>ABT consent to be taken if any meter related work to be done</t>
-  </si>
-  <si>
-    <t>ok, line to be in service, through sub ld</t>
-  </si>
-  <si>
-    <t>APPROVED OUTAGE LIST FOR DATED 09.01.2026</t>
-  </si>
-  <si>
-    <t>400KV-BINA-BINA-NHPTL-1</t>
-  </si>
-  <si>
-    <t>PWTL-POWERGRID</t>
-  </si>
-  <si>
-    <t>09-Jan-2026</t>
-  </si>
-  <si>
-    <t>17:59</t>
-  </si>
-  <si>
-    <t>SC TESTING of 160MVA, 220/33-33kV, Power Transformer, 3P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220 KV BUS -1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">220 KV GUNA </t>
-  </si>
-  <si>
-    <t>09.01.2026</t>
-  </si>
-  <si>
-    <t>9.01.2026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deffered due to nhptcl testing </t>
-  </si>
-  <si>
-    <t>132 kv madotal jabalpur ckt-2</t>
-  </si>
-  <si>
-    <t>line isolator work at modotal</t>
-  </si>
-  <si>
-    <t>40 MVA BBL</t>
-  </si>
-  <si>
-    <t>132 KV GARHAKOTA</t>
-  </si>
-  <si>
-    <t>Y PH. CT OIL LEAKAGE ATTAND WORK</t>
-  </si>
-  <si>
-    <t>OK</t>
+    <t>ok, line to be in service</t>
+  </si>
+  <si>
+    <t>RTS consent required, as opportunity s/d</t>
+  </si>
+  <si>
+    <t>o&amp; shall be informed</t>
+  </si>
+  <si>
+    <t>real time, shall be given in low load period as loading is very high</t>
+  </si>
+  <si>
+    <t>APPROVED OUTAGE LIST FOR DATED 10.01.2026</t>
+  </si>
+  <si>
+    <t>220KV-INDORE-INDORE NORTH ZONE-2</t>
+  </si>
+  <si>
+    <t>MADHYA PRADESH</t>
+  </si>
+  <si>
+    <t>10-Jan-2026</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>FOR REPLACEMENT OF OLD DISC INSULATOR ON VARIOUS TOWERS</t>
+  </si>
+  <si>
+    <t>real time</t>
+  </si>
+  <si>
+    <t>220KV-HOSHANGABAD-ITARSI-1</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>Line Terminal AMP works and Hot spot attending works in 207-89B</t>
+  </si>
+  <si>
+    <t>shall be given only if load management is possible</t>
+  </si>
+  <si>
+    <t>400KV-ITARSI-INDORE-MP-2</t>
+  </si>
+  <si>
+    <t>POWERGRID-WR2 (PGCIL)</t>
+  </si>
+  <si>
+    <t>TBC Commissioning work , Dia to be kept open at both ends.</t>
   </si>
   <si>
     <t>S/I SLDC JABALPUR</t>
@@ -684,13 +662,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,7 +787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -835,18 +813,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -864,20 +830,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -888,20 +845,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1266,12 +1219,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,54 +1233,54 @@
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="43" style="12" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="41.85546875" customWidth="1"/>
+    <col min="5" max="5" width="57" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="64.28515625" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" customWidth="1"/>
     <col min="10" max="10" width="19.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="42.140625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="15"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>46031</v>
+        <v>46032</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="9"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1341,7 +1295,7 @@
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1349,7 +1303,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="9"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1364,7 +1318,7 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -1382,100 +1336,102 @@
       <c r="J4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="10" t="s">
+      <c r="L4" s="11"/>
+      <c r="M4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="5">
-        <v>46030.684421296297</v>
+        <v>46031.637326388889</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="5">
-        <v>46030.529097222221</v>
+        <v>46030.667916666665</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f t="shared" ref="A7:A30" si="0">A6+1</f>
+        <f t="shared" ref="A7:A29" si="0">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="5">
-        <v>46030.667916666665</v>
+        <v>46029.680613425924</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>35</v>
@@ -1483,14 +1439,14 @@
       <c r="D7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>39</v>
@@ -1507,848 +1463,852 @@
       <c r="L7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="5">
-        <v>46029.680613425924</v>
+        <v>46031.640694444446</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="I8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="J8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="L8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="5">
-        <v>46030.600324074076</v>
+        <v>46031.507094907407</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="11" t="s">
+      <c r="I9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="J9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="L9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="5">
-        <v>46030.635069444441</v>
+        <v>46031.508877314816</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="11" t="s">
-        <v>61</v>
+      <c r="E10" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="5">
-        <v>46030.689340277779</v>
+        <v>46029.643321759257</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="11" t="s">
-        <v>69</v>
+        <v>60</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="L11" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="5">
-        <v>46029.643321759257</v>
+        <v>46031.457858796297</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>76</v>
+        <v>36</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B13" s="5">
-        <v>46030.501562500001</v>
+        <v>46023.642534722225</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="11" t="s">
+      <c r="I13" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="J13" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="K13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="L13" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B14" s="5">
-        <v>46023.642534722225</v>
+        <v>45961.750509259262</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>96</v>
+        <v>27</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B15" s="5">
-        <v>46030.496319444443</v>
+        <v>45961.72996527778</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="11" t="s">
-        <v>103</v>
+        <v>90</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B16" s="5">
-        <v>45961.750509259262</v>
+        <v>46031.65425925926</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="I16" s="6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B17" s="5">
-        <v>45961.72996527778</v>
+        <v>46031.571458333332</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>89</v>
+        <v>98</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B18" s="5">
-        <v>46030.662557870368</v>
+        <v>46031.474062499998</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L18" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B19" s="5">
-        <v>46030.590902777774</v>
+        <v>46031.574490740742</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="11" t="s">
-        <v>116</v>
-      </c>
       <c r="F19" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B20" s="5">
-        <v>46030.620787037034</v>
+        <v>46031.59684027778</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L20" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B21" s="5">
-        <v>46027.879803240743</v>
+        <v>46031.634166666663</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="L21" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B22" s="5">
-        <v>45993.494791666664</v>
+        <v>46016.785428240742</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B23" s="5">
-        <v>46016.785428240742</v>
+        <v>46001.742662037039</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="11" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
         <v>138</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>139</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B24" s="5">
-        <v>46030.602731481478</v>
+        <v>46031.510879629626</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="11" t="s">
-        <v>143</v>
+      <c r="E24" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B25" s="5">
-        <v>46003.541168981479</v>
+        <v>46031.66070601852</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22">
+        <v>147</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="23">
-        <v>46030.662638888891</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="K26" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="L26" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="M26" s="24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="17">
+        <v>46003.541168981479</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="20" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="I27" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="J27" s="21">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="M27" s="29" t="s">
-        <v>167</v>
+      <c r="I27" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="M27" s="24" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
+      <c r="A28" s="16">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="J28" s="31">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="K28" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="L28" s="31">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M28" s="30" t="s">
-        <v>186</v>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="M28" s="24" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2356,89 +2316,87 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="J29" s="31">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="K29" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="L29" s="31">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="M29" s="30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="J30" s="31">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K30" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="L30" s="31">
-        <v>0.75</v>
-      </c>
-      <c r="M30" s="30" t="s">
-        <v>192</v>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="M29" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="25" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="32" t="s">
-        <v>193</v>
-      </c>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="E2:J2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -15,9 +15,9 @@
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__bookmark_1">Sheet0!$A$1:$M$18</definedName>
+    <definedName name="__bookmark_1">Sheet0!$A$1:$M$35</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="206">
   <si>
     <t>STATE LOAD DESPATCH CENTRE 
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
@@ -87,72 +87,63 @@
     <t>REMARK</t>
   </si>
   <si>
-    <t>MR2601/0270</t>
-  </si>
-  <si>
-    <t>132KV_KUKSHI-ALIRAJPUR_Ckt</t>
-  </si>
-  <si>
-    <t>132KV_ALIRAJPUR</t>
+    <t>132KV_132 KV Amarpatan Maihar 2nd</t>
+  </si>
+  <si>
+    <t>132KV_AMARPATAN</t>
   </si>
   <si>
     <t>NON-OCCM-MP</t>
   </si>
   <si>
-    <t>overhead crossing</t>
-  </si>
-  <si>
-    <t>18-01-2026 10:00:00</t>
-  </si>
-  <si>
-    <t>18-01-2026 16:00:00</t>
-  </si>
-  <si>
-    <t>Dinesh More</t>
-  </si>
-  <si>
-    <t>9425806860</t>
-  </si>
-  <si>
-    <t>MR2601/0278</t>
-  </si>
-  <si>
-    <t>132KV_132Kv Ashoknagar-Eshagarh Line</t>
-  </si>
-  <si>
-    <t>220KV_ASHOKNAGAR</t>
-  </si>
-  <si>
-    <t>For DF/O Replacement Work</t>
-  </si>
-  <si>
-    <t>18-01-2026 17:00:00</t>
-  </si>
-  <si>
-    <t>Akhilesh Singh</t>
-  </si>
-  <si>
-    <t>8586865656</t>
-  </si>
-  <si>
-    <t>MR2601/0196</t>
+    <t>R phase line isolator hot point attend</t>
+  </si>
+  <si>
+    <t>19-01-2026 10:30:00</t>
+  </si>
+  <si>
+    <t>19-01-2026 12:30:00</t>
+  </si>
+  <si>
+    <t>Arun Kumar</t>
+  </si>
+  <si>
+    <t>9131207339</t>
+  </si>
+  <si>
+    <t>MR2601/0288</t>
+  </si>
+  <si>
+    <t>MR2601/0284</t>
+  </si>
+  <si>
+    <t>400KV_400 KV ASHTA-UJJAIN CKT.NO.1ST</t>
+  </si>
+  <si>
+    <t>400KV_ASHTA4</t>
+  </si>
+  <si>
+    <t>DPR RELAY TESTING WORK</t>
+  </si>
+  <si>
+    <t>19-01-2026 10:00:00</t>
+  </si>
+  <si>
+    <t>19-01-2026 17:00:00</t>
+  </si>
+  <si>
+    <t>JITENDRA LOHANA</t>
+  </si>
+  <si>
+    <t>9425804978</t>
   </si>
   <si>
     <t>Daily</t>
   </si>
   <si>
-    <t>132KV_132 kV Bhopal-Amrawatkhurd line</t>
-  </si>
-  <si>
     <t>220KV_BHOPAL</t>
   </si>
   <si>
-    <t>HTLS Conductor replacement work</t>
-  </si>
-  <si>
-    <t>13-01-2026 07:00:00</t>
-  </si>
-  <si>
     <t>05-02-2026 18:00:00</t>
   </si>
   <si>
@@ -162,10 +153,61 @@
     <t>9425804506</t>
   </si>
   <si>
-    <t>MR2601/0271</t>
-  </si>
-  <si>
-    <t>220KV_220 KV Bina-BORL line Ckt-1</t>
+    <t>MR2601/0167</t>
+  </si>
+  <si>
+    <t>132KV_132 kV Bhopal-Amrawart Khurd</t>
+  </si>
+  <si>
+    <t>HTLS conductor replacement work</t>
+  </si>
+  <si>
+    <t>12-01-2026 09:00:00</t>
+  </si>
+  <si>
+    <t>MR2601/0281</t>
+  </si>
+  <si>
+    <t>220KV_220 KV Bus No 2</t>
+  </si>
+  <si>
+    <t>NON-OCCM-WR</t>
+  </si>
+  <si>
+    <t>For bus extension work for additional 200 MVA Xmer</t>
+  </si>
+  <si>
+    <t>19-01-2026 08:00:00</t>
+  </si>
+  <si>
+    <t>A. K. Jain</t>
+  </si>
+  <si>
+    <t>9425806899</t>
+  </si>
+  <si>
+    <t>MR2601/0280</t>
+  </si>
+  <si>
+    <t>220KV_220 kV Interconnector 1</t>
+  </si>
+  <si>
+    <t>For shifting of feeder in other bay</t>
+  </si>
+  <si>
+    <t>MR2601/0282</t>
+  </si>
+  <si>
+    <t>220KV_Bus Bar Protection</t>
+  </si>
+  <si>
+    <t>For shifted in new bay</t>
+  </si>
+  <si>
+    <t>MR2601/0279</t>
+  </si>
+  <si>
+    <t>220KV_220 KV Bina-BORL line Ckt-2</t>
   </si>
   <si>
     <t>400KV_BINA4</t>
@@ -174,10 +216,10 @@
     <t>Work at BORL end</t>
   </si>
   <si>
-    <t>18-01-2026 09:00:00</t>
-  </si>
-  <si>
-    <t>18-01-2026 18:00:00</t>
+    <t>19-01-2026 09:00:00</t>
+  </si>
+  <si>
+    <t>19-01-2026 18:00:00</t>
   </si>
   <si>
     <t>Dilip Singh Walkey</t>
@@ -186,13 +228,49 @@
     <t>9425804578</t>
   </si>
   <si>
-    <t>MR2601/0277</t>
-  </si>
-  <si>
-    <t>220KV_220 KV Bina-BORL line Ckt-2</t>
-  </si>
-  <si>
-    <t>MR2601/0238</t>
+    <t>MR2601/0273</t>
+  </si>
+  <si>
+    <t>220KV_220 KV Chichli-Udaypura Line Ckt-I</t>
+  </si>
+  <si>
+    <t>220KV_CHICHLI</t>
+  </si>
+  <si>
+    <t>Post â¿¿ Monsoon Maintenance work - Flashover disc r</t>
+  </si>
+  <si>
+    <t>Ashish Kumar</t>
+  </si>
+  <si>
+    <t>9425805935</t>
+  </si>
+  <si>
+    <t>MR2601/0266</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>132KV_132KV HATTA - BIJAWAR LINE</t>
+  </si>
+  <si>
+    <t>132KV_HATTA</t>
+  </si>
+  <si>
+    <t>REPLACE ACSR PANTHER CONDUCTOR WITH HTLS CONDUCTOR</t>
+  </si>
+  <si>
+    <t>14-04-2026 18:00:00</t>
+  </si>
+  <si>
+    <t>M.M BAIG</t>
+  </si>
+  <si>
+    <t>9425805067</t>
+  </si>
+  <si>
+    <t>MR2601/0285</t>
   </si>
   <si>
     <t>132KV_132 KV CHAMBAL-SATYASAI LINE</t>
@@ -204,10 +282,10 @@
     <t>CONDUCTOR REPLACEMENT  WORK AND OTHER MAINTANANCE</t>
   </si>
   <si>
-    <t>16-01-2026 07:00:00</t>
-  </si>
-  <si>
-    <t>18-01-2026 17:30:00</t>
+    <t>19-01-2026 07:00:00</t>
+  </si>
+  <si>
+    <t>19-01-2026 17:30:00</t>
   </si>
   <si>
     <t>RAVINDRA PATIL</t>
@@ -216,12 +294,36 @@
     <t>9425801598</t>
   </si>
   <si>
-    <t>Continuous</t>
+    <t>MR2601/0268</t>
+  </si>
+  <si>
+    <t>132KV_132/33KV 40 MVA IMP-I</t>
+  </si>
+  <si>
+    <t>132KV_KARAPGAON</t>
+  </si>
+  <si>
+    <t>Tan delta measurement of bushing</t>
+  </si>
+  <si>
+    <t>19-01-2026 11:00:00</t>
+  </si>
+  <si>
+    <t>19-01-2026 15:00:00</t>
+  </si>
+  <si>
+    <t>Ranjit Kumar Kori</t>
+  </si>
+  <si>
+    <t>9452806701</t>
   </si>
   <si>
     <t>400KV_KATNI4</t>
   </si>
   <si>
+    <t>OCCM-MP</t>
+  </si>
+  <si>
     <t>MR2601/0009</t>
   </si>
   <si>
@@ -243,6 +345,57 @@
     <t>9406713326</t>
   </si>
   <si>
+    <t>MR2601/0291</t>
+  </si>
+  <si>
+    <t>132KV_132 kv katni kymore line ckt 1</t>
+  </si>
+  <si>
+    <t>line maintenance work .</t>
+  </si>
+  <si>
+    <t>MR2601/0222</t>
+  </si>
+  <si>
+    <t>400KV_500 MVA Transformer</t>
+  </si>
+  <si>
+    <t>400KV_MANDSOUR4</t>
+  </si>
+  <si>
+    <t>wiring check of 220 KV Isolator interlocking</t>
+  </si>
+  <si>
+    <t>20-01-2026 18:00:00</t>
+  </si>
+  <si>
+    <t>J.P. Parmar</t>
+  </si>
+  <si>
+    <t>9425806919</t>
+  </si>
+  <si>
+    <t>MR2601/0283</t>
+  </si>
+  <si>
+    <t>132KV_40 MVA XMER BBL II</t>
+  </si>
+  <si>
+    <t>132KV_MANGAWAN</t>
+  </si>
+  <si>
+    <t>Oil topping work</t>
+  </si>
+  <si>
+    <t>19-01-2026 14:00:00</t>
+  </si>
+  <si>
+    <t>Kanishka singh</t>
+  </si>
+  <si>
+    <t>9425804656</t>
+  </si>
+  <si>
     <t>MR2601/0197</t>
   </si>
   <si>
@@ -267,19 +420,37 @@
     <t>7000431053</t>
   </si>
   <si>
-    <t>MR2601/0214</t>
-  </si>
-  <si>
-    <t>132KV_132 KV Pipariya-Bareli Ckt-I</t>
+    <t>MR2601/0286</t>
+  </si>
+  <si>
+    <t>132KV_40 MVA BHEL X MER</t>
+  </si>
+  <si>
+    <t>220KV_PANAGAR</t>
+  </si>
+  <si>
+    <t>hot point attend</t>
+  </si>
+  <si>
+    <t>H.L.KOSTHA</t>
+  </si>
+  <si>
+    <t>7587951105</t>
+  </si>
+  <si>
+    <t>MR2601/0272</t>
+  </si>
+  <si>
+    <t>132KV_132 KV Pipariya-Bareli I</t>
   </si>
   <si>
     <t>220KV_PIPARIYA</t>
   </si>
   <si>
-    <t>Resagging work loc.no. 79-95</t>
-  </si>
-  <si>
-    <t>15-01-2026 09:00:00</t>
+    <t>Resagging work loc.no.  79-9</t>
+  </si>
+  <si>
+    <t>23-01-2026 18:00:00</t>
   </si>
   <si>
     <t>Ashutosh Rai</t>
@@ -321,76 +492,190 @@
     <t>14-01-2026 08:00:00</t>
   </si>
   <si>
-    <t>MR2601/0274</t>
-  </si>
-  <si>
-    <t>132KV_132kV Rajmilan - Janakpur Ckt</t>
-  </si>
-  <si>
-    <t>132KV_RAJMILAN</t>
-  </si>
-  <si>
-    <t>disc string replacement</t>
-  </si>
-  <si>
-    <t>G.L Sahu</t>
-  </si>
-  <si>
-    <t>9425805102</t>
-  </si>
-  <si>
-    <t>MR2601/0269</t>
-  </si>
-  <si>
-    <t>132KV_132 kV Satna â¿¿II (Sonoura)  â¿¿  Maihar  line</t>
-  </si>
-  <si>
-    <t>132KV_SATNA-II</t>
-  </si>
-  <si>
-    <t>OPGW Stringing  work</t>
-  </si>
-  <si>
-    <t>Mr. R.K. Prajapati</t>
-  </si>
-  <si>
-    <t>9407070182</t>
-  </si>
-  <si>
-    <t>MR2601/0276</t>
-  </si>
-  <si>
-    <t>132KV_132kv Shivpuri I/C Ckt IInd</t>
-  </si>
-  <si>
-    <t>132KV_SHIVPURI1</t>
+    <t>MR2601/0275</t>
+  </si>
+  <si>
+    <t>132KV_132kv Sabalgarh Sheopur Ckt IInd Tap to Khandarndar</t>
+  </si>
+  <si>
+    <t>220KV_SABALGARH</t>
   </si>
   <si>
     <t>Line Maintenance work</t>
   </si>
   <si>
-    <t>18-01-2026 11:00:00</t>
-  </si>
-  <si>
-    <t>18-01-2026 15:00:00</t>
-  </si>
-  <si>
     <t>Suraj Pawar</t>
   </si>
   <si>
     <t>9425814079</t>
   </si>
   <si>
+    <t>MR2601/0293</t>
+  </si>
+  <si>
+    <t>400KV_UJJAIN ASHTA CKT 1</t>
+  </si>
+  <si>
+    <t>400KV_UJJAIN4</t>
+  </si>
+  <si>
+    <t>LINE MAINTENNACE</t>
+  </si>
+  <si>
+    <t>K SACHINDRA</t>
+  </si>
+  <si>
+    <t>9425805295</t>
+  </si>
+  <si>
+    <t>MR2601/0287</t>
+  </si>
+  <si>
+    <t>400KV_400 kV Ujjain-Ashta CKT-1st</t>
+  </si>
+  <si>
+    <t>Opportunity SD for Bay Maint. work</t>
+  </si>
+  <si>
+    <t>19-01-2026 16:00:00</t>
+  </si>
+  <si>
+    <t>Santosh Chavrasia</t>
+  </si>
+  <si>
+    <t>9425804677</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>sub ld</t>
   </si>
   <si>
+    <t>ok, through sub ld</t>
+  </si>
+  <si>
+    <t>ok, shall be given after 12hrs</t>
+  </si>
+  <si>
+    <t>ABT consent required for any metering work</t>
+  </si>
+  <si>
     <t>deferred</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>BORL to manage their loading in case of both ckt s/d, ABT consent to be taken if any metering work to be done</t>
+    <t>o&amp;m consent required</t>
+  </si>
+  <si>
+    <t>not approved by WRLDC</t>
+  </si>
+  <si>
+    <t>as opportunity s/d</t>
+  </si>
+  <si>
+    <t>proposal shall be forwarded through Higher offices</t>
+  </si>
+  <si>
+    <t>ok, through sub ld, after s/d ICT to be normalised in the present condition</t>
+  </si>
+  <si>
+    <t>REWA - 220KV - BUS 2</t>
+  </si>
+  <si>
+    <t>400KV-KORBA-NTPC-BIRSINGPUR-1</t>
+  </si>
+  <si>
+    <t>400KV/220KV INDORE-ICT-1</t>
+  </si>
+  <si>
+    <t>400KV-BADNAWAR-RAJGARH-2</t>
+  </si>
+  <si>
+    <t>220KV-SHUJALPUR-SHUJALPUR-MP-2</t>
+  </si>
+  <si>
+    <t>220KV-PANDURNA-KALMESHWAR-1</t>
+  </si>
+  <si>
+    <t>400KV/220KV SEONI-PG-ICT-2</t>
+  </si>
+  <si>
+    <t>POWERGRID-WR2 (PGCIL)</t>
+  </si>
+  <si>
+    <t>POWERGRID-WR1 (PGCIL)</t>
+  </si>
+  <si>
+    <t>POWERGRID-WR2 (PGCIL),MADHYA PRADESH,GUJARAT</t>
+  </si>
+  <si>
+    <t>MADHYA PRADESH</t>
+  </si>
+  <si>
+    <t>MADHYA PRADESH,MAHARASHTRA</t>
+  </si>
+  <si>
+    <t>AMP WORK</t>
+  </si>
+  <si>
+    <t>AMP Work of of Line terminal equipment &amp; Associated LR and its BAY, Non auto mode of ckt 2 is required . Dia to be kept open at both ends.</t>
+  </si>
+  <si>
+    <t>ICT AMP WORK , Dia to be kept open at both sides.</t>
+  </si>
+  <si>
+    <t>FOR LINE MAINTENANCE WORK i.e. CLEANING OF DISC INSULATORS DURING LINE PATROLLING , REPLACEMENT OF FLASHOVERED DISC INSULATORS, TREE BRANCH CUTTING ETC AT VARIOUS TOWER LOCATIONS</t>
+  </si>
+  <si>
+    <t>FOR LINE DIFFERENTIAL RELAY INSTALLATION  WORK.</t>
+  </si>
+  <si>
+    <t>For AMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok, care to be taken., All elements will be in service with Bus-1. In case N-1 all elements will out. All connected RE Generators to be informed. utmost care to be taken no other elements affected. 
+</t>
+  </si>
+  <si>
+    <t>OK., All other lines at Korba(NTPC) will be in service with A/R enabled (except 400KV Korba(N)-Korba(W)). Consent from SLDC MP/CG is required. No outage of ICTs at Jabalpur. Load will be managed by SLDC MP/CG. SLDC MP/CG/NTPC Korba to be informed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REAL TIME ., SLDC MP consent is required. ICT-2  to be in service with complete dia. SLDC MP to be informed. Load to be managed by SLDC MP. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REAL TIME ., Ckt-1 to be in service. WR2 to be informed
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REAL TIME ., All other lines at Rajgarh-MP to be in service with AR enabled. No other element shall be affected. Load to be managed by SLDC MP
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REAL TIME ., SLDC MH consent is required. Load to be managed by SLDC MP/MH
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deferred due to high loading.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ICT-1 to be in service with complete dia. SLDC MP consent is required in view of load management. 
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -401,7 +686,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010809]dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-1010809]dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -414,28 +699,37 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,8 +741,14 @@
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -508,11 +808,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -544,6 +892,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -909,32 +1286,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="44.28515625" customWidth="1"/>
+    <col min="5" max="5" width="48.5703125" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="64.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="64.85546875" customWidth="1"/>
+    <col min="9" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="47" customWidth="1"/>
+    <col min="13" max="13" width="53.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="43.7" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -951,12 +1327,12 @@
       <c r="L1" s="10"/>
       <c r="M1" s="11"/>
     </row>
-    <row r="2" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="42" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>46040</v>
+        <v>46041</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -970,7 +1346,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="42" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -993,7 +1369,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="42" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1032,52 +1408,52 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="38.25" customHeight="1">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="5">
-        <v>46039.599456018521</v>
+        <v>46040.582812499997</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="M5" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="38.25" customHeight="1">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="5">
-        <v>46039.658773148149</v>
+        <v>46040.496296296296</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>26</v>
@@ -1090,98 +1466,98 @@
         <v>28</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="38.25" customHeight="1">
       <c r="A7" s="4">
-        <f t="shared" ref="A7:A18" si="0">A6+1</f>
+        <f t="shared" ref="A7:A26" si="0">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="5">
-        <v>46034.687615740739</v>
+        <v>46032.720509259256</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="K7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="L7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="M7" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="38.25" customHeight="1">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="5">
-        <v>46039.606944444444</v>
+        <v>46039.762962962966</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>48</v>
@@ -1190,16 +1566,16 @@
         <v>49</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="38.25" customHeight="1">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="5">
-        <v>46039.658599537041</v>
+        <v>46039.758032407408</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>50</v>
@@ -1209,19 +1585,19 @@
         <v>51</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>48</v>
@@ -1230,380 +1606,960 @@
         <v>49</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="38.25" customHeight="1">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="5">
-        <v>46037.616585648146</v>
+        <v>46039.769085648149</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>55</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="38.25" customHeight="1">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="5">
-        <v>46023.642534722225</v>
+        <v>46039.670520833337</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="L11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="M11" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="38.25" customHeight="1">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="5">
-        <v>46034.699479166666</v>
+        <v>46039.625879629632</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="M12" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="38.25" customHeight="1">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B13" s="5">
-        <v>46036.485775462963</v>
+        <v>46039.472916666666</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="M13" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="38.25" customHeight="1">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B14" s="5">
-        <v>46035.512916666667</v>
+        <v>46040.521284722221</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="L14" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>91</v>
-      </c>
       <c r="M14" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="38.25" customHeight="1">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B15" s="5">
-        <v>46035.504699074074</v>
+        <v>46039.561562499999</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="L15" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>91</v>
-      </c>
       <c r="M15" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="38.25" customHeight="1">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B16" s="5">
-        <v>46039.630324074074</v>
+        <v>46023.642534722225</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="E16" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>98</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="38.25" customHeight="1">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B17" s="5">
-        <v>46039.568368055552</v>
+        <v>46040.595636574071</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="M17" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="38.25" customHeight="1">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B18" s="5">
-        <v>46039.649386574078</v>
+        <v>46036.587372685186</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="I18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="38.25" customHeight="1">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="5">
+        <v>46040.378217592595</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="38.25" customHeight="1">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="5">
+        <v>46034.699479166666</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="38.25" customHeight="1">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="5">
+        <v>46040.531018518515</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="38.25" customHeight="1">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="5">
+        <v>46039.608391203707</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="38.25" customHeight="1">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="5">
+        <v>46035.512916666667</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="38.25" customHeight="1">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="B24" s="5">
+        <v>46035.504699074074</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="38.25" customHeight="1">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="5">
+        <v>46039.644548611112</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="38.25" customHeight="1">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="5">
+        <v>46040.703877314816</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="38.25" customHeight="1">
+      <c r="A27" s="4">
+        <f>A25+1</f>
+        <v>22</v>
+      </c>
+      <c r="B27" s="5">
+        <v>46040.547534722224</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="59.25" customHeight="1">
+      <c r="A28" s="13">
+        <v>23</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28" s="16"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="78.75" customHeight="1">
+      <c r="A29" s="13">
+        <v>24</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="18">
+        <v>46041.833333333336</v>
+      </c>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="50.25" customHeight="1">
+      <c r="A30" s="13">
+        <v>25</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="33" customHeight="1">
+      <c r="A31" s="13">
+        <v>26</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="K31" s="22"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="64.5" customHeight="1">
+      <c r="A32" s="13">
+        <v>27</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="K32" s="22"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="38.25" customHeight="1">
+      <c r="A33" s="13">
+        <v>28</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="22"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="52.5" customHeight="1">
+      <c r="A34" s="13">
+        <v>29</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="K34" s="22"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="38.25" customHeight="1">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1611,7 +2567,7 @@
     <mergeCell ref="K4:L4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__bookmark_1">Sheet0!$A$1:$M$17</definedName>
+    <definedName name="__bookmark_1">Sheet0!$A$1:$M$15</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="97">
   <si>
     <t>STATE LOAD DESPATCH CENTRE 
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
@@ -87,37 +87,25 @@
     <t>REMARK</t>
   </si>
   <si>
-    <t>MR2601/0384</t>
-  </si>
-  <si>
-    <t>220KV_220 kV Amarkantak-Gorabazar Circuit</t>
-  </si>
-  <si>
-    <t>220KV_AMARKANTAK</t>
+    <t>MR2601/0196</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>132KV_132 kV Bhopal-Amrawatkhurd line</t>
+  </si>
+  <si>
+    <t>220KV_BHOPAL</t>
   </si>
   <si>
     <t>NON-OCCM-MP</t>
   </si>
   <si>
-    <t>For Conductor re-sagging &amp; other line maintenance</t>
-  </si>
-  <si>
-    <t>25-01-2026 08:00:00</t>
-  </si>
-  <si>
-    <t>25-01-2026 18:00:00</t>
-  </si>
-  <si>
-    <t>Jitendra Tiwari</t>
-  </si>
-  <si>
-    <t>9425805298</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>220KV_BHOPAL</t>
+    <t>HTLS Conductor replacement work</t>
+  </si>
+  <si>
+    <t>13-01-2026 07:00:00</t>
   </si>
   <si>
     <t>05-02-2026 18:00:00</t>
@@ -129,18 +117,6 @@
     <t>9425804506</t>
   </si>
   <si>
-    <t>MR2601/0167</t>
-  </si>
-  <si>
-    <t>132KV_132 kV Bhopal-Amrawart Khurd</t>
-  </si>
-  <si>
-    <t>HTLS conductor replacement work</t>
-  </si>
-  <si>
-    <t>12-01-2026 09:00:00</t>
-  </si>
-  <si>
     <t>MR2601/0266</t>
   </si>
   <si>
@@ -168,10 +144,49 @@
     <t>9425805067</t>
   </si>
   <si>
-    <t>MR2601/0394</t>
-  </si>
-  <si>
-    <t>132KV_CHAMBLE-SATYASAI LINE</t>
+    <t>MR2601/0396</t>
+  </si>
+  <si>
+    <t>132KV_132 KV HOSHANGABAD- SPM FEEDER</t>
+  </si>
+  <si>
+    <t>220KV_HOSHANGABAD</t>
+  </si>
+  <si>
+    <t>FOR MAINTENANCE WORK</t>
+  </si>
+  <si>
+    <t>26-01-2026 12:00:00</t>
+  </si>
+  <si>
+    <t>26-01-2026 15:00:00</t>
+  </si>
+  <si>
+    <t>V.P.DWIVEDI</t>
+  </si>
+  <si>
+    <t>9425804799</t>
+  </si>
+  <si>
+    <t>MR2601/0392</t>
+  </si>
+  <si>
+    <t>220KV_132 KV Hoshangabad-SPM</t>
+  </si>
+  <si>
+    <t>Some urgent maintenance  work at 132/33 SS SPM</t>
+  </si>
+  <si>
+    <t>Ashutosh Rai</t>
+  </si>
+  <si>
+    <t>9425806902</t>
+  </si>
+  <si>
+    <t>MR2601/0395</t>
+  </si>
+  <si>
+    <t>132KV_CHAMBLE - SATYASAI LINE</t>
   </si>
   <si>
     <t>132KV_INDORE CHAMBAL</t>
@@ -180,10 +195,10 @@
     <t>CONDUCTOR REPLACEMENT WORK</t>
   </si>
   <si>
-    <t>25-01-2026 07:00:00</t>
-  </si>
-  <si>
-    <t>25-01-2026 17:30:00</t>
+    <t>26-01-2026 07:00:00</t>
+  </si>
+  <si>
+    <t>27-01-2026 17:30:00</t>
   </si>
   <si>
     <t>RAVINDRA PATIL</t>
@@ -192,49 +207,7 @@
     <t>8305612190</t>
   </si>
   <si>
-    <t>MR2601/0373</t>
-  </si>
-  <si>
-    <t>132KV_132KV CHAMBALâ¿¿ELECTRONIC  COMPLEX LINE</t>
-  </si>
-  <si>
-    <t>CONDUCTOR REPLACEMENT  BETWEEN LOC 08 &amp; 09 AND OTH</t>
-  </si>
-  <si>
-    <t>24-01-2026 21:00:00</t>
-  </si>
-  <si>
-    <t>25-01-2026 06:00:00</t>
-  </si>
-  <si>
-    <t>9425801598</t>
-  </si>
-  <si>
-    <t>MR2601/0393</t>
-  </si>
-  <si>
-    <t>220KV_160MVA Transformer-IV make- AREVA</t>
-  </si>
-  <si>
-    <t>220KV_INDORE-SZ</t>
-  </si>
-  <si>
-    <t>Painting work of transformer</t>
-  </si>
-  <si>
-    <t>25-01-2026 10:00:00</t>
-  </si>
-  <si>
-    <t>25-01-2026 15:00:00</t>
-  </si>
-  <si>
-    <t>Dharmendra Kushwaha</t>
-  </si>
-  <si>
-    <t>9425802801</t>
-  </si>
-  <si>
-    <t>MR2601/0197</t>
+    <t>MR2601/0397</t>
   </si>
   <si>
     <t>20MVA_132/33KV_VOLTAMP_X'mer_2</t>
@@ -243,19 +216,16 @@
     <t>132KV_MORWA</t>
   </si>
   <si>
-    <t>Main tank oil filtration &amp; OLTC Oil Replacement w</t>
-  </si>
-  <si>
-    <t>15-01-2026 10:00:00</t>
-  </si>
-  <si>
-    <t>25-01-2026 17:00:00</t>
+    <t>Air Release work.</t>
+  </si>
+  <si>
+    <t>26-01-2026 14:00:00</t>
   </si>
   <si>
     <t>S.B.Singh</t>
   </si>
   <si>
-    <t>7000431053</t>
+    <t>9039635859</t>
   </si>
   <si>
     <t>MR2601/0353</t>
@@ -279,33 +249,6 @@
     <t>AE TLM ITARSI</t>
   </si>
   <si>
-    <t>9425806902</t>
-  </si>
-  <si>
-    <t>MR2601/0387</t>
-  </si>
-  <si>
-    <t>132KV_132 KV MAIN BUS</t>
-  </si>
-  <si>
-    <t>220KV_PITHAMPUR-II (SEC-I)</t>
-  </si>
-  <si>
-    <t>NON-OCCM-WR</t>
-  </si>
-  <si>
-    <t>132 KV MAIN 2 SECTION JUMPER CHENGE</t>
-  </si>
-  <si>
-    <t>25-01-2026 22:00:00</t>
-  </si>
-  <si>
-    <t>RAJU DAS BAIRAGI</t>
-  </si>
-  <si>
-    <t>9425801532</t>
-  </si>
-  <si>
     <t>MR2601/0350</t>
   </si>
   <si>
@@ -333,10 +276,10 @@
     <t>400KV_400KV SSTPH Pithampur ckt-1</t>
   </si>
   <si>
-    <t>MR2601/0316</t>
-  </si>
-  <si>
-    <t>220KV_220 KV Birsinghpur  Shahdol  feeder</t>
+    <t>MR2601/0318</t>
+  </si>
+  <si>
+    <t>220KV_220 KV Birsinghpur Pali I/C III feeder</t>
   </si>
   <si>
     <t>400KV_SGTPS</t>
@@ -345,10 +288,10 @@
     <t>Testing of DPR relays by  Electrical Audit</t>
   </si>
   <si>
-    <t>25-01-2026 09:30:00</t>
-  </si>
-  <si>
-    <t>25-01-2026 12:30:00</t>
+    <t>26-01-2026 09:30:00</t>
+  </si>
+  <si>
+    <t>26-01-2026 12:30:00</t>
   </si>
   <si>
     <t>kiran singh</t>
@@ -357,55 +300,28 @@
     <t>9425826084</t>
   </si>
   <si>
-    <t>MR2601/0317</t>
-  </si>
-  <si>
-    <t>220KV_220 KV Birsinghpur  Manpur  feeder</t>
-  </si>
-  <si>
-    <t>25-01-2026 13:00:00</t>
-  </si>
-  <si>
-    <t>25-01-2026 16:00:00</t>
+    <t>MR2601/0319</t>
+  </si>
+  <si>
+    <t>220KV_220 KV Birsinghpur  Pali I/C  IV  feeder</t>
+  </si>
+  <si>
+    <t>26-01-2026 13:00:00</t>
+  </si>
+  <si>
+    <t>26-01-2026 16:00:00</t>
+  </si>
+  <si>
+    <t>sub ld</t>
+  </si>
+  <si>
+    <t>deferred</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>sub ld</t>
-  </si>
-  <si>
-    <t>deferred</t>
-  </si>
-  <si>
-    <t>ok, through sub ld</t>
-  </si>
-  <si>
-    <t>ok, shall be given after load shifting, sub ld to monitor the loading</t>
-  </si>
-  <si>
-    <t>APPROVED OUTAGE LIST FOR DATED 25.01.2026</t>
-  </si>
-  <si>
-    <t>220KV-SATNA-KOTAR-1</t>
-  </si>
-  <si>
-    <t>MADHYA PRADESH</t>
-  </si>
-  <si>
-    <t>21-Jan-2026</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>29-Jan-2026</t>
-  </si>
-  <si>
-    <t>16:59</t>
-  </si>
-  <si>
-    <t>Continous</t>
+    <t>APPROVED OUTAGE LIST FOR DATED 26.01.2026</t>
   </si>
   <si>
     <t>S/I SLDC JABALPUR</t>
@@ -419,7 +335,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010809]dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-1010809]dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -454,16 +370,10 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
+      <sz val="26"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -474,7 +384,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,12 +399,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -656,9 +560,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -675,7 +576,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1041,13 +942,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,14 +956,14 @@
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="56.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="64.85546875" customWidth="1"/>
     <col min="9" max="10" width="19.5703125" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="32.7109375" customWidth="1"/>
+    <col min="13" max="13" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1087,18 +988,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="13" t="s">
-        <v>116</v>
-      </c>
+      <c r="D2" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="1"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1165,101 +1066,101 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="5">
-        <v>46046.364664351851</v>
+        <v>46034.687615740739</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="5">
-        <v>46032.720509259256</v>
+        <v>46039.472916666666</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="I6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="J6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="L6" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f t="shared" ref="A7:A17" si="0">A6+1</f>
+        <f t="shared" ref="A7:A15" si="0">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="5">
-        <v>46039.472916666666</v>
+        <v>46047.705474537041</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
         <v>37</v>
       </c>
@@ -1267,7 +1168,7 @@
         <v>38</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>39</v>
@@ -1285,16 +1186,16 @@
         <v>43</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="5">
-        <v>46046.727754629632</v>
+        <v>46046.681944444441</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>44</v>
@@ -1304,466 +1205,340 @@
         <v>45</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="L8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="M8" s="4" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="5">
-        <v>46045.54724537037</v>
+        <v>46047.673993055556</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="I9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="J9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="L9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="M9" s="4" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="5">
-        <v>46046.708356481482</v>
+        <v>46047.706909722219</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="L10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="M10" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="5">
-        <v>46034.699479166666</v>
+        <v>46044.47278935185</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="G11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="I11" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="J11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="L11" s="8" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="5">
-        <v>46044.47278935185</v>
+        <v>46043.684155092589</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="I12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="J12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="L12" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="M12" s="4" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B13" s="5">
-        <v>46046.544849537036</v>
+        <v>46043.682893518519</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="E13" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B14" s="5">
-        <v>46043.684155092589</v>
+        <v>46042.469953703701</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>36</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>113</v>
-      </c>
     </row>
-    <row r="15" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+    <row r="15" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="5">
-        <v>46043.682893518519</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="B15" s="17">
+        <v>46042.475405092591</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L15" s="8" t="s">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="22" t="s">
         <v>96</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="5">
-        <v>46042.463877314818</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="18">
-        <v>46042.466689814813</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="L17" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="23" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="D2:J2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__bookmark_1">Sheet0!$A$1:$M$15</definedName>
+    <definedName name="__bookmark_1">Sheet0!$A$1:$M$18</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="141">
   <si>
     <t>STATE LOAD DESPATCH CENTRE 
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
@@ -117,12 +117,84 @@
     <t>9425804506</t>
   </si>
   <si>
+    <t>MR2601/0401</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>132KV_132 and 33 KV Bus Coupler</t>
+  </si>
+  <si>
+    <t>132KV_BISNOOR</t>
+  </si>
+  <si>
+    <t>Existing bay convert in transformer bay</t>
+  </si>
+  <si>
+    <t>27-01-2026 10:00:00</t>
+  </si>
+  <si>
+    <t>28-01-2026 22:57:00</t>
+  </si>
+  <si>
+    <t>Er. Sanjay Pawar</t>
+  </si>
+  <si>
+    <t>9425656425</t>
+  </si>
+  <si>
+    <t>MR2601/0386</t>
+  </si>
+  <si>
+    <t>220KV_2220 Kv Chhegaon - Khandwa (PGCIL)- Ckt-2nd</t>
+  </si>
+  <si>
+    <t>400KV_CHHEGAON4</t>
+  </si>
+  <si>
+    <t>OCCM-WR</t>
+  </si>
+  <si>
+    <t>For Flash Over Disc Replacement &amp; Other Line Maint</t>
+  </si>
+  <si>
+    <t>27-01-2026 08:00:00</t>
+  </si>
+  <si>
+    <t>27-01-2026 18:00:00</t>
+  </si>
+  <si>
+    <t>M.K.More</t>
+  </si>
+  <si>
+    <t>9425805258</t>
+  </si>
+  <si>
+    <t>MR2601/0379</t>
+  </si>
+  <si>
+    <t>132KV_132 kV Shahdol-Dindori Circuit I</t>
+  </si>
+  <si>
+    <t>132KV_DINDORI</t>
+  </si>
+  <si>
+    <t>For Conductor re-sagging &amp; other line maintenance</t>
+  </si>
+  <si>
+    <t>31-01-2026 18:00:00</t>
+  </si>
+  <si>
+    <t>Jitendra Tiwari</t>
+  </si>
+  <si>
+    <t>9425805298</t>
+  </si>
+  <si>
     <t>MR2601/0266</t>
   </si>
   <si>
-    <t>Continuous</t>
-  </si>
-  <si>
     <t>132KV_132KV HATTA - BIJAWAR LINE</t>
   </si>
   <si>
@@ -144,111 +216,78 @@
     <t>9425805067</t>
   </si>
   <si>
-    <t>MR2601/0396</t>
-  </si>
-  <si>
-    <t>132KV_132 KV HOSHANGABAD- SPM FEEDER</t>
-  </si>
-  <si>
-    <t>220KV_HOSHANGABAD</t>
-  </si>
-  <si>
-    <t>FOR MAINTENANCE WORK</t>
-  </si>
-  <si>
-    <t>26-01-2026 12:00:00</t>
-  </si>
-  <si>
-    <t>26-01-2026 15:00:00</t>
-  </si>
-  <si>
-    <t>V.P.DWIVEDI</t>
-  </si>
-  <si>
-    <t>9425804799</t>
-  </si>
-  <si>
-    <t>MR2601/0392</t>
-  </si>
-  <si>
-    <t>220KV_132 KV Hoshangabad-SPM</t>
-  </si>
-  <si>
-    <t>Some urgent maintenance  work at 132/33 SS SPM</t>
-  </si>
-  <si>
-    <t>Ashutosh Rai</t>
+    <t>MR2601/0395</t>
+  </si>
+  <si>
+    <t>132KV_CHAMBLE - SATYASAI LINE</t>
+  </si>
+  <si>
+    <t>132KV_INDORE CHAMBAL</t>
+  </si>
+  <si>
+    <t>CONDUCTOR REPLACEMENT WORK</t>
+  </si>
+  <si>
+    <t>26-01-2026 07:00:00</t>
+  </si>
+  <si>
+    <t>27-01-2026 17:30:00</t>
+  </si>
+  <si>
+    <t>RAVINDRA PATIL</t>
+  </si>
+  <si>
+    <t>8305612190</t>
+  </si>
+  <si>
+    <t>27-01-2026 09:00:00</t>
+  </si>
+  <si>
+    <t>MR2601/0402</t>
+  </si>
+  <si>
+    <t>220KV_220 kV mangliya indore</t>
+  </si>
+  <si>
+    <t>220KV_MANGLIA2</t>
+  </si>
+  <si>
+    <t>Back up relay replacement work</t>
+  </si>
+  <si>
+    <t>27-01-2026 11:00:00</t>
+  </si>
+  <si>
+    <t>Ram babu nagar</t>
+  </si>
+  <si>
+    <t>9425802879</t>
+  </si>
+  <si>
+    <t>MR2601/0353</t>
+  </si>
+  <si>
+    <t>132KV_132 KV Pipariya-Bankhedi</t>
+  </si>
+  <si>
+    <t>220KV_PIPARIYA</t>
+  </si>
+  <si>
+    <t>Re-sagging work loc.no. 45-13(Bankhedi lilo)</t>
+  </si>
+  <si>
+    <t>23-01-2026 09:00:00</t>
+  </si>
+  <si>
+    <t>28-01-2026 18:00:00</t>
+  </si>
+  <si>
+    <t>AE TLM ITARSI</t>
   </si>
   <si>
     <t>9425806902</t>
   </si>
   <si>
-    <t>MR2601/0395</t>
-  </si>
-  <si>
-    <t>132KV_CHAMBLE - SATYASAI LINE</t>
-  </si>
-  <si>
-    <t>132KV_INDORE CHAMBAL</t>
-  </si>
-  <si>
-    <t>CONDUCTOR REPLACEMENT WORK</t>
-  </si>
-  <si>
-    <t>26-01-2026 07:00:00</t>
-  </si>
-  <si>
-    <t>27-01-2026 17:30:00</t>
-  </si>
-  <si>
-    <t>RAVINDRA PATIL</t>
-  </si>
-  <si>
-    <t>8305612190</t>
-  </si>
-  <si>
-    <t>MR2601/0397</t>
-  </si>
-  <si>
-    <t>20MVA_132/33KV_VOLTAMP_X'mer_2</t>
-  </si>
-  <si>
-    <t>132KV_MORWA</t>
-  </si>
-  <si>
-    <t>Air Release work.</t>
-  </si>
-  <si>
-    <t>26-01-2026 14:00:00</t>
-  </si>
-  <si>
-    <t>S.B.Singh</t>
-  </si>
-  <si>
-    <t>9039635859</t>
-  </si>
-  <si>
-    <t>MR2601/0353</t>
-  </si>
-  <si>
-    <t>132KV_132 KV Pipariya-Bankhedi</t>
-  </si>
-  <si>
-    <t>220KV_PIPARIYA</t>
-  </si>
-  <si>
-    <t>Re-sagging work loc.no. 45-13(Bankhedi lilo)</t>
-  </si>
-  <si>
-    <t>23-01-2026 09:00:00</t>
-  </si>
-  <si>
-    <t>28-01-2026 18:00:00</t>
-  </si>
-  <si>
-    <t>AE TLM ITARSI</t>
-  </si>
-  <si>
     <t>MR2601/0350</t>
   </si>
   <si>
@@ -276,55 +315,148 @@
     <t>400KV_400KV SSTPH Pithampur ckt-1</t>
   </si>
   <si>
-    <t>MR2601/0318</t>
-  </si>
-  <si>
-    <t>220KV_220 KV Birsinghpur Pali I/C III feeder</t>
-  </si>
-  <si>
-    <t>400KV_SGTPS</t>
-  </si>
-  <si>
-    <t>Testing of DPR relays by  Electrical Audit</t>
-  </si>
-  <si>
-    <t>26-01-2026 09:30:00</t>
-  </si>
-  <si>
-    <t>26-01-2026 12:30:00</t>
-  </si>
-  <si>
-    <t>kiran singh</t>
-  </si>
-  <si>
-    <t>9425826084</t>
-  </si>
-  <si>
-    <t>MR2601/0319</t>
-  </si>
-  <si>
-    <t>220KV_220 KV Birsinghpur  Pali I/C  IV  feeder</t>
-  </si>
-  <si>
-    <t>26-01-2026 13:00:00</t>
-  </si>
-  <si>
-    <t>26-01-2026 16:00:00</t>
+    <t>MR2601/0398</t>
+  </si>
+  <si>
+    <t>132KV_132KV Railway traction feeder-1st</t>
+  </si>
+  <si>
+    <t>220KV_RATLAM</t>
+  </si>
+  <si>
+    <t>for Bay Main. Work</t>
+  </si>
+  <si>
+    <t>27-01-2026 13:00:00</t>
+  </si>
+  <si>
+    <t>Nikhil Dunge</t>
+  </si>
+  <si>
+    <t>9425801487</t>
+  </si>
+  <si>
+    <t>MR2601/0399</t>
+  </si>
+  <si>
+    <t>132KV_132 KV Bus Coupler</t>
+  </si>
+  <si>
+    <t>for Auxiliary Bus Isolator Maintenance Of Railway</t>
+  </si>
+  <si>
+    <t>MR2512/0197</t>
+  </si>
+  <si>
+    <t>400KV_400KV SARNI-ASHTA LINE-I</t>
+  </si>
+  <si>
+    <t>400KV_SATPURA TPS</t>
+  </si>
+  <si>
+    <t>ROUTINE TESTING,RELAY TESTING, GEN CHECKING &amp; MAIN</t>
+  </si>
+  <si>
+    <t>YASHWANT WARATHE</t>
+  </si>
+  <si>
+    <t>9425611046</t>
+  </si>
+  <si>
+    <t>MR2601/0400</t>
+  </si>
+  <si>
+    <t>132KV_40MVA BBL Transformer</t>
+  </si>
+  <si>
+    <t>220KV_SHAHDOL</t>
+  </si>
+  <si>
+    <t>Replacement of 132kV LAs</t>
+  </si>
+  <si>
+    <t>27-01-2026 12:00:00</t>
+  </si>
+  <si>
+    <t>Vijay Kumar Sahu</t>
+  </si>
+  <si>
+    <t>9425814035</t>
   </si>
   <si>
     <t>sub ld</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>deferred</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>APPROVED OUTAGE LIST FOR DATED 26.01.2026</t>
-  </si>
-  <si>
-    <t>S/I SLDC JABALPUR</t>
+    <t>ok, through sub ld</t>
+  </si>
+  <si>
+    <t>400KV-BHOPAL-MP-BINA-MP-2</t>
+  </si>
+  <si>
+    <t>220KV-KHANDWA-CHHEGAON-2</t>
+  </si>
+  <si>
+    <t>220KV-REWA-SINDHI-MP-1</t>
+  </si>
+  <si>
+    <t>400KV-SEONI-KIRNAPUR-1</t>
+  </si>
+  <si>
+    <t>400KV-SEONI-PG-SATPURA-1</t>
+  </si>
+  <si>
+    <t>220KV-GWALIOR-GWALIOR-II-2</t>
+  </si>
+  <si>
+    <t>POWERGRID_WR2</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>AMP works</t>
+  </si>
+  <si>
+    <t>real time</t>
+  </si>
+  <si>
+    <t>MP_SLDC</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>FOR BAY MAINTENANCE &amp; TESTING WORK AT SUBSTASTION, REPLACEMENT OF DAMAGED CLAMPS/JUMPERS ETC.</t>
+  </si>
+  <si>
+    <t>FOR LINE MAINTENANCE WORK i.e. CLEANING OF DISC INSULATORS DURING LINE PATROLLING , REPLACEMENT OF FLASHOVERED DISC INSULATORS, TREE BRANCH CUTTING ETC AT VARIOUS TOWER LOCATIONS</t>
+  </si>
+  <si>
+    <t>ok., through sub ld</t>
+  </si>
+  <si>
+    <t>POWERGRID_WR1</t>
+  </si>
+  <si>
+    <t>Tie LBB Relay retrofitting and testing work @ Seoni S/S</t>
+  </si>
+  <si>
+    <t>deferred due to high loading on 132kv netork</t>
   </si>
 </sst>
 </file>
@@ -335,7 +467,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010809]dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-1010809]dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -369,16 +501,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="26"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -393,12 +516,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,67 +641,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -942,79 +1079,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="44.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="64.85546875" customWidth="1"/>
-    <col min="9" max="10" width="19.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="50.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="11.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11" style="5" customWidth="1"/>
+    <col min="5" max="5" width="51.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="64.85546875" style="5" customWidth="1"/>
+    <col min="9" max="10" width="19.5703125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="12" style="5" customWidth="1"/>
+    <col min="13" max="13" width="36.5703125" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="11"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>46048</v>
+      <c r="B2" s="6">
+        <v>46049</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1"/>
@@ -1028,517 +1162,815 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="3" t="s">
+      <c r="L4" s="4"/>
+      <c r="M4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="9">
         <v>46034.687615740739</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="M5" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="5">
-        <v>46039.472916666666</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="9">
+        <v>46048.678599537037</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <f t="shared" ref="A7:A15" si="0">A6+1</f>
+      <c r="M6" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f t="shared" ref="A7:A24" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="5">
-        <v>46047.705474537041</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="9">
+        <v>46046.513298611113</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="H7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="I7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="J7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="K7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="L7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="5">
-        <v>46046.681944444441</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="B8" s="9">
+        <v>46045.695289351854</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="D8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="6" t="s">
+      <c r="H8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="J8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="5">
-        <v>46047.673993055556</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="B9" s="9">
+        <v>46039.472916666666</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="I9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="J9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="5">
-        <v>46047.706909722219</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="B10" s="9">
+        <v>46047.673993055556</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="I10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="5">
-        <v>46044.47278935185</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="B11" s="9">
+        <v>46048.703993055555</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="H11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="5">
-        <v>46043.684155092589</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="B12" s="9">
+        <v>46044.47278935185</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="H12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="5">
-        <v>46043.682893518519</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="B13" s="14">
+        <v>46043.684155092589</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="E13" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="H13" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="5">
-        <v>46042.469953703701</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
+      <c r="B14" s="19">
+        <v>46043.682893518519</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="K14" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="17">
-        <v>46042.475405092591</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="16" t="s">
+      <c r="B15" s="19">
+        <v>46048.604189814818</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="22" t="s">
+      <c r="H15" s="18" t="s">
         <v>96</v>
       </c>
+      <c r="I15" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="19">
+        <v>46048.605474537035</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="19">
+        <v>46001.747465277775</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="19">
+        <v>46048.631296296298</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22">
+        <v>281009</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22">
+        <v>281067</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22">
+        <v>281068</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22">
+        <v>279775</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22">
+        <v>279776</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22">
+        <v>281436</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="27" t="s">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="D2:J2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__bookmark_1">Sheet0!$A$1:$M$36</definedName>
+    <definedName name="__bookmark_1">Sheet0!$A$1:$M$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="177">
   <si>
     <t>STATE LOAD DESPATCH CENTRE 
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
@@ -112,10 +112,34 @@
     <t>220KV_220 kV Anuppur-Kotmikala Circuit II</t>
   </si>
   <si>
-    <t>MR2601/0519</t>
-  </si>
-  <si>
-    <t>220KV_220kv badnawar-badnagar ckt-1</t>
+    <t>MR2602/0049</t>
+  </si>
+  <si>
+    <t>220KV_220 kv ashta-shajapur ckt no.2</t>
+  </si>
+  <si>
+    <t>400KV_ASHTA4</t>
+  </si>
+  <si>
+    <t>DPR relay testing work</t>
+  </si>
+  <si>
+    <t>05-02-2026 10:00:00</t>
+  </si>
+  <si>
+    <t>05-02-2026 17:00:00</t>
+  </si>
+  <si>
+    <t>Jitendra lohana</t>
+  </si>
+  <si>
+    <t>9425804978</t>
+  </si>
+  <si>
+    <t>MR2601/0520</t>
+  </si>
+  <si>
+    <t>220KV_220kv badnawar-badnagar ckt-2</t>
   </si>
   <si>
     <t>400KV_BADNAWAR</t>
@@ -124,10 +148,10 @@
     <t>for bay maintenance and testing work</t>
   </si>
   <si>
-    <t>04-02-2026 08:00:00</t>
-  </si>
-  <si>
-    <t>04-02-2026 18:00:00</t>
+    <t>05-02-2026 08:00:00</t>
+  </si>
+  <si>
+    <t>05-02-2026 18:00:00</t>
   </si>
   <si>
     <t>ER. Abhishek verma</t>
@@ -136,30 +160,6 @@
     <t>9340855901</t>
   </si>
   <si>
-    <t>04-02-2026 10:00:00</t>
-  </si>
-  <si>
-    <t>MR2602/0034</t>
-  </si>
-  <si>
-    <t>132KV_132 KV BARMAN GADARWARA</t>
-  </si>
-  <si>
-    <t>132KV_BARMAN</t>
-  </si>
-  <si>
-    <t>R&amp;B PH CT REPLACEMENT WORK DUE TO HIGH TAN DELTA</t>
-  </si>
-  <si>
-    <t>04-02-2026 17:00:00</t>
-  </si>
-  <si>
-    <t>Er K.K. Choure</t>
-  </si>
-  <si>
-    <t>9425801357</t>
-  </si>
-  <si>
     <t>MR2601/0196</t>
   </si>
   <si>
@@ -175,33 +175,12 @@
     <t>13-01-2026 07:00:00</t>
   </si>
   <si>
-    <t>05-02-2026 18:00:00</t>
-  </si>
-  <si>
     <t>Ankit Mehroliya</t>
   </si>
   <si>
     <t>9425804506</t>
   </si>
   <si>
-    <t>MR2602/0008</t>
-  </si>
-  <si>
-    <t>220KV_220kV Bhopal-Bairagarh Ckt.-3</t>
-  </si>
-  <si>
-    <t>400KV_BHOPAL4</t>
-  </si>
-  <si>
-    <t>For attending gas leakage of Circuit Breaker</t>
-  </si>
-  <si>
-    <t>RAJKUMAR GAYAKI</t>
-  </si>
-  <si>
-    <t>9407528876</t>
-  </si>
-  <si>
     <t>MR2601/0461</t>
   </si>
   <si>
@@ -226,295 +205,172 @@
     <t>9425806916</t>
   </si>
   <si>
-    <t>MR2602/0040</t>
-  </si>
-  <si>
-    <t>220KV_220 KV BINA-SHIVPURI</t>
-  </si>
-  <si>
-    <t>FOR F/O DISC REPLACEMENT WORK</t>
-  </si>
-  <si>
-    <t>04-02-2026 11:00:00</t>
-  </si>
-  <si>
-    <t>DILIP SINGH WALKEY</t>
-  </si>
-  <si>
-    <t>9425804578</t>
+    <t>MR2601/0266</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>132KV_132KV HATTA - BIJAWAR LINE</t>
+  </si>
+  <si>
+    <t>132KV_HATTA</t>
+  </si>
+  <si>
+    <t>REPLACE ACSR PANTHER CONDUCTOR WITH HTLS CONDUCTOR</t>
+  </si>
+  <si>
+    <t>19-01-2026 09:00:00</t>
+  </si>
+  <si>
+    <t>14-04-2026 18:00:00</t>
+  </si>
+  <si>
+    <t>M.M BAIG</t>
+  </si>
+  <si>
+    <t>9425805067</t>
+  </si>
+  <si>
+    <t>MR2601/0097</t>
+  </si>
+  <si>
+    <t>400KV_400kv main bus-1</t>
+  </si>
+  <si>
+    <t>400KV_NAGDA4</t>
+  </si>
+  <si>
+    <t>For replacement 1 nos pantograph isolator</t>
+  </si>
+  <si>
+    <t>05-02-2026 09:00:00</t>
+  </si>
+  <si>
+    <t>06-02-2026 18:00:00</t>
+  </si>
+  <si>
+    <t>Sunil Bamniya</t>
+  </si>
+  <si>
+    <t>9425820045</t>
+  </si>
+  <si>
+    <t>MR2602/0050</t>
+  </si>
+  <si>
+    <t>132KV_132 KV NAGOD-SATNA CKT NO 1st</t>
+  </si>
+  <si>
+    <t>132KV_NAGOD</t>
+  </si>
+  <si>
+    <t>Y PH LINE ISOLATER JAW RED HOT ATTTEND FOR</t>
+  </si>
+  <si>
+    <t>05-02-2026 11:00:00</t>
+  </si>
+  <si>
+    <t>05-02-2026 13:00:00</t>
+  </si>
+  <si>
+    <t>ARUN KUMAR KOL</t>
+  </si>
+  <si>
+    <t>8319677721</t>
+  </si>
+  <si>
+    <t>MR2602/0051</t>
+  </si>
+  <si>
+    <t>132KV_132 KV Narsinghpur â¿¿Shrinagar  feeder</t>
+  </si>
+  <si>
+    <t>132KV_NARSINGHPUR1</t>
+  </si>
+  <si>
+    <t>132KV RYB Ph CT replacement work</t>
+  </si>
+  <si>
+    <t>Rajesh Chaturvedi</t>
+  </si>
+  <si>
+    <t>9425805203</t>
+  </si>
+  <si>
+    <t>MR2601/0512</t>
+  </si>
+  <si>
+    <t>400KV_400KV SSTPH-Pithampur ckt-2</t>
+  </si>
+  <si>
+    <t>400KV_PITHAMPUR4</t>
+  </si>
+  <si>
+    <t>Tower Restrengthening work on cross arm.</t>
+  </si>
+  <si>
+    <t>14-02-2026 18:00:00</t>
+  </si>
+  <si>
+    <t>Naresh Pandre</t>
+  </si>
+  <si>
+    <t>9425806905</t>
+  </si>
+  <si>
+    <t>MR2601/0499</t>
+  </si>
+  <si>
+    <t>400KV_400KV SSTPH-Pithampur ckt -1</t>
+  </si>
+  <si>
+    <t>MR2601/0452</t>
+  </si>
+  <si>
+    <t>220KV_220 kv Rewa-Sidhi-Satna DCDS Line</t>
+  </si>
+  <si>
+    <t>220KV_REWA</t>
+  </si>
+  <si>
+    <t>Tower Erection Work  of Bharatmala Project</t>
+  </si>
+  <si>
+    <t>02-02-2026 09:00:00</t>
+  </si>
+  <si>
+    <t>12-02-2026 18:00:00</t>
+  </si>
+  <si>
+    <t>Mr. Ajay Kumar Chaurasia</t>
+  </si>
+  <si>
+    <t>9425805081</t>
+  </si>
+  <si>
+    <t>MR2602/0048</t>
+  </si>
+  <si>
+    <t>220KV_220kv Rewa Satna line</t>
+  </si>
+  <si>
+    <t>Tower Erection work</t>
   </si>
   <si>
     <t>04-02-2026 09:00:00</t>
   </si>
   <si>
-    <t>MR2602/0041</t>
-  </si>
-  <si>
-    <t>132KV_132 kV Chhindwara Saori Ckt-II</t>
-  </si>
-  <si>
-    <t>220KV_CHHINDWARA</t>
-  </si>
-  <si>
-    <t>PG clamp removing and New Dead End Press work</t>
-  </si>
-  <si>
-    <t>A.M.Shende</t>
-  </si>
-  <si>
-    <t>7587951136</t>
-  </si>
-  <si>
-    <t>Continuous</t>
-  </si>
-  <si>
-    <t>132KV_HATTA</t>
-  </si>
-  <si>
-    <t>9425805067</t>
-  </si>
-  <si>
-    <t>MR2601/0438</t>
-  </si>
-  <si>
-    <t>132KV_132KV HATTA-BIJAWAR</t>
-  </si>
-  <si>
-    <t>Replacement of ACSR Panther Conductor with HTLS</t>
-  </si>
-  <si>
-    <t>29-01-2026 09:00:00</t>
-  </si>
-  <si>
-    <t>25-04-2026 18:00:00</t>
-  </si>
-  <si>
-    <t>M.M. Baig</t>
-  </si>
-  <si>
-    <t>MR2602/0005</t>
-  </si>
-  <si>
-    <t>132KV_CHAMBLE - ELECTRONIC COMPLEX LINE</t>
-  </si>
-  <si>
-    <t>132KV_INDORE CHAMBAL</t>
-  </si>
-  <si>
-    <t>CONDUCTOR REPLACEMENT WORK</t>
-  </si>
-  <si>
-    <t>02-02-2026 07:00:00</t>
-  </si>
-  <si>
-    <t>04-02-2026 17:30:00</t>
-  </si>
-  <si>
-    <t>RAVINDRA PATIL</t>
-  </si>
-  <si>
-    <t>8305612190</t>
-  </si>
-  <si>
-    <t>MR2602/0015</t>
-  </si>
-  <si>
-    <t>220KV_220 kV Jabalpur- Birsinghpur ckt-II</t>
-  </si>
-  <si>
-    <t>220KV_JABALPUR</t>
-  </si>
-  <si>
-    <t>Resagging work at loc. C45-C55</t>
-  </si>
-  <si>
-    <t>03-02-2026 08:00:00</t>
-  </si>
-  <si>
-    <t>MR2602/0031</t>
-  </si>
-  <si>
-    <t>132KV_132kv Jaora - Daloda line</t>
-  </si>
-  <si>
-    <t>220KV_JAORA</t>
-  </si>
-  <si>
-    <t>construction works of LILO of Jaora â¿¿ Daloda 132kv</t>
-  </si>
-  <si>
-    <t>Akash Shrivas</t>
-  </si>
-  <si>
-    <t>9425805207</t>
-  </si>
-  <si>
-    <t>MR2602/0044</t>
-  </si>
-  <si>
-    <t>400KV_400KV Nagda Mandsaur Circuit Ist</t>
-  </si>
-  <si>
-    <t>400KV_MANDSOUR4</t>
-  </si>
-  <si>
-    <t>For Line Maintenance Work</t>
-  </si>
-  <si>
-    <t>04-02-2026 19:00:00</t>
-  </si>
-  <si>
-    <t>Gaurav Goyal</t>
-  </si>
-  <si>
-    <t>9425805120</t>
-  </si>
-  <si>
-    <t>MR2602/0045</t>
-  </si>
-  <si>
-    <t>400KV_400KV Nagda Mandsaur Circuit IInd</t>
-  </si>
-  <si>
-    <t>For Line Maintenance work</t>
-  </si>
-  <si>
-    <t>MR2602/0036</t>
-  </si>
-  <si>
-    <t>220KV_220 kv mangliya indore line</t>
-  </si>
-  <si>
-    <t>220KV_MANGLIA2</t>
-  </si>
-  <si>
-    <t>DPR relay testing work</t>
-  </si>
-  <si>
-    <t>Rambabu nagar</t>
-  </si>
-  <si>
-    <t>9425802879</t>
-  </si>
-  <si>
-    <t>MR2601/0096</t>
-  </si>
-  <si>
-    <t>400KV_Main bus-2</t>
-  </si>
-  <si>
-    <t>400KV_NAGDA4</t>
-  </si>
-  <si>
-    <t>For replacement 2 nos pantograph isolator</t>
-  </si>
-  <si>
-    <t>02-02-2026 09:00:00</t>
-  </si>
-  <si>
-    <t>Sunil Bamniya</t>
-  </si>
-  <si>
-    <t>9425820045</t>
-  </si>
-  <si>
-    <t>MR2602/0042</t>
-  </si>
-  <si>
-    <t>132KV_40 MVA BBL X-MER-I</t>
-  </si>
-  <si>
-    <t>132KV_PAWAI</t>
-  </si>
-  <si>
-    <t>Oil topping work</t>
-  </si>
-  <si>
-    <t>04-02-2026 13:00:00</t>
-  </si>
-  <si>
-    <t>04-02-2026 15:00:00</t>
-  </si>
-  <si>
-    <t>RN UPADHYAY</t>
-  </si>
-  <si>
-    <t>9425802349</t>
-  </si>
-  <si>
-    <t>MR2601/0512</t>
-  </si>
-  <si>
-    <t>400KV_400KV SSTPH-Pithampur ckt-2</t>
-  </si>
-  <si>
-    <t>400KV_PITHAMPUR4</t>
-  </si>
-  <si>
-    <t>Tower Restrengthening work on cross arm.</t>
-  </si>
-  <si>
-    <t>14-02-2026 18:00:00</t>
-  </si>
-  <si>
-    <t>Naresh Pandre</t>
-  </si>
-  <si>
-    <t>9425806905</t>
-  </si>
-  <si>
-    <t>MR2601/0499</t>
-  </si>
-  <si>
-    <t>400KV_400KV SSTPH-Pithampur ckt -1</t>
-  </si>
-  <si>
-    <t>MR2602/0037</t>
-  </si>
-  <si>
-    <t>132KV_132 kv RAMPUR-SATNA LINE</t>
-  </si>
-  <si>
-    <t>132KV_RAMPUR BAGHELAN</t>
-  </si>
-  <si>
-    <t>Sf6 gas leakage &amp; Red Hot Point Attending Work</t>
-  </si>
-  <si>
-    <t>04-02-2026 14:00:00</t>
-  </si>
-  <si>
-    <t>kk patel</t>
-  </si>
-  <si>
-    <t>9893124647</t>
-  </si>
-  <si>
-    <t>MR2601/0452</t>
-  </si>
-  <si>
-    <t>220KV_220 kv Rewa-Sidhi-Satna DCDS Line</t>
-  </si>
-  <si>
-    <t>220KV_REWA</t>
-  </si>
-  <si>
-    <t>Tower Erection Work  of Bharatmala Project</t>
-  </si>
-  <si>
-    <t>12-02-2026 18:00:00</t>
-  </si>
-  <si>
-    <t>Mr. Ajay Kumar Chaurasia</t>
-  </si>
-  <si>
-    <t>9425805081</t>
-  </si>
-  <si>
-    <t>MR2602/0011</t>
-  </si>
-  <si>
-    <t>220KV_220kv Shivpuri SeiSunshine Ckt Ist</t>
+    <t>MR2602/0046</t>
+  </si>
+  <si>
+    <t>220KV_220 KV Rewa-Sidhi Line</t>
+  </si>
+  <si>
+    <t>MR2602/0012</t>
+  </si>
+  <si>
+    <t>220KV_220kv Shivpuri SeiSunshine Ckt IInd</t>
   </si>
   <si>
     <t>220KV_SHIVPURI</t>
@@ -523,10 +379,10 @@
     <t>MPT &amp; MCT Testing workin GSS end</t>
   </si>
   <si>
-    <t>04-02-2026 16:00:00</t>
-  </si>
-  <si>
-    <t>04-02-2026 23:59:00</t>
+    <t>05-02-2026 16:00:00</t>
+  </si>
+  <si>
+    <t>05-02-2026 23:59:00</t>
   </si>
   <si>
     <t>Suraj Pawar</t>
@@ -535,67 +391,109 @@
     <t>9425814079</t>
   </si>
   <si>
-    <t>DEFERRED, WRPC CONSENT</t>
+    <t>MR2602/0052</t>
+  </si>
+  <si>
+    <t>132KV_40MVA TELK x-MER</t>
+  </si>
+  <si>
+    <t>132KV_SIDHI1</t>
+  </si>
+  <si>
+    <t>For oil topping work</t>
+  </si>
+  <si>
+    <t>05-02-2026 12:00:00</t>
+  </si>
+  <si>
+    <t>05-02-2026 14:00:00</t>
+  </si>
+  <si>
+    <t>RB Singh</t>
+  </si>
+  <si>
+    <t>9907230394</t>
+  </si>
+  <si>
+    <t>MR2602/0056</t>
+  </si>
+  <si>
+    <t>132KV_132kV Vidisha-Raisen Ckt-II</t>
+  </si>
+  <si>
+    <t>220KV_VIDISHA</t>
+  </si>
+  <si>
+    <t>For Modification/shifting work of line.</t>
+  </si>
+  <si>
+    <t>25-02-2026 18:00:00</t>
+  </si>
+  <si>
+    <t>Rajkumar Bhusare</t>
+  </si>
+  <si>
+    <t>9425820042</t>
+  </si>
+  <si>
+    <t>MR2602/0055</t>
+  </si>
+  <si>
+    <t>132KV_132kV Vidisha-Gairatganj ckt</t>
+  </si>
+  <si>
+    <t>For modification/shifing work of line.</t>
+  </si>
+  <si>
+    <t>DEFERRED, WRPC CONSENT REQUIRED</t>
   </si>
   <si>
     <t>OK THROUGH SUB LD</t>
   </si>
   <si>
+    <t>SUB LD</t>
+  </si>
+  <si>
     <t>OK</t>
   </si>
   <si>
-    <t>SUB LD</t>
-  </si>
-  <si>
-    <t>FTC TO BE COMPLETED</t>
-  </si>
-  <si>
-    <t>DEFEREED</t>
+    <t>DEFERRED DUE TO SD ON GWALIOR PG ICT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK </t>
+  </si>
+  <si>
+    <t>CONTINUE</t>
   </si>
   <si>
     <t>DEFERRED</t>
   </si>
   <si>
-    <t>DEFERRED DUE MULTIPLE OUTAGES AT SAME NODE</t>
-  </si>
-  <si>
-    <t>CONTINUE</t>
-  </si>
-  <si>
-    <t>DEFERRED, WRPC CONSENT REQUIRED</t>
-  </si>
-  <si>
     <t>OK, O&amp;M TO BE INTIMATED</t>
   </si>
   <si>
-    <t>AE TLM</t>
-  </si>
-  <si>
-    <t>JUMPER TIGHTING &amp; OTHER LINE MAINT. WORK</t>
-  </si>
-  <si>
-    <t>132KV_132 kv JULWANIYA-NIMRANI CIRCUIT-1 LINE</t>
-  </si>
-  <si>
-    <t>220KV_220kv NAGDA - NAGRA CIRCUIT-2 LINE</t>
-  </si>
-  <si>
-    <t>400KV S/S NAGDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOR CHECKING FOTE LINK </t>
-  </si>
-  <si>
-    <t>220KV-SHUJALPUR-RAJGARH-MP-2</t>
-  </si>
-  <si>
-    <t>400KV-BHOPAL-MP-ITARSI-1</t>
-  </si>
-  <si>
-    <t>220KV-KHANDWA-CHHANERA-1</t>
-  </si>
-  <si>
-    <t>220KV-INDORE-INDORE NORTH ZONE-1</t>
+    <t>DEFERRED DUE TO SD ON JABALPUR ICT</t>
+  </si>
+  <si>
+    <t>DEFERRED FROM SITE</t>
+  </si>
+  <si>
+    <t>MANDSAUR-MP - 400KV - BUS 2</t>
+  </si>
+  <si>
+    <t>400KV/220KV SATNA-ICT-2</t>
+  </si>
+  <si>
+    <t>400KV/220KV GWALIOR-ICT-3</t>
+  </si>
+  <si>
+    <t>400KV/220KV JABALPUR-ICT-2</t>
+  </si>
+  <si>
+    <t>220KV-MORENA-SABALGARH-1</t>
+  </si>
+  <si>
+    <t>220KV-SEONI-MP-SEONI-PG-1</t>
   </si>
   <si>
     <t>400KV-SINGAJI-PITHAMPUR-1</t>
@@ -604,44 +502,59 @@
     <t>400KV-SINGAJI-PITHAMPUR-2</t>
   </si>
   <si>
-    <t>220KV-ITARSI-MP-ITARSI-2</t>
+    <t>For overhead stringing of new 500MVA ICT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMP Work, Dia to be kept open at both sides.
+</t>
+  </si>
+  <si>
+    <t>AMP works, Dia to be kept open at both sides.</t>
+  </si>
+  <si>
+    <t>FOR BAY MAINTENANCE &amp; TESTING WORK AT SUBSTASTION, REPLACEMENT OF DAMAGED CLAMPS/JUMPERS ETC.</t>
+  </si>
+  <si>
+    <t>FOR LINE MAINTENANCE WORK i.e. CLEANING OF DISC INSULATORS DURING LINE PATROLLING , REPLACEMENT OF FLASHOVERED DISC INSULATORS, TREE BRANCH CUTTING ETC AT VARIOUS TOWER LOCATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOR TOWER STRENGHTING WORK AT VARIOUS LINE LOCATIONS I.E. CONE TIGHTNING &amp; STRENGTHNING, MISSING PART PROVIDING  </t>
+  </si>
+  <si>
+    <t>ok THROUGH SUB LD</t>
+  </si>
+  <si>
+    <t>DEFERRED, LOAD NOT MANAGABLE/SD ON JBP ICT 3 ALSO APPROVED</t>
+  </si>
+  <si>
+    <t>REAL TIME</t>
+  </si>
+  <si>
+    <t>DEFERRED DUE TO OUTAGE ON GWALIOR ict</t>
+  </si>
+  <si>
+    <t>DEFERRED LOAD NOT MANAGABLE UNDER N-1 CONDITION</t>
+  </si>
+  <si>
+    <t>MP_SLDC</t>
   </si>
   <si>
     <t>POWERGRID_WR2</t>
   </si>
   <si>
-    <t>MP_SLDC</t>
-  </si>
-  <si>
-    <t>SHEDULED AMP WORK OF LINE BAY EQUIPMENT 204L</t>
-  </si>
-  <si>
-    <t>FOR LINE MAINTENANCE WORK i.e. CLEANING OF DISC INSULATORS DURING LINE PATROLLING , REPLACEMENT OF FLASHOVERED DISC INSULATORS, TREE BRANCH CUTTING ETC AT VARIOUS TOWER LOCATIONS</t>
-  </si>
-  <si>
-    <t>FOR REPLACEMENT OF OLD DISC INSULATOR ON VARIOUS TOWERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOR TOWER STRENGHTING WORK AT VARIOUS LINE LOCATIONS I.E. CONE TIGHTNING &amp; STRENGTHNING, MISSING PART PROVIDING  </t>
-  </si>
-  <si>
-    <t>For rectification of Wave trap jumper and AMP works.</t>
-  </si>
-  <si>
-    <t>OK THROUGH SUB LD,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OK THROUGH SUB LD,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTINUE , </t>
-  </si>
-  <si>
-    <t>CONTINUE ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REAL TIME, </t>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>17:59</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
   </si>
 </sst>
 </file>
@@ -711,7 +624,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -786,11 +699,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -840,17 +766,23 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1199,27 +1131,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="27.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="11.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12" style="2" customWidth="1"/>
+    <col min="13" max="13" width="29.28515625" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -1245,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1259,7 +1190,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1282,7 +1213,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1321,7 +1252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -1359,10 +1290,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -1400,15 +1331,15 @@
         <v>26</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="6">
-        <v>46053.519745370373</v>
+        <v>46057.55059027778</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>29</v>
@@ -1439,34 +1370,34 @@
         <v>36</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8" s="6">
-        <v>46056.568101851852</v>
+        <v>46053.524375000001</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>42</v>
@@ -1478,10 +1409,10 @@
         <v>44</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -1510,16 +1441,16 @@
         <v>49</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="L9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="M9" s="5" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
@@ -1527,38 +1458,40 @@
         <v>6</v>
       </c>
       <c r="B10" s="6">
-        <v>46054.771168981482</v>
+        <v>46051.550810185188</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
@@ -1566,118 +1499,120 @@
         <v>7</v>
       </c>
       <c r="B11" s="6">
-        <v>46051.550810185188</v>
+        <v>46039.472916666666</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>8</v>
       </c>
       <c r="B12" s="6">
-        <v>46056.607569444444</v>
+        <v>46028.654097222221</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="E12" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>9</v>
       </c>
       <c r="B13" s="6">
-        <v>46056.615752314814</v>
+        <v>46057.555520833332</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
@@ -1685,122 +1620,120 @@
         <v>10</v>
       </c>
       <c r="B14" s="6">
-        <v>46050.577592592592</v>
+        <v>46057.570636574077</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>11</v>
       </c>
       <c r="B15" s="6">
-        <v>46054.657013888886</v>
+        <v>46052.838275462964</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>12</v>
       </c>
       <c r="B16" s="6">
-        <v>46055.494074074071</v>
+        <v>46052.636863425927</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
@@ -1808,29 +1741,31 @@
         <v>13</v>
       </c>
       <c r="B17" s="6">
-        <v>46055.740428240744</v>
+        <v>46050.722280092596</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>106</v>
@@ -1839,7 +1774,7 @@
         <v>107</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
@@ -1847,38 +1782,40 @@
         <v>14</v>
       </c>
       <c r="B18" s="6">
-        <v>46056.663483796299</v>
+        <v>46056.732858796298</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="E18" s="5" t="s">
         <v>109</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H18" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
@@ -1886,423 +1823,377 @@
         <v>15</v>
       </c>
       <c r="B19" s="6">
-        <v>46056.664652777778</v>
+        <v>46056.730243055557</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="5"/>
+        <v>112</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="E19" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>16</v>
       </c>
       <c r="B20" s="6">
-        <v>46056.575011574074</v>
+        <v>46055.431319444448</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H20" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>123</v>
-      </c>
       <c r="M20" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>17</v>
       </c>
       <c r="B21" s="6">
-        <v>46028.652187500003</v>
+        <v>46057.570891203701</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H21" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="K21" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="J21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" s="8" t="s">
+      <c r="L21" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="L21" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="M21" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>18</v>
       </c>
       <c r="B22" s="6">
-        <v>46056.620266203703</v>
+        <v>46057.622071759259</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="K22" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="K22" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="M22" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>19</v>
       </c>
       <c r="B23" s="6">
-        <v>46052.838275462964</v>
+        <v>46057.618946759256</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="M23" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="I23" s="7" t="s">
+    </row>
+    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>20</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="K24" s="17"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>21</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="17"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>22</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="K26" s="17"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
         <v>23</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="K27" s="17"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="K23" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>20</v>
-      </c>
-      <c r="B24" s="6">
-        <v>46052.636863425927</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>21</v>
-      </c>
-      <c r="B25" s="6">
-        <v>46056.57917824074</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>22</v>
-      </c>
-      <c r="B26" s="6">
-        <v>46050.722280092596</v>
-      </c>
-      <c r="C26" s="5" t="s">
+    </row>
+    <row r="28" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>24</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="F28" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="K28" s="17"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>25</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>23</v>
-      </c>
-      <c r="B27" s="6">
-        <v>46055.428356481483</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5" t="s">
+      <c r="F29" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="L27" s="9" t="s">
+      <c r="I29" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="K29" s="17"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="M27" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>24</v>
-      </c>
-      <c r="B28" s="6">
-        <v>46056.57917824074</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J28" s="7">
-        <v>46057.666666666664</v>
-      </c>
-      <c r="K28" s="8"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>25</v>
-      </c>
-      <c r="B29" s="6">
-        <v>46056.57917824074</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" s="7">
-        <v>46057.666666666664</v>
-      </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>26</v>
       </c>
@@ -2310,28 +2201,24 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="16" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="K30" s="18"/>
+        <v>164</v>
+      </c>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="17"/>
       <c r="L30" s="19"/>
-      <c r="M30" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="M30" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>27</v>
       </c>
@@ -2339,170 +2226,21 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="16" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="K31" s="18"/>
+        <v>164</v>
+      </c>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="17"/>
       <c r="L31" s="19"/>
-      <c r="M31" s="20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
-        <v>28</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="I32" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J32" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="K32" s="18"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
-        <v>29</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="I33" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J33" s="17">
-        <v>46057.75</v>
-      </c>
-      <c r="K33" s="18"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
-        <v>30</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="K34" s="18"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="20" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
-        <v>31</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="K35" s="18"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="20" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
-        <v>32</v>
-      </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="G36" s="14"/>
-      <c r="H36" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J36" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="K36" s="18"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="20" t="s">
-        <v>205</v>
+      <c r="M31" s="22" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__bookmark_1">Report!$A$1:$M$23</definedName>
+    <definedName name="__bookmark_1">Report!$A$1:$M$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="206">
   <si>
     <t>STATE LOAD DESPATCH CENTRE 
 Madhya Pradesh Power Transmission Company Limited, Jabalpur</t>
@@ -103,7 +103,10 @@
     <t>Jitendra Tiwari</t>
   </si>
   <si>
-    <t>Deferred</t>
+    <t>9425805298</t>
+  </si>
+  <si>
+    <t>deferred</t>
   </si>
   <si>
     <t>MR2601/0381</t>
@@ -112,6 +115,78 @@
     <t>220KV_220 kV Anuppur-Kotmikala Circuit II</t>
   </si>
   <si>
+    <t>MR2602/0098</t>
+  </si>
+  <si>
+    <t>220KV_220 kv ashta- shajapur ckt no .1</t>
+  </si>
+  <si>
+    <t>400KV_ASHTA4</t>
+  </si>
+  <si>
+    <t>DPR Relay testing work</t>
+  </si>
+  <si>
+    <t>09-02-2026 10:00:00</t>
+  </si>
+  <si>
+    <t>09-02-2026 17:00:00</t>
+  </si>
+  <si>
+    <t>Jitendra lohana</t>
+  </si>
+  <si>
+    <t>9425804978</t>
+  </si>
+  <si>
+    <t>ok, through sub ld</t>
+  </si>
+  <si>
+    <t>MR2602/0092</t>
+  </si>
+  <si>
+    <t>132KV_132KV Badnagar-Depalpur line</t>
+  </si>
+  <si>
+    <t>220KV_BADNAGAR</t>
+  </si>
+  <si>
+    <t>Line Maintenance work</t>
+  </si>
+  <si>
+    <t>09-02-2026 18:00:00</t>
+  </si>
+  <si>
+    <t>Kamal solanki</t>
+  </si>
+  <si>
+    <t>9425805262</t>
+  </si>
+  <si>
+    <t>sub ld</t>
+  </si>
+  <si>
+    <t>MR2601/0523</t>
+  </si>
+  <si>
+    <t>220KV_220kv badnawar-kanwan ckt-1</t>
+  </si>
+  <si>
+    <t>400KV_BADNAWAR</t>
+  </si>
+  <si>
+    <t>for bay maintenance and testing work</t>
+  </si>
+  <si>
+    <t>09-02-2026 08:00:00</t>
+  </si>
+  <si>
+    <t>ER.Abhishek verma</t>
+  </si>
+  <si>
+    <t>9340855901</t>
+  </si>
+  <si>
     <t>MR2601/0461</t>
   </si>
   <si>
@@ -133,7 +208,100 @@
     <t>Satish Kumar Bhagat</t>
   </si>
   <si>
-    <t>ok, through sub ld</t>
+    <t>9425806916</t>
+  </si>
+  <si>
+    <t>MR2602/0096</t>
+  </si>
+  <si>
+    <t>132KV_50MVA X-mer No-2 TAL</t>
+  </si>
+  <si>
+    <t>132KV_BISNOOR</t>
+  </si>
+  <si>
+    <t>Air release and load taken work</t>
+  </si>
+  <si>
+    <t>09-02-2026 11:00:00</t>
+  </si>
+  <si>
+    <t>09-02-2026 14:00:00</t>
+  </si>
+  <si>
+    <t>Sanjay kumar pawar</t>
+  </si>
+  <si>
+    <t>9425656425</t>
+  </si>
+  <si>
+    <t>ok, pl check if any formality shall not be pending</t>
+  </si>
+  <si>
+    <t>MR2602/0074</t>
+  </si>
+  <si>
+    <t>220KV_220kV Chhegaon â¿¿ Nimrani Ckt-2nd</t>
+  </si>
+  <si>
+    <t>400KV_CHHEGAON4</t>
+  </si>
+  <si>
+    <t>NON-OCCM-WR</t>
+  </si>
+  <si>
+    <t>For Jumper Tightening &amp; Other Line Maintenance wor</t>
+  </si>
+  <si>
+    <t>09-02-2026 16:00:00</t>
+  </si>
+  <si>
+    <t>M.K.More</t>
+  </si>
+  <si>
+    <t>9425805258</t>
+  </si>
+  <si>
+    <t>MR2602/0095</t>
+  </si>
+  <si>
+    <t>132KV_132KV SOUTHZONE - ELECTRONIC COMPLEX LINE</t>
+  </si>
+  <si>
+    <t>132KV_E.COMPLEX INDORE</t>
+  </si>
+  <si>
+    <t>CONDUCTOR REPLACEMENT  WORK AND OTHER MAINTANANCE</t>
+  </si>
+  <si>
+    <t>09-02-2026 07:00:00</t>
+  </si>
+  <si>
+    <t>09-02-2026 17:30:00</t>
+  </si>
+  <si>
+    <t>RAVINDRA PATIL</t>
+  </si>
+  <si>
+    <t>9425801598</t>
+  </si>
+  <si>
+    <t>MR2602/0084</t>
+  </si>
+  <si>
+    <t>132KV_GANJBASODA-MEHALUA CHAURAHA_Ckt</t>
+  </si>
+  <si>
+    <t>220KV_GANJBASODA</t>
+  </si>
+  <si>
+    <t>CT CLAMP HOT POINT</t>
+  </si>
+  <si>
+    <t>AE220KV GANJBASODA</t>
+  </si>
+  <si>
+    <t>8827199524</t>
   </si>
   <si>
     <t>MR2601/0438</t>
@@ -157,58 +325,43 @@
     <t>M.M. Baig</t>
   </si>
   <si>
+    <t>9425805067</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>MR2602/0072</t>
-  </si>
-  <si>
-    <t>132KV_132 KV CHAMBAL-SATYASAI LINE</t>
+    <t>MR2602/0093</t>
+  </si>
+  <si>
+    <t>132KV_132 KV CHAMBAL-SATYASAI</t>
   </si>
   <si>
     <t>132KV_INDORE CHAMBAL</t>
   </si>
   <si>
-    <t>CONDUCTOR REPLACEMENT  WORK AND OTHER MAINTANANCE</t>
-  </si>
-  <si>
-    <t>07-02-2026 07:00:00</t>
-  </si>
-  <si>
-    <t>08-02-2026 17:30:00</t>
-  </si>
-  <si>
-    <t>RAVINDRA PATIL</t>
-  </si>
-  <si>
-    <t>sub ld</t>
-  </si>
-  <si>
-    <t>MR2602/0083</t>
-  </si>
-  <si>
-    <t>132KV_33 kv Half main bus and 40 mva ABB x-mer</t>
-  </si>
-  <si>
-    <t>132KV_KATNI</t>
-  </si>
-  <si>
-    <t>additional  40 mva new BBL X-mer high bus stringin</t>
-  </si>
-  <si>
-    <t>08-02-2026 08:00:00</t>
-  </si>
-  <si>
-    <t>08-02-2026 20:00:00</t>
-  </si>
-  <si>
-    <t>Abhishek Mishra</t>
-  </si>
-  <si>
-    <t>MR2602/0029</t>
-  </si>
-  <si>
-    <t>400KV_400 KV Main Bus-2</t>
+    <t>MR2602/0091</t>
+  </si>
+  <si>
+    <t>132KV_132 kV Maihar â¿¿ Kymore Ckt-Ist</t>
+  </si>
+  <si>
+    <t>220KV_MAIHAR</t>
+  </si>
+  <si>
+    <t>Line maintenance work</t>
+  </si>
+  <si>
+    <t>Mr. R.K.Prajapati</t>
+  </si>
+  <si>
+    <t>9425805161</t>
+  </si>
+  <si>
+    <t>MR2602/0030</t>
+  </si>
+  <si>
+    <t>400KV_400 KV Main Bus - 1</t>
   </si>
   <si>
     <t>400KV_MANDSOUR4</t>
@@ -217,196 +370,205 @@
     <t>Overhead Stringing &amp; Jumper works</t>
   </si>
   <si>
-    <t>08-02-2026 10:00:00</t>
-  </si>
-  <si>
-    <t>08-02-2026 16:00:00</t>
-  </si>
-  <si>
     <t>J.P. Parmar</t>
   </si>
   <si>
-    <t>Not in WR list</t>
-  </si>
-  <si>
-    <t>MR2602/0088</t>
-  </si>
-  <si>
-    <t>50MVA_132/33KV_BBL_X'mer_3</t>
-  </si>
-  <si>
-    <t>132KV_MORWA</t>
-  </si>
-  <si>
-    <t>33kv main bus  damaged conductor replacement work</t>
-  </si>
-  <si>
-    <t>08-02-2026 09:00:00</t>
-  </si>
-  <si>
-    <t>08-02-2026 17:00:00</t>
-  </si>
-  <si>
-    <t>S.B.Singh</t>
-  </si>
-  <si>
-    <t>MR2602/0081</t>
-  </si>
-  <si>
-    <t>220KV_160 BBL TRANSFORMER</t>
-  </si>
-  <si>
-    <t>220KV_PITHAMPUR-II (SEC-I)</t>
-  </si>
-  <si>
-    <t>NON-OCCM-WR</t>
-  </si>
-  <si>
-    <t>For identify OIL leakage from body</t>
-  </si>
-  <si>
-    <t>08-02-2026 13:00:00</t>
-  </si>
-  <si>
-    <t>RAJU DASH BAIRAGI</t>
+    <t>9425806919</t>
+  </si>
+  <si>
+    <t>ok, through sub ld, WRLDC code to be taken</t>
+  </si>
+  <si>
+    <t>MR2602/0104</t>
+  </si>
+  <si>
+    <t>132KV_132KV 40 MVA TELK X-mer NO- I</t>
+  </si>
+  <si>
+    <t>132KV_NARSINGHPUR1</t>
+  </si>
+  <si>
+    <t>Equipment Painting work</t>
+  </si>
+  <si>
+    <t>Rajesh Kumar Chaturvedi</t>
+  </si>
+  <si>
+    <t>9425280520</t>
+  </si>
+  <si>
+    <t>o&amp;m consent required</t>
+  </si>
+  <si>
+    <t>MR2602/0100</t>
+  </si>
+  <si>
+    <t>132KV_40 MVA BHEL X-mer no-II</t>
+  </si>
+  <si>
+    <t>9425805203</t>
+  </si>
+  <si>
+    <t>MR2602/0105</t>
+  </si>
+  <si>
+    <t>132KV_132KV Shrinagar line</t>
+  </si>
+  <si>
+    <t>CT replacement work</t>
+  </si>
+  <si>
+    <t>09-02-2026 09:00:00</t>
+  </si>
+  <si>
+    <t>shall be given after 11 hrs, o&amp;m of shahpura and shrinagar to be informed for any emergency loading required during s/d period</t>
+  </si>
+  <si>
+    <t>MR2601/0512</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>400KV_400KV SSTPH-Pithampur ckt-2</t>
+  </si>
+  <si>
+    <t>400KV_PITHAMPUR4</t>
+  </si>
+  <si>
+    <t>Tower Restrengthening work on cross arm.</t>
+  </si>
+  <si>
+    <t>14-02-2026 18:00:00</t>
+  </si>
+  <si>
+    <t>Naresh Pandre</t>
+  </si>
+  <si>
+    <t>9425806905</t>
+  </si>
+  <si>
+    <t>MR2601/0499</t>
+  </si>
+  <si>
+    <t>400KV_400KV SSTPH-Pithampur ckt -1</t>
+  </si>
+  <si>
+    <t>MR2601/0452</t>
+  </si>
+  <si>
+    <t>220KV_220 kv Rewa-Sidhi-Satna DCDS Line</t>
+  </si>
+  <si>
+    <t>220KV_REWA</t>
+  </si>
+  <si>
+    <t>Tower Erection Work  of Bharatmala Project</t>
+  </si>
+  <si>
+    <t>02-02-2026 09:00:00</t>
+  </si>
+  <si>
+    <t>12-02-2026 18:00:00</t>
+  </si>
+  <si>
+    <t>Mr. Ajay Kumar Chaurasia</t>
+  </si>
+  <si>
+    <t>9425805081</t>
+  </si>
+  <si>
+    <t>deferred due to Satna PG ICT outage</t>
+  </si>
+  <si>
+    <t>MR2602/0097</t>
+  </si>
+  <si>
+    <t>220KV_220 kv Rewa-Tons DCDS line</t>
+  </si>
+  <si>
+    <t>flashover disc insulator  string replacement</t>
+  </si>
+  <si>
+    <t>MR2602/0048</t>
+  </si>
+  <si>
+    <t>220KV_220kv Rewa Satna line</t>
+  </si>
+  <si>
+    <t>Tower Erection work</t>
+  </si>
+  <si>
+    <t>04-02-2026 09:00:00</t>
+  </si>
+  <si>
+    <t>MR2602/0047</t>
+  </si>
+  <si>
+    <t>220KV_220 KV Rewa-Sidhi Line</t>
+  </si>
+  <si>
+    <t>MR2602/0094</t>
+  </si>
+  <si>
+    <t>220KV_220KV Bargawan(TBCB)- Hindalco Circuit.-I</t>
+  </si>
+  <si>
+    <t>220KV_SIDHI</t>
+  </si>
+  <si>
+    <t>220 kV Switchyard  equipment CT &amp;  CVT for Bay 204</t>
+  </si>
+  <si>
+    <t>G.L Sahu</t>
+  </si>
+  <si>
+    <t>9425805102</t>
+  </si>
+  <si>
+    <t>MR2602/0099</t>
+  </si>
+  <si>
+    <t>220KV_160 MVA 3rd cgl-make Transformer</t>
+  </si>
+  <si>
+    <t>220KV_TIKAMGARH</t>
+  </si>
+  <si>
+    <t>Oil leakage attend</t>
+  </si>
+  <si>
+    <t>Pushpendra kumar soni</t>
+  </si>
+  <si>
+    <t>9425806398</t>
   </si>
   <si>
     <t>real time</t>
   </si>
   <si>
-    <t>MR2601/0512</t>
-  </si>
-  <si>
-    <t>Continuous</t>
-  </si>
-  <si>
-    <t>400KV_400KV SSTPH-Pithampur ckt-2</t>
-  </si>
-  <si>
-    <t>400KV_PITHAMPUR4</t>
-  </si>
-  <si>
-    <t>Tower Restrengthening work on cross arm.</t>
-  </si>
-  <si>
-    <t>14-02-2026 18:00:00</t>
-  </si>
-  <si>
-    <t>Naresh Pandre</t>
-  </si>
-  <si>
-    <t>MR2601/0499</t>
-  </si>
-  <si>
-    <t>400KV_400KV SSTPH-Pithampur ckt -1</t>
-  </si>
-  <si>
-    <t>MR2601/0452</t>
-  </si>
-  <si>
-    <t>220KV_220 kv Rewa-Sidhi-Satna DCDS Line</t>
-  </si>
-  <si>
-    <t>220KV_REWA</t>
-  </si>
-  <si>
-    <t>Tower Erection Work  of Bharatmala Project</t>
-  </si>
-  <si>
-    <t>02-02-2026 09:00:00</t>
-  </si>
-  <si>
-    <t>12-02-2026 18:00:00</t>
-  </si>
-  <si>
-    <t>Mr. Ajay Kumar Chaurasia</t>
-  </si>
-  <si>
-    <t>MR2602/0048</t>
-  </si>
-  <si>
-    <t>220KV_220kv Rewa Satna line</t>
-  </si>
-  <si>
-    <t>Tower Erection work</t>
-  </si>
-  <si>
-    <t>04-02-2026 09:00:00</t>
-  </si>
-  <si>
-    <t>MR2602/0047</t>
-  </si>
-  <si>
-    <t>220KV_220 KV Rewa-Sidhi Line</t>
-  </si>
-  <si>
-    <t>MR2602/0082</t>
-  </si>
-  <si>
-    <t>33KV_33KV half main bus section-2</t>
-  </si>
-  <si>
-    <t>132KV_SEONI1</t>
-  </si>
-  <si>
-    <t>33kvbus coupler damage main bus isolalor maint.</t>
-  </si>
-  <si>
-    <t>08-02-2026 12:00:00</t>
-  </si>
-  <si>
-    <t>08-02-2026 15:00:00</t>
-  </si>
-  <si>
-    <t>Ramkumar Meshram</t>
-  </si>
-  <si>
-    <t>ok, for x-mer</t>
-  </si>
-  <si>
-    <t>MR2602/0090</t>
-  </si>
-  <si>
-    <t>132KV_132/33KV 40MVA TELK X-MER</t>
-  </si>
-  <si>
-    <t>132KV_SIDHI1</t>
-  </si>
-  <si>
-    <t>X-MER AIR RELEASE WORK</t>
-  </si>
-  <si>
-    <t>SHRI R B SINGH</t>
-  </si>
-  <si>
-    <t>MR2602/0087</t>
-  </si>
-  <si>
-    <t>132KV_132kV Vidisha Shamsabad line</t>
+    <t>MR2602/0056</t>
+  </si>
+  <si>
+    <t>132KV_132kV Vidisha-Raisen Ckt-II</t>
   </si>
   <si>
     <t>220KV_VIDISHA</t>
   </si>
   <si>
-    <t>For modification/shifting work of line.</t>
+    <t>For Modification/shifting work of line.</t>
+  </si>
+  <si>
+    <t>05-02-2026 09:00:00</t>
+  </si>
+  <si>
+    <t>25-02-2026 18:00:00</t>
   </si>
   <si>
     <t>Rajkumar Bhusare</t>
   </si>
   <si>
-    <t>MR2602/0056</t>
-  </si>
-  <si>
-    <t>132KV_132kV Vidisha-Raisen Ckt-II</t>
-  </si>
-  <si>
-    <t>For Modification/shifting work of line.</t>
-  </si>
-  <si>
-    <t>05-02-2026 09:00:00</t>
-  </si>
-  <si>
-    <t>25-02-2026 18:00:00</t>
+    <t>9425820042</t>
   </si>
   <si>
     <t>MR2602/0055</t>
@@ -418,14 +580,68 @@
     <t>For modification/shifing work of line.</t>
   </si>
   <si>
-    <t>SIGNATURE EE  SHIFT INCHARGE,
-MP-SLDC</t>
-  </si>
-  <si>
-    <t>SIGNATUREAE</t>
-  </si>
-  <si>
-    <t>APPROVED OUTAGE LIST FOR DTD.08.02.26</t>
+    <t>MANDSAUR-MP - 400KV - BUS 2</t>
+  </si>
+  <si>
+    <t>220KV-SATNA-MP-SATNA-2</t>
+  </si>
+  <si>
+    <t>KHANDWA - 400KV - BUS 1</t>
+  </si>
+  <si>
+    <t>400KV/220KV SATNA-ICT-1</t>
+  </si>
+  <si>
+    <t>SEONI-PG - 220KV - BUS 1</t>
+  </si>
+  <si>
+    <t>For overhead stringing of new 500MVA ICT</t>
+  </si>
+  <si>
+    <t>FOR LINE MAINTENANCE WORK i.e. CLEANING OF DISC INSULATORS DURING LINE PATROLLING , REPLACEMENT OF FLASHOVERED DISC INSULATORS, TREE BRANCH CUTTING ETC AT VARIOUS TOWER LOCATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schedule Bus AMP Work. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMP Work, Dia to be kept open at both sides.
+</t>
+  </si>
+  <si>
+    <t>For AMP work @ Seoni SS</t>
+  </si>
+  <si>
+    <t>09-Feb-2026</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>17:59</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>real time, shall be given after load management</t>
+  </si>
+  <si>
+    <t>OCCM-WR</t>
+  </si>
+  <si>
+    <t>S/I ,SLDC MPPTCL JBP.</t>
+  </si>
+  <si>
+    <t>APPROVED OUTAGE LIST FOR DTD.09.02.2026</t>
   </si>
 </sst>
 </file>
@@ -435,7 +651,7 @@
   <numFmts count="1">
     <numFmt numFmtId="168" formatCode="[$-809]dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -573,18 +789,21 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -606,17 +825,11 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="16"/>
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -806,7 +1019,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,27 +1236,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1061,9 +1256,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1072,6 +1264,30 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1082,19 +1298,15 @@
     <xf numFmtId="0" fontId="23" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1416,951 +1628,1504 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:AE42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="40.85546875" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" customWidth="1"/>
+    <col min="9" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="42" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="3"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:13" ht="42" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>46061</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
+      <c r="B2" s="21">
+        <v>46062</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="42" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" s="24" customFormat="1" ht="42" customHeight="1">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:13" ht="42" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="J4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="K4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A5" s="9">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="4">
         <v>46045.7030787037</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="9" t="s">
+      <c r="I5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="J5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="K5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="L5" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="M5" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A6" s="9">
-        <f t="shared" ref="A6:A23" si="0">A5+1</f>
+      <c r="A6" s="3">
+        <f t="shared" ref="A6:A36" si="0">A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="4">
         <v>46045.703703703701</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="7" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A7" s="9">
+      <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="10">
-        <v>46051.550810185188</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="B7" s="4">
+        <v>46061.6403125</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="9" t="s">
+      <c r="H7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="I7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="J7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="K7" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="L7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A8" s="9">
+      <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="10">
-        <v>46050.577592592592</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="B8" s="4">
+        <v>46061.553541666668</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="9" t="s">
+      <c r="H8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="I8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="K8" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="L8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A9" s="9">
+      <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="10">
-        <v>46058.679120370369</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="B9" s="4">
+        <v>46053.536076388889</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="9" t="s">
+      <c r="H9" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="I9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="J9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>52</v>
       </c>
+      <c r="L9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A10" s="9">
+      <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="10">
-        <v>46060.541817129626</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
+      <c r="B10" s="4">
+        <v>46051.550810185188</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="9" t="s">
+      <c r="H10" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="I10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="J10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>44</v>
+      <c r="K10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A11" s="9">
+      <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="10">
-        <v>46055.72383101852</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="B11" s="4">
+        <v>46061.637627314813</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="9" t="s">
+      <c r="H11" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="I11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="J11" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="K11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A12" s="9">
+      <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="10">
-        <v>46060.652881944443</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="B12" s="4">
+        <v>46059.510914351849</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="9" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="F12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="G12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M12" s="9" t="s">
-        <v>44</v>
+      <c r="H12" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A13" s="9">
+      <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="10">
-        <v>46060.486712962964</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="B13" s="4">
+        <v>46061.631909722222</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="9" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="13" t="s">
+      <c r="F13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="G13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>82</v>
       </c>
+      <c r="I13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A14" s="9">
+      <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="10">
-        <v>46052.838275462964</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="B14" s="4">
+        <v>46060.588356481479</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>84</v>
+      <c r="H14" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A15" s="9">
+      <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="10">
-        <v>46052.636863425927</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="9" t="s">
+      <c r="B15" s="4">
+        <v>46050.577592592592</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>84</v>
+      <c r="H15" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A16" s="9">
+      <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="10">
-        <v>46050.722280092596</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="9" t="s">
+      <c r="B16" s="4">
+        <v>46061.630219907405</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>26</v>
+      <c r="H16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A17" s="9">
+      <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="10">
-        <v>46056.732858796298</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="9" t="s">
+      <c r="B17" s="4">
+        <v>46061.539155092592</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="18" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A18" s="9">
+      <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="10">
-        <v>46056.730370370373</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="9" t="s">
+      <c r="B18" s="4">
+        <v>46055.727754629632</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>26</v>
+      <c r="H18" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A19" s="9">
+      <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="10">
-        <v>46060.506226851852</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="9" t="s">
+      <c r="B19" s="4">
+        <v>46061.681134259263</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>112</v>
+      <c r="H19" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A20" s="9">
+      <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="10">
-        <v>46060.771412037036</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="9" t="s">
+      <c r="B20" s="4">
+        <v>46061.678078703706</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A21" s="9">
+      <c r="H20" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="51" customHeight="1">
+      <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="10">
-        <v>46060.651504629626</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="B21" s="4">
+        <v>46061.685023148151</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="L21" s="13" t="s">
+      <c r="H21" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="M21" s="9" t="s">
-        <v>52</v>
+      <c r="L21" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A22" s="9">
+      <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="10">
-        <v>46057.622071759259</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" s="9" t="s">
+      <c r="B22" s="4">
+        <v>46052.838275462964</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>52</v>
+      <c r="H22" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A23" s="9">
+      <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="4">
+        <v>46052.636863425927</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="38.25" customHeight="1">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="4">
+        <v>46050.722280092596</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="38.25" customHeight="1">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="4">
+        <v>46061.638101851851</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="38.25" customHeight="1">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="4">
+        <v>46056.732858796298</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="38.25" customHeight="1">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="4">
+        <v>46056.730370370373</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="38.25" customHeight="1">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="4">
+        <v>46061.630844907406</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="38.25" customHeight="1">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="4">
+        <v>46061.647881944446</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="38.25" customHeight="1">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="4">
+        <v>46057.622071759259</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="38.25" customHeight="1">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="4">
         <v>46057.618946759256</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="9" t="s">
+      <c r="C31" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-    </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1">
-      <c r="A26" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
+      <c r="H31" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="36" customHeight="1">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="4">
+        <v>46057.618946759256</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" ht="36" customHeight="1">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="4">
+        <v>46057.618946759256</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" ht="36" customHeight="1">
+      <c r="A34" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="4">
+        <v>46057.618946759256</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" ht="36" customHeight="1">
+      <c r="A35" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="4">
+        <v>46057.618946759256</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" ht="36" customHeight="1">
+      <c r="A36" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="4">
+        <v>46057.618946759256</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" ht="22.5" customHeight="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" ht="15" customHeight="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:31" ht="15" customHeight="1">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="1:31" ht="15" customHeight="1">
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+    </row>
+    <row r="41" spans="1:31" ht="15" customHeight="1">
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+    </row>
+    <row r="42" spans="1:31" ht="15" customHeight="1">
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="9"/>
+      <c r="AC42" s="9"/>
+      <c r="AD42" s="9"/>
+      <c r="AE42" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="I24:M24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="I25:M25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="I26:M26"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C2:M2"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="E2:K2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -1536,7 +1536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>

--- a/1.xlsx
+++ b/1.xlsx
@@ -1135,18 +1135,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1187,6 +1175,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1536,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,20 +1559,20 @@
   <sheetData>
     <row r="1" spans="1:13" ht="43.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="12"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1647,10 +1647,10 @@
       <c r="J4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="12"/>
+      <c r="L4" s="26"/>
       <c r="M4" s="4" t="s">
         <v>16</v>
       </c>
@@ -3781,277 +3781,277 @@
       <c r="L58" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="M58" s="26" t="s">
+      <c r="M58" s="22" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="17">
+      <c r="A59" s="13">
         <v>55</v>
       </c>
-      <c r="B59" s="18">
+      <c r="B59" s="14">
         <v>46079.527824074074</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="23" t="s">
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="23" t="s">
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="I59" s="20" t="s">
+      <c r="I59" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="J59" s="20" t="s">
+      <c r="J59" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K59" s="21"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="27" t="s">
+      <c r="K59" s="17"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="23" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A60" s="17">
+      <c r="A60" s="13">
         <v>56</v>
       </c>
-      <c r="B60" s="18">
+      <c r="B60" s="14">
         <v>46079.527824074074</v>
       </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="19" t="s">
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="19" t="s">
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="I60" s="20" t="s">
+      <c r="I60" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="J60" s="20" t="s">
+      <c r="J60" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K60" s="22"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="27" t="s">
+      <c r="K60" s="18"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="23" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A61" s="17">
+      <c r="A61" s="13">
         <v>57</v>
       </c>
-      <c r="B61" s="18">
+      <c r="B61" s="14">
         <v>46079</v>
       </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="19" t="s">
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="19" t="s">
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="I61" s="20" t="s">
+      <c r="I61" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="J61" s="20" t="s">
+      <c r="J61" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="K61" s="22"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="27" t="s">
+      <c r="K61" s="18"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="23" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A62" s="17">
+      <c r="A62" s="13">
         <v>58</v>
       </c>
-      <c r="B62" s="18">
+      <c r="B62" s="14">
         <v>46079</v>
       </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="19" t="s">
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="19" t="s">
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="I62" s="20" t="s">
+      <c r="I62" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="J62" s="20" t="s">
+      <c r="J62" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="K62" s="22"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="27" t="s">
+      <c r="K62" s="18"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="23" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A63" s="17">
+      <c r="A63" s="13">
         <v>59</v>
       </c>
-      <c r="B63" s="18">
+      <c r="B63" s="14">
         <v>46079</v>
       </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="19" t="s">
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="19" t="s">
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="I63" s="20" t="s">
+      <c r="I63" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="J63" s="20" t="s">
+      <c r="J63" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K63" s="22"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="27" t="s">
+      <c r="K63" s="18"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="23" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A64" s="17">
+      <c r="A64" s="13">
         <v>60</v>
       </c>
-      <c r="B64" s="18">
+      <c r="B64" s="14">
         <v>46079</v>
       </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="19" t="s">
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="19" t="s">
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="I64" s="20" t="s">
+      <c r="I64" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="J64" s="20" t="s">
+      <c r="J64" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="K64" s="22"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="27" t="s">
+      <c r="K64" s="18"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="23" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="17">
+      <c r="A65" s="13">
         <v>61</v>
       </c>
-      <c r="B65" s="18">
+      <c r="B65" s="14">
         <v>46079</v>
       </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="19" t="s">
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="19" t="s">
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="I65" s="20" t="s">
+      <c r="I65" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J65" s="20" t="s">
+      <c r="J65" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K65" s="22"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="27" t="s">
+      <c r="K65" s="18"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="23" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A66" s="17">
+      <c r="A66" s="13">
         <v>62</v>
       </c>
-      <c r="B66" s="18">
+      <c r="B66" s="14">
         <v>46079</v>
       </c>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="19" t="s">
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="19" t="s">
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="27" t="s">
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="23" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A67" s="17">
+      <c r="A67" s="13">
         <v>63</v>
       </c>
-      <c r="B67" s="18">
+      <c r="B67" s="14">
         <v>46079</v>
       </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="19" t="s">
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="19" t="s">
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="27" t="s">
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="23" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
